--- a/smart_grid_simulation/src/methods/rate_schedule.xlsx
+++ b/smart_grid_simulation/src/methods/rate_schedule.xlsx
@@ -442,7207 +442,7207 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.1532190737912</v>
+        <v>2.905452316857921</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.631546142985497</v>
+        <v>2.688641132467337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.798238153395363</v>
+        <v>2.821369821608671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.568311724840605</v>
+        <v>2.651303858510317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.557827562338807</v>
+        <v>2.869263897109767</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.837077503836989</v>
+        <v>2.460042259577639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.045415651257253</v>
+        <v>2.975172527059165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.427157995537876</v>
+        <v>2.896343498278814</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.134984456402204</v>
+        <v>2.822257621698275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.510303801282986</v>
+        <v>2.578750460458145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.156433704489389</v>
+        <v>2.005900198115503</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.758339490793551</v>
+        <v>2.578214314310075</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.935610589998177</v>
+        <v>2.981674318692407</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.684539189819755</v>
+        <v>2.835913240979119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7.266335525219266</v>
+        <v>2.601633778979699</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.304548850127395</v>
+        <v>2.402740146359086</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.605451561260413</v>
+        <v>2.832919461052176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.530809180642766</v>
+        <v>2.267882674125869</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.176939156354283</v>
+        <v>2.848822315676561</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.071188342889714</v>
+        <v>2.335064685286247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.278309594223512</v>
+        <v>2.489808779343359</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7.191145422229384</v>
+        <v>2.147251650868471</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.680341794295738</v>
+        <v>2.01332027385526</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.28592461968605</v>
+        <v>2.597503864111947</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.001164919758468</v>
+        <v>2.639434130055566</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.8733610013338</v>
+        <v>2.30802716180412</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.594889181819625</v>
+        <v>2.836408341228334</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.263649371897534</v>
+        <v>2.520075967394891</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.808425603577327</v>
+        <v>2.565007073887097</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.937818053361902</v>
+        <v>2.721683995813127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.172543055445845</v>
+        <v>2.286394450365916</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.868653419799868</v>
+        <v>2.230661089873539</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.367673426280954</v>
+        <v>2.099118752377997</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.791940439967467</v>
+        <v>2.460766332804558</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.360421676209471</v>
+        <v>2.325046347262383</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.546511885714271</v>
+        <v>2.445906779775089</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.464436485606488</v>
+        <v>2.78090394666453</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7.202475826689831</v>
+        <v>2.919261174495639</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6.285708421354145</v>
+        <v>2.872750514968692</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.044743728038781</v>
+        <v>2.457131435855689</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7.080397082674818</v>
+        <v>2.80804565159941</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.899651135323849</v>
+        <v>2.221291870811042</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7.255007676397104</v>
+        <v>2.861487743159997</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7.485334824437904</v>
+        <v>2.369877880354407</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.264395905259795</v>
+        <v>2.652100307201621</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.586544397932849</v>
+        <v>2.322390333695415</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.507853351229346</v>
+        <v>2.440838538262717</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7.202378130795459</v>
+        <v>2.423938904261989</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7.082962235718478</v>
+        <v>2.848848858511189</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6.148997367193548</v>
+        <v>2.886799566871744</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.956837471512281</v>
+        <v>2.804495657079988</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7.456938333158307</v>
+        <v>2.204182309778947</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.033257947189137</v>
+        <v>2.806376100492126</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6.171465003215077</v>
+        <v>2.924858609726383</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.798319836506631</v>
+        <v>2.858977986889175</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7.029573509125468</v>
+        <v>2.288507598997646</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.75905183751771</v>
+        <v>2.600696711366386</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6.482244386259149</v>
+        <v>2.038086339920143</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7.388973460129372</v>
+        <v>2.121083418867048</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.308242566310688</v>
+        <v>2.650489721012715</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.054052379787124</v>
+        <v>2.949110132104511</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7.226333951220825</v>
+        <v>2.92893313988943</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.010530953489609</v>
+        <v>2.577262339979202</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.126274156770794</v>
+        <v>2.721917106018351</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6.396405843527059</v>
+        <v>2.638100219922107</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7.439971255969777</v>
+        <v>2.087094683091829</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6.775771267193434</v>
+        <v>2.997355358834255</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.104611798002576</v>
+        <v>2.642216329099552</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.057441060424709</v>
+        <v>2.339867407276771</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.09786752180276</v>
+        <v>2.400746080475601</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.081067669826532</v>
+        <v>2.048422683332464</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5.558398403242382</v>
+        <v>2.736953638198161</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5.39292723209093</v>
+        <v>2.650068252825974</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5.1688560946205</v>
+        <v>2.116124584495422</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5.815154271333984</v>
+        <v>2.584182657861244</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6.095884587365602</v>
+        <v>2.607293358300044</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>6.852956970501327</v>
+        <v>2.405079945971912</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6.678761270825833</v>
+        <v>2.733063308520089</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5.024161830715705</v>
+        <v>2.080212928298084</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7.304688314877875</v>
+        <v>2.400570695564679</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6.072457449239089</v>
+        <v>2.856588697887672</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5.020447451149778</v>
+        <v>2.087026274884775</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>6.119638473246982</v>
+        <v>2.525018730105816</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5.328726950448004</v>
+        <v>2.059620948413932</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6.739843836559985</v>
+        <v>2.298923153683815</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6.724139826569843</v>
+        <v>2.487718558665349</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6.170150037851682</v>
+        <v>2.271616557712121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5.946312846485404</v>
+        <v>2.022820204948684</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5.091633626408735</v>
+        <v>2.382019931225893</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>7.390005653805955</v>
+        <v>2.383231285215158</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6.902595505408743</v>
+        <v>2.711446723010857</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6.736652904114388</v>
+        <v>2.128853222637851</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5.179108332571982</v>
+        <v>2.633945336092219</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>6.360789256766672</v>
+        <v>2.709849550453959</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5.403560213203502</v>
+        <v>2.376741123865258</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>6.793427682574817</v>
+        <v>2.291054570460847</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5.707369522850697</v>
+        <v>2.392903885314336</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5.132747237723238</v>
+        <v>2.730481147425841</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5.55872785260603</v>
+        <v>2.134030673972578</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>6.839581284807648</v>
+        <v>2.568290210248418</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>5.457126627835581</v>
+        <v>2.490759815718873</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>7.451755387265794</v>
+        <v>2.629035681364051</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>6.380559891199502</v>
+        <v>2.362789208621329</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>7.467272520610702</v>
+        <v>2.902125702488929</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5.763707211543005</v>
+        <v>2.750383040645452</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5.247106764606471</v>
+        <v>2.13618614575009</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5.069955162291489</v>
+        <v>2.404194566754591</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>6.316339178735717</v>
+        <v>2.668939942049789</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5.712033643994232</v>
+        <v>2.52533737436401</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>6.627234489261172</v>
+        <v>2.899370454578746</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5.993192473453718</v>
+        <v>2.773642572023397</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>6.54186186852003</v>
+        <v>2.521810763909995</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5.613393471766099</v>
+        <v>2.114627090487416</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>6.79521966014557</v>
+        <v>2.031210639908062</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5.542583284637218</v>
+        <v>2.786424276189561</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>6.842682523513455</v>
+        <v>2.821208450054296</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>6.338929309507447</v>
+        <v>2.385734753702105</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>6.343051228865431</v>
+        <v>2.611319221900986</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>6.761903823218858</v>
+        <v>2.207207648507313</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>5.490258379716746</v>
+        <v>2.841960760311347</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>6.231290847805342</v>
+        <v>2.049868950856923</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>7.406911867800051</v>
+        <v>2.890178013647601</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5.194173510721884</v>
+        <v>2.337400816881879</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6.255942972565395</v>
+        <v>2.651551554131203</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>5.381538545206126</v>
+        <v>2.402928240930688</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>6.322333833780421</v>
+        <v>2.913280048174747</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>6.249361210331443</v>
+        <v>2.889393827504825</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>6.678807577800946</v>
+        <v>2.659370929209166</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>6.913263927189053</v>
+        <v>2.918682204839468</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5.940261287156527</v>
+        <v>2.199916825565266</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>7.311316305828152</v>
+        <v>2.294187186399793</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5.418608075424998</v>
+        <v>2.578174362497896</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5.978791358551279</v>
+        <v>2.907045694292389</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>6.407707213143122</v>
+        <v>2.935843434598552</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>6.808608602580033</v>
+        <v>2.029463782101876</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>7.396644928180463</v>
+        <v>2.614463454813455</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>6.751250608344579</v>
+        <v>2.313240842096643</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>7.177329452944392</v>
+        <v>2.955074017628854</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>6.103579668666105</v>
+        <v>2.30715484313708</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5.786469522452993</v>
+        <v>2.468635738240711</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>7.352475252093464</v>
+        <v>2.354473092193778</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5.495727638058241</v>
+        <v>2.579446202656538</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5.313338814564248</v>
+        <v>2.679410791435868</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>7.42780227724456</v>
+        <v>2.77864435272685</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5.783188394151503</v>
+        <v>2.337792105558814</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>6.975960649741405</v>
+        <v>2.530578689551459</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>6.587942068648322</v>
+        <v>2.235820131148244</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>6.176211156321145</v>
+        <v>2.215458783765686</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>5.90502570652475</v>
+        <v>2.716997650942517</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>6.557867698531767</v>
+        <v>2.006222543333813</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>5.622598688889662</v>
+        <v>2.832114449382418</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>6.976929925084978</v>
+        <v>2.134955433548642</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>6.302539716038986</v>
+        <v>2.689111204281323</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>5.902575603168327</v>
+        <v>2.226654880568626</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>5.091717595713813</v>
+        <v>2.917546084558439</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>6.786534392690667</v>
+        <v>2.433960605924427</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>7.330345877550862</v>
+        <v>2.821854016083312</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>6.415444426009258</v>
+        <v>2.481752525661915</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>5.821800540568628</v>
+        <v>2.551952473483147</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>5.529888386159385</v>
+        <v>2.529431934649111</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>7.360689425513395</v>
+        <v>2.32035056130572</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>7.200419596561</v>
+        <v>2.292859419780059</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>5.818975392828641</v>
+        <v>2.748238190282129</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>6.951829602841475</v>
+        <v>2.693279373056086</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>5.081485296880302</v>
+        <v>2.593979874637718</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>6.850917825651289</v>
+        <v>2.890997824903297</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>5.625292267583259</v>
+        <v>2.417179196542712</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>6.695553630515919</v>
+        <v>2.67010362290769</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>5.953448729681975</v>
+        <v>2.818316517751057</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>6.84198637822181</v>
+        <v>2.535595893834675</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>5.080569537985371</v>
+        <v>2.793059713008995</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>7.13947506442543</v>
+        <v>2.918204953362359</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>7.263869273014857</v>
+        <v>2.435744056838619</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>6.388135321666737</v>
+        <v>2.517292996103305</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>7.274579813428412</v>
+        <v>2.28415773342141</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>5.156894816648425</v>
+        <v>2.741170926659989</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>5.26361185382696</v>
+        <v>2.751890076554841</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>6.025875593589722</v>
+        <v>2.984981933264814</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>5.935601048952309</v>
+        <v>2.770804608341123</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>6.41310277040572</v>
+        <v>2.871944030861859</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>5.781801786458882</v>
+        <v>2.404588156426717</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>5.097833065783318</v>
+        <v>2.63909629742282</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>6.805385208967883</v>
+        <v>2.947116904298541</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>6.805391123327842</v>
+        <v>2.051607182258302</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>6.279462218177544</v>
+        <v>2.848059085530545</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>6.318397185517098</v>
+        <v>2.077844677393508</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>6.900335004572421</v>
+        <v>2.857855249224776</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>6.801197234971859</v>
+        <v>2.463064734194701</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>7.293042182189865</v>
+        <v>2.744629157376918</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>5.757095574272366</v>
+        <v>2.963997892383538</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>5.77734969629617</v>
+        <v>2.3792733825596</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>5.078485151100858</v>
+        <v>2.109927425576018</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>7.325014144522399</v>
+        <v>2.532296193843222</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>5.668765913735633</v>
+        <v>2.407645608927106</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>5.510705665744111</v>
+        <v>2.357691239536452</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>5.797382344835546</v>
+        <v>2.743049838848999</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>6.645081386297536</v>
+        <v>2.066894290697314</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>5.263887832816264</v>
+        <v>2.573576779954653</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>7.233089094200214</v>
+        <v>2.366661999444582</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>6.003429368642833</v>
+        <v>2.90525403800804</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>6.061480772438555</v>
+        <v>2.508176298421983</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>7.025696309516828</v>
+        <v>2.97497370335509</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>6.895696074355699</v>
+        <v>2.402129633211525</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>5.176694906576861</v>
+        <v>2.994079942121471</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>6.953166163982296</v>
+        <v>2.630311695512813</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>6.090562756113841</v>
+        <v>2.537619564116735</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>6.352973950755539</v>
+        <v>2.714698670322042</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>5.105572840819202</v>
+        <v>2.887923582691741</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>5.572410064627351</v>
+        <v>2.031201497025545</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>6.448223668454257</v>
+        <v>2.295720621684346</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>5.06667983125176</v>
+        <v>2.942919123508886</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>5.551472148441583</v>
+        <v>2.54878867906871</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>6.526793177456227</v>
+        <v>2.278195900471109</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>6.128188852964672</v>
+        <v>2.717173402804282</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>6.535630303098589</v>
+        <v>2.770967382021325</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>7.268373153619204</v>
+        <v>2.175744700941234</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>6.356262416412669</v>
+        <v>2.279321248713051</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>7.002641475674276</v>
+        <v>2.350865325190507</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>7.235627406478314</v>
+        <v>2.35109514444703</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>5.578408967417944</v>
+        <v>2.848955120786447</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>6.498707566317494</v>
+        <v>2.837894995867388</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>7.416820736563793</v>
+        <v>2.860912766447853</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>5.117423202534638</v>
+        <v>2.67683809809439</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>5.599068705869477</v>
+        <v>2.666318289724489</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>6.375584095042237</v>
+        <v>2.997846168889576</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>6.84030130451055</v>
+        <v>2.463207104060812</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>6.313033058130949</v>
+        <v>2.904060654488921</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>6.899265190927379</v>
+        <v>2.695017194001197</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>5.854377668583082</v>
+        <v>2.637704832945566</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>5.910964593983977</v>
+        <v>2.139975372993856</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>6.92358512672858</v>
+        <v>2.856104307772555</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>6.878187982831008</v>
+        <v>2.875899385960576</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>5.549646386738893</v>
+        <v>2.412061784904223</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>6.542473168535348</v>
+        <v>2.342293297883294</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>5.521922786845376</v>
+        <v>2.012842478241625</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>5.001676404808625</v>
+        <v>2.641736092299984</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>6.575052540980715</v>
+        <v>2.514506357194268</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>7.347730670916267</v>
+        <v>2.140582546654307</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>5.692573859852635</v>
+        <v>2.300485015042437</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>7.132279858358393</v>
+        <v>2.8562107955048</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>7.332759028423574</v>
+        <v>2.205623168863028</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>6.671011723172365</v>
+        <v>2.454821177180726</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>5.072804937871332</v>
+        <v>2.395579869950502</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>6.576025324901185</v>
+        <v>2.039638152587595</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>5.887597523813986</v>
+        <v>2.051214186204312</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>5.246634226776107</v>
+        <v>2.108268565105802</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>6.24088742887454</v>
+        <v>2.93301081300425</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>6.997297824950413</v>
+        <v>2.166728800196791</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>7.446144450021803</v>
+        <v>2.28838686801796</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>6.323635202719229</v>
+        <v>2.234935855500147</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>6.764301558370321</v>
+        <v>2.299027241737279</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>5.290596223825887</v>
+        <v>2.365889407263119</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>6.303996502190433</v>
+        <v>2.8936535051982</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>7.071487073570724</v>
+        <v>2.435018092067926</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>5.700092846188273</v>
+        <v>2.337216333955426</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>7.346560856468551</v>
+        <v>2.398987395143108</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>7.42260068688159</v>
+        <v>2.80809738056746</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>5.009865773600289</v>
+        <v>2.97184828479766</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>5.986295607425268</v>
+        <v>2.193285028914767</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>6.164372903144755</v>
+        <v>2.164906542893286</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>5.387887453593747</v>
+        <v>2.423683326358141</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>6.369095060729483</v>
+        <v>2.596281164226955</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>5.881073849313059</v>
+        <v>2.632275257258074</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>6.861841204294943</v>
+        <v>2.69500720559531</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>6.15186747215489</v>
+        <v>2.688578110473146</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>5.40472257897461</v>
+        <v>2.868399193853937</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>7.428655729116271</v>
+        <v>2.898065281219125</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>6.268777494296098</v>
+        <v>2.454817295492592</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>6.832020183167746</v>
+        <v>2.958152849844724</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>6.986936041684377</v>
+        <v>2.559422557880324</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>5.473275683367172</v>
+        <v>2.2666563510777</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>6.77486966968647</v>
+        <v>2.391618825161837</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>5.552880242695881</v>
+        <v>2.876814310028406</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>6.396364411794898</v>
+        <v>2.687967786486263</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>6.146207487687079</v>
+        <v>2.224917538200202</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>6.331879891774467</v>
+        <v>2.647969732141589</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>6.035922190395545</v>
+        <v>2.433467765169472</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>5.468798221987643</v>
+        <v>2.530306637741217</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>6.469067502449882</v>
+        <v>2.146260594537856</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>6.460478291034701</v>
+        <v>2.381708185514064</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>6.513006373282073</v>
+        <v>2.682846106063415</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>6.094097693941965</v>
+        <v>2.790504917461838</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>5.155356677781682</v>
+        <v>2.915203090289495</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>5.73191233539175</v>
+        <v>2.571128216296305</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>6.462917984117423</v>
+        <v>2.826331112923261</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>6.851221187342194</v>
+        <v>2.902339547440879</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>5.682571302303866</v>
+        <v>2.302814582429344</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>6.385502551191674</v>
+        <v>2.788556878555445</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>6.842144737864738</v>
+        <v>2.009453265557091</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>5.151653580791795</v>
+        <v>2.834451245413961</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>6.109278598430676</v>
+        <v>2.829642461501916</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>5.622736332933536</v>
+        <v>2.620729183010545</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>7.235646751982136</v>
+        <v>2.346414218091324</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>7.285609785425482</v>
+        <v>2.012526639309382</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>5.008317094727881</v>
+        <v>2.79356070305472</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>5.208870590465597</v>
+        <v>2.007059444040802</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>5.130020564573817</v>
+        <v>2.553510060569787</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>7.35965874009511</v>
+        <v>2.199289882293485</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>6.735789095302644</v>
+        <v>2.608663658926353</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>6.012535215232098</v>
+        <v>2.703940483101694</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>6.83451980860527</v>
+        <v>2.372347381428221</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>7.332996093236671</v>
+        <v>2.476459318470999</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>6.006058393870296</v>
+        <v>2.666175566033035</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>5.188809592185568</v>
+        <v>2.801624870225463</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>5.518529244309427</v>
+        <v>2.434111904267076</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>5.170966668608445</v>
+        <v>2.451939252509321</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>6.843610054781677</v>
+        <v>2.607775754541869</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>6.225725310510551</v>
+        <v>2.664867541779273</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>7.357598656931955</v>
+        <v>2.38234074569891</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>6.801906724693829</v>
+        <v>2.446253732159062</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>7.322630907887458</v>
+        <v>2.294372957999895</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>5.207750161099092</v>
+        <v>2.664341711523821</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5.987343804669343</v>
+        <v>2.214086010381079</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>7.193620838837553</v>
+        <v>2.513655299864321</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>7.148424341335739</v>
+        <v>2.254349498389832</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>6.731305322282065</v>
+        <v>2.913379354157493</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5.357422549881004</v>
+        <v>2.262973125013923</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>7.157971328899762</v>
+        <v>2.990444239257998</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>5.444470506617485</v>
+        <v>2.831267909420548</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>5.018594517750365</v>
+        <v>2.473269134588294</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>6.586158421215647</v>
+        <v>2.262601697444731</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>6.996932984624483</v>
+        <v>2.877501527899913</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>6.313283366837885</v>
+        <v>2.270612230082961</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>5.422256869554633</v>
+        <v>2.494635557519508</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>7.385971462379346</v>
+        <v>2.105730979436742</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>6.517654790504999</v>
+        <v>2.200141579844507</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>5.418819508722303</v>
+        <v>2.900862767689548</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>5.538324861508111</v>
+        <v>2.982759844821986</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5.900456700412335</v>
+        <v>2.383454485600083</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>5.371653449884493</v>
+        <v>2.112418640760751</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>5.291827781417534</v>
+        <v>2.391119277567142</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>5.332950244515075</v>
+        <v>2.8841666714554</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>5.494347565452044</v>
+        <v>2.116266784621691</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>7.332838032567768</v>
+        <v>2.830380511294907</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>6.169964041251397</v>
+        <v>2.14326946352272</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>6.190385656759404</v>
+        <v>2.079796537057008</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>6.714307565737582</v>
+        <v>2.925022460386333</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>5.575314627366622</v>
+        <v>2.021970483154262</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>5.751451274259962</v>
+        <v>2.038746142804511</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>7.112594147397953</v>
+        <v>2.326260352435279</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>7.323202316998478</v>
+        <v>2.74857112702804</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>5.517995729432394</v>
+        <v>2.124925085178652</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>7.302806713634028</v>
+        <v>2.924371009808611</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>5.933580449331238</v>
+        <v>2.304598465972206</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>7.061890891877294</v>
+        <v>2.416412459873091</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>5.943731121663223</v>
+        <v>2.306908740122366</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>5.588266098583211</v>
+        <v>2.690813235450364</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>5.570185697608558</v>
+        <v>2.607427995044254</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>5.372297695563697</v>
+        <v>2.318106220624138</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>7.26074602147388</v>
+        <v>2.308775583689002</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>7.464659646179403</v>
+        <v>2.098860499074792</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>7.171116649434452</v>
+        <v>2.478635499573891</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>7.360744710517755</v>
+        <v>2.523690077962518</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>6.487338579587267</v>
+        <v>2.618630318468455</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>5.433337673336126</v>
+        <v>2.761220686982494</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>7.27990973392364</v>
+        <v>2.647936734099796</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>5.674971674648423</v>
+        <v>2.443402089544228</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>6.004953251957973</v>
+        <v>2.67732720340761</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>6.801853277746714</v>
+        <v>2.769961459884432</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>6.561918347212376</v>
+        <v>2.446637682241338</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>5.871147565882127</v>
+        <v>2.851706742184263</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>5.100318999376418</v>
+        <v>2.015354768058721</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>5.014871026064029</v>
+        <v>2.002250529291451</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>6.98123584995902</v>
+        <v>2.75942509665584</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>6.201657434607216</v>
+        <v>2.826967559881525</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>6.934926573973554</v>
+        <v>2.25046399276164</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>6.416960046780399</v>
+        <v>2.392282970898771</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>5.496087747071038</v>
+        <v>2.30555566350762</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>6.678672686484349</v>
+        <v>2.676017955963427</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>6.724615815989219</v>
+        <v>2.972055795484083</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>6.890272292575581</v>
+        <v>2.601405006668013</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>5.137774939377787</v>
+        <v>2.199580005762552</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>6.656377609134968</v>
+        <v>2.484550104935678</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>5.688283479193805</v>
+        <v>2.231692399016658</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>6.788951833692611</v>
+        <v>2.698529729814321</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>7.256378320920037</v>
+        <v>2.191401948669305</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>6.119207549723614</v>
+        <v>2.727607615081127</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>5.320051374613151</v>
+        <v>2.199511357175235</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>6.948861267064466</v>
+        <v>2.026637085843277</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>5.075771148726248</v>
+        <v>2.948168339727534</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>5.431834449004491</v>
+        <v>2.716298628110025</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>7.021967591066956</v>
+        <v>2.915025618649313</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>7.423303400645578</v>
+        <v>2.31741900051767</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>5.27566304344695</v>
+        <v>2.090532494903862</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>6.649472075831042</v>
+        <v>2.199762556360053</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>6.598980100863984</v>
+        <v>2.958205627058899</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>7.002787747200376</v>
+        <v>2.914423573634828</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>7.187825785019607</v>
+        <v>2.075655619432797</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>5.243615146338692</v>
+        <v>2.243541130936161</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>5.917807186674281</v>
+        <v>2.138280703458352</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>6.265994925584666</v>
+        <v>2.442193882222899</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>5.394774778449407</v>
+        <v>2.099764975554808</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>7.434797293372167</v>
+        <v>2.518985521486051</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>6.701625079497582</v>
+        <v>2.57355571636475</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>6.288133211079765</v>
+        <v>2.124954724866056</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>7.468400939668483</v>
+        <v>2.078528511763118</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>6.046137314116288</v>
+        <v>2.405842472454785</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>7.368028007121011</v>
+        <v>2.928083107599349</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>6.078947300843238</v>
+        <v>2.188237278374983</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>5.331384711949518</v>
+        <v>2.945495968730225</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>7.363008398753818</v>
+        <v>2.928596018311023</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>6.284669842254064</v>
+        <v>2.095426303109781</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>5.230140060281445</v>
+        <v>2.646951176998179</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>6.184320039824113</v>
+        <v>2.842301802523957</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>5.326671475834886</v>
+        <v>2.208393102840484</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>5.288830492729202</v>
+        <v>2.212019433123687</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>6.109689099179714</v>
+        <v>2.045447391491176</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>5.840030844465888</v>
+        <v>2.501424769883824</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>6.601248987569584</v>
+        <v>2.529663757573368</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>6.067251918065812</v>
+        <v>2.400948358652664</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>5.294512490973445</v>
+        <v>2.633692096856815</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>6.160758239171767</v>
+        <v>2.06918112195428</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>6.705031019917604</v>
+        <v>2.242456303389506</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>5.198975789588454</v>
+        <v>2.246162792390633</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>5.502243642005435</v>
+        <v>2.127633724883122</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>6.633070117074032</v>
+        <v>2.154618848402246</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>7.322108140585289</v>
+        <v>2.310660605600117</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>6.530006546513838</v>
+        <v>2.357717654343703</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>5.603574413520903</v>
+        <v>2.635334435626655</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>6.979957028941034</v>
+        <v>2.388414329822226</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>7.319976921308213</v>
+        <v>2.485087841031617</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>6.120790849488966</v>
+        <v>2.290882430672333</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>5.537734340917516</v>
+        <v>2.534575337843529</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>6.963882643886845</v>
+        <v>2.083378375512423</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>6.213206472799948</v>
+        <v>2.983977055830681</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>5.131961456102823</v>
+        <v>2.812155373205965</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>7.052137770012276</v>
+        <v>2.704989363964735</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>6.424098003421604</v>
+        <v>2.891476713429332</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>5.824793411486121</v>
+        <v>2.21592356317341</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>5.445893656121992</v>
+        <v>2.70734972967191</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>6.860549082932456</v>
+        <v>2.984378260770467</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>7.486229669579032</v>
+        <v>2.007634500629743</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>6.148460749976662</v>
+        <v>2.835243432642903</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>5.3353957523833</v>
+        <v>2.829361978048456</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>7.16986948172994</v>
+        <v>2.792070407265645</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>6.462804846815352</v>
+        <v>2.025906675550946</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>5.716311173143928</v>
+        <v>2.131853729496243</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>5.235066342835839</v>
+        <v>2.40379425045484</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>5.622271833888939</v>
+        <v>2.531125762762486</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>7.006856955944231</v>
+        <v>2.996371400948189</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>6.068410149349321</v>
+        <v>2.091743817317747</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>6.798005798756256</v>
+        <v>2.898543962320635</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>6.056712420119092</v>
+        <v>2.817842374049117</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>6.47113702956998</v>
+        <v>2.399198022460809</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>5.092995731286951</v>
+        <v>2.69127644175521</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>5.291762618314544</v>
+        <v>2.489505931724094</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>6.560973573542872</v>
+        <v>2.500595000008706</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>5.283327583148404</v>
+        <v>2.116872125436596</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>5.567955142564703</v>
+        <v>2.731937559137167</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>5.053089078065282</v>
+        <v>2.090916188982047</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>5.474764905555785</v>
+        <v>2.850360768226826</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>5.417168660037693</v>
+        <v>2.284273746992382</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>6.194924219270278</v>
+        <v>2.781665622136205</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>5.946458335464545</v>
+        <v>2.610703095591992</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>7.461586305181871</v>
+        <v>2.275746251434132</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>5.072529783750205</v>
+        <v>2.166993785485665</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>7.283316145385368</v>
+        <v>2.64132918769291</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>5.085509631283367</v>
+        <v>2.295449157203794</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>5.69821442145781</v>
+        <v>2.10376121716663</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>5.788462950724227</v>
+        <v>2.50782520986661</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>6.715340383501172</v>
+        <v>2.202138504901278</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>6.968682232113089</v>
+        <v>2.814349483512247</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>7.171322823347982</v>
+        <v>2.915567648376491</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>6.924576645706257</v>
+        <v>2.046366826397219</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>7.114736085382797</v>
+        <v>2.771428322864456</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>7.472975371167742</v>
+        <v>2.37942803117554</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>6.57437182260336</v>
+        <v>2.679306341702139</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>5.687995253778868</v>
+        <v>2.981320417023884</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>6.778481824473708</v>
+        <v>2.000120825021351</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>7.016568308702624</v>
+        <v>2.774975271376269</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>5.60952182001814</v>
+        <v>2.437471938865433</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>6.350624047680427</v>
+        <v>2.191869432495533</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>6.814275668986291</v>
+        <v>2.614264529562329</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>6.34706873499344</v>
+        <v>2.183799233153526</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>5.209491510768688</v>
+        <v>2.439347275751679</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>6.966709573632109</v>
+        <v>2.103534628185322</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>6.372183033860609</v>
+        <v>2.322252071327608</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>5.293536162548984</v>
+        <v>2.772005504990789</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>5.480345630781746</v>
+        <v>2.416933066918198</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>5.459007994621791</v>
+        <v>2.117890236445507</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>6.318186585138459</v>
+        <v>2.688688139327842</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>6.422088469869265</v>
+        <v>2.603197174171816</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>5.53352511095947</v>
+        <v>2.050925596486997</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>6.526337783276247</v>
+        <v>2.945651200117426</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>6.467131082057587</v>
+        <v>2.828656641262422</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>6.830749123234417</v>
+        <v>2.198726586314416</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>6.730833593958376</v>
+        <v>2.11643253049649</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>5.860797874065568</v>
+        <v>2.298805595268282</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>6.070936085077911</v>
+        <v>2.26122210636515</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>7.265563668793788</v>
+        <v>2.956281690906744</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>6.424849654430278</v>
+        <v>2.689222665863307</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>5.330660186421296</v>
+        <v>2.188798622528072</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>6.777876476692262</v>
+        <v>2.040946638453775</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>7.338514091432148</v>
+        <v>2.261370205945316</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>5.383428426675037</v>
+        <v>2.127820732538155</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>5.144872731668507</v>
+        <v>2.210807307240167</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>5.327029283807803</v>
+        <v>2.52776454186506</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>6.655710105496901</v>
+        <v>2.006019024577396</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>7.145615789141326</v>
+        <v>2.235671348854192</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>7.273850025523001</v>
+        <v>2.12950758477255</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>7.045145518216459</v>
+        <v>2.395020975901833</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>6.79561259933048</v>
+        <v>2.310246312513522</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>5.842439236331376</v>
+        <v>2.460747681411227</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>7.143536492209535</v>
+        <v>2.470503483569036</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>7.295337032193455</v>
+        <v>2.630777383856127</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>5.338831582297394</v>
+        <v>2.540376978791359</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>6.593744002408759</v>
+        <v>2.791503241335124</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>6.685437189055086</v>
+        <v>2.318147679615517</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>7.296674121833512</v>
+        <v>2.854760978256282</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>6.087482619758849</v>
+        <v>2.070737859169454</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>6.604177223569017</v>
+        <v>2.443631510945226</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>5.206722987684778</v>
+        <v>2.195480691699567</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>6.313337091871984</v>
+        <v>2.062477628509087</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>6.521991255060083</v>
+        <v>2.88713897715757</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>5.74050357900868</v>
+        <v>2.021695110571813</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>5.612751432297377</v>
+        <v>2.225292473759738</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>5.25068367475615</v>
+        <v>2.693614112071368</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>5.942369891728596</v>
+        <v>2.670831411317002</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>6.074626581826083</v>
+        <v>2.828551673055714</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>7.447962974957059</v>
+        <v>2.162629092137148</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>7.062801222330481</v>
+        <v>2.082370702331755</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>5.083799357918355</v>
+        <v>2.8225272698702</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>7.236955277581708</v>
+        <v>2.83268714862908</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>6.110352850229614</v>
+        <v>2.714230434737726</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>7.443300031248264</v>
+        <v>2.721977076120504</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>5.53884311391927</v>
+        <v>2.357808318825288</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>6.170027736859537</v>
+        <v>2.791720392244561</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>5.243869975883588</v>
+        <v>2.975374990241022</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>7.021089690856517</v>
+        <v>2.008181863118979</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>6.280829093447341</v>
+        <v>2.324270159446497</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>6.777741158294285</v>
+        <v>2.945859964695644</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>6.890874214849295</v>
+        <v>2.573281075493074</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>7.011514813932077</v>
+        <v>2.749773247442642</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>5.224511734590441</v>
+        <v>2.406050731695991</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>5.002481637400931</v>
+        <v>2.788480189936874</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>6.65927826680413</v>
+        <v>2.941307799309726</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>5.429753509038886</v>
+        <v>2.396292530893552</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>5.929570285470186</v>
+        <v>2.885609652424917</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>6.078088716621051</v>
+        <v>2.728424705698977</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>5.641086229445595</v>
+        <v>2.514864601737728</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>6.644541646735728</v>
+        <v>2.575537413220437</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>5.901969441634016</v>
+        <v>2.425185943995743</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>6.234589606864657</v>
+        <v>2.465815322086196</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>5.940284555876873</v>
+        <v>2.421708991966043</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>6.425539376483298</v>
+        <v>2.405689150134368</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>6.808719115686172</v>
+        <v>2.649248225365025</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>5.09375823243177</v>
+        <v>2.009209178112267</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>5.312963277731707</v>
+        <v>2.117191710329657</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>6.434524042532219</v>
+        <v>2.005438321534376</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>6.972943104255553</v>
+        <v>2.29361234085092</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>6.804457355474456</v>
+        <v>2.296399066437284</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>6.567157118200214</v>
+        <v>2.015519825968197</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>7.222565183509938</v>
+        <v>2.473056097398239</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>5.863342533009503</v>
+        <v>2.061004031188115</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>6.672124627982019</v>
+        <v>2.305126067101869</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>5.67399113590395</v>
+        <v>2.935326041568354</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>5.019755030103696</v>
+        <v>2.034921378283348</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>7.432983473975083</v>
+        <v>2.077620441238601</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>6.284183288370226</v>
+        <v>2.006319483218884</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>6.094917457676687</v>
+        <v>2.700498083054418</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>5.095919192310623</v>
+        <v>2.969315033550537</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>6.101591016136881</v>
+        <v>2.602552736835427</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>6.814468095068367</v>
+        <v>2.287603616739829</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>5.481098703681836</v>
+        <v>2.206725388430542</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>6.348494006602991</v>
+        <v>2.351161516927532</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>5.06184942226592</v>
+        <v>2.26861247438217</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>6.918982307394827</v>
+        <v>2.557423419013836</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>7.44303769352098</v>
+        <v>2.73887802174462</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>5.037494297214423</v>
+        <v>2.760039350719761</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>6.928986388362976</v>
+        <v>2.817011308150464</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>6.477236390762585</v>
+        <v>2.296002068017414</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>5.157058806136953</v>
+        <v>2.640890045424063</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>5.235336205236397</v>
+        <v>2.36034689573119</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>5.636252371242513</v>
+        <v>2.144009565617603</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>6.861586541856806</v>
+        <v>2.212729198739801</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>6.520401022838767</v>
+        <v>2.827211427918597</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>5.799902670974615</v>
+        <v>2.822652355226899</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>5.449582139434743</v>
+        <v>2.780724967683159</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>7.410397470295824</v>
+        <v>2.732394241152608</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>6.577620405353956</v>
+        <v>2.205397561546985</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>6.379923945088521</v>
+        <v>2.246520768716191</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>6.137446199610618</v>
+        <v>2.273984567955499</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>6.079170220897393</v>
+        <v>2.776498313852182</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>6.777994438570932</v>
+        <v>2.386266037842453</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>7.184670186873658</v>
+        <v>2.066620927958729</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>6.943421121098075</v>
+        <v>2.366555206590017</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>6.234500695041017</v>
+        <v>2.407218721847403</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>6.323025404310636</v>
+        <v>2.517235099172967</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>5.541759851296673</v>
+        <v>2.621408260747662</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>6.172627583598454</v>
+        <v>2.716410319472101</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>6.890053214580753</v>
+        <v>2.542426775374214</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>5.325825033775943</v>
+        <v>2.710200508841151</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>5.095680262603959</v>
+        <v>2.185854289461854</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>5.174304395320037</v>
+        <v>2.247780621200289</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>7.447246041635508</v>
+        <v>2.712772779328476</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>6.768778385573553</v>
+        <v>2.133852272091993</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>5.854885684270958</v>
+        <v>2.687366420147784</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>5.638333548729064</v>
+        <v>2.91785704924662</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>7.347231038060239</v>
+        <v>2.491136626880071</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>5.631882269775853</v>
+        <v>2.19407222085032</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>5.020158804912773</v>
+        <v>2.489023608079894</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>6.399214965594728</v>
+        <v>2.67288636369011</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>6.919138711411222</v>
+        <v>2.749718384002082</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>7.361489520832345</v>
+        <v>2.279086750782601</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>7.125303854335325</v>
+        <v>2.989795098403257</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>5.871345354185954</v>
+        <v>2.750779472194343</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>5.268292732360642</v>
+        <v>2.255730690938536</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>6.525689827173053</v>
+        <v>2.113101953028681</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>7.085077618696721</v>
+        <v>2.578338013371604</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>5.109227753658839</v>
+        <v>2.613208017295807</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>5.01991712497682</v>
+        <v>2.944536292182081</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>5.804560884262583</v>
+        <v>2.708228517101214</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>5.301505719426894</v>
+        <v>2.415446419841255</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>5.531241025672045</v>
+        <v>2.304331270048655</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>7.458378532504238</v>
+        <v>2.369807547558033</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>6.867497156025632</v>
+        <v>2.753024918803763</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>7.178902473259243</v>
+        <v>2.755634557364397</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>5.986784970466905</v>
+        <v>2.800278271297122</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>6.028374448979307</v>
+        <v>2.037818870705171</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>7.21411250879026</v>
+        <v>2.174737750062405</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>5.139177156796347</v>
+        <v>2.405693008489441</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>6.844724169229016</v>
+        <v>2.30799883873766</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>7.068039799402275</v>
+        <v>2.032972540477332</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>6.348471347460962</v>
+        <v>2.378761198532082</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>6.739834854575927</v>
+        <v>2.82555964893263</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>5.079461347139582</v>
+        <v>2.212753530109604</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>6.824182570980504</v>
+        <v>2.761573412507118</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>7.270516631813948</v>
+        <v>2.695833735166707</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>7.02587236188115</v>
+        <v>2.339459705491357</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>6.022467314913825</v>
+        <v>2.248947425295378</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>7.206853597266852</v>
+        <v>2.858915603833388</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>5.444678932053549</v>
+        <v>2.772823048210692</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>6.611295318423529</v>
+        <v>2.113705602335118</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>6.033725686235893</v>
+        <v>2.633677198565268</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>5.442297816122236</v>
+        <v>2.272709861130818</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>5.109145592277033</v>
+        <v>2.110755528216809</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>5.09148085004999</v>
+        <v>2.963542083295371</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>5.097590064228854</v>
+        <v>2.746159929508622</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>5.788140625036245</v>
+        <v>2.864223897468325</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>7.094426261072253</v>
+        <v>2.109166635249485</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>6.24439962568175</v>
+        <v>2.427912288315769</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>5.726147216691281</v>
+        <v>2.059990241117515</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>5.298016093099561</v>
+        <v>2.843967748659991</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>6.271769082082931</v>
+        <v>2.314165712698433</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>6.19491199275301</v>
+        <v>2.844849824192284</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>6.22458128696463</v>
+        <v>2.265168724176442</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>7.25767321194863</v>
+        <v>2.82865035036295</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>6.434249492162047</v>
+        <v>2.077787020368971</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>5.095692828024163</v>
+        <v>2.794755416208602</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>6.952185750381989</v>
+        <v>2.115705869256067</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>5.993845563341869</v>
+        <v>2.615311439694016</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>7.037025156550198</v>
+        <v>2.033226175898659</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>6.150008437347609</v>
+        <v>2.972946112750085</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>5.147634412042008</v>
+        <v>2.935756403558811</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>6.701450102458843</v>
+        <v>2.771495074307978</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>6.039942623712858</v>
+        <v>2.776055141044139</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>6.265639303023684</v>
+        <v>2.300756018483369</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>6.641271421017136</v>
+        <v>2.540121078901199</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>6.315124259394204</v>
+        <v>2.146997816413205</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>7.462128738678167</v>
+        <v>2.104612639576082</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>6.414113090088387</v>
+        <v>2.695846533786034</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>6.999494986820409</v>
+        <v>2.731969390401736</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>5.038396195921342</v>
+        <v>2.034809023664435</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>5.08763819853114</v>
+        <v>2.187007406619196</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>6.829503006732438</v>
+        <v>2.664536277344149</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>5.528034657011787</v>
+        <v>2.281314484656711</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>6.065438203677733</v>
+        <v>2.713385689728748</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>5.966294067683639</v>
+        <v>2.016255462434497</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>6.194312558003615</v>
+        <v>2.206291984846005</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>6.447684601813629</v>
+        <v>2.088101936813161</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>5.460562018323005</v>
+        <v>2.917250958478413</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>5.238109336727476</v>
+        <v>2.515074652257679</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>5.397919784985294</v>
+        <v>2.709857321127865</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>6.772015521857188</v>
+        <v>2.451215361485561</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>5.371222457182858</v>
+        <v>2.72978027456964</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>7.017239890475818</v>
+        <v>2.548903056045132</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>7.002029530704149</v>
+        <v>2.275190616725916</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>6.67254597081498</v>
+        <v>2.623913069551719</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>7.086675116031552</v>
+        <v>2.332321302005456</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>6.286908178090034</v>
+        <v>2.78493746997352</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>6.855219893943771</v>
+        <v>2.044920880846501</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>5.432686085910645</v>
+        <v>2.956470076742281</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>6.847646553466371</v>
+        <v>2.726058874091867</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>6.791639213628915</v>
+        <v>2.652340987302917</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>5.060294916704596</v>
+        <v>2.186519023637064</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>5.609141831087827</v>
+        <v>2.136863739226098</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>5.0629362493247</v>
+        <v>2.938773632875979</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>5.718165087852459</v>
+        <v>2.510411497263447</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>6.715414687909514</v>
+        <v>2.181658858393443</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>5.347457772186207</v>
+        <v>2.928623925717807</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>7.136558795351542</v>
+        <v>2.504728274656425</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>6.4773964754158</v>
+        <v>2.582374282539806</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>5.689518812810167</v>
+        <v>2.042051651149269</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>5.269467055146894</v>
+        <v>2.44217533455029</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>7.276500368368595</v>
+        <v>2.479713925090127</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>7.488444195167213</v>
+        <v>2.01119615873611</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>5.24019319788703</v>
+        <v>2.549214746253081</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>6.930930389082491</v>
+        <v>2.163421738526196</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>6.681947581612614</v>
+        <v>2.653108511075116</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>6.788776398279066</v>
+        <v>2.698359101249904</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>5.282547464703783</v>
+        <v>2.336097224884247</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>6.626858485410414</v>
+        <v>2.846200276942759</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>7.272579390219345</v>
+        <v>2.204209699048677</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>6.744456049207825</v>
+        <v>2.030629314452787</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>6.590534097076461</v>
+        <v>2.86718307838329</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>5.80560685968826</v>
+        <v>2.236612047811606</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>6.228956693473676</v>
+        <v>2.583457624237157</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>7.374298818114129</v>
+        <v>2.865548723393048</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>6.860329932018932</v>
+        <v>2.952184902587414</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>6.202979390257638</v>
+        <v>2.679904867360209</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>6.54262934511067</v>
+        <v>2.056165719718219</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>5.168240481717471</v>
+        <v>2.485899038373184</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>5.412731144294511</v>
+        <v>2.500065870204801</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>6.6456651561561</v>
+        <v>2.263249919049389</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>7.383097000253844</v>
+        <v>2.692658218379948</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>5.757111623624419</v>
+        <v>2.799743658225723</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>5.596266743204036</v>
+        <v>2.892373367005629</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>5.24566320095402</v>
+        <v>2.71299968792018</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>5.890540621950736</v>
+        <v>2.643315557503685</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>5.361437445409056</v>
+        <v>2.641460604239394</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>5.28878037924152</v>
+        <v>2.575488213629074</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>6.38707272333765</v>
+        <v>2.49898027224235</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>6.611150232830805</v>
+        <v>2.508183740906109</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>7.11131147738201</v>
+        <v>2.797199526034752</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>7.121057295001327</v>
+        <v>2.347864885999758</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>6.829804066769593</v>
+        <v>2.399491901240485</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>5.526091494664549</v>
+        <v>2.782823842721664</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>5.963189388513856</v>
+        <v>2.178052305421545</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>5.904606695887301</v>
+        <v>2.316415195271976</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>5.516450698516655</v>
+        <v>2.773677296879393</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>5.179506199003633</v>
+        <v>2.441861265007535</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>6.533807677214041</v>
+        <v>2.805180287353077</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>5.11471313959728</v>
+        <v>2.163273503571462</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>6.391103244996531</v>
+        <v>2.293342887217239</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>6.455404231449521</v>
+        <v>2.417990062768127</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>5.394179158875642</v>
+        <v>2.573747241065637</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>5.941814659206955</v>
+        <v>2.928243456393457</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>5.708378435278721</v>
+        <v>2.05880102963618</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>6.948017305209254</v>
+        <v>2.999471300014167</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>5.698011775411941</v>
+        <v>2.701535464606693</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>5.399970380427912</v>
+        <v>2.531331539054048</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>6.930949111863845</v>
+        <v>2.348304462775041</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>6.338040908953049</v>
+        <v>2.033694434952104</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>7.16180117699068</v>
+        <v>2.479245643567276</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>5.941629599541319</v>
+        <v>2.756347160435228</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>5.003335446459709</v>
+        <v>2.39044562773126</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>5.762992446187479</v>
+        <v>2.165284441888003</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>6.061701709834725</v>
+        <v>2.94244820119013</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>5.382562316286359</v>
+        <v>2.948922714757721</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>6.412600241934069</v>
+        <v>2.915698919863837</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>6.371983604786951</v>
+        <v>2.40579634356958</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>5.800785730258879</v>
+        <v>2.601293368430859</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>6.729297709835236</v>
+        <v>2.201995698324786</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>7.091704663992163</v>
+        <v>2.936269566960135</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>6.833590468340864</v>
+        <v>2.570323761953496</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>6.535671725313192</v>
+        <v>2.779435673625244</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>6.067924575464358</v>
+        <v>2.656955350742399</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>6.531172236273248</v>
+        <v>2.069846155047634</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>6.15467831799606</v>
+        <v>2.964577535043053</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>6.420471954548937</v>
+        <v>2.923173079660208</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>6.393264699489512</v>
+        <v>2.226906971731937</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>6.761457427447191</v>
+        <v>2.83893922820363</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>7.136539434685528</v>
+        <v>2.064992741833406</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>6.002773744783628</v>
+        <v>2.74619275410048</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>5.582625817631085</v>
+        <v>2.038587542483589</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>5.572331852804734</v>
+        <v>2.831892952023069</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>5.969924161546059</v>
+        <v>2.367653536755106</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>7.298767562946336</v>
+        <v>2.431720619999608</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>6.130618058623984</v>
+        <v>2.872364131491163</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>6.736030840702577</v>
+        <v>2.655398142394162</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>5.421631179326827</v>
+        <v>2.071152313819458</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>5.994356054559377</v>
+        <v>2.240629659070883</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>6.681751127748052</v>
+        <v>2.799389436815633</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>6.11784328381721</v>
+        <v>2.392434483316527</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>5.466228715451544</v>
+        <v>2.936438021804995</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>6.092408032504984</v>
+        <v>2.573560912329063</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>7.13502126681767</v>
+        <v>2.4319755035788</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>7.070286481909935</v>
+        <v>2.821014131037515</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>6.133309455247963</v>
+        <v>2.93858668667954</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>7.137146621089377</v>
+        <v>2.077383985438026</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>7.293744776534297</v>
+        <v>2.053805292138577</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>5.147115206195025</v>
+        <v>2.845121549465687</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>6.817655747556786</v>
+        <v>2.190652526521855</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>7.143703944176973</v>
+        <v>2.862685020135638</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>6.624041057398546</v>
+        <v>2.022275334987106</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>6.492395031153499</v>
+        <v>2.554961499846319</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>5.486767344891996</v>
+        <v>2.738150360101772</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>6.466335442833529</v>
+        <v>2.550819471410877</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>5.622944997047029</v>
+        <v>2.887340231656608</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>5.078160811390797</v>
+        <v>2.927098657414247</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>5.772784760567387</v>
+        <v>2.389016295833951</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>5.696434561605738</v>
+        <v>2.936165683371136</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>6.149158253685688</v>
+        <v>2.427129880174858</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>6.56269670738989</v>
+        <v>2.492615967561224</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>6.843655057271207</v>
+        <v>2.599946100946354</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>6.982419054545321</v>
+        <v>2.630074826882308</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>6.892602227093226</v>
+        <v>2.590921719228708</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>7.059293295822231</v>
+        <v>2.890053261566905</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>6.431434660833651</v>
+        <v>2.50305358719259</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>7.113895491694185</v>
+        <v>2.176116958106453</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>6.224748058522749</v>
+        <v>2.037898493406554</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>7.268451819373494</v>
+        <v>2.948036474966188</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>5.37116637529997</v>
+        <v>2.268183939530507</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>6.687757368003914</v>
+        <v>2.550160823792162</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>6.802236288871772</v>
+        <v>2.696853380184713</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>5.092200254875508</v>
+        <v>2.586290994313967</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>7.20919684766651</v>
+        <v>2.452024584693514</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>6.813314068864318</v>
+        <v>2.318893376699098</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>7.136542084398213</v>
+        <v>2.420259705811441</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>6.545780969336223</v>
+        <v>2.883537939627471</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>6.1281676953443</v>
+        <v>2.971891507628509</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>7.215182835191291</v>
+        <v>2.321633011223367</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>5.625420951584869</v>
+        <v>2.883633066034634</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>5.741091983829079</v>
+        <v>2.404586393553623</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>5.491512809994514</v>
+        <v>2.463492296471688</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>6.576133164161289</v>
+        <v>2.357353966343145</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>5.807418470926706</v>
+        <v>2.76250013583318</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>5.970327373999668</v>
+        <v>2.399019974249154</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>5.777730444947555</v>
+        <v>2.549859473109032</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>7.471616479641651</v>
+        <v>2.856776358649747</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>6.867886881122337</v>
+        <v>2.640916497105229</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>6.645760441983001</v>
+        <v>2.344762143767285</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>5.952199186897569</v>
+        <v>2.840315618453236</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>5.020533686092246</v>
+        <v>2.202876177150545</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>6.820229202032118</v>
+        <v>2.196104847809491</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>6.140804593794146</v>
+        <v>2.703378984960718</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>7.074857727821405</v>
+        <v>2.249602188853238</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>6.67244422661412</v>
+        <v>2.921487285822854</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>7.352868457275976</v>
+        <v>2.530183632965137</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>5.313785724825417</v>
+        <v>2.838944460898694</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>7.22478788462168</v>
+        <v>2.967380289092763</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>5.63113910216588</v>
+        <v>2.708330054312969</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>7.314048331763501</v>
+        <v>2.494829527348329</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>5.918697164793942</v>
+        <v>2.677188249519546</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>7.491718315355717</v>
+        <v>2.147647509935572</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>5.017341061708134</v>
+        <v>2.649425992501353</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>6.719093704134378</v>
+        <v>2.004179024840417</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>5.21404105870264</v>
+        <v>2.996466861396894</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>5.528461341138195</v>
+        <v>2.949078920812996</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>5.745655524386615</v>
+        <v>2.310334710787076</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>6.217904382585689</v>
+        <v>2.937965664083736</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>5.028779999935806</v>
+        <v>2.145995780584534</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>6.225968419636985</v>
+        <v>2.717359883373559</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>6.804197996765657</v>
+        <v>2.033766785939147</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>5.796683504845845</v>
+        <v>2.152462882307375</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>5.595939297108117</v>
+        <v>2.422171644867102</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>7.37720256034746</v>
+        <v>2.204439473268351</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>5.839296528903272</v>
+        <v>2.321499969168375</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>7.245065423525543</v>
+        <v>2.44172270524274</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>5.659675741869073</v>
+        <v>2.270855556678755</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>6.410094838889631</v>
+        <v>2.741591494054594</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>6.763090323853552</v>
+        <v>2.321967016854942</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>6.258419991002862</v>
+        <v>2.773985508096744</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>5.302830051751477</v>
+        <v>2.980215026512595</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>5.390191429329747</v>
+        <v>2.911278628024117</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>7.250936235668298</v>
+        <v>2.686108560805466</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>6.822184072058153</v>
+        <v>2.27306998201376</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>5.729447498176329</v>
+        <v>2.270408513357438</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>6.316638597857612</v>
+        <v>2.681412891365345</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>5.850019729285107</v>
+        <v>2.321986897434095</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>6.611112292084314</v>
+        <v>2.243550699517158</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>6.173185184358657</v>
+        <v>2.942261870464281</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>6.172483329942235</v>
+        <v>2.392797190352567</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>7.067424602501033</v>
+        <v>2.790665209983718</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>5.271501091833281</v>
+        <v>2.189108668042618</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>6.079295486398849</v>
+        <v>2.142433700537625</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>5.451439484895991</v>
+        <v>2.235750493537757</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>5.820307694806327</v>
+        <v>2.298476187053746</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>5.370294686322071</v>
+        <v>2.776934364981264</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>6.073741941086121</v>
+        <v>2.337933359796065</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>6.384281286756707</v>
+        <v>2.968832091034088</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>5.008209847507029</v>
+        <v>2.827612690243594</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>5.944468443732093</v>
+        <v>2.958942770200677</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>5.058325494320411</v>
+        <v>2.693908691030225</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>5.122488055600484</v>
+        <v>2.20187953243421</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>6.163292222014116</v>
+        <v>2.116297099880883</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>6.082749550401947</v>
+        <v>2.707008614735344</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>6.168611601936529</v>
+        <v>2.232437685039435</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>5.6641538020471</v>
+        <v>2.079682965389885</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>5.429774135524223</v>
+        <v>2.53501043626732</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>6.880012968347309</v>
+        <v>2.622329623698958</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>5.918150362819548</v>
+        <v>2.289154153064268</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>6.339686497971428</v>
+        <v>2.442686182386957</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>5.736075099905424</v>
+        <v>2.93795506740959</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>5.229530371284255</v>
+        <v>2.932241299996141</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>6.532824531186078</v>
+        <v>2.814833977328091</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>6.159298748822158</v>
+        <v>2.016206461216171</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>6.388096013035341</v>
+        <v>2.630685210426899</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>6.959807847083333</v>
+        <v>2.43938043732871</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>5.090721999355923</v>
+        <v>2.280426531725519</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>7.059755987042637</v>
+        <v>2.396951188220046</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>5.365608976746172</v>
+        <v>2.165653327039006</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>6.910161207734724</v>
+        <v>2.507127235536804</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>5.800281085400767</v>
+        <v>2.102996367774076</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>6.298158401191727</v>
+        <v>2.239300801257875</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>7.072117540132883</v>
+        <v>2.400653347239546</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>7.282966091050787</v>
+        <v>2.842712875105185</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>5.81949671354425</v>
+        <v>2.217694223704093</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>7.229920200863063</v>
+        <v>2.600921378891308</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>5.062074656510469</v>
+        <v>2.028907765205792</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>6.197366159369686</v>
+        <v>2.007890654183109</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>5.135389280710148</v>
+        <v>2.682769586790437</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>6.219269613667603</v>
+        <v>2.37896604177699</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>7.273262323694025</v>
+        <v>2.857315389010585</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>5.244777586688667</v>
+        <v>2.723406618548896</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>6.644901180359297</v>
+        <v>2.762922195068403</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>5.934996192384567</v>
+        <v>2.663473843949447</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>6.876347978931649</v>
+        <v>2.250690232874804</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>5.976865404011702</v>
+        <v>2.835626476110912</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>5.622351897754072</v>
+        <v>2.162860960576239</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>6.839654844628194</v>
+        <v>2.705032082532799</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>5.34909750268651</v>
+        <v>2.192468537252145</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>7.111132695930214</v>
+        <v>2.66349472166756</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>5.95466950551828</v>
+        <v>2.45497627087995</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>6.235995511073281</v>
+        <v>2.347025477430291</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>5.424620576819724</v>
+        <v>2.237908737896467</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>6.939731252807659</v>
+        <v>2.336143825582278</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>5.140958280156824</v>
+        <v>2.859007732344188</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>5.06981551095935</v>
+        <v>2.47722471423342</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>7.071274970070825</v>
+        <v>2.099255175879655</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>6.095758996257203</v>
+        <v>2.942935381049403</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>6.377267213417618</v>
+        <v>2.798907806325457</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>6.5405369439137</v>
+        <v>2.367657592191906</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>5.728797099754553</v>
+        <v>2.589439898492894</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>5.247507708614091</v>
+        <v>2.882217133944894</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>6.763379669958973</v>
+        <v>2.640732816840558</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>6.805374024193622</v>
+        <v>2.688609712847629</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>6.544020854735663</v>
+        <v>2.539248794880104</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>7.203147898544068</v>
+        <v>2.373000828079309</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>5.433670860810834</v>
+        <v>2.263417809981368</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>6.964309163322247</v>
+        <v>2.17865268665542</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>5.254654647678786</v>
+        <v>2.409333812633217</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>6.439554337700503</v>
+        <v>2.554925624049843</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>6.744105453389215</v>
+        <v>2.161739855991295</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>5.810866646874327</v>
+        <v>2.238996601233625</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>5.305490008075891</v>
+        <v>2.809572320827876</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>5.5437175654236</v>
+        <v>2.996262926356308</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>5.462342323572167</v>
+        <v>2.098821676885077</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>6.209660715218725</v>
+        <v>2.819523843880174</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>5.143519114186975</v>
+        <v>2.72704837824709</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>5.952959461732537</v>
+        <v>2.392039238596178</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>5.585069228066921</v>
+        <v>2.840308205126816</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>5.448159933999014</v>
+        <v>2.82460881701329</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>5.252381753911327</v>
+        <v>2.603571035557618</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>6.458210601041574</v>
+        <v>2.403776199180041</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>7.410265434827082</v>
+        <v>2.243783256352194</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>7.249496844965795</v>
+        <v>2.456161343438543</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>5.677453513666148</v>
+        <v>2.307282737620154</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>7.193024052475674</v>
+        <v>2.914064211171012</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>6.568842873582986</v>
+        <v>2.330143464517521</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>5.498039665620058</v>
+        <v>2.572713413576763</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>5.579383094310364</v>
+        <v>2.128451066279648</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>5.360972546396655</v>
+        <v>2.584558604322382</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>6.354037484707961</v>
+        <v>2.07339252229009</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>7.019160872522573</v>
+        <v>2.843094964938894</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>7.338679525100282</v>
+        <v>2.883812477999911</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>6.776846497566254</v>
+        <v>2.940433539576251</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>6.221936599035248</v>
+        <v>2.540415970585177</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>6.998274641935129</v>
+        <v>2.63064946277357</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>5.396986457279811</v>
+        <v>2.259327810290306</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>7.349675026055307</v>
+        <v>2.373958227441884</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>6.899509141286215</v>
+        <v>2.942795913649062</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>5.000102109284673</v>
+        <v>2.793413334245327</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>5.583002180745646</v>
+        <v>2.728321898550569</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>7.444731425587059</v>
+        <v>2.117798635289972</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>5.563587946271006</v>
+        <v>2.917186424148493</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>6.516574086926959</v>
+        <v>2.181303380400902</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>5.216346356207594</v>
+        <v>2.166945707118773</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>5.222502860947769</v>
+        <v>2.458279812589173</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>7.422740091625782</v>
+        <v>2.300284251972545</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>6.2207186290828</v>
+        <v>2.67792042506248</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>6.884289899454394</v>
+        <v>2.081444155449411</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>5.755116396049096</v>
+        <v>2.043515007705912</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>6.106057003918912</v>
+        <v>2.303210059435989</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>6.993007781583067</v>
+        <v>2.199146904479571</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>7.232102250470022</v>
+        <v>2.733797833149525</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>7.089120856049087</v>
+        <v>2.545590727753686</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>7.043308861742981</v>
+        <v>2.741594893544785</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>5.490516024257765</v>
+        <v>2.827298032206822</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>7.424563856241838</v>
+        <v>2.889888612189894</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>5.356919045484948</v>
+        <v>2.05846679415619</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>6.635936558526132</v>
+        <v>2.451885707330108</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>7.234881208806212</v>
+        <v>2.733511197499726</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>6.368306933154518</v>
+        <v>2.310204647413665</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>5.328132084184248</v>
+        <v>2.978288166774676</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>6.359957919403836</v>
+        <v>2.13337584908148</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>5.839580872618251</v>
+        <v>2.252485192273222</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>5.896951534664252</v>
+        <v>2.126973251901569</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>6.064465414707345</v>
+        <v>2.28443533365505</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>5.196124808099125</v>
+        <v>2.7301647758423</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>6.525921274114621</v>
+        <v>2.033700996249033</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>5.700949152056856</v>
+        <v>2.085997781273979</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>6.494637691799561</v>
+        <v>2.520673679902314</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>5.39603833802052</v>
+        <v>2.559948421220299</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>5.89397593328081</v>
+        <v>2.93113301192443</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>7.213761833801033</v>
+        <v>2.283828497543475</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>6.185217512148719</v>
+        <v>2.856040767136718</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>6.451735578573787</v>
+        <v>2.596028696178228</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>6.00487083960105</v>
+        <v>2.844335981851218</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>6.486036930106462</v>
+        <v>2.523614316676056</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>6.384153499867995</v>
+        <v>2.03596986917525</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>7.165273814864898</v>
+        <v>2.029509057968583</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>5.177302335317359</v>
+        <v>2.000579991611852</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>5.308273823127</v>
+        <v>2.974747412171168</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>5.357143258813089</v>
+        <v>2.637205910656327</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>5.708572656732342</v>
+        <v>2.474038884149497</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>5.298562519324936</v>
+        <v>2.12568277120521</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>7.035417963799246</v>
+        <v>2.744487731079746</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>5.303287723558818</v>
+        <v>2.627754994248039</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>5.930625936222777</v>
+        <v>2.908818275744743</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>5.120645702603865</v>
+        <v>2.842525452368562</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>5.66326848802264</v>
+        <v>2.947804037992478</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>5.746904511194701</v>
+        <v>2.58785477819664</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>6.543453897507428</v>
+        <v>2.031809641700659</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>5.755944085730331</v>
+        <v>2.963245870527997</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>5.890517145418439</v>
+        <v>2.662024343151632</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>5.456093782026286</v>
+        <v>2.439484866055362</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>5.491348810706448</v>
+        <v>2.903792100345292</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>7.143451304276052</v>
+        <v>2.002699568594338</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>7.433079049355444</v>
+        <v>2.361900016902931</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>6.757236057701155</v>
+        <v>2.257582623718992</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>6.332526587500755</v>
+        <v>2.134535540720261</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>6.728315273564536</v>
+        <v>2.436740646850311</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>6.857005850618656</v>
+        <v>2.82452372996118</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>5.426119812953009</v>
+        <v>2.271263238709434</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>5.825176146765147</v>
+        <v>2.725745367295207</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>6.857062603235141</v>
+        <v>2.618468353354169</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>5.110581027000528</v>
+        <v>2.369631864172065</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>6.098198689844678</v>
+        <v>2.652994830655864</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>7.019118069537088</v>
+        <v>2.552143772834814</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>5.434209789833472</v>
+        <v>2.016207194481892</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>6.993168943654871</v>
+        <v>2.217454789401475</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>7.28898298622104</v>
+        <v>2.097112864727554</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>7.484351593074745</v>
+        <v>2.960500829296492</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>6.834231720599715</v>
+        <v>2.767108589490814</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>7.292012219632413</v>
+        <v>2.698138240547251</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>6.829973501399947</v>
+        <v>2.25473169792147</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>6.258300044148287</v>
+        <v>2.387865854604494</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>5.889520204841707</v>
+        <v>2.322434957801697</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>6.859324176589725</v>
+        <v>2.38947980971389</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>5.70318534359963</v>
+        <v>2.671624155862127</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>6.857684546290961</v>
+        <v>2.90824171175261</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>5.271867173072597</v>
+        <v>2.339752923724917</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>5.560840107606144</v>
+        <v>2.66152751506716</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>5.953737503576228</v>
+        <v>2.76322292875928</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>5.592780606135095</v>
+        <v>2.759573106064785</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>7.436065183885791</v>
+        <v>2.045276787044247</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>7.191507174896322</v>
+        <v>2.899523242486583</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>5.472112534235539</v>
+        <v>2.315274644480398</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>7.253763227480291</v>
+        <v>2.087941213013157</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>5.153052489133369</v>
+        <v>2.384068155786474</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>6.942090715359813</v>
+        <v>2.516821261167776</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>6.440452001795255</v>
+        <v>2.186843772382688</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>6.401260172336986</v>
+        <v>2.029826055896213</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>5.230060405049044</v>
+        <v>2.592701495694682</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>5.216794268983844</v>
+        <v>2.886154049207782</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>5.351341984591585</v>
+        <v>2.304466223173397</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>7.251762499242789</v>
+        <v>2.940622546985642</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>5.126716513026029</v>
+        <v>2.314240206790147</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>7.005377719239336</v>
+        <v>2.738186458661194</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>5.253652411462718</v>
+        <v>2.79991375230051</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>5.901604599023762</v>
+        <v>2.081619523579516</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>7.057487748395099</v>
+        <v>2.74129869014902</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>5.850469272431452</v>
+        <v>2.994358045037198</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>7.234531911854543</v>
+        <v>2.334288011615713</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>7.391678132753126</v>
+        <v>2.217624398496341</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>5.577223290544664</v>
+        <v>2.551429838534458</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>5.381012012513551</v>
+        <v>2.35139016826367</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>7.393229918984867</v>
+        <v>2.96154865191615</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>6.9972140421389</v>
+        <v>2.97307284039689</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>5.254747486749944</v>
+        <v>2.079428922202129</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>5.965772791523309</v>
+        <v>2.50426085112555</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>5.99951245087836</v>
+        <v>2.315997035384683</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>7.419236558660006</v>
+        <v>2.444804516298822</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>6.570002970610842</v>
+        <v>2.986293313002847</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>6.086842659704627</v>
+        <v>2.320701230054423</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>6.031911035067665</v>
+        <v>2.24486601516639</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>7.433142582837067</v>
+        <v>2.886286829659629</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>5.735778242516237</v>
+        <v>2.747276664817869</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>5.644681404250917</v>
+        <v>2.118333692769689</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>5.944813938940653</v>
+        <v>2.142990982630834</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>5.038869526717807</v>
+        <v>2.682141208048182</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>7.362858974706548</v>
+        <v>2.512038825962984</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>6.65549738101446</v>
+        <v>2.11005251040462</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>5.123115071478179</v>
+        <v>2.044032347790489</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>6.233317689470317</v>
+        <v>2.647925253636393</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>6.411438472966119</v>
+        <v>2.911620028280152</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>6.975383026704155</v>
+        <v>2.413871954281925</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>5.840204892724612</v>
+        <v>2.711140042158001</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>6.37166448544873</v>
+        <v>2.82204292286552</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>6.116730518506333</v>
+        <v>2.509353183934535</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>6.644104703503594</v>
+        <v>2.942436072834778</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>7.128265026649383</v>
+        <v>2.301768771042411</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>6.063486567190469</v>
+        <v>2.556245065753387</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>6.166510722263608</v>
+        <v>2.183925266598289</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>5.107921989311905</v>
+        <v>2.209672650304145</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>6.108958756038301</v>
+        <v>2.296619523057094</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>6.576887839959235</v>
+        <v>2.559976831159801</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>7.009405159698571</v>
+        <v>2.393319482982031</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>5.718159434308918</v>
+        <v>2.043500939437474</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>6.481605536093963</v>
+        <v>2.789865975994079</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>5.563926871407158</v>
+        <v>2.298037022935576</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>5.90688580143087</v>
+        <v>2.228179400753871</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>7.276384734561669</v>
+        <v>2.850947907729269</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>6.509676411024714</v>
+        <v>2.163617409175603</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>6.295931117911156</v>
+        <v>2.125679335644869</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>6.538417995408652</v>
+        <v>2.019523874807647</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>5.793959724146688</v>
+        <v>2.359156482813213</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>6.784879582003933</v>
+        <v>2.657971223791395</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>7.400079142498357</v>
+        <v>2.413109406214132</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>7.02489827357705</v>
+        <v>2.217148472447645</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>5.351205034752677</v>
+        <v>2.829540964073973</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>5.251966976070554</v>
+        <v>2.81982585382978</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>5.32225606266279</v>
+        <v>2.917641308279629</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>7.33623696129193</v>
+        <v>2.050757396712264</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>5.605420616833221</v>
+        <v>2.1113735287569</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>5.463267377859387</v>
+        <v>2.349084234515193</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>6.219956408735183</v>
+        <v>2.294329746823426</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>6.711921307803953</v>
+        <v>2.91931741952094</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>5.424202454003606</v>
+        <v>2.532767147021697</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>6.100279587099408</v>
+        <v>2.682076465008174</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>6.035825597604635</v>
+        <v>2.179010898755552</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>5.775692735489648</v>
+        <v>2.475870608698976</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>6.923332615581261</v>
+        <v>2.020255893799082</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>7.305206362556333</v>
+        <v>2.019372300716663</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>6.826213845723414</v>
+        <v>2.042558816882404</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>5.954161497175279</v>
+        <v>2.809218464251255</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>6.27648248527187</v>
+        <v>2.430888320090656</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>5.327957072469407</v>
+        <v>2.230564330414253</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>6.368667361062577</v>
+        <v>2.565982641051049</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>5.219000767100201</v>
+        <v>2.270690329326377</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>7.397172494030487</v>
+        <v>2.808926523366924</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>7.088316314695189</v>
+        <v>2.774077504302146</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>6.759981234288922</v>
+        <v>2.293535244296526</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>7.042420582386302</v>
+        <v>2.008697245824504</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>6.332655367562791</v>
+        <v>2.533644713986582</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>6.676917836006493</v>
+        <v>2.933652679986413</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>7.265476219427146</v>
+        <v>2.735088839440495</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>5.648302065687575</v>
+        <v>2.874241822719265</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>6.601380007825362</v>
+        <v>2.228032292811003</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>7.313521833055715</v>
+        <v>2.006891251301428</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>5.640282119192127</v>
+        <v>2.414445287536536</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>7.054126638366693</v>
+        <v>2.035061736842605</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>6.109861169757961</v>
+        <v>2.935320436930706</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>7.421348250637268</v>
+        <v>2.445580850003458</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>5.29722962843962</v>
+        <v>2.29122706308944</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>6.5897452298535</v>
+        <v>2.152351257326061</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>6.583641255193069</v>
+        <v>2.918067020570012</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>6.66081320211704</v>
+        <v>2.332486405233547</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>6.930291531214019</v>
+        <v>2.581592374680381</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>6.932170199589757</v>
+        <v>2.92248718918169</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>5.097331819802559</v>
+        <v>2.862353231498608</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>7.351823164295482</v>
+        <v>2.054949073146346</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>5.366019811385786</v>
+        <v>2.725331229516867</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>6.557228915545066</v>
+        <v>2.419174018484892</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>7.150253065791663</v>
+        <v>2.791042613019985</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>7.434190295722807</v>
+        <v>2.641929754804802</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>5.247901812072991</v>
+        <v>2.682592453509151</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
-        <v>7.498102819795436</v>
+        <v>2.768159115260517</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>5.821296263264498</v>
+        <v>2.849884689391875</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>7.31827318664058</v>
+        <v>2.811449763811086</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="n">
-        <v>7.398226271022454</v>
+        <v>2.011332575480671</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>6.006900479077446</v>
+        <v>2.407276415289563</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>5.04593219488387</v>
+        <v>2.697591393298909</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>6.027264810189852</v>
+        <v>2.847033029344779</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>5.022585691400065</v>
+        <v>2.594962773881004</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>6.174752262622475</v>
+        <v>2.894318383281858</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>7.21884158895951</v>
+        <v>2.210993371219161</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
-        <v>6.565065648250527</v>
+        <v>2.221135161475243</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>5.626117483175453</v>
+        <v>2.855978337295396</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>6.261897843789064</v>
+        <v>2.038762341030167</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>6.498379334349583</v>
+        <v>2.21573910056131</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>6.061457704586846</v>
+        <v>2.596312272583555</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>7.131236199591227</v>
+        <v>2.327240045242458</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>6.035140850145133</v>
+        <v>2.663764064025142</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>6.812498266355287</v>
+        <v>2.411558186274909</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>5.59275287222874</v>
+        <v>2.186778914036022</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>7.435209487207482</v>
+        <v>2.163792690780894</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>6.845334521599176</v>
+        <v>2.215142607149417</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>6.257064740390451</v>
+        <v>2.979374540804999</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>5.094858122562224</v>
+        <v>2.133380459325652</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>6.968291737939136</v>
+        <v>2.436617007047261</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>6.164399291916477</v>
+        <v>2.773412950836625</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>5.00190205087352</v>
+        <v>2.548031132395165</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>7.103540804043104</v>
+        <v>2.201395181884391</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>5.20967318320886</v>
+        <v>2.115749382347667</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>6.098918261734676</v>
+        <v>2.467159064687012</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>5.709725653646157</v>
+        <v>2.339067441452616</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>6.44562719852674</v>
+        <v>2.122780838630399</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="n">
-        <v>5.364278268306277</v>
+        <v>2.82389682131409</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="n">
-        <v>6.806956935644946</v>
+        <v>2.996286258748655</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="n">
-        <v>5.897921014865194</v>
+        <v>2.271448669020026</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="n">
-        <v>5.324977931102506</v>
+        <v>2.605632866944085</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="n">
-        <v>6.527458314998356</v>
+        <v>2.420094778197556</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>6.685222460770621</v>
+        <v>2.279112328329237</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
-        <v>6.923902039567641</v>
+        <v>2.611527937889543</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="n">
-        <v>6.691818343417417</v>
+        <v>2.240239405480536</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>5.020806024524781</v>
+        <v>2.192432426136014</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
-        <v>7.026377305050242</v>
+        <v>2.404679379492245</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>5.181019917319498</v>
+        <v>2.755666975952606</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="n">
-        <v>6.240701241941102</v>
+        <v>2.104454521714049</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>5.470828114402428</v>
+        <v>2.368920686934409</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="n">
-        <v>7.418296069652448</v>
+        <v>2.312160459473724</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="n">
-        <v>7.00285747015251</v>
+        <v>2.930937353924478</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="n">
-        <v>7.009927845974977</v>
+        <v>2.367591380439486</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>5.685241679691768</v>
+        <v>2.954673401031288</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>6.948575329565746</v>
+        <v>2.530665375553264</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="n">
-        <v>5.235428748325697</v>
+        <v>2.570824904077818</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="n">
-        <v>6.235060114866563</v>
+        <v>2.850045374461349</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="n">
-        <v>6.503484311883102</v>
+        <v>2.507838188112282</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="n">
-        <v>7.088837578144568</v>
+        <v>2.445192566148597</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>6.324768525021992</v>
+        <v>2.233696549607845</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="n">
-        <v>7.338649491210334</v>
+        <v>2.114258767670263</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="n">
-        <v>7.204514173317691</v>
+        <v>2.4954459588788</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>5.210659531792412</v>
+        <v>2.983910409327347</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>5.244496949330875</v>
+        <v>2.441364748751779</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>6.594856912457986</v>
+        <v>2.231771080649334</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="n">
-        <v>6.840325397980516</v>
+        <v>2.369914379214973</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="n">
-        <v>5.513715162523834</v>
+        <v>2.018858471584714</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="n">
-        <v>5.079609462101184</v>
+        <v>2.105040080110987</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="n">
-        <v>5.574141920692237</v>
+        <v>2.043596009710827</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="n">
-        <v>5.043958712049536</v>
+        <v>2.100193350504177</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>5.364756047008155</v>
+        <v>2.275890660023005</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
-        <v>6.595485100761801</v>
+        <v>2.921315999165849</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="n">
-        <v>6.238495886768924</v>
+        <v>2.923543845688925</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>6.148884074938676</v>
+        <v>2.052687527222913</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="n">
-        <v>5.695902412004986</v>
+        <v>2.427637545638628</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>6.970919055380844</v>
+        <v>2.415562202087409</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="n">
-        <v>5.924915586397539</v>
+        <v>2.754945645811175</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="n">
-        <v>7.369888879054942</v>
+        <v>2.143253247564417</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="n">
-        <v>6.856662781772181</v>
+        <v>2.94568702972012</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>5.314812439096521</v>
+        <v>2.62177396826307</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="n">
-        <v>7.101951832341697</v>
+        <v>2.379547370068555</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>5.766265460661585</v>
+        <v>2.186602413820121</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>5.096338831981795</v>
+        <v>2.991214092622364</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="n">
-        <v>6.598915910200922</v>
+        <v>2.839061150816673</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="n">
-        <v>6.814592359202623</v>
+        <v>2.174438663834237</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>7.101446776314472</v>
+        <v>2.592934215704901</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>6.498338265566207</v>
+        <v>2.720581868136764</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="n">
-        <v>6.189842279267042</v>
+        <v>2.712278842715536</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="n">
-        <v>6.602127374966919</v>
+        <v>2.73000862098804</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>6.294485731556022</v>
+        <v>2.453444889657958</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="n">
-        <v>5.823554063699389</v>
+        <v>2.40015738871401</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>5.87366608776223</v>
+        <v>2.01654241144136</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="n">
-        <v>5.205268491251536</v>
+        <v>2.364278235422058</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="n">
-        <v>6.89259749371975</v>
+        <v>2.321247779720296</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="n">
-        <v>5.4807473664634</v>
+        <v>2.352435713279325</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>5.915056585523029</v>
+        <v>2.811075285071383</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="n">
-        <v>7.295874793386964</v>
+        <v>2.749334065828394</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="n">
-        <v>5.294968179695307</v>
+        <v>2.194755130739292</v>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="n">
-        <v>5.055366600051502</v>
+        <v>2.251630301487055</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="n">
-        <v>5.942341680096058</v>
+        <v>2.662781281002427</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="n">
-        <v>6.559994641811164</v>
+        <v>2.436955166669928</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>6.82106486085268</v>
+        <v>2.874013565503174</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="n">
-        <v>6.347019458313548</v>
+        <v>2.732051793681499</v>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="n">
-        <v>6.422269505463694</v>
+        <v>2.172759421880118</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>5.805798999080226</v>
+        <v>2.816252394376332</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="n">
-        <v>5.473084796510853</v>
+        <v>2.500096883941174</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>5.956166648386971</v>
+        <v>2.980765080111341</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="n">
-        <v>5.667358760452737</v>
+        <v>2.896768995445246</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="n">
-        <v>5.576437066992542</v>
+        <v>2.236068750193327</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="n">
-        <v>6.658648311568355</v>
+        <v>2.354880714856938</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="n">
-        <v>5.888399833618436</v>
+        <v>2.904631719416161</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="n">
-        <v>5.240395461819658</v>
+        <v>2.84842097230194</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="n">
-        <v>5.147076457665642</v>
+        <v>2.659933693822603</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="n">
-        <v>6.718486912818394</v>
+        <v>2.209080109657383</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="n">
-        <v>7.424445704113256</v>
+        <v>2.37575453607082</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="n">
-        <v>6.469729071493463</v>
+        <v>2.912766435761469</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>6.090555290525776</v>
+        <v>2.392860333302809</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>6.673862799683183</v>
+        <v>2.453401337595732</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="n">
-        <v>5.522077018421577</v>
+        <v>2.414875913798914</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="n">
-        <v>6.683319287276651</v>
+        <v>2.849007637349797</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="n">
-        <v>6.520884401340937</v>
+        <v>2.697033182523941</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>6.886669863438934</v>
+        <v>2.10488518207357</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="n">
-        <v>5.387494170728112</v>
+        <v>2.303961653235937</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="n">
-        <v>6.747213140508592</v>
+        <v>2.820412844111307</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>5.697277318122865</v>
+        <v>2.004378638268094</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="n">
-        <v>6.248460944584017</v>
+        <v>2.391912754962712</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="n">
-        <v>6.738324530569906</v>
+        <v>2.868451273283337</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="n">
-        <v>6.466177388585425</v>
+        <v>2.859139106262214</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="n">
-        <v>6.334803294083331</v>
+        <v>2.12348067001833</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="n">
-        <v>5.655925249054171</v>
+        <v>2.078720963793478</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="n">
-        <v>5.898054024934508</v>
+        <v>2.57110339123746</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="n">
-        <v>6.232183672446755</v>
+        <v>2.131325796766138</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="n">
-        <v>5.353891153799701</v>
+        <v>2.717742268936308</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="n">
-        <v>5.884644808699089</v>
+        <v>2.470916891647263</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>6.432299359735492</v>
+        <v>2.116277110463898</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>5.245938070339835</v>
+        <v>2.60832874646884</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="n">
-        <v>6.935831287406429</v>
+        <v>2.005504930182528</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>6.903033729448527</v>
+        <v>2.247022745498974</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="n">
-        <v>5.172412480647939</v>
+        <v>2.62721178873677</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>7.474190633850317</v>
+        <v>2.169339113858201</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="n">
-        <v>7.304084991834894</v>
+        <v>2.000863380481042</v>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="n">
-        <v>5.97388678703151</v>
+        <v>2.619437762305762</v>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="n">
-        <v>5.210396731438241</v>
+        <v>2.910543852076151</v>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="n">
-        <v>6.067695033565156</v>
+        <v>2.880665693083124</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="n">
-        <v>5.446461345450077</v>
+        <v>2.080501856196608</v>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="n">
-        <v>6.785618080936739</v>
+        <v>2.172787734019253</v>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="n">
-        <v>5.222591659063884</v>
+        <v>2.777725564993708</v>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="n">
-        <v>5.180343551767241</v>
+        <v>2.985621365197092</v>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="n">
-        <v>6.019194370430955</v>
+        <v>2.837233549087745</v>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="n">
-        <v>5.967384173264123</v>
+        <v>2.142735154883687</v>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="n">
-        <v>5.242990000163481</v>
+        <v>2.516368796283689</v>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="n">
-        <v>6.716265642003156</v>
+        <v>2.121263677129309</v>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="n">
-        <v>7.358921754713037</v>
+        <v>2.370347032432385</v>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="n">
-        <v>5.337821537455735</v>
+        <v>2.201347937897855</v>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="n">
-        <v>5.602199608953708</v>
+        <v>2.883026820169242</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="n">
-        <v>6.124164735050237</v>
+        <v>2.534974154263367</v>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="n">
-        <v>5.254780451264001</v>
+        <v>2.659010008315649</v>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="n">
-        <v>5.536648500196394</v>
+        <v>2.555059678017532</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="n">
-        <v>5.770795436224545</v>
+        <v>2.490942003314996</v>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="n">
-        <v>5.783388104902773</v>
+        <v>2.818021225091031</v>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="n">
-        <v>6.668265594594973</v>
+        <v>2.279888582620454</v>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="n">
-        <v>5.181123247384014</v>
+        <v>2.334632059203656</v>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="n">
-        <v>7.207684714665728</v>
+        <v>2.417466019311579</v>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="n">
-        <v>6.47827182085787</v>
+        <v>2.963622781970464</v>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="n">
-        <v>5.092488216493259</v>
+        <v>2.220685608130165</v>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="n">
-        <v>5.94033003578105</v>
+        <v>2.280176349887499</v>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="n">
-        <v>7.088173935899076</v>
+        <v>2.09348188485263</v>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="n">
-        <v>7.410424395530932</v>
+        <v>2.822236599215965</v>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>5.042227918020286</v>
+        <v>2.385393825624705</v>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="n">
-        <v>7.203676531975148</v>
+        <v>2.205863169339808</v>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="n">
-        <v>5.006272370496588</v>
+        <v>2.716771549309815</v>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="n">
-        <v>6.655902217781132</v>
+        <v>2.271882316387595</v>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="n">
-        <v>6.280744774142184</v>
+        <v>2.332584041504145</v>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="n">
-        <v>7.169163029794957</v>
+        <v>2.042427491657663</v>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="n">
-        <v>6.340973793089284</v>
+        <v>2.007597753490942</v>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="n">
-        <v>6.866438764866341</v>
+        <v>2.272497645923671</v>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="n">
-        <v>6.26220818381698</v>
+        <v>2.255097868432814</v>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="n">
-        <v>5.627230789438222</v>
+        <v>2.325121806815984</v>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="n">
-        <v>6.772160859536513</v>
+        <v>2.734311916590219</v>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="n">
-        <v>5.197181510635378</v>
+        <v>2.905406730520645</v>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="n">
-        <v>5.840183051401032</v>
+        <v>2.880718038757879</v>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="n">
-        <v>6.084510238963211</v>
+        <v>2.113887267980252</v>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>6.519471954537321</v>
+        <v>2.095855869964388</v>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="n">
-        <v>5.041318554111584</v>
+        <v>2.472576021283776</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="n">
-        <v>6.743983774359461</v>
+        <v>2.93798445441776</v>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="n">
-        <v>6.744191014136849</v>
+        <v>2.096646484425884</v>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="n">
-        <v>7.038299799799016</v>
+        <v>2.753242552860461</v>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="n">
-        <v>7.415122207779872</v>
+        <v>2.681818955254816</v>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="n">
-        <v>6.765810951697024</v>
+        <v>2.34095757550232</v>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="n">
-        <v>7.297123443773595</v>
+        <v>2.601280315655349</v>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="n">
-        <v>6.12529949782512</v>
+        <v>2.221040504183219</v>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="n">
-        <v>5.173379675377898</v>
+        <v>2.97975748789246</v>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="n">
-        <v>6.650470034968037</v>
+        <v>2.76052898202544</v>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="n">
-        <v>6.16597218534049</v>
+        <v>2.354463345558757</v>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>6.881151089532591</v>
+        <v>2.982005647577209</v>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="n">
-        <v>5.435291490153516</v>
+        <v>2.552668899105695</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="n">
-        <v>5.719138794976494</v>
+        <v>2.594360696256155</v>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="n">
-        <v>7.094751980742178</v>
+        <v>2.453841594716026</v>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="n">
-        <v>5.397907077359808</v>
+        <v>2.520983232300889</v>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="n">
-        <v>5.282425063588498</v>
+        <v>2.743264672548359</v>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="n">
-        <v>6.633333333002129</v>
+        <v>2.236862237650027</v>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="n">
-        <v>6.062210290315058</v>
+        <v>2.137247845901275</v>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="n">
-        <v>5.169349125678989</v>
+        <v>2.34722865852655</v>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="n">
-        <v>6.770939764511752</v>
+        <v>2.872343488065257</v>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="n">
-        <v>5.465288843691983</v>
+        <v>2.457217823470903</v>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="n">
-        <v>6.062654681643346</v>
+        <v>2.58044504117393</v>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="n">
-        <v>5.222723225599125</v>
+        <v>2.82823228880661</v>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="n">
-        <v>5.132745382995329</v>
+        <v>2.083463458154595</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="n">
-        <v>7.008481563373835</v>
+        <v>2.100136449159701</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="n">
-        <v>6.824637160597387</v>
+        <v>2.86706552232119</v>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="n">
-        <v>5.038070797005638</v>
+        <v>2.179689832602731</v>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="n">
-        <v>6.129853649185668</v>
+        <v>2.207499944940636</v>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="n">
-        <v>7.227331223572988</v>
+        <v>2.727280323572457</v>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="n">
-        <v>5.906884029165327</v>
+        <v>2.984018250503585</v>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="n">
-        <v>6.079268082441605</v>
+        <v>2.296797906803661</v>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="n">
-        <v>6.953822414081322</v>
+        <v>2.668298944465158</v>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="n">
-        <v>5.705788495300164</v>
+        <v>2.800300004298388</v>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="n">
-        <v>5.358622250171314</v>
+        <v>2.198994758877849</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="n">
-        <v>5.325733399127174</v>
+        <v>2.930243373046627</v>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="n">
-        <v>5.219846241118082</v>
+        <v>2.522095513108157</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="n">
-        <v>5.497729287339235</v>
+        <v>2.475354530614074</v>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="n">
-        <v>5.137852691966367</v>
+        <v>2.338862359573191</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="n">
-        <v>6.294172116295583</v>
+        <v>2.59585428893699</v>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="n">
-        <v>5.727853620400564</v>
+        <v>2.844051700301826</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="n">
-        <v>6.307718576000076</v>
+        <v>2.068688463410101</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="n">
-        <v>5.738357584205913</v>
+        <v>2.655181663013997</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="n">
-        <v>7.46938521107988</v>
+        <v>2.339680778391556</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="n">
-        <v>5.28047621967307</v>
+        <v>2.362452317409097</v>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="n">
-        <v>6.163255491307882</v>
+        <v>2.130648893354643</v>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="n">
-        <v>5.396859317358232</v>
+        <v>2.731207260882529</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="n">
-        <v>6.824330957730773</v>
+        <v>2.058367033540001</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="n">
-        <v>7.067533935434219</v>
+        <v>2.396191960583675</v>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="n">
-        <v>5.492085554246096</v>
+        <v>2.511933381832406</v>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="n">
-        <v>5.502917965170071</v>
+        <v>2.609243229098091</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="n">
-        <v>7.417313732148422</v>
+        <v>2.117763025704129</v>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="n">
-        <v>5.688791763162946</v>
+        <v>2.866975317825895</v>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="n">
-        <v>5.891022700009444</v>
+        <v>2.188096163252332</v>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="n">
-        <v>6.246232049821682</v>
+        <v>2.758152425448487</v>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="n">
-        <v>6.379290393104251</v>
+        <v>2.372928563205728</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="n">
-        <v>6.418133842523639</v>
+        <v>2.67419734231066</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="n">
-        <v>5.462523966684898</v>
+        <v>2.917258345840942</v>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="n">
-        <v>6.492784260515593</v>
+        <v>2.050474201029232</v>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="n">
-        <v>5.961987965055309</v>
+        <v>2.660169653901392</v>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="n">
-        <v>6.084068315785894</v>
+        <v>2.68588751491232</v>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="n">
-        <v>5.577171482761752</v>
+        <v>2.551559978305883</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="n">
-        <v>6.957418540821312</v>
+        <v>2.56258374229138</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="n">
-        <v>5.202849736452761</v>
+        <v>2.880800731206107</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="n">
-        <v>6.033760786391898</v>
+        <v>2.600956971325488</v>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="n">
-        <v>5.120667510740246</v>
+        <v>2.567578788353033</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="n">
-        <v>6.76018502249205</v>
+        <v>2.601950743287862</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="n">
-        <v>6.227605529462313</v>
+        <v>2.647026622586987</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="n">
-        <v>6.602440639791176</v>
+        <v>2.931889113429583</v>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="n">
-        <v>6.259094951198785</v>
+        <v>2.531277598513834</v>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="n">
-        <v>6.193889980209262</v>
+        <v>2.125125528315689</v>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="n">
-        <v>7.430795412456151</v>
+        <v>2.868136810037316</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="n">
-        <v>5.994392119590107</v>
+        <v>2.080609941306145</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="n">
-        <v>7.096713898204161</v>
+        <v>2.311601584618251</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="n">
-        <v>6.515708976704961</v>
+        <v>2.500074669590678</v>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="n">
-        <v>6.765790789741035</v>
+        <v>2.730619545948532</v>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="n">
-        <v>6.059652888738498</v>
+        <v>2.254830586187805</v>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="n">
-        <v>5.289807186942234</v>
+        <v>2.274419342561539</v>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="n">
-        <v>5.814712380784172</v>
+        <v>2.879076145282767</v>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="n">
-        <v>6.413079859230713</v>
+        <v>2.9063571874987</v>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>6.795529499739658</v>
+        <v>2.876062716993149</v>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="n">
-        <v>6.121580220411622</v>
+        <v>2.65793163810113</v>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="n">
-        <v>5.282943055621948</v>
+        <v>2.744358270386272</v>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="n">
-        <v>6.60941759466909</v>
+        <v>2.250699830426721</v>
       </c>
     </row>
     <row r="1421">
       <c r="A1421" t="n">
-        <v>6.864639389629644</v>
+        <v>2.294506998167073</v>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="n">
-        <v>7.02881637952185</v>
+        <v>2.676648342481649</v>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="n">
-        <v>6.623940331939997</v>
+        <v>2.426344828191077</v>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="n">
-        <v>5.261054760361842</v>
+        <v>2.520725494714485</v>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="n">
-        <v>6.580792771085581</v>
+        <v>2.302358869975135</v>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="n">
-        <v>6.42435502903747</v>
+        <v>2.671509324405893</v>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="n">
-        <v>6.856660527048342</v>
+        <v>2.13269280140047</v>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="n">
-        <v>6.304456845456091</v>
+        <v>2.351597545104924</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="n">
-        <v>6.925559493335129</v>
+        <v>2.767072562619711</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="n">
-        <v>5.333141077332345</v>
+        <v>2.212495365219085</v>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="n">
-        <v>6.516155932174559</v>
+        <v>2.490487367374266</v>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="n">
-        <v>6.0842588548345</v>
+        <v>2.565143635240415</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="n">
-        <v>6.562806229068746</v>
+        <v>2.514596290899322</v>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="n">
-        <v>5.639965070037514</v>
+        <v>2.614858017370301</v>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="n">
-        <v>5.53806540331774</v>
+        <v>2.842910881663919</v>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="n">
-        <v>5.347745636201148</v>
+        <v>2.650592060455321</v>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="n">
-        <v>5.280306076456672</v>
+        <v>2.049985333024699</v>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="n">
-        <v>6.605749105352254</v>
+        <v>2.815881347148945</v>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="n">
-        <v>7.438008696431986</v>
+        <v>2.266264656697452</v>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="n">
-        <v>7.324515714432706</v>
+        <v>2.715466308180297</v>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="n">
-        <v>7.029427477240619</v>
+        <v>2.161763242365224</v>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" t="n">
-        <v>7.127099560704008</v>
+        <v>2.618173926863512</v>
       </c>
     </row>
   </sheetData>

--- a/smart_grid_simulation/src/methods/rate_schedule.xlsx
+++ b/smart_grid_simulation/src/methods/rate_schedule.xlsx
@@ -442,7207 +442,7207 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.905452316857921</v>
+        <v>2.347867150438602</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.688641132467337</v>
+        <v>2.60940200994937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.821369821608671</v>
+        <v>2.009838464814293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.651303858510317</v>
+        <v>2.793187662044045</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.869263897109767</v>
+        <v>2.630464264944109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.460042259577639</v>
+        <v>2.543272885843181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.975172527059165</v>
+        <v>2.341448385474464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.896343498278814</v>
+        <v>2.227476434824758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.822257621698275</v>
+        <v>2.279408261443752</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.578750460458145</v>
+        <v>2.960020369542193</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.005900198115503</v>
+        <v>2.427735953155969</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.578214314310075</v>
+        <v>2.057787261785156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.981674318692407</v>
+        <v>2.761633424970139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.835913240979119</v>
+        <v>2.483563689882009</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.601633778979699</v>
+        <v>2.755762958640565</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.402740146359086</v>
+        <v>2.855595133752933</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.832919461052176</v>
+        <v>2.01016648200376</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.267882674125869</v>
+        <v>2.773223890033028</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.848822315676561</v>
+        <v>2.456782813128501</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.335064685286247</v>
+        <v>2.05948141002728</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.489808779343359</v>
+        <v>2.322570016676422</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.147251650868471</v>
+        <v>2.746942215324808</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.01332027385526</v>
+        <v>2.224638790383907</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.597503864111947</v>
+        <v>2.155644644147117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.639434130055566</v>
+        <v>2.968645003319268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.30802716180412</v>
+        <v>2.308669658631641</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.836408341228334</v>
+        <v>2.567564269967885</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.520075967394891</v>
+        <v>2.530778597672371</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.565007073887097</v>
+        <v>2.439402909336382</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.721683995813127</v>
+        <v>2.921785379070534</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.286394450365916</v>
+        <v>2.034269829724109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.230661089873539</v>
+        <v>2.323705513692781</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.099118752377997</v>
+        <v>2.330782101491339</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.460766332804558</v>
+        <v>2.10814431788962</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.325046347262383</v>
+        <v>2.207997237071085</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.445906779775089</v>
+        <v>2.68688931559975</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.78090394666453</v>
+        <v>2.956602534989426</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.919261174495639</v>
+        <v>2.918928556829863</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.872750514968692</v>
+        <v>2.672583461283562</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.457131435855689</v>
+        <v>2.030339404999761</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2.80804565159941</v>
+        <v>2.173051677343881</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2.221291870811042</v>
+        <v>2.194484705319928</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.861487743159997</v>
+        <v>2.525726335578815</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.369877880354407</v>
+        <v>2.433190479334857</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2.652100307201621</v>
+        <v>2.608634819693874</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2.322390333695415</v>
+        <v>2.805729327630318</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.440838538262717</v>
+        <v>2.158875297065686</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.423938904261989</v>
+        <v>2.747221141011463</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.848848858511189</v>
+        <v>2.140754753916811</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.886799566871744</v>
+        <v>2.587797479368393</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.804495657079988</v>
+        <v>2.592794165159661</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.204182309778947</v>
+        <v>2.404759065975075</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.806376100492126</v>
+        <v>2.884463591307293</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.924858609726383</v>
+        <v>2.134802492691497</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.858977986889175</v>
+        <v>2.818767606260857</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.288507598997646</v>
+        <v>2.246964911313336</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.600696711366386</v>
+        <v>2.638816531522594</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.038086339920143</v>
+        <v>2.214916375380372</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.121083418867048</v>
+        <v>2.325143095005742</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.650489721012715</v>
+        <v>2.285735625623524</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.949110132104511</v>
+        <v>2.808673711827317</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.92893313988943</v>
+        <v>2.581007451271842</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.577262339979202</v>
+        <v>2.732190873647697</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.721917106018351</v>
+        <v>2.998930701307637</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.638100219922107</v>
+        <v>2.774776793914288</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.087094683091829</v>
+        <v>2.993616723446835</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.997355358834255</v>
+        <v>2.600904391769683</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.642216329099552</v>
+        <v>2.724010728931086</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.339867407276771</v>
+        <v>2.589362974292213</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.400746080475601</v>
+        <v>2.32711635534373</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.048422683332464</v>
+        <v>2.844283152371487</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.736953638198161</v>
+        <v>2.868877852075607</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.650068252825974</v>
+        <v>2.965983738148021</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.116124584495422</v>
+        <v>2.069559170633923</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.584182657861244</v>
+        <v>2.453147592993971</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.607293358300044</v>
+        <v>2.458964661088332</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.405079945971912</v>
+        <v>2.933611774686693</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.733063308520089</v>
+        <v>2.763262450255954</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.080212928298084</v>
+        <v>2.820332062041737</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.400570695564679</v>
+        <v>2.307547054470833</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.856588697887672</v>
+        <v>2.092335904233026</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.087026274884775</v>
+        <v>2.553797727301252</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.525018730105816</v>
+        <v>2.343346595143171</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.059620948413932</v>
+        <v>2.155325153921994</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.298923153683815</v>
+        <v>2.736215558744296</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.487718558665349</v>
+        <v>2.688974041637596</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.271616557712121</v>
+        <v>2.044084140387961</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.022820204948684</v>
+        <v>2.022336505522111</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.382019931225893</v>
+        <v>2.559425737717518</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.383231285215158</v>
+        <v>2.733551588945878</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.711446723010857</v>
+        <v>2.384077292514873</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.128853222637851</v>
+        <v>2.683172481199085</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.633945336092219</v>
+        <v>2.740750366480091</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.709849550453959</v>
+        <v>2.026489983257314</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.376741123865258</v>
+        <v>2.618417359144658</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.291054570460847</v>
+        <v>2.67303068512682</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.392903885314336</v>
+        <v>2.711320426383515</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.730481147425841</v>
+        <v>2.794799051890384</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.134030673972578</v>
+        <v>2.289005577670287</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.568290210248418</v>
+        <v>2.326264826314817</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.490759815718873</v>
+        <v>2.175981670490507</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2.629035681364051</v>
+        <v>2.840081187928666</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.362789208621329</v>
+        <v>2.434951833820436</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2.902125702488929</v>
+        <v>2.677277573595441</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2.750383040645452</v>
+        <v>2.431786389975462</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.13618614575009</v>
+        <v>2.52520000962272</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.404194566754591</v>
+        <v>2.360954434758875</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.668939942049789</v>
+        <v>2.943198364483752</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.52533737436401</v>
+        <v>2.747418961470816</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.899370454578746</v>
+        <v>2.78279452224819</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.773642572023397</v>
+        <v>2.125374293637648</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.521810763909995</v>
+        <v>2.876997636070959</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.114627090487416</v>
+        <v>2.053458789205655</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.031210639908062</v>
+        <v>2.041689620654985</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.786424276189561</v>
+        <v>2.337986528734381</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.821208450054296</v>
+        <v>2.015444285060781</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.385734753702105</v>
+        <v>2.336516076402711</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.611319221900986</v>
+        <v>2.238698444268259</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.207207648507313</v>
+        <v>2.60553403469701</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.841960760311347</v>
+        <v>2.54432583910262</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.049868950856923</v>
+        <v>2.334649038889326</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.890178013647601</v>
+        <v>2.342647837983238</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.337400816881879</v>
+        <v>2.217729721588134</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.651551554131203</v>
+        <v>2.030694577796339</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2.402928240930688</v>
+        <v>2.876350638045748</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.913280048174747</v>
+        <v>2.724931295320623</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.889393827504825</v>
+        <v>2.60355307176498</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2.659370929209166</v>
+        <v>2.507916544970162</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.918682204839468</v>
+        <v>2.410757144996604</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.199916825565266</v>
+        <v>2.822345124788197</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.294187186399793</v>
+        <v>2.253923072281798</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.578174362497896</v>
+        <v>2.416772470759385</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.907045694292389</v>
+        <v>2.051013030860199</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.935843434598552</v>
+        <v>2.957558647988069</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.029463782101876</v>
+        <v>2.150862480102113</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.614463454813455</v>
+        <v>2.549279864457345</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.313240842096643</v>
+        <v>2.21460003679756</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.955074017628854</v>
+        <v>2.247404510959113</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.30715484313708</v>
+        <v>2.05876275465894</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2.468635738240711</v>
+        <v>2.032029474841546</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2.354473092193778</v>
+        <v>2.374836577273062</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.579446202656538</v>
+        <v>2.315164416270258</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.679410791435868</v>
+        <v>2.218895195614665</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.77864435272685</v>
+        <v>2.960956388749905</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.337792105558814</v>
+        <v>2.715907697343779</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2.530578689551459</v>
+        <v>2.680363530587276</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2.235820131148244</v>
+        <v>2.715351722968922</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2.215458783765686</v>
+        <v>2.563360067553373</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.716997650942517</v>
+        <v>2.793636797127537</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2.006222543333813</v>
+        <v>2.847169506725478</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2.832114449382418</v>
+        <v>2.001984719485241</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.134955433548642</v>
+        <v>2.702816117396776</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2.689111204281323</v>
+        <v>2.912525335638012</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2.226654880568626</v>
+        <v>2.922578437686719</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2.917546084558439</v>
+        <v>2.882029758643455</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.433960605924427</v>
+        <v>2.164481859933372</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2.821854016083312</v>
+        <v>2.861668421143711</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.481752525661915</v>
+        <v>2.035026464465191</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.551952473483147</v>
+        <v>2.942231755522335</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.529431934649111</v>
+        <v>2.428613415480332</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2.32035056130572</v>
+        <v>2.746254226239455</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2.292859419780059</v>
+        <v>2.086518686884066</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.748238190282129</v>
+        <v>2.649684969669104</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2.693279373056086</v>
+        <v>2.488751353713254</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2.593979874637718</v>
+        <v>2.65576560677012</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2.890997824903297</v>
+        <v>2.999234570488999</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2.417179196542712</v>
+        <v>2.139553031183263</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.67010362290769</v>
+        <v>2.203768461743861</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2.818316517751057</v>
+        <v>2.350645881194459</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2.535595893834675</v>
+        <v>2.845671201481</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2.793059713008995</v>
+        <v>2.060122741303446</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2.918204953362359</v>
+        <v>2.303176612132318</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.435744056838619</v>
+        <v>2.425929180682302</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2.517292996103305</v>
+        <v>2.082488589681324</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2.28415773342141</v>
+        <v>2.398490744471861</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2.741170926659989</v>
+        <v>2.001696966925041</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2.751890076554841</v>
+        <v>2.987691744658274</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2.984981933264814</v>
+        <v>2.01869302821329</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.770804608341123</v>
+        <v>2.422580702925453</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.871944030861859</v>
+        <v>2.554923018700634</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.404588156426717</v>
+        <v>2.052225921314911</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.63909629742282</v>
+        <v>2.67280764691521</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.947116904298541</v>
+        <v>2.410444509721015</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.051607182258302</v>
+        <v>2.348487472196159</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2.848059085530545</v>
+        <v>2.472682817893849</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2.077844677393508</v>
+        <v>2.130896048236276</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2.857855249224776</v>
+        <v>2.870661153540361</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.463064734194701</v>
+        <v>2.272456152264286</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2.744629157376918</v>
+        <v>2.955733053541601</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2.963997892383538</v>
+        <v>2.02978088871606</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2.3792733825596</v>
+        <v>2.040382686189015</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.109927425576018</v>
+        <v>2.623352606915761</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2.532296193843222</v>
+        <v>2.423860873355796</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2.407645608927106</v>
+        <v>2.733440530938556</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2.357691239536452</v>
+        <v>2.652429924706452</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2.743049838848999</v>
+        <v>2.40817918937491</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2.066894290697314</v>
+        <v>2.69707641640424</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.573576779954653</v>
+        <v>2.836152127391648</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2.366661999444582</v>
+        <v>2.727927366698189</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.90525403800804</v>
+        <v>2.371434244564128</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2.508176298421983</v>
+        <v>2.468798772935744</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2.97497370335509</v>
+        <v>2.899331719843366</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.402129633211525</v>
+        <v>2.680541704597865</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2.994079942121471</v>
+        <v>2.560563600455672</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2.630311695512813</v>
+        <v>2.576529822244316</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2.537619564116735</v>
+        <v>2.497031730799425</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2.714698670322042</v>
+        <v>2.132308192522848</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2.887923582691741</v>
+        <v>2.875835498297221</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2.031201497025545</v>
+        <v>2.850252681936512</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2.295720621684346</v>
+        <v>2.049089390850187</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2.942919123508886</v>
+        <v>2.196764312312149</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2.54878867906871</v>
+        <v>2.627149563068234</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>2.278195900471109</v>
+        <v>2.132962184234412</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2.717173402804282</v>
+        <v>2.568310456469016</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2.770967382021325</v>
+        <v>2.579234176548911</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2.175744700941234</v>
+        <v>2.179637669399415</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2.279321248713051</v>
+        <v>2.95606192003097</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>2.350865325190507</v>
+        <v>2.538914375541856</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2.35109514444703</v>
+        <v>2.477112093138424</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2.848955120786447</v>
+        <v>2.595959173101318</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2.837894995867388</v>
+        <v>2.662278239948419</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>2.860912766447853</v>
+        <v>2.443978802746288</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2.67683809809439</v>
+        <v>2.305936653295863</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2.666318289724489</v>
+        <v>2.898619949797439</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2.997846168889576</v>
+        <v>2.475990578623468</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2.463207104060812</v>
+        <v>2.58762791626997</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>2.904060654488921</v>
+        <v>2.982184121063231</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.695017194001197</v>
+        <v>2.94308887241179</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2.637704832945566</v>
+        <v>2.447626744199015</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2.139975372993856</v>
+        <v>2.767322490267941</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2.856104307772555</v>
+        <v>2.520174758034389</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2.875899385960576</v>
+        <v>2.056962939250405</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2.412061784904223</v>
+        <v>2.968985221239774</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2.342293297883294</v>
+        <v>2.390423270762327</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2.012842478241625</v>
+        <v>2.113522617814112</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>2.641736092299984</v>
+        <v>2.692625281585804</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2.514506357194268</v>
+        <v>2.562021510469967</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2.140582546654307</v>
+        <v>2.725614611347942</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2.300485015042437</v>
+        <v>2.453848116730756</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2.8562107955048</v>
+        <v>2.079780585258828</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2.205623168863028</v>
+        <v>2.74996854289001</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2.454821177180726</v>
+        <v>2.461909083873714</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2.395579869950502</v>
+        <v>2.596376385115249</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2.039638152587595</v>
+        <v>2.689177975575471</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2.051214186204312</v>
+        <v>2.867652282744344</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2.108268565105802</v>
+        <v>2.422406978534877</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2.93301081300425</v>
+        <v>2.810073835598103</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2.166728800196791</v>
+        <v>2.846875883578935</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2.28838686801796</v>
+        <v>2.248441301595097</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2.234935855500147</v>
+        <v>2.353576756353362</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2.299027241737279</v>
+        <v>2.764662208253539</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2.365889407263119</v>
+        <v>2.279219354613485</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2.8936535051982</v>
+        <v>2.939005608877055</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.435018092067926</v>
+        <v>2.539948018453598</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.337216333955426</v>
+        <v>2.19444684226698</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>2.398987395143108</v>
+        <v>2.924925151534438</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2.80809738056746</v>
+        <v>2.289213038646192</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2.97184828479766</v>
+        <v>2.133598018134109</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>2.193285028914767</v>
+        <v>2.659191619217604</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2.164906542893286</v>
+        <v>2.782914216504072</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2.423683326358141</v>
+        <v>2.7823151144078</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>2.596281164226955</v>
+        <v>2.236050330341528</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2.632275257258074</v>
+        <v>2.169232085395016</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2.69500720559531</v>
+        <v>2.630059178942056</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2.688578110473146</v>
+        <v>2.264447610906417</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2.868399193853937</v>
+        <v>2.88851667121232</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2.898065281219125</v>
+        <v>2.061417725226845</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2.454817295492592</v>
+        <v>2.641145804283726</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>2.958152849844724</v>
+        <v>2.315862331218679</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2.559422557880324</v>
+        <v>2.263518079906706</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2.2666563510777</v>
+        <v>2.818253474461645</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.391618825161837</v>
+        <v>2.359972893360843</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2.876814310028406</v>
+        <v>2.474174362593847</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2.687967786486263</v>
+        <v>2.112100899367239</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2.224917538200202</v>
+        <v>2.749554400684665</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2.647969732141589</v>
+        <v>2.292059576997307</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.433467765169472</v>
+        <v>2.516351332919981</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2.530306637741217</v>
+        <v>2.447324529998756</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2.146260594537856</v>
+        <v>2.072656952711164</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2.381708185514064</v>
+        <v>2.927258646675977</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2.682846106063415</v>
+        <v>2.511743299647035</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2.790504917461838</v>
+        <v>2.12361768512343</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2.915203090289495</v>
+        <v>2.845160846343169</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2.571128216296305</v>
+        <v>2.761171618703712</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2.826331112923261</v>
+        <v>2.712187935666102</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2.902339547440879</v>
+        <v>2.972317858984892</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2.302814582429344</v>
+        <v>2.664909363348631</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2.788556878555445</v>
+        <v>2.84267632165527</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2.009453265557091</v>
+        <v>2.500130249836946</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2.834451245413961</v>
+        <v>2.723934682183886</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2.829642461501916</v>
+        <v>2.530186788598037</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2.620729183010545</v>
+        <v>2.617634071654511</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>2.346414218091324</v>
+        <v>2.838745923983559</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2.012526639309382</v>
+        <v>2.672167727389852</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2.79356070305472</v>
+        <v>2.340535667600069</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2.007059444040802</v>
+        <v>2.312026746712912</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2.553510060569787</v>
+        <v>2.188227569428745</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2.199289882293485</v>
+        <v>2.368613475613084</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2.608663658926353</v>
+        <v>2.017760882636435</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2.703940483101694</v>
+        <v>2.956436640712502</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.372347381428221</v>
+        <v>2.657345770756462</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2.476459318470999</v>
+        <v>2.775858195063651</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2.666175566033035</v>
+        <v>2.851327406682046</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2.801624870225463</v>
+        <v>2.865778304785997</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2.434111904267076</v>
+        <v>2.886357459245412</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2.451939252509321</v>
+        <v>2.483225673618282</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>2.607775754541869</v>
+        <v>2.999472966305319</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2.664867541779273</v>
+        <v>2.165765033882229</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2.38234074569891</v>
+        <v>2.146035773575606</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2.446253732159062</v>
+        <v>2.97742929326981</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2.294372957999895</v>
+        <v>2.019958062277107</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2.664341711523821</v>
+        <v>2.267389965954451</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2.214086010381079</v>
+        <v>2.781375108552713</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2.513655299864321</v>
+        <v>2.251843962960103</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2.254349498389832</v>
+        <v>2.447764950404091</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2.913379354157493</v>
+        <v>2.779748089309063</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2.262973125013923</v>
+        <v>2.198065829875443</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>2.990444239257998</v>
+        <v>2.344614284389783</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>2.831267909420548</v>
+        <v>2.769870655725636</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2.473269134588294</v>
+        <v>2.157081073567269</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>2.262601697444731</v>
+        <v>2.181243632546757</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2.877501527899913</v>
+        <v>2.41467870254329</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2.270612230082961</v>
+        <v>2.273186166226033</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2.494635557519508</v>
+        <v>2.487681520698491</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2.105730979436742</v>
+        <v>2.961672116324701</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2.200141579844507</v>
+        <v>2.411371779980739</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2.900862767689548</v>
+        <v>2.783740931818555</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2.982759844821986</v>
+        <v>2.39538425210766</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2.383454485600083</v>
+        <v>2.095344101823453</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2.112418640760751</v>
+        <v>2.152981001504874</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2.391119277567142</v>
+        <v>2.341638837361502</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>2.8841666714554</v>
+        <v>2.619200626165145</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>2.116266784621691</v>
+        <v>2.820444488335793</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2.830380511294907</v>
+        <v>2.294579048185335</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>2.14326946352272</v>
+        <v>2.637540250298413</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2.079796537057008</v>
+        <v>2.187920573162519</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>2.925022460386333</v>
+        <v>2.93158247823525</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>2.021970483154262</v>
+        <v>2.649914620032569</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2.038746142804511</v>
+        <v>2.182887086069357</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>2.326260352435279</v>
+        <v>2.621682864200759</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2.74857112702804</v>
+        <v>2.08299648948655</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2.124925085178652</v>
+        <v>2.128250142254554</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2.924371009808611</v>
+        <v>2.787545438345388</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2.304598465972206</v>
+        <v>2.165946792056574</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2.416412459873091</v>
+        <v>2.941889050593022</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2.306908740122366</v>
+        <v>2.383997238900454</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2.690813235450364</v>
+        <v>2.700901907048372</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2.607427995044254</v>
+        <v>2.371504954347087</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2.318106220624138</v>
+        <v>2.06474581301805</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2.308775583689002</v>
+        <v>2.418196581796119</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2.098860499074792</v>
+        <v>2.388204173109392</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2.478635499573891</v>
+        <v>2.977725272855641</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2.523690077962518</v>
+        <v>2.981694324650105</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2.618630318468455</v>
+        <v>2.575907306355182</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2.761220686982494</v>
+        <v>2.68632279425319</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2.647936734099796</v>
+        <v>2.172670216905866</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2.443402089544228</v>
+        <v>2.625371950083317</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2.67732720340761</v>
+        <v>2.151171245933718</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2.769961459884432</v>
+        <v>2.046873552837195</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2.446637682241338</v>
+        <v>2.629478179856048</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2.851706742184263</v>
+        <v>2.868233382365809</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2.015354768058721</v>
+        <v>2.114706069338079</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2.002250529291451</v>
+        <v>2.259743480469555</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2.75942509665584</v>
+        <v>2.452494249628124</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>2.826967559881525</v>
+        <v>2.886898536493717</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>2.25046399276164</v>
+        <v>2.014410474678706</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>2.392282970898771</v>
+        <v>2.110469048070088</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>2.30555566350762</v>
+        <v>2.110983904796424</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>2.676017955963427</v>
+        <v>2.827304945720717</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2.972055795484083</v>
+        <v>2.307594735378062</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>2.601405006668013</v>
+        <v>2.223602815597636</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2.199580005762552</v>
+        <v>2.790766906090592</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>2.484550104935678</v>
+        <v>2.950174147275717</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>2.231692399016658</v>
+        <v>2.512585091935225</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2.698529729814321</v>
+        <v>2.644031255815352</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>2.191401948669305</v>
+        <v>2.77889530165973</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>2.727607615081127</v>
+        <v>2.326570949988895</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>2.199511357175235</v>
+        <v>2.001604548344347</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>2.026637085843277</v>
+        <v>2.225193300980506</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>2.948168339727534</v>
+        <v>2.226022644335797</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>2.716298628110025</v>
+        <v>2.943963972400703</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>2.915025618649313</v>
+        <v>2.066465124767979</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>2.31741900051767</v>
+        <v>2.363228829534217</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>2.090532494903862</v>
+        <v>2.621395373643218</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>2.199762556360053</v>
+        <v>2.208838284887737</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>2.958205627058899</v>
+        <v>2.975310443950219</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>2.914423573634828</v>
+        <v>2.23335704017198</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>2.075655619432797</v>
+        <v>2.506399648337466</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>2.243541130936161</v>
+        <v>2.812035499029757</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>2.138280703458352</v>
+        <v>2.260880241943005</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>2.442193882222899</v>
+        <v>2.180458958694263</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>2.099764975554808</v>
+        <v>2.871234002463677</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>2.518985521486051</v>
+        <v>2.908013186838681</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>2.57355571636475</v>
+        <v>2.534935161320424</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>2.124954724866056</v>
+        <v>2.152732756414016</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2.078528511763118</v>
+        <v>2.418111923517676</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>2.405842472454785</v>
+        <v>2.623158374346362</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>2.928083107599349</v>
+        <v>2.706030012009143</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>2.188237278374983</v>
+        <v>2.642284032301777</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>2.945495968730225</v>
+        <v>2.665709144149959</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>2.928596018311023</v>
+        <v>2.93733439704885</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>2.095426303109781</v>
+        <v>2.814099487887832</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>2.646951176998179</v>
+        <v>2.540111080433532</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>2.842301802523957</v>
+        <v>2.605576297521017</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>2.208393102840484</v>
+        <v>2.073990328131806</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>2.212019433123687</v>
+        <v>2.523191919359845</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>2.045447391491176</v>
+        <v>2.971159991460376</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>2.501424769883824</v>
+        <v>2.587519135297221</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>2.529663757573368</v>
+        <v>2.84700501040418</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>2.400948358652664</v>
+        <v>2.349899582466354</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>2.633692096856815</v>
+        <v>2.588552113664605</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>2.06918112195428</v>
+        <v>2.363962257304807</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>2.242456303389506</v>
+        <v>2.151635666528139</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>2.246162792390633</v>
+        <v>2.05175290946273</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>2.127633724883122</v>
+        <v>2.103169377162181</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>2.154618848402246</v>
+        <v>2.351864288897728</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>2.310660605600117</v>
+        <v>2.944197149548379</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>2.357717654343703</v>
+        <v>2.754004837247386</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2.635334435626655</v>
+        <v>2.536342595819725</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>2.388414329822226</v>
+        <v>2.327313683926057</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>2.485087841031617</v>
+        <v>2.101981965816415</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2.290882430672333</v>
+        <v>2.745119178673307</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>2.534575337843529</v>
+        <v>2.350412433949074</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>2.083378375512423</v>
+        <v>2.511881271586321</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>2.983977055830681</v>
+        <v>2.335090990249546</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>2.812155373205965</v>
+        <v>2.513289517847919</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>2.704989363964735</v>
+        <v>2.718505146175838</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>2.891476713429332</v>
+        <v>2.924759835473519</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>2.21592356317341</v>
+        <v>2.138148794287897</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>2.70734972967191</v>
+        <v>2.999221113795196</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>2.984378260770467</v>
+        <v>2.176645456044848</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>2.007634500629743</v>
+        <v>2.338866935270516</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>2.835243432642903</v>
+        <v>2.86817760610917</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>2.829361978048456</v>
+        <v>2.080390987311915</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>2.792070407265645</v>
+        <v>2.09238853351205</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>2.025906675550946</v>
+        <v>2.228340438269315</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>2.131853729496243</v>
+        <v>2.179476695090127</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>2.40379425045484</v>
+        <v>2.573229665235294</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>2.531125762762486</v>
+        <v>2.355903916671257</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>2.996371400948189</v>
+        <v>2.081520863022755</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>2.091743817317747</v>
+        <v>2.712600624967294</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>2.898543962320635</v>
+        <v>2.504056662654897</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>2.817842374049117</v>
+        <v>2.995946500308069</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>2.399198022460809</v>
+        <v>2.34150063329679</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>2.69127644175521</v>
+        <v>2.683329668205812</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>2.489505931724094</v>
+        <v>2.956913386240602</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>2.500595000008706</v>
+        <v>2.304938705862222</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>2.116872125436596</v>
+        <v>2.823649663315777</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>2.731937559137167</v>
+        <v>2.126916395638794</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>2.090916188982047</v>
+        <v>2.658877188313514</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>2.850360768226826</v>
+        <v>2.747453365110556</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>2.284273746992382</v>
+        <v>2.324113836615938</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>2.781665622136205</v>
+        <v>2.545104387173479</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>2.610703095591992</v>
+        <v>2.802657282413661</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>2.275746251434132</v>
+        <v>2.461494421225549</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>2.166993785485665</v>
+        <v>2.142172463343961</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>2.64132918769291</v>
+        <v>2.653110733945438</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>2.295449157203794</v>
+        <v>2.503486564330808</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>2.10376121716663</v>
+        <v>2.998835368154098</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>2.50782520986661</v>
+        <v>2.326768367188842</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>2.202138504901278</v>
+        <v>2.861947403566241</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>2.814349483512247</v>
+        <v>2.295777476854356</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>2.915567648376491</v>
+        <v>2.742161956499946</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>2.046366826397219</v>
+        <v>2.192110298763393</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>2.771428322864456</v>
+        <v>2.545234915567357</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>2.37942803117554</v>
+        <v>2.524928734361264</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>2.679306341702139</v>
+        <v>2.9031900225452</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>2.981320417023884</v>
+        <v>2.237023635694511</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>2.000120825021351</v>
+        <v>2.104471533042033</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>2.774975271376269</v>
+        <v>2.036601613577898</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>2.437471938865433</v>
+        <v>2.384311467311381</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>2.191869432495533</v>
+        <v>2.757485571598955</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>2.614264529562329</v>
+        <v>2.441075373839591</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>2.183799233153526</v>
+        <v>2.789356717169164</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>2.439347275751679</v>
+        <v>2.525890689507468</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>2.103534628185322</v>
+        <v>2.234440207458016</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>2.322252071327608</v>
+        <v>2.689990956500511</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>2.772005504990789</v>
+        <v>2.975673418749381</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>2.416933066918198</v>
+        <v>2.978042357584108</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>2.117890236445507</v>
+        <v>2.583161508765916</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>2.688688139327842</v>
+        <v>2.949502823827707</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>2.603197174171816</v>
+        <v>2.20537774869522</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>2.050925596486997</v>
+        <v>2.167262084243235</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>2.945651200117426</v>
+        <v>2.192868302195722</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>2.828656641262422</v>
+        <v>2.724549041506076</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>2.198726586314416</v>
+        <v>2.27420985696526</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>2.11643253049649</v>
+        <v>2.734007592577277</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>2.298805595268282</v>
+        <v>2.241323664582672</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>2.26122210636515</v>
+        <v>2.534301136954729</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>2.956281690906744</v>
+        <v>2.140706701368676</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>2.689222665863307</v>
+        <v>2.714971862442606</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>2.188798622528072</v>
+        <v>2.973521685381547</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>2.040946638453775</v>
+        <v>2.099278421244783</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>2.261370205945316</v>
+        <v>2.137700014982229</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>2.127820732538155</v>
+        <v>2.892867461944704</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>2.210807307240167</v>
+        <v>2.555983028745203</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>2.52776454186506</v>
+        <v>2.157168423438699</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>2.006019024577396</v>
+        <v>2.889421604757586</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>2.235671348854192</v>
+        <v>2.794850975708088</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>2.12950758477255</v>
+        <v>2.827234287149293</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>2.395020975901833</v>
+        <v>2.74477516472597</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>2.310246312513522</v>
+        <v>2.572332469145716</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>2.460747681411227</v>
+        <v>2.37376222062416</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>2.470503483569036</v>
+        <v>2.38567340095761</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>2.630777383856127</v>
+        <v>2.736178498124962</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>2.540376978791359</v>
+        <v>2.272920831914625</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>2.791503241335124</v>
+        <v>2.222267914477438</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>2.318147679615517</v>
+        <v>2.132975315786663</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>2.854760978256282</v>
+        <v>2.603319109498352</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>2.070737859169454</v>
+        <v>2.128153474775239</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>2.443631510945226</v>
+        <v>2.287506815872226</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>2.195480691699567</v>
+        <v>2.570369324805824</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>2.062477628509087</v>
+        <v>2.577234335624912</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>2.88713897715757</v>
+        <v>2.767353765774833</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>2.021695110571813</v>
+        <v>2.148123370074932</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>2.225292473759738</v>
+        <v>2.589875512886745</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>2.693614112071368</v>
+        <v>2.469996218184619</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>2.670831411317002</v>
+        <v>2.372313258192089</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>2.828551673055714</v>
+        <v>2.224965563002693</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>2.162629092137148</v>
+        <v>2.965259066055163</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>2.082370702331755</v>
+        <v>2.467007956583413</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>2.8225272698702</v>
+        <v>2.084590734138791</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>2.83268714862908</v>
+        <v>2.089561571222018</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>2.714230434737726</v>
+        <v>2.552105196386974</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>2.721977076120504</v>
+        <v>2.42043962712095</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>2.357808318825288</v>
+        <v>2.686264487119015</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>2.791720392244561</v>
+        <v>2.072302260729336</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>2.975374990241022</v>
+        <v>2.516493104887404</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>2.008181863118979</v>
+        <v>2.316056910773232</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>2.324270159446497</v>
+        <v>2.569931411772361</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>2.945859964695644</v>
+        <v>2.37600509684406</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>2.573281075493074</v>
+        <v>2.257035659460878</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>2.749773247442642</v>
+        <v>2.295634705085781</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>2.406050731695991</v>
+        <v>2.980625812681224</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>2.788480189936874</v>
+        <v>2.826480012130052</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>2.941307799309726</v>
+        <v>2.951525916457723</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>2.396292530893552</v>
+        <v>2.422640053429235</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>2.885609652424917</v>
+        <v>2.263913884260438</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>2.728424705698977</v>
+        <v>2.489496616200132</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>2.514864601737728</v>
+        <v>2.954444536933688</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>2.575537413220437</v>
+        <v>2.847483993399433</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>2.425185943995743</v>
+        <v>2.037750292630786</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>2.465815322086196</v>
+        <v>2.237561121585669</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>2.421708991966043</v>
+        <v>2.907238150448736</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>2.405689150134368</v>
+        <v>2.009413725164555</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>2.649248225365025</v>
+        <v>2.985527681367575</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>2.009209178112267</v>
+        <v>2.252862175924292</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>2.117191710329657</v>
+        <v>2.154688943520027</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>2.005438321534376</v>
+        <v>2.020136873715938</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>2.29361234085092</v>
+        <v>2.366712496238919</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>2.296399066437284</v>
+        <v>2.37608758232806</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>2.015519825968197</v>
+        <v>2.889504613353455</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>2.473056097398239</v>
+        <v>2.206858123420843</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>2.061004031188115</v>
+        <v>2.097679511808481</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>2.305126067101869</v>
+        <v>2.726097659059031</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>2.935326041568354</v>
+        <v>2.324469058225688</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>2.034921378283348</v>
+        <v>2.618911986807778</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>2.077620441238601</v>
+        <v>2.551821991834217</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>2.006319483218884</v>
+        <v>2.601626017262367</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>2.700498083054418</v>
+        <v>2.199259429566525</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>2.969315033550537</v>
+        <v>2.813205092208699</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>2.602552736835427</v>
+        <v>2.10674436410994</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>2.287603616739829</v>
+        <v>2.032576842867829</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>2.206725388430542</v>
+        <v>2.119799141341768</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>2.351161516927532</v>
+        <v>2.480526025551267</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>2.26861247438217</v>
+        <v>2.922574410668227</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>2.557423419013836</v>
+        <v>2.854923114053587</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>2.73887802174462</v>
+        <v>2.189391556320855</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>2.760039350719761</v>
+        <v>2.348028375967936</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>2.817011308150464</v>
+        <v>2.635877542123808</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>2.296002068017414</v>
+        <v>2.694539376705961</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>2.640890045424063</v>
+        <v>2.845784637285672</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>2.36034689573119</v>
+        <v>2.05718873438935</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>2.144009565617603</v>
+        <v>2.420307369691804</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>2.212729198739801</v>
+        <v>2.427094111815895</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>2.827211427918597</v>
+        <v>2.601909411934779</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>2.822652355226899</v>
+        <v>2.385609385848634</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>2.780724967683159</v>
+        <v>2.658231420330739</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>2.732394241152608</v>
+        <v>2.313024534014803</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>2.205397561546985</v>
+        <v>2.532425426679695</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>2.246520768716191</v>
+        <v>2.248623464457969</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>2.273984567955499</v>
+        <v>2.633763244754537</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>2.776498313852182</v>
+        <v>2.235795227177451</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>2.386266037842453</v>
+        <v>2.193883045960756</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>2.066620927958729</v>
+        <v>2.598121922364167</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>2.366555206590017</v>
+        <v>2.22285411208786</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>2.407218721847403</v>
+        <v>2.460696537918535</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>2.517235099172967</v>
+        <v>2.157345311044986</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>2.621408260747662</v>
+        <v>2.007089909415365</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>2.716410319472101</v>
+        <v>2.243396442847221</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>2.542426775374214</v>
+        <v>2.427220644346866</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>2.710200508841151</v>
+        <v>2.241982928829395</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>2.185854289461854</v>
+        <v>2.831832864041306</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>2.247780621200289</v>
+        <v>2.168767846384347</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>2.712772779328476</v>
+        <v>2.138365535149283</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>2.133852272091993</v>
+        <v>2.781107439864263</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>2.687366420147784</v>
+        <v>2.576791874394064</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>2.91785704924662</v>
+        <v>2.542411851214889</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>2.491136626880071</v>
+        <v>2.320246517434253</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>2.19407222085032</v>
+        <v>2.736637192365936</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>2.489023608079894</v>
+        <v>2.172259066011374</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>2.67288636369011</v>
+        <v>2.502888507265495</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>2.749718384002082</v>
+        <v>2.496535701749463</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>2.279086750782601</v>
+        <v>2.993856451125259</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>2.989795098403257</v>
+        <v>2.433945093835044</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>2.750779472194343</v>
+        <v>2.24118170640183</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>2.255730690938536</v>
+        <v>2.644352955355235</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>2.113101953028681</v>
+        <v>2.808946692384901</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>2.578338013371604</v>
+        <v>2.872879993896344</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>2.613208017295807</v>
+        <v>2.487044397169062</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>2.944536292182081</v>
+        <v>2.877193375658047</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>2.708228517101214</v>
+        <v>2.572903857881775</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>2.415446419841255</v>
+        <v>2.30085050006661</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>2.304331270048655</v>
+        <v>2.162579238553286</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>2.369807547558033</v>
+        <v>2.113837701162346</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>2.753024918803763</v>
+        <v>2.479973059847691</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>2.755634557364397</v>
+        <v>2.231826506410624</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>2.800278271297122</v>
+        <v>2.809981787746284</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>2.037818870705171</v>
+        <v>2.607149415352223</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>2.174737750062405</v>
+        <v>2.951515299035364</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>2.405693008489441</v>
+        <v>2.667933692333477</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>2.30799883873766</v>
+        <v>2.556752534530994</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>2.032972540477332</v>
+        <v>2.727154427013426</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>2.378761198532082</v>
+        <v>2.027638734863335</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>2.82555964893263</v>
+        <v>2.094931059368041</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>2.212753530109604</v>
+        <v>2.967339701225144</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>2.761573412507118</v>
+        <v>2.260637211321851</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>2.695833735166707</v>
+        <v>2.617789265308842</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>2.339459705491357</v>
+        <v>2.352330200176113</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>2.248947425295378</v>
+        <v>2.856635801465236</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>2.858915603833388</v>
+        <v>2.479958345788823</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>2.772823048210692</v>
+        <v>2.656137780359193</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>2.113705602335118</v>
+        <v>2.330915780408746</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>2.633677198565268</v>
+        <v>2.224667824828224</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>2.272709861130818</v>
+        <v>2.143264799077952</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>2.110755528216809</v>
+        <v>2.516763605319623</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>2.963542083295371</v>
+        <v>2.649273614910235</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>2.746159929508622</v>
+        <v>2.525084904017998</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>2.864223897468325</v>
+        <v>2.030169038527539</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>2.109166635249485</v>
+        <v>2.658881323521802</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>2.427912288315769</v>
+        <v>2.909161446125139</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>2.059990241117515</v>
+        <v>2.609669353490096</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>2.843967748659991</v>
+        <v>2.510812833207706</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>2.314165712698433</v>
+        <v>2.974839240923824</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>2.844849824192284</v>
+        <v>2.465246294689667</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>2.265168724176442</v>
+        <v>2.266286986478735</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>2.82865035036295</v>
+        <v>2.623724373885406</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>2.077787020368971</v>
+        <v>2.746677966323051</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>2.794755416208602</v>
+        <v>2.614941292326047</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>2.115705869256067</v>
+        <v>2.642645622234989</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>2.615311439694016</v>
+        <v>2.554643871579599</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>2.033226175898659</v>
+        <v>2.6691861614166</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>2.972946112750085</v>
+        <v>2.043195046353377</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>2.935756403558811</v>
+        <v>2.889279356443084</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>2.771495074307978</v>
+        <v>2.646617955650518</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>2.776055141044139</v>
+        <v>2.374724388578242</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>2.300756018483369</v>
+        <v>2.213670670987671</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>2.540121078901199</v>
+        <v>2.731529980012079</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>2.146997816413205</v>
+        <v>2.810011497340528</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>2.104612639576082</v>
+        <v>2.187526253602186</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>2.695846533786034</v>
+        <v>2.345500777374566</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>2.731969390401736</v>
+        <v>2.176433762701805</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>2.034809023664435</v>
+        <v>2.657167672285704</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>2.187007406619196</v>
+        <v>2.57954131263248</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>2.664536277344149</v>
+        <v>2.580769364155749</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>2.281314484656711</v>
+        <v>2.955806646615435</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>2.713385689728748</v>
+        <v>2.367498761893755</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>2.016255462434497</v>
+        <v>2.223106891365689</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>2.206291984846005</v>
+        <v>2.45415825517576</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>2.088101936813161</v>
+        <v>2.044570116309335</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>2.917250958478413</v>
+        <v>2.511532279234993</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>2.515074652257679</v>
+        <v>2.56659756032786</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>2.709857321127865</v>
+        <v>2.490743184833429</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>2.451215361485561</v>
+        <v>2.53494019061573</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>2.72978027456964</v>
+        <v>2.246571523189055</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>2.548903056045132</v>
+        <v>2.556945020785624</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>2.275190616725916</v>
+        <v>2.916411501032213</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>2.623913069551719</v>
+        <v>2.119396296070128</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>2.332321302005456</v>
+        <v>2.478405477958543</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>2.78493746997352</v>
+        <v>2.696986625778356</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>2.044920880846501</v>
+        <v>2.657913262422622</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>2.956470076742281</v>
+        <v>2.226838593484979</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>2.726058874091867</v>
+        <v>2.026866967699872</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>2.652340987302917</v>
+        <v>2.581394940811054</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>2.186519023637064</v>
+        <v>2.955154718900305</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>2.136863739226098</v>
+        <v>2.509057326398349</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>2.938773632875979</v>
+        <v>2.657436909605981</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>2.510411497263447</v>
+        <v>2.423580847453932</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>2.181658858393443</v>
+        <v>2.198034802432454</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>2.928623925717807</v>
+        <v>2.899466322343789</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>2.504728274656425</v>
+        <v>2.246724050265424</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>2.582374282539806</v>
+        <v>2.551563387527862</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>2.042051651149269</v>
+        <v>2.372374034480843</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>2.44217533455029</v>
+        <v>2.661373959586728</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>2.479713925090127</v>
+        <v>2.630689365721198</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>2.01119615873611</v>
+        <v>2.122707727581544</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>2.549214746253081</v>
+        <v>2.2907952710516</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>2.163421738526196</v>
+        <v>2.355002469281147</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>2.653108511075116</v>
+        <v>2.281160029344911</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>2.698359101249904</v>
+        <v>2.532263052923965</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>2.336097224884247</v>
+        <v>2.179620804681389</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>2.846200276942759</v>
+        <v>2.896145697738056</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>2.204209699048677</v>
+        <v>2.334748944635813</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>2.030629314452787</v>
+        <v>2.548819058832569</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>2.86718307838329</v>
+        <v>2.023894816393216</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>2.236612047811606</v>
+        <v>2.265414422975139</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>2.583457624237157</v>
+        <v>2.504338148205216</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>2.865548723393048</v>
+        <v>2.276932028009813</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>2.952184902587414</v>
+        <v>2.141244148200709</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>2.679904867360209</v>
+        <v>2.594094896944158</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>2.056165719718219</v>
+        <v>2.405196304976192</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>2.485899038373184</v>
+        <v>2.205188868372037</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>2.500065870204801</v>
+        <v>2.282124910645623</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>2.263249919049389</v>
+        <v>2.201747634293786</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>2.692658218379948</v>
+        <v>2.463087268749615</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>2.799743658225723</v>
+        <v>2.752938741969173</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>2.892373367005629</v>
+        <v>2.377140689156425</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>2.71299968792018</v>
+        <v>2.08256035023272</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>2.643315557503685</v>
+        <v>2.689278481610262</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>2.641460604239394</v>
+        <v>2.456768864652088</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>2.575488213629074</v>
+        <v>2.407478034808762</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>2.49898027224235</v>
+        <v>2.780540296702422</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>2.508183740906109</v>
+        <v>2.303054881416118</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>2.797199526034752</v>
+        <v>2.589341134552706</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>2.347864885999758</v>
+        <v>2.863846598212621</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>2.399491901240485</v>
+        <v>2.171579747973842</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>2.782823842721664</v>
+        <v>2.880727841396109</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>2.178052305421545</v>
+        <v>2.868953596509361</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>2.316415195271976</v>
+        <v>2.207155253819742</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>2.773677296879393</v>
+        <v>2.952106098949969</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>2.441861265007535</v>
+        <v>2.280973954525654</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>2.805180287353077</v>
+        <v>2.621808148622446</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>2.163273503571462</v>
+        <v>2.592079903046136</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>2.293342887217239</v>
+        <v>2.857774135497073</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>2.417990062768127</v>
+        <v>2.336225258387712</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>2.573747241065637</v>
+        <v>2.123851156380933</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>2.928243456393457</v>
+        <v>2.279319414669801</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>2.05880102963618</v>
+        <v>2.985231884017382</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>2.999471300014167</v>
+        <v>2.391301143168656</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>2.701535464606693</v>
+        <v>2.774991183906098</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>2.531331539054048</v>
+        <v>2.461920206073305</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>2.348304462775041</v>
+        <v>2.252622980390753</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>2.033694434952104</v>
+        <v>2.151463401306766</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>2.479245643567276</v>
+        <v>2.409470413075264</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>2.756347160435228</v>
+        <v>2.385137396486079</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>2.39044562773126</v>
+        <v>2.717115724392199</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>2.165284441888003</v>
+        <v>2.149221958552348</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>2.94244820119013</v>
+        <v>2.839760159419381</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>2.948922714757721</v>
+        <v>2.10801168087418</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>2.915698919863837</v>
+        <v>2.033108422157779</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>2.40579634356958</v>
+        <v>2.407077920634186</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>2.601293368430859</v>
+        <v>2.852455833960989</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>2.201995698324786</v>
+        <v>2.272399056351473</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>2.936269566960135</v>
+        <v>2.399599189885409</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>2.570323761953496</v>
+        <v>2.927080028460746</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>2.779435673625244</v>
+        <v>2.564619562514272</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>2.656955350742399</v>
+        <v>2.452427139536168</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>2.069846155047634</v>
+        <v>2.462737604452649</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>2.964577535043053</v>
+        <v>2.598908684445089</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>2.923173079660208</v>
+        <v>2.668321353189532</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>2.226906971731937</v>
+        <v>2.267792397682623</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>2.83893922820363</v>
+        <v>2.152189118397492</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>2.064992741833406</v>
+        <v>2.530139140485021</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>2.74619275410048</v>
+        <v>2.223540881565675</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>2.038587542483589</v>
+        <v>2.112697591719992</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>2.831892952023069</v>
+        <v>2.620935871025966</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>2.367653536755106</v>
+        <v>2.258937875699782</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>2.431720619999608</v>
+        <v>2.055906881115922</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>2.872364131491163</v>
+        <v>2.86667077779237</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>2.655398142394162</v>
+        <v>2.178429312146783</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>2.071152313819458</v>
+        <v>2.073122247164335</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>2.240629659070883</v>
+        <v>2.418264003121478</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>2.799389436815633</v>
+        <v>2.940300862263114</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>2.392434483316527</v>
+        <v>2.335709172929624</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>2.936438021804995</v>
+        <v>2.572927763416423</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>2.573560912329063</v>
+        <v>2.481149990055308</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>2.4319755035788</v>
+        <v>2.817873128327005</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>2.821014131037515</v>
+        <v>2.199104093475936</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>2.93858668667954</v>
+        <v>2.87801748994911</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>2.077383985438026</v>
+        <v>2.581307639251537</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>2.053805292138577</v>
+        <v>2.711749854980487</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>2.845121549465687</v>
+        <v>2.771668151181929</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>2.190652526521855</v>
+        <v>2.010460603025969</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>2.862685020135638</v>
+        <v>2.862319725499586</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>2.022275334987106</v>
+        <v>2.028259623836437</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>2.554961499846319</v>
+        <v>2.357725995665666</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>2.738150360101772</v>
+        <v>2.772379716017804</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>2.550819471410877</v>
+        <v>2.300313211665564</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>2.887340231656608</v>
+        <v>2.308661970227767</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>2.927098657414247</v>
+        <v>2.619827082410105</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>2.389016295833951</v>
+        <v>2.698879750177371</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>2.936165683371136</v>
+        <v>2.988958336932595</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>2.427129880174858</v>
+        <v>2.516113023237169</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>2.492615967561224</v>
+        <v>2.424164242723096</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>2.599946100946354</v>
+        <v>2.803927620567775</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>2.630074826882308</v>
+        <v>2.898295518436543</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>2.590921719228708</v>
+        <v>2.961111299612203</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>2.890053261566905</v>
+        <v>2.020923303865252</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>2.50305358719259</v>
+        <v>2.039209491795972</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>2.176116958106453</v>
+        <v>2.029383216973913</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>2.037898493406554</v>
+        <v>2.795885914234507</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>2.948036474966188</v>
+        <v>2.118759523380674</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>2.268183939530507</v>
+        <v>2.440461066712178</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>2.550160823792162</v>
+        <v>2.075563719936555</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>2.696853380184713</v>
+        <v>2.495890882668766</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>2.586290994313967</v>
+        <v>2.274869419066718</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>2.452024584693514</v>
+        <v>2.878182495440154</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>2.318893376699098</v>
+        <v>2.156623747828474</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>2.420259705811441</v>
+        <v>2.807503640739537</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>2.883537939627471</v>
+        <v>2.252127154375781</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>2.971891507628509</v>
+        <v>2.556626375504901</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>2.321633011223367</v>
+        <v>2.05133951903108</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>2.883633066034634</v>
+        <v>2.845385844469983</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>2.404586393553623</v>
+        <v>2.436687912278461</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>2.463492296471688</v>
+        <v>2.541709723929675</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>2.357353966343145</v>
+        <v>2.70822196859469</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>2.76250013583318</v>
+        <v>2.042358464325351</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>2.399019974249154</v>
+        <v>2.19027908455535</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>2.549859473109032</v>
+        <v>2.837831935017785</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>2.856776358649747</v>
+        <v>2.28602432541814</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>2.640916497105229</v>
+        <v>2.164338503981149</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>2.344762143767285</v>
+        <v>2.223387802479927</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>2.840315618453236</v>
+        <v>2.973376858471636</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>2.202876177150545</v>
+        <v>2.593687442875251</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>2.196104847809491</v>
+        <v>2.915119154147101</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>2.703378984960718</v>
+        <v>2.523101281408454</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>2.249602188853238</v>
+        <v>2.001613066972151</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>2.921487285822854</v>
+        <v>2.224455702440868</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>2.530183632965137</v>
+        <v>2.837472391368973</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>2.838944460898694</v>
+        <v>2.79940023200872</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>2.967380289092763</v>
+        <v>2.517263020125475</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>2.708330054312969</v>
+        <v>2.768156579083707</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>2.494829527348329</v>
+        <v>2.577319540199909</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>2.677188249519546</v>
+        <v>2.023187987647411</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>2.147647509935572</v>
+        <v>2.877866379126144</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>2.649425992501353</v>
+        <v>2.142994914541104</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>2.004179024840417</v>
+        <v>2.034700052765003</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>2.996466861396894</v>
+        <v>2.878530133266836</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>2.949078920812996</v>
+        <v>2.122642772812188</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>2.310334710787076</v>
+        <v>2.663348861017388</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>2.937965664083736</v>
+        <v>2.387711475089437</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>2.145995780584534</v>
+        <v>2.724953993686788</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>2.717359883373559</v>
+        <v>2.115114957564365</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>2.033766785939147</v>
+        <v>2.171579644927065</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>2.152462882307375</v>
+        <v>2.701019851618032</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>2.422171644867102</v>
+        <v>2.143515887957514</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>2.204439473268351</v>
+        <v>2.458061529375299</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>2.321499969168375</v>
+        <v>2.299815685462602</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>2.44172270524274</v>
+        <v>2.182251323340972</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>2.270855556678755</v>
+        <v>2.074728909822519</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>2.741591494054594</v>
+        <v>2.585062230990192</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>2.321967016854942</v>
+        <v>2.612280360346978</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>2.773985508096744</v>
+        <v>2.81094149175235</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>2.980215026512595</v>
+        <v>2.452427975920771</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>2.911278628024117</v>
+        <v>2.309669753215615</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>2.686108560805466</v>
+        <v>2.645838208342199</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>2.27306998201376</v>
+        <v>2.510945093197441</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>2.270408513357438</v>
+        <v>2.576890428788141</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>2.681412891365345</v>
+        <v>2.33075309106495</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>2.321986897434095</v>
+        <v>2.261964341091951</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>2.243550699517158</v>
+        <v>2.191523183489691</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>2.942261870464281</v>
+        <v>2.430822023960333</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>2.392797190352567</v>
+        <v>2.047287346358429</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>2.790665209983718</v>
+        <v>2.768771327009957</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>2.189108668042618</v>
+        <v>2.459780120671611</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>2.142433700537625</v>
+        <v>2.893913573599935</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>2.235750493537757</v>
+        <v>2.132003611804355</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>2.298476187053746</v>
+        <v>2.384428597538558</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>2.776934364981264</v>
+        <v>2.78342780995735</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>2.337933359796065</v>
+        <v>2.175117175306339</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>2.968832091034088</v>
+        <v>2.644911391209072</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>2.827612690243594</v>
+        <v>2.537935507331927</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>2.958942770200677</v>
+        <v>2.784009039342827</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>2.693908691030225</v>
+        <v>2.75135106516683</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>2.20187953243421</v>
+        <v>2.52635843915256</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>2.116297099880883</v>
+        <v>2.617929480288912</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>2.707008614735344</v>
+        <v>2.47834949979763</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>2.232437685039435</v>
+        <v>2.445217674546158</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>2.079682965389885</v>
+        <v>2.384774711593983</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>2.53501043626732</v>
+        <v>2.990262673268068</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>2.622329623698958</v>
+        <v>2.199637600359132</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>2.289154153064268</v>
+        <v>2.360066446517053</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>2.442686182386957</v>
+        <v>2.465208517921111</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>2.93795506740959</v>
+        <v>2.270389507038077</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>2.932241299996141</v>
+        <v>2.677164263232689</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>2.814833977328091</v>
+        <v>2.01247666574067</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>2.016206461216171</v>
+        <v>2.200039347398119</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>2.630685210426899</v>
+        <v>2.707690798594939</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>2.43938043732871</v>
+        <v>2.971599741721036</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>2.280426531725519</v>
+        <v>2.255868782432236</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>2.396951188220046</v>
+        <v>2.817558445919308</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>2.165653327039006</v>
+        <v>2.660412236121286</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>2.507127235536804</v>
+        <v>2.710054311219378</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>2.102996367774076</v>
+        <v>2.207209591275651</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>2.239300801257875</v>
+        <v>2.785140395491521</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>2.400653347239546</v>
+        <v>2.641903848384091</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>2.842712875105185</v>
+        <v>2.580836386260126</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>2.217694223704093</v>
+        <v>2.014252332018919</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>2.600921378891308</v>
+        <v>2.602890949706767</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>2.028907765205792</v>
+        <v>2.10502827761364</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>2.007890654183109</v>
+        <v>2.029221689934782</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>2.682769586790437</v>
+        <v>2.773099499077003</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>2.37896604177699</v>
+        <v>2.813432456943652</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>2.857315389010585</v>
+        <v>2.916859122321351</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>2.723406618548896</v>
+        <v>2.898478219667792</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>2.762922195068403</v>
+        <v>2.364614394003996</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>2.663473843949447</v>
+        <v>2.475071131482109</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>2.250690232874804</v>
+        <v>2.810954515645887</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>2.835626476110912</v>
+        <v>2.730984496298848</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>2.162860960576239</v>
+        <v>2.038591802679153</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>2.705032082532799</v>
+        <v>2.325603572291348</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>2.192468537252145</v>
+        <v>2.192930044668756</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>2.66349472166756</v>
+        <v>2.147961836340941</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>2.45497627087995</v>
+        <v>2.098646925670655</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>2.347025477430291</v>
+        <v>2.810076597195017</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>2.237908737896467</v>
+        <v>2.706337216596122</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>2.336143825582278</v>
+        <v>2.789306467928911</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>2.859007732344188</v>
+        <v>2.322595565818698</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>2.47722471423342</v>
+        <v>2.559356348849706</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>2.099255175879655</v>
+        <v>2.791555966580673</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>2.942935381049403</v>
+        <v>2.454406466732514</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>2.798907806325457</v>
+        <v>2.08379861779219</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>2.367657592191906</v>
+        <v>2.426228878987669</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>2.589439898492894</v>
+        <v>2.271251184740258</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>2.882217133944894</v>
+        <v>2.116867336659049</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>2.640732816840558</v>
+        <v>2.388086498985884</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>2.688609712847629</v>
+        <v>2.672371282054151</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>2.539248794880104</v>
+        <v>2.423533453185828</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>2.373000828079309</v>
+        <v>2.467686757515757</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>2.263417809981368</v>
+        <v>2.6873760292725</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>2.17865268665542</v>
+        <v>2.562744745388731</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>2.409333812633217</v>
+        <v>2.369904559241529</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>2.554925624049843</v>
+        <v>2.026417049190325</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>2.161739855991295</v>
+        <v>2.04105493716593</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>2.238996601233625</v>
+        <v>2.550145773561839</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>2.809572320827876</v>
+        <v>2.379521644605493</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>2.996262926356308</v>
+        <v>2.48240729804047</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>2.098821676885077</v>
+        <v>2.773539249001217</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>2.819523843880174</v>
+        <v>2.605304817923256</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>2.72704837824709</v>
+        <v>2.564337416144537</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>2.392039238596178</v>
+        <v>2.531985195055944</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>2.840308205126816</v>
+        <v>2.958705971438145</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>2.82460881701329</v>
+        <v>2.361082953475699</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>2.603571035557618</v>
+        <v>2.673508857461585</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>2.403776199180041</v>
+        <v>2.097690427163456</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>2.243783256352194</v>
+        <v>2.824079969367052</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>2.456161343438543</v>
+        <v>2.437121644101075</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>2.307282737620154</v>
+        <v>2.260585180813524</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>2.914064211171012</v>
+        <v>2.166006341185045</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>2.330143464517521</v>
+        <v>2.902483563609389</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>2.572713413576763</v>
+        <v>2.390309882668973</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>2.128451066279648</v>
+        <v>2.747750036816647</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>2.584558604322382</v>
+        <v>2.523055185136739</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>2.07339252229009</v>
+        <v>2.393957236874729</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>2.843094964938894</v>
+        <v>2.922321547337013</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>2.883812477999911</v>
+        <v>2.149587124192192</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>2.940433539576251</v>
+        <v>2.440723238591035</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>2.540415970585177</v>
+        <v>2.70748780122725</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>2.63064946277357</v>
+        <v>2.602408915285013</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>2.259327810290306</v>
+        <v>2.875127718024786</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>2.373958227441884</v>
+        <v>2.062172121312883</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>2.942795913649062</v>
+        <v>2.456633328737126</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>2.793413334245327</v>
+        <v>2.593279833211302</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>2.728321898550569</v>
+        <v>2.830666958914458</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>2.117798635289972</v>
+        <v>2.828929214376417</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>2.917186424148493</v>
+        <v>2.589486031100884</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>2.181303380400902</v>
+        <v>2.629676884582639</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>2.166945707118773</v>
+        <v>2.350208870839748</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>2.458279812589173</v>
+        <v>2.019017777984833</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>2.300284251972545</v>
+        <v>2.475262631453329</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>2.67792042506248</v>
+        <v>2.148466644460332</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>2.081444155449411</v>
+        <v>2.460808390598321</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>2.043515007705912</v>
+        <v>2.194438511546917</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>2.303210059435989</v>
+        <v>2.206633186946426</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>2.199146904479571</v>
+        <v>2.587616169450599</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>2.733797833149525</v>
+        <v>2.007483870774353</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>2.545590727753686</v>
+        <v>2.945316536624516</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>2.741594893544785</v>
+        <v>2.894470590794228</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>2.827298032206822</v>
+        <v>2.145311695526773</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>2.889888612189894</v>
+        <v>2.083064753744686</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>2.05846679415619</v>
+        <v>2.967561336353158</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>2.451885707330108</v>
+        <v>2.916854091733726</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>2.733511197499726</v>
+        <v>2.174488679753682</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>2.310204647413665</v>
+        <v>2.69770909908025</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>2.978288166774676</v>
+        <v>2.759705445712524</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>2.13337584908148</v>
+        <v>2.016313225290828</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>2.252485192273222</v>
+        <v>2.672514781454875</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>2.126973251901569</v>
+        <v>2.371314972692038</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>2.28443533365505</v>
+        <v>2.858474119768087</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>2.7301647758423</v>
+        <v>2.111883217971507</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>2.033700996249033</v>
+        <v>2.305663679130412</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>2.085997781273979</v>
+        <v>2.770707533005746</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>2.520673679902314</v>
+        <v>2.474062895006883</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>2.559948421220299</v>
+        <v>2.365864292609605</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>2.93113301192443</v>
+        <v>2.89047988182471</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>2.283828497543475</v>
+        <v>2.963138766544093</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>2.856040767136718</v>
+        <v>2.754789228438403</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>2.596028696178228</v>
+        <v>2.257533298160968</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>2.844335981851218</v>
+        <v>2.327776653479118</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>2.523614316676056</v>
+        <v>2.18523738134512</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>2.03596986917525</v>
+        <v>2.37683193518146</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>2.029509057968583</v>
+        <v>2.14391112248197</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>2.000579991611852</v>
+        <v>2.785579306670714</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>2.974747412171168</v>
+        <v>2.640474011918094</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>2.637205910656327</v>
+        <v>2.768882486816047</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>2.474038884149497</v>
+        <v>2.351953091783018</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>2.12568277120521</v>
+        <v>2.509561609257248</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>2.744487731079746</v>
+        <v>2.708685273560305</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>2.627754994248039</v>
+        <v>2.616281697985058</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>2.908818275744743</v>
+        <v>2.976122516680462</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>2.842525452368562</v>
+        <v>2.961737174570558</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>2.947804037992478</v>
+        <v>2.049006008515438</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>2.58785477819664</v>
+        <v>2.517628303163427</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>2.031809641700659</v>
+        <v>2.448786578497335</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>2.963245870527997</v>
+        <v>2.297901420809271</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>2.662024343151632</v>
+        <v>2.104946321311947</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>2.439484866055362</v>
+        <v>2.146326859058348</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>2.903792100345292</v>
+        <v>2.248054183685743</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>2.002699568594338</v>
+        <v>2.564961756887369</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>2.361900016902931</v>
+        <v>2.89044142535144</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>2.257582623718992</v>
+        <v>2.362458149004734</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>2.134535540720261</v>
+        <v>2.683961426332238</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>2.436740646850311</v>
+        <v>2.2283772200828</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>2.82452372996118</v>
+        <v>2.17796748458925</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>2.271263238709434</v>
+        <v>2.004387050608169</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>2.725745367295207</v>
+        <v>2.112905081970171</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>2.618468353354169</v>
+        <v>2.448732865180553</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>2.369631864172065</v>
+        <v>2.743639357638685</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>2.652994830655864</v>
+        <v>2.87786289317928</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>2.552143772834814</v>
+        <v>2.370830287849206</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>2.016207194481892</v>
+        <v>2.348737269295603</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>2.217454789401475</v>
+        <v>2.53644360536774</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>2.097112864727554</v>
+        <v>2.691206108500973</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>2.960500829296492</v>
+        <v>2.332782442830147</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>2.767108589490814</v>
+        <v>2.335456850060197</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>2.698138240547251</v>
+        <v>2.304689230579169</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>2.25473169792147</v>
+        <v>2.652956047242021</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>2.387865854604494</v>
+        <v>2.001514054937609</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>2.322434957801697</v>
+        <v>2.929764998433608</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>2.38947980971389</v>
+        <v>2.000087351508095</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>2.671624155862127</v>
+        <v>2.105511352543152</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>2.90824171175261</v>
+        <v>2.711339588901863</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>2.339752923724917</v>
+        <v>2.352890821467358</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>2.66152751506716</v>
+        <v>2.408513198397142</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>2.76322292875928</v>
+        <v>2.669365179599589</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>2.759573106064785</v>
+        <v>2.674958750209517</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>2.045276787044247</v>
+        <v>2.864031223761787</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>2.899523242486583</v>
+        <v>2.359301552539447</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>2.315274644480398</v>
+        <v>2.4746144490191</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>2.087941213013157</v>
+        <v>2.856205556632295</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>2.384068155786474</v>
+        <v>2.837064967176055</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>2.516821261167776</v>
+        <v>2.807019665797997</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>2.186843772382688</v>
+        <v>2.941231601888902</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>2.029826055896213</v>
+        <v>2.244343063515833</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>2.592701495694682</v>
+        <v>2.954317673311395</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>2.886154049207782</v>
+        <v>2.432382254078527</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>2.304466223173397</v>
+        <v>2.28188571006202</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>2.940622546985642</v>
+        <v>2.651954131060104</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>2.314240206790147</v>
+        <v>2.068290541842575</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>2.738186458661194</v>
+        <v>2.612055306395168</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>2.79991375230051</v>
+        <v>2.278468561380367</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>2.081619523579516</v>
+        <v>2.233597100032446</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>2.74129869014902</v>
+        <v>2.689721590952457</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>2.994358045037198</v>
+        <v>2.340411476330298</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>2.334288011615713</v>
+        <v>2.286588162890056</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>2.217624398496341</v>
+        <v>2.493150558408586</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>2.551429838534458</v>
+        <v>2.381400342579266</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>2.35139016826367</v>
+        <v>2.836884602450383</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>2.96154865191615</v>
+        <v>2.776146735706999</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>2.97307284039689</v>
+        <v>2.02748322774039</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>2.079428922202129</v>
+        <v>2.110516255928156</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>2.50426085112555</v>
+        <v>2.736598463619982</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>2.315997035384683</v>
+        <v>2.408461799506143</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>2.444804516298822</v>
+        <v>2.10162393985907</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>2.986293313002847</v>
+        <v>2.963689196590477</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>2.320701230054423</v>
+        <v>2.894906633709549</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>2.24486601516639</v>
+        <v>2.901460832764934</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>2.886286829659629</v>
+        <v>2.288583172833968</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>2.747276664817869</v>
+        <v>2.05440685032198</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>2.118333692769689</v>
+        <v>2.608117922454533</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>2.142990982630834</v>
+        <v>2.651617579258701</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>2.682141208048182</v>
+        <v>2.883450196008763</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>2.512038825962984</v>
+        <v>2.525298610655891</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>2.11005251040462</v>
+        <v>2.973464686405102</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>2.044032347790489</v>
+        <v>2.672226844109879</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>2.647925253636393</v>
+        <v>2.742875526594835</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>2.911620028280152</v>
+        <v>2.821448101040815</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>2.413871954281925</v>
+        <v>2.251614038884693</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>2.711140042158001</v>
+        <v>2.011646038378136</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>2.82204292286552</v>
+        <v>2.435662091414001</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>2.509353183934535</v>
+        <v>2.407405010847174</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>2.942436072834778</v>
+        <v>2.537207212954792</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>2.301768771042411</v>
+        <v>2.552977222741855</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>2.556245065753387</v>
+        <v>2.735451773887734</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>2.183925266598289</v>
+        <v>2.690034902338335</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>2.209672650304145</v>
+        <v>2.732719055143492</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>2.296619523057094</v>
+        <v>2.814522013733031</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>2.559976831159801</v>
+        <v>2.127699959247169</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>2.393319482982031</v>
+        <v>2.582427932261718</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>2.043500939437474</v>
+        <v>2.749584578098559</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>2.789865975994079</v>
+        <v>2.568972190186097</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>2.298037022935576</v>
+        <v>2.164977729031628</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>2.228179400753871</v>
+        <v>2.830225487298253</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>2.850947907729269</v>
+        <v>2.730179373457535</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>2.163617409175603</v>
+        <v>2.237676972787528</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>2.125679335644869</v>
+        <v>2.438837410500229</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>2.019523874807647</v>
+        <v>2.859248985160185</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>2.359156482813213</v>
+        <v>2.831143207912404</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>2.657971223791395</v>
+        <v>2.871628907657905</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>2.413109406214132</v>
+        <v>2.368160945318335</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>2.217148472447645</v>
+        <v>2.449259900425997</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>2.829540964073973</v>
+        <v>2.368059644989644</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>2.81982585382978</v>
+        <v>2.838101554463576</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>2.917641308279629</v>
+        <v>2.467346569385421</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>2.050757396712264</v>
+        <v>2.005130175927854</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>2.1113735287569</v>
+        <v>2.443384466144189</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>2.349084234515193</v>
+        <v>2.85657111371947</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>2.294329746823426</v>
+        <v>2.64642547273506</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>2.91931741952094</v>
+        <v>2.738180826389083</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>2.532767147021697</v>
+        <v>2.437208842536409</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>2.682076465008174</v>
+        <v>2.799450354522915</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>2.179010898755552</v>
+        <v>2.811407285478313</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>2.475870608698976</v>
+        <v>2.041142779056496</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>2.020255893799082</v>
+        <v>2.85236445574244</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>2.019372300716663</v>
+        <v>2.8059341678437</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>2.042558816882404</v>
+        <v>2.570400157069643</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>2.809218464251255</v>
+        <v>2.005966102630632</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>2.430888320090656</v>
+        <v>2.831557552682868</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>2.230564330414253</v>
+        <v>2.149012913144988</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>2.565982641051049</v>
+        <v>2.996832653842071</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>2.270690329326377</v>
+        <v>2.865858793624138</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>2.808926523366924</v>
+        <v>2.342526605206501</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>2.774077504302146</v>
+        <v>2.166246751426486</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>2.293535244296526</v>
+        <v>2.642096114708012</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>2.008697245824504</v>
+        <v>2.403403900001136</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>2.533644713986582</v>
+        <v>2.664721682552819</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>2.933652679986413</v>
+        <v>2.129844497018276</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>2.735088839440495</v>
+        <v>2.817427607193235</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>2.874241822719265</v>
+        <v>2.648150421906761</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>2.228032292811003</v>
+        <v>2.519356522192726</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>2.006891251301428</v>
+        <v>2.83878899468344</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>2.414445287536536</v>
+        <v>2.040826019978927</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>2.035061736842605</v>
+        <v>2.915333439899985</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>2.935320436930706</v>
+        <v>2.646507299017487</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>2.445580850003458</v>
+        <v>2.822247246374742</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>2.29122706308944</v>
+        <v>2.136900586017497</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>2.152351257326061</v>
+        <v>2.150736424092547</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>2.918067020570012</v>
+        <v>2.636370308372682</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>2.332486405233547</v>
+        <v>2.296345999037055</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>2.581592374680381</v>
+        <v>2.486802266621034</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>2.92248718918169</v>
+        <v>2.972789742644777</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>2.862353231498608</v>
+        <v>2.516080987039351</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>2.054949073146346</v>
+        <v>2.108477865762865</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>2.725331229516867</v>
+        <v>2.352295370476043</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>2.419174018484892</v>
+        <v>2.342535504890648</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>2.791042613019985</v>
+        <v>2.472171323950931</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>2.641929754804802</v>
+        <v>2.088291428212063</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>2.682592453509151</v>
+        <v>2.490867587107052</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
-        <v>2.768159115260517</v>
+        <v>2.477700124390569</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>2.849884689391875</v>
+        <v>2.894512038836529</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>2.811449763811086</v>
+        <v>2.678310870753393</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="n">
-        <v>2.011332575480671</v>
+        <v>2.24853522999525</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>2.407276415289563</v>
+        <v>2.361398658710011</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>2.697591393298909</v>
+        <v>2.02354372087365</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>2.847033029344779</v>
+        <v>2.280813016519404</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>2.594962773881004</v>
+        <v>2.585901636267807</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>2.894318383281858</v>
+        <v>2.657154970206013</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>2.210993371219161</v>
+        <v>2.235248484950223</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
-        <v>2.221135161475243</v>
+        <v>2.932749896375824</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>2.855978337295396</v>
+        <v>2.355610713098718</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>2.038762341030167</v>
+        <v>2.219506259333977</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>2.21573910056131</v>
+        <v>2.830974251489137</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>2.596312272583555</v>
+        <v>2.80720548038913</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>2.327240045242458</v>
+        <v>2.820534697705583</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>2.663764064025142</v>
+        <v>2.857894417090019</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>2.411558186274909</v>
+        <v>2.908762265894336</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>2.186778914036022</v>
+        <v>2.041263358570742</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>2.163792690780894</v>
+        <v>2.916160873868419</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>2.215142607149417</v>
+        <v>2.682195474333331</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>2.979374540804999</v>
+        <v>2.168435877537433</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>2.133380459325652</v>
+        <v>2.788804725008907</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>2.436617007047261</v>
+        <v>2.144756135425938</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>2.773412950836625</v>
+        <v>2.53441244952626</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>2.548031132395165</v>
+        <v>2.570072584045004</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>2.201395181884391</v>
+        <v>2.833859245484132</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>2.115749382347667</v>
+        <v>2.437514471432514</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>2.467159064687012</v>
+        <v>2.069995704371199</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>2.339067441452616</v>
+        <v>2.892590370569899</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>2.122780838630399</v>
+        <v>2.189724805096697</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="n">
-        <v>2.82389682131409</v>
+        <v>2.069469464477331</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="n">
-        <v>2.996286258748655</v>
+        <v>2.425877143554328</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="n">
-        <v>2.271448669020026</v>
+        <v>2.682281199602956</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="n">
-        <v>2.605632866944085</v>
+        <v>2.53475146127376</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="n">
-        <v>2.420094778197556</v>
+        <v>2.253939110814567</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>2.279112328329237</v>
+        <v>2.887533660757663</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
-        <v>2.611527937889543</v>
+        <v>2.609486765773597</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="n">
-        <v>2.240239405480536</v>
+        <v>2.38202850248009</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>2.192432426136014</v>
+        <v>2.349218791956284</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
-        <v>2.404679379492245</v>
+        <v>2.448701861502017</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>2.755666975952606</v>
+        <v>2.67158196796268</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="n">
-        <v>2.104454521714049</v>
+        <v>2.677856227898677</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>2.368920686934409</v>
+        <v>2.135493413109108</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="n">
-        <v>2.312160459473724</v>
+        <v>2.419727230663993</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="n">
-        <v>2.930937353924478</v>
+        <v>2.100697086471792</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="n">
-        <v>2.367591380439486</v>
+        <v>2.170237943769061</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>2.954673401031288</v>
+        <v>2.480380640637296</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>2.530665375553264</v>
+        <v>2.436271548507716</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="n">
-        <v>2.570824904077818</v>
+        <v>2.171554924278411</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="n">
-        <v>2.850045374461349</v>
+        <v>2.926473045044019</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="n">
-        <v>2.507838188112282</v>
+        <v>2.691942914357204</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="n">
-        <v>2.445192566148597</v>
+        <v>2.857260574439759</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>2.233696549607845</v>
+        <v>2.378262449666516</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="n">
-        <v>2.114258767670263</v>
+        <v>2.341241595769678</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="n">
-        <v>2.4954459588788</v>
+        <v>2.900491860088371</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>2.983910409327347</v>
+        <v>2.197796105607508</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>2.441364748751779</v>
+        <v>2.287645441947115</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>2.231771080649334</v>
+        <v>2.693371086900009</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="n">
-        <v>2.369914379214973</v>
+        <v>2.551851701165591</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="n">
-        <v>2.018858471584714</v>
+        <v>2.598002485568961</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="n">
-        <v>2.105040080110987</v>
+        <v>2.699763349303876</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="n">
-        <v>2.043596009710827</v>
+        <v>2.312980194514552</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="n">
-        <v>2.100193350504177</v>
+        <v>2.43524773247999</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>2.275890660023005</v>
+        <v>2.189493577233335</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
-        <v>2.921315999165849</v>
+        <v>2.890863217512803</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="n">
-        <v>2.923543845688925</v>
+        <v>2.722432695752478</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>2.052687527222913</v>
+        <v>2.682196990720601</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="n">
-        <v>2.427637545638628</v>
+        <v>2.626081184880715</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>2.415562202087409</v>
+        <v>2.787996515823203</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="n">
-        <v>2.754945645811175</v>
+        <v>2.562429654357281</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="n">
-        <v>2.143253247564417</v>
+        <v>2.65603867359691</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="n">
-        <v>2.94568702972012</v>
+        <v>2.642350329669294</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>2.62177396826307</v>
+        <v>2.753199601428543</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="n">
-        <v>2.379547370068555</v>
+        <v>2.477195556991454</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>2.186602413820121</v>
+        <v>2.9660571960641</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>2.991214092622364</v>
+        <v>2.504143963861694</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="n">
-        <v>2.839061150816673</v>
+        <v>2.94579884351078</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="n">
-        <v>2.174438663834237</v>
+        <v>2.119975420051805</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>2.592934215704901</v>
+        <v>2.758258274144338</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>2.720581868136764</v>
+        <v>2.786516522110488</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="n">
-        <v>2.712278842715536</v>
+        <v>2.591308583137463</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="n">
-        <v>2.73000862098804</v>
+        <v>2.038953296870494</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>2.453444889657958</v>
+        <v>2.846205496025101</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="n">
-        <v>2.40015738871401</v>
+        <v>2.187982968713659</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>2.01654241144136</v>
+        <v>2.809398478124289</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="n">
-        <v>2.364278235422058</v>
+        <v>2.923951313235672</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="n">
-        <v>2.321247779720296</v>
+        <v>2.692244669727011</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="n">
-        <v>2.352435713279325</v>
+        <v>2.203073003172712</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>2.811075285071383</v>
+        <v>2.870287882324349</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="n">
-        <v>2.749334065828394</v>
+        <v>2.243744828890787</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="n">
-        <v>2.194755130739292</v>
+        <v>2.990064419596412</v>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="n">
-        <v>2.251630301487055</v>
+        <v>2.562987698482832</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="n">
-        <v>2.662781281002427</v>
+        <v>2.250973185110303</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="n">
-        <v>2.436955166669928</v>
+        <v>2.425804227735481</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>2.874013565503174</v>
+        <v>2.364922100556853</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="n">
-        <v>2.732051793681499</v>
+        <v>2.582326366919776</v>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="n">
-        <v>2.172759421880118</v>
+        <v>2.355587755876041</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>2.816252394376332</v>
+        <v>2.399575221674664</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="n">
-        <v>2.500096883941174</v>
+        <v>2.045739762635006</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>2.980765080111341</v>
+        <v>2.327736859150121</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="n">
-        <v>2.896768995445246</v>
+        <v>2.541779947913165</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="n">
-        <v>2.236068750193327</v>
+        <v>2.149751623019792</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="n">
-        <v>2.354880714856938</v>
+        <v>2.874331235711834</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="n">
-        <v>2.904631719416161</v>
+        <v>2.45382723979441</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="n">
-        <v>2.84842097230194</v>
+        <v>2.470355805612151</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="n">
-        <v>2.659933693822603</v>
+        <v>2.584682864560345</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="n">
-        <v>2.209080109657383</v>
+        <v>2.354688253752377</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="n">
-        <v>2.37575453607082</v>
+        <v>2.111372009556664</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="n">
-        <v>2.912766435761469</v>
+        <v>2.619409608237019</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>2.392860333302809</v>
+        <v>2.447031973568313</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>2.453401337595732</v>
+        <v>2.013807293592885</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="n">
-        <v>2.414875913798914</v>
+        <v>2.904612150322623</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="n">
-        <v>2.849007637349797</v>
+        <v>2.911887043836473</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="n">
-        <v>2.697033182523941</v>
+        <v>2.357310805129445</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>2.10488518207357</v>
+        <v>2.665996066851032</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="n">
-        <v>2.303961653235937</v>
+        <v>2.553858040962406</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="n">
-        <v>2.820412844111307</v>
+        <v>2.93935855005731</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>2.004378638268094</v>
+        <v>2.299892895584324</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="n">
-        <v>2.391912754962712</v>
+        <v>2.88169868435368</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="n">
-        <v>2.868451273283337</v>
+        <v>2.781729978378325</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="n">
-        <v>2.859139106262214</v>
+        <v>2.905419613002404</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="n">
-        <v>2.12348067001833</v>
+        <v>2.729451700017628</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="n">
-        <v>2.078720963793478</v>
+        <v>2.976360652339599</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="n">
-        <v>2.57110339123746</v>
+        <v>2.911645413498119</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="n">
-        <v>2.131325796766138</v>
+        <v>2.057145986132001</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="n">
-        <v>2.717742268936308</v>
+        <v>2.885707985057109</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="n">
-        <v>2.470916891647263</v>
+        <v>2.746842943042091</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>2.116277110463898</v>
+        <v>2.542485397522753</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>2.60832874646884</v>
+        <v>2.929569794886262</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="n">
-        <v>2.005504930182528</v>
+        <v>2.249792505559872</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>2.247022745498974</v>
+        <v>2.114966344342829</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="n">
-        <v>2.62721178873677</v>
+        <v>2.359466660921123</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>2.169339113858201</v>
+        <v>2.576959428791116</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="n">
-        <v>2.000863380481042</v>
+        <v>2.533531494526572</v>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="n">
-        <v>2.619437762305762</v>
+        <v>2.751608726383553</v>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="n">
-        <v>2.910543852076151</v>
+        <v>2.744807730158864</v>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="n">
-        <v>2.880665693083124</v>
+        <v>2.027055930960356</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="n">
-        <v>2.080501856196608</v>
+        <v>2.358746916967843</v>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="n">
-        <v>2.172787734019253</v>
+        <v>2.330593778242273</v>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="n">
-        <v>2.777725564993708</v>
+        <v>2.586105758732855</v>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="n">
-        <v>2.985621365197092</v>
+        <v>2.252789152229974</v>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="n">
-        <v>2.837233549087745</v>
+        <v>2.822664183037852</v>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="n">
-        <v>2.142735154883687</v>
+        <v>2.147121667473115</v>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="n">
-        <v>2.516368796283689</v>
+        <v>2.176201590200799</v>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="n">
-        <v>2.121263677129309</v>
+        <v>2.32749243612819</v>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="n">
-        <v>2.370347032432385</v>
+        <v>2.927592908598652</v>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="n">
-        <v>2.201347937897855</v>
+        <v>2.953877770958674</v>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="n">
-        <v>2.883026820169242</v>
+        <v>2.471914701532892</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="n">
-        <v>2.534974154263367</v>
+        <v>2.18806922013435</v>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="n">
-        <v>2.659010008315649</v>
+        <v>2.986719153134235</v>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="n">
-        <v>2.555059678017532</v>
+        <v>2.754032770157012</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="n">
-        <v>2.490942003314996</v>
+        <v>2.269027074012159</v>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="n">
-        <v>2.818021225091031</v>
+        <v>2.281932571469723</v>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="n">
-        <v>2.279888582620454</v>
+        <v>2.232282762631975</v>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="n">
-        <v>2.334632059203656</v>
+        <v>2.822074110039755</v>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="n">
-        <v>2.417466019311579</v>
+        <v>2.790861822098317</v>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="n">
-        <v>2.963622781970464</v>
+        <v>2.686598449236073</v>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="n">
-        <v>2.220685608130165</v>
+        <v>2.755394432471691</v>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="n">
-        <v>2.280176349887499</v>
+        <v>2.740218051134161</v>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="n">
-        <v>2.09348188485263</v>
+        <v>2.688451468579296</v>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="n">
-        <v>2.822236599215965</v>
+        <v>2.219946054631375</v>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>2.385393825624705</v>
+        <v>2.189924604987641</v>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="n">
-        <v>2.205863169339808</v>
+        <v>2.807867473210742</v>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="n">
-        <v>2.716771549309815</v>
+        <v>2.808877950041675</v>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="n">
-        <v>2.271882316387595</v>
+        <v>2.439804277530255</v>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="n">
-        <v>2.332584041504145</v>
+        <v>2.783049347103153</v>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="n">
-        <v>2.042427491657663</v>
+        <v>2.966749555284813</v>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="n">
-        <v>2.007597753490942</v>
+        <v>2.000410911442055</v>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="n">
-        <v>2.272497645923671</v>
+        <v>2.772568505233398</v>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="n">
-        <v>2.255097868432814</v>
+        <v>2.219183824032191</v>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="n">
-        <v>2.325121806815984</v>
+        <v>2.837939467681753</v>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="n">
-        <v>2.734311916590219</v>
+        <v>2.165591451330353</v>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="n">
-        <v>2.905406730520645</v>
+        <v>2.679222036809846</v>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="n">
-        <v>2.880718038757879</v>
+        <v>2.520965006345131</v>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="n">
-        <v>2.113887267980252</v>
+        <v>2.480158044550038</v>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>2.095855869964388</v>
+        <v>2.647915027148708</v>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="n">
-        <v>2.472576021283776</v>
+        <v>2.889900999555098</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="n">
-        <v>2.93798445441776</v>
+        <v>2.883687118730824</v>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="n">
-        <v>2.096646484425884</v>
+        <v>2.864806236989847</v>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="n">
-        <v>2.753242552860461</v>
+        <v>2.517745730217676</v>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="n">
-        <v>2.681818955254816</v>
+        <v>2.212389387552835</v>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="n">
-        <v>2.34095757550232</v>
+        <v>2.246501750840978</v>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="n">
-        <v>2.601280315655349</v>
+        <v>2.56983846502929</v>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="n">
-        <v>2.221040504183219</v>
+        <v>2.089643315623348</v>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="n">
-        <v>2.97975748789246</v>
+        <v>2.495595291270738</v>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="n">
-        <v>2.76052898202544</v>
+        <v>2.724248917241484</v>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="n">
-        <v>2.354463345558757</v>
+        <v>2.388806697480904</v>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>2.982005647577209</v>
+        <v>2.059153547690774</v>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="n">
-        <v>2.552668899105695</v>
+        <v>2.905587829680285</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="n">
-        <v>2.594360696256155</v>
+        <v>2.642517651243014</v>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="n">
-        <v>2.453841594716026</v>
+        <v>2.66336690014722</v>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="n">
-        <v>2.520983232300889</v>
+        <v>2.541835486750813</v>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="n">
-        <v>2.743264672548359</v>
+        <v>2.160680144551137</v>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="n">
-        <v>2.236862237650027</v>
+        <v>2.593054832106193</v>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="n">
-        <v>2.137247845901275</v>
+        <v>2.07099249535849</v>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="n">
-        <v>2.34722865852655</v>
+        <v>2.237621169417909</v>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="n">
-        <v>2.872343488065257</v>
+        <v>2.760809487479792</v>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="n">
-        <v>2.457217823470903</v>
+        <v>2.194454406995744</v>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="n">
-        <v>2.58044504117393</v>
+        <v>2.107104064149312</v>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="n">
-        <v>2.82823228880661</v>
+        <v>2.340892582354765</v>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="n">
-        <v>2.083463458154595</v>
+        <v>2.409911667534276</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="n">
-        <v>2.100136449159701</v>
+        <v>2.950019163941253</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="n">
-        <v>2.86706552232119</v>
+        <v>2.968246991940329</v>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="n">
-        <v>2.179689832602731</v>
+        <v>2.977281377372216</v>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="n">
-        <v>2.207499944940636</v>
+        <v>2.113142778680769</v>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="n">
-        <v>2.727280323572457</v>
+        <v>2.729879360212871</v>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="n">
-        <v>2.984018250503585</v>
+        <v>2.712199640076915</v>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="n">
-        <v>2.296797906803661</v>
+        <v>2.77943133808715</v>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="n">
-        <v>2.668298944465158</v>
+        <v>2.355373814090753</v>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="n">
-        <v>2.800300004298388</v>
+        <v>2.077971172214209</v>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="n">
-        <v>2.198994758877849</v>
+        <v>2.590087950554387</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="n">
-        <v>2.930243373046627</v>
+        <v>2.851862584301341</v>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="n">
-        <v>2.522095513108157</v>
+        <v>2.449585266872031</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="n">
-        <v>2.475354530614074</v>
+        <v>2.917257877153592</v>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="n">
-        <v>2.338862359573191</v>
+        <v>2.144579412043616</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="n">
-        <v>2.59585428893699</v>
+        <v>2.075201694679428</v>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="n">
-        <v>2.844051700301826</v>
+        <v>2.181613514811876</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="n">
-        <v>2.068688463410101</v>
+        <v>2.906482451605402</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="n">
-        <v>2.655181663013997</v>
+        <v>2.646671054450726</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="n">
-        <v>2.339680778391556</v>
+        <v>2.743874300069682</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="n">
-        <v>2.362452317409097</v>
+        <v>2.285586830782432</v>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="n">
-        <v>2.130648893354643</v>
+        <v>2.090770299821128</v>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="n">
-        <v>2.731207260882529</v>
+        <v>2.609105561056822</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="n">
-        <v>2.058367033540001</v>
+        <v>2.249880943136399</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="n">
-        <v>2.396191960583675</v>
+        <v>2.935240035494042</v>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="n">
-        <v>2.511933381832406</v>
+        <v>2.602450568780635</v>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="n">
-        <v>2.609243229098091</v>
+        <v>2.989478347536597</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="n">
-        <v>2.117763025704129</v>
+        <v>2.876176454103649</v>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="n">
-        <v>2.866975317825895</v>
+        <v>2.032456895227901</v>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="n">
-        <v>2.188096163252332</v>
+        <v>2.644444621669471</v>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="n">
-        <v>2.758152425448487</v>
+        <v>2.440909904314621</v>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="n">
-        <v>2.372928563205728</v>
+        <v>2.349446914649019</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="n">
-        <v>2.67419734231066</v>
+        <v>2.964492179081181</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="n">
-        <v>2.917258345840942</v>
+        <v>2.477447315975332</v>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="n">
-        <v>2.050474201029232</v>
+        <v>2.691536899600252</v>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="n">
-        <v>2.660169653901392</v>
+        <v>2.193725041647426</v>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="n">
-        <v>2.68588751491232</v>
+        <v>2.905934525189048</v>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="n">
-        <v>2.551559978305883</v>
+        <v>2.954841176302665</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="n">
-        <v>2.56258374229138</v>
+        <v>2.300187771016109</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="n">
-        <v>2.880800731206107</v>
+        <v>2.278818802745911</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="n">
-        <v>2.600956971325488</v>
+        <v>2.340616490872294</v>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="n">
-        <v>2.567578788353033</v>
+        <v>2.410671124349812</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="n">
-        <v>2.601950743287862</v>
+        <v>2.641965440855283</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="n">
-        <v>2.647026622586987</v>
+        <v>2.567806384108498</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="n">
-        <v>2.931889113429583</v>
+        <v>2.547012460036206</v>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="n">
-        <v>2.531277598513834</v>
+        <v>2.935223228246599</v>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="n">
-        <v>2.125125528315689</v>
+        <v>2.756804190582619</v>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="n">
-        <v>2.868136810037316</v>
+        <v>2.481406466547548</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="n">
-        <v>2.080609941306145</v>
+        <v>2.044047427222979</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="n">
-        <v>2.311601584618251</v>
+        <v>2.653327409452793</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="n">
-        <v>2.500074669590678</v>
+        <v>2.994845969331867</v>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="n">
-        <v>2.730619545948532</v>
+        <v>2.324672499984676</v>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="n">
-        <v>2.254830586187805</v>
+        <v>2.717679332935099</v>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="n">
-        <v>2.274419342561539</v>
+        <v>2.398582622374414</v>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="n">
-        <v>2.879076145282767</v>
+        <v>2.169094504160785</v>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="n">
-        <v>2.9063571874987</v>
+        <v>2.912288808537345</v>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>2.876062716993149</v>
+        <v>2.181281805759605</v>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="n">
-        <v>2.65793163810113</v>
+        <v>2.989317355331813</v>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="n">
-        <v>2.744358270386272</v>
+        <v>2.901709720832173</v>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="n">
-        <v>2.250699830426721</v>
+        <v>2.670712819821532</v>
       </c>
     </row>
     <row r="1421">
       <c r="A1421" t="n">
-        <v>2.294506998167073</v>
+        <v>2.564695978071049</v>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="n">
-        <v>2.676648342481649</v>
+        <v>2.798733194855499</v>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="n">
-        <v>2.426344828191077</v>
+        <v>2.763001605083124</v>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="n">
-        <v>2.520725494714485</v>
+        <v>2.715187025661673</v>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="n">
-        <v>2.302358869975135</v>
+        <v>2.789919254555979</v>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="n">
-        <v>2.671509324405893</v>
+        <v>2.183759700390869</v>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="n">
-        <v>2.13269280140047</v>
+        <v>2.713021068398576</v>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="n">
-        <v>2.351597545104924</v>
+        <v>2.129314002003799</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="n">
-        <v>2.767072562619711</v>
+        <v>2.898092171296418</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="n">
-        <v>2.212495365219085</v>
+        <v>2.424126826244809</v>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="n">
-        <v>2.490487367374266</v>
+        <v>2.28581027204395</v>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="n">
-        <v>2.565143635240415</v>
+        <v>2.187722963398225</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="n">
-        <v>2.514596290899322</v>
+        <v>2.449307681872248</v>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="n">
-        <v>2.614858017370301</v>
+        <v>2.599114158231909</v>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="n">
-        <v>2.842910881663919</v>
+        <v>2.590306704090525</v>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="n">
-        <v>2.650592060455321</v>
+        <v>2.162111393465361</v>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="n">
-        <v>2.049985333024699</v>
+        <v>2.377818774505346</v>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="n">
-        <v>2.815881347148945</v>
+        <v>2.294992446961267</v>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="n">
-        <v>2.266264656697452</v>
+        <v>2.830165613092895</v>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="n">
-        <v>2.715466308180297</v>
+        <v>2.263885672591386</v>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="n">
-        <v>2.161763242365224</v>
+        <v>2.177823184624594</v>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" t="n">
-        <v>2.618173926863512</v>
+        <v>2.697725787964294</v>
       </c>
     </row>
   </sheetData>

--- a/smart_grid_simulation/src/methods/rate_schedule.xlsx
+++ b/smart_grid_simulation/src/methods/rate_schedule.xlsx
@@ -442,7207 +442,7207 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.347867150438602</v>
+        <v>2.210069850741458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.60940200994937</v>
+        <v>2.041827278428588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.009838464814293</v>
+        <v>2.074364251123279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.793187662044045</v>
+        <v>2.685692567933903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.630464264944109</v>
+        <v>2.474419587914328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.543272885843181</v>
+        <v>2.81257408018292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.341448385474464</v>
+        <v>2.167004121498623</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.227476434824758</v>
+        <v>2.737187437151142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.279408261443752</v>
+        <v>2.076131918754771</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.960020369542193</v>
+        <v>2.997346268853324</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.427735953155969</v>
+        <v>2.153811640111007</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.057787261785156</v>
+        <v>2.045139141895546</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.761633424970139</v>
+        <v>2.869851366954141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.483563689882009</v>
+        <v>2.013160061511706</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.755762958640565</v>
+        <v>2.971942754817041</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.855595133752933</v>
+        <v>2.306738064292418</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.01016648200376</v>
+        <v>2.877993845136357</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.773223890033028</v>
+        <v>2.792391326267456</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.456782813128501</v>
+        <v>2.3327967465155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.05948141002728</v>
+        <v>2.044232436995741</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.322570016676422</v>
+        <v>2.881498566624187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.746942215324808</v>
+        <v>2.391310846844556</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.224638790383907</v>
+        <v>2.900715649730741</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.155644644147117</v>
+        <v>2.340709840838237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.968645003319268</v>
+        <v>2.262528989740725</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.308669658631641</v>
+        <v>2.634785292663026</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.567564269967885</v>
+        <v>2.405855166877785</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.530778597672371</v>
+        <v>2.93924920680023</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.439402909336382</v>
+        <v>2.194293629276956</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.921785379070534</v>
+        <v>2.869459125319325</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.034269829724109</v>
+        <v>2.871009400518978</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.323705513692781</v>
+        <v>2.99364480258718</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.330782101491339</v>
+        <v>2.163619863248701</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.10814431788962</v>
+        <v>2.945915461185676</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.207997237071085</v>
+        <v>2.04951514508398</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.68688931559975</v>
+        <v>2.482221949760993</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.956602534989426</v>
+        <v>2.539462608655737</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.918928556829863</v>
+        <v>2.848526332930594</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.672583461283562</v>
+        <v>2.41138636672872</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.030339404999761</v>
+        <v>2.5755453568433</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2.173051677343881</v>
+        <v>2.756309633774181</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2.194484705319928</v>
+        <v>2.906301657462707</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.525726335578815</v>
+        <v>2.108109273833318</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.433190479334857</v>
+        <v>2.990256710659795</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2.608634819693874</v>
+        <v>2.75492101367656</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2.805729327630318</v>
+        <v>2.043528608556899</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.158875297065686</v>
+        <v>2.809537464810514</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.747221141011463</v>
+        <v>2.451405533589359</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.140754753916811</v>
+        <v>2.564443688725491</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.587797479368393</v>
+        <v>2.924651826037367</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.592794165159661</v>
+        <v>2.51555412414671</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.404759065975075</v>
+        <v>2.506025591743411</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.884463591307293</v>
+        <v>2.645927721266124</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.134802492691497</v>
+        <v>2.221851382789613</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.818767606260857</v>
+        <v>2.595086489775724</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.246964911313336</v>
+        <v>2.684563166405163</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.638816531522594</v>
+        <v>2.378693535532618</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.214916375380372</v>
+        <v>2.017200464739352</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.325143095005742</v>
+        <v>2.228357654295338</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.285735625623524</v>
+        <v>2.834958418133051</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.808673711827317</v>
+        <v>2.692775255267422</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.581007451271842</v>
+        <v>2.358296310603984</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.732190873647697</v>
+        <v>2.054399106765563</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.998930701307637</v>
+        <v>2.348560407695715</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.774776793914288</v>
+        <v>2.372609824774075</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.993616723446835</v>
+        <v>2.334991500107119</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.600904391769683</v>
+        <v>2.368333294803643</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.724010728931086</v>
+        <v>2.234327841623637</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.589362974292213</v>
+        <v>2.348848804030545</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.32711635534373</v>
+        <v>2.078604922417424</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.844283152371487</v>
+        <v>2.614353608335079</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.868877852075607</v>
+        <v>2.481043414125866</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.965983738148021</v>
+        <v>2.636138895918992</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.069559170633923</v>
+        <v>2.150627862903598</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.453147592993971</v>
+        <v>2.405986639377475</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.458964661088332</v>
+        <v>2.850474412601654</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.933611774686693</v>
+        <v>2.335345909421024</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.763262450255954</v>
+        <v>2.014997480278059</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.820332062041737</v>
+        <v>2.371011961018206</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.307547054470833</v>
+        <v>2.352344269288411</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.092335904233026</v>
+        <v>2.837826761231487</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.553797727301252</v>
+        <v>2.542129012272017</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.343346595143171</v>
+        <v>2.33898792343934</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.155325153921994</v>
+        <v>2.032148639437792</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.736215558744296</v>
+        <v>2.344535745335597</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.688974041637596</v>
+        <v>2.931625662711846</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.044084140387961</v>
+        <v>2.42180561188614</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.022336505522111</v>
+        <v>2.12330408535124</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.559425737717518</v>
+        <v>2.746989009595517</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.733551588945878</v>
+        <v>2.408104554529965</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.384077292514873</v>
+        <v>2.939790166391726</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.683172481199085</v>
+        <v>2.182023568070749</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.740750366480091</v>
+        <v>2.501075727497327</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.026489983257314</v>
+        <v>2.498056506377101</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.618417359144658</v>
+        <v>2.400499192898401</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.67303068512682</v>
+        <v>2.43215931911399</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.711320426383515</v>
+        <v>2.261930960501713</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.794799051890384</v>
+        <v>2.673142703542955</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.289005577670287</v>
+        <v>2.24866031831662</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.326264826314817</v>
+        <v>2.498881431752211</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.175981670490507</v>
+        <v>2.158238913939478</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2.840081187928666</v>
+        <v>2.467940104708387</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.434951833820436</v>
+        <v>2.987343047945472</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2.677277573595441</v>
+        <v>2.314840907788004</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2.431786389975462</v>
+        <v>2.967599807758661</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.52520000962272</v>
+        <v>2.318687659868507</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.360954434758875</v>
+        <v>2.327043803499177</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.943198364483752</v>
+        <v>2.86621507784321</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.747418961470816</v>
+        <v>2.671071808600681</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.78279452224819</v>
+        <v>2.595289137333172</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.125374293637648</v>
+        <v>2.261774505558202</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.876997636070959</v>
+        <v>2.138746917364842</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.053458789205655</v>
+        <v>2.780595323052522</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.041689620654985</v>
+        <v>2.720733969772304</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.337986528734381</v>
+        <v>2.938009072538801</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.015444285060781</v>
+        <v>2.019109125149487</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.336516076402711</v>
+        <v>2.198997231206678</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.238698444268259</v>
+        <v>2.906871806622034</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.60553403469701</v>
+        <v>2.073104677504151</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.54432583910262</v>
+        <v>2.424915406621169</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.334649038889326</v>
+        <v>2.551839357101935</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.342647837983238</v>
+        <v>2.847055752925185</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.217729721588134</v>
+        <v>2.601283199972027</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.030694577796339</v>
+        <v>2.772176452914263</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2.876350638045748</v>
+        <v>2.943723154113437</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.724931295320623</v>
+        <v>2.746328306051311</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.60355307176498</v>
+        <v>2.741489606975405</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2.507916544970162</v>
+        <v>2.95796331457008</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.410757144996604</v>
+        <v>2.683526817186127</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.822345124788197</v>
+        <v>2.871513869410329</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.253923072281798</v>
+        <v>2.248579812279275</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.416772470759385</v>
+        <v>2.637279666356728</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.051013030860199</v>
+        <v>2.486053256216136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.957558647988069</v>
+        <v>2.488980193459082</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.150862480102113</v>
+        <v>2.420567221248265</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.549279864457345</v>
+        <v>2.362993093371515</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.21460003679756</v>
+        <v>2.659611547504267</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.247404510959113</v>
+        <v>2.949223507696147</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.05876275465894</v>
+        <v>2.00732736312107</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2.032029474841546</v>
+        <v>2.005582634948805</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2.374836577273062</v>
+        <v>2.075334015771618</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.315164416270258</v>
+        <v>2.009268884593372</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.218895195614665</v>
+        <v>2.229285147164348</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.960956388749905</v>
+        <v>2.481785794241699</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.715907697343779</v>
+        <v>2.083902785260048</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2.680363530587276</v>
+        <v>2.325080636080338</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2.715351722968922</v>
+        <v>2.30510072168407</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2.563360067553373</v>
+        <v>2.979356308901015</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.793636797127537</v>
+        <v>2.626227849608442</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2.847169506725478</v>
+        <v>2.535111815078957</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2.001984719485241</v>
+        <v>2.566130878647868</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.702816117396776</v>
+        <v>2.467308029080157</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2.912525335638012</v>
+        <v>2.189051333609482</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2.922578437686719</v>
+        <v>2.08779885998795</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2.882029758643455</v>
+        <v>2.128172797090715</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.164481859933372</v>
+        <v>2.835622289491126</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2.861668421143711</v>
+        <v>2.934187967997689</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.035026464465191</v>
+        <v>2.998791007097448</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.942231755522335</v>
+        <v>2.485979281008946</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.428613415480332</v>
+        <v>2.692486454251565</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2.746254226239455</v>
+        <v>2.248752825509508</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2.086518686884066</v>
+        <v>2.884818882698011</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.649684969669104</v>
+        <v>2.954060197943406</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2.488751353713254</v>
+        <v>2.559873513671202</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2.65576560677012</v>
+        <v>2.220935825597014</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2.999234570488999</v>
+        <v>2.211600788864295</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2.139553031183263</v>
+        <v>2.437164968315428</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.203768461743861</v>
+        <v>2.408670206303254</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2.350645881194459</v>
+        <v>2.397897556402019</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2.845671201481</v>
+        <v>2.769534244255171</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2.060122741303446</v>
+        <v>2.038849435524221</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2.303176612132318</v>
+        <v>2.823457479408778</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.425929180682302</v>
+        <v>2.290323409654718</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2.082488589681324</v>
+        <v>2.010140920983629</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2.398490744471861</v>
+        <v>2.949323218954007</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2.001696966925041</v>
+        <v>2.098631690864566</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2.987691744658274</v>
+        <v>2.948518605635181</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2.01869302821329</v>
+        <v>2.317715980742147</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.422580702925453</v>
+        <v>2.526851118448752</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.554923018700634</v>
+        <v>2.573427051474418</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.052225921314911</v>
+        <v>2.475065478093637</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.67280764691521</v>
+        <v>2.892817342125223</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.410444509721015</v>
+        <v>2.978395327987835</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.348487472196159</v>
+        <v>2.884918200742708</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2.472682817893849</v>
+        <v>2.259093479418828</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2.130896048236276</v>
+        <v>2.573699337545748</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2.870661153540361</v>
+        <v>2.575221116301679</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.272456152264286</v>
+        <v>2.082883446649445</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2.955733053541601</v>
+        <v>2.407810545569704</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2.02978088871606</v>
+        <v>2.219624178609212</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2.040382686189015</v>
+        <v>2.502505917643016</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.623352606915761</v>
+        <v>2.873737487848068</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2.423860873355796</v>
+        <v>2.225834211291843</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2.733440530938556</v>
+        <v>2.927708642835029</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2.652429924706452</v>
+        <v>2.048897221717841</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2.40817918937491</v>
+        <v>2.331204602541946</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2.69707641640424</v>
+        <v>2.687474447215071</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.836152127391648</v>
+        <v>2.904358102009932</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2.727927366698189</v>
+        <v>2.845482331023284</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.371434244564128</v>
+        <v>2.065089834962415</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2.468798772935744</v>
+        <v>2.202490768020169</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2.899331719843366</v>
+        <v>2.154075239237703</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.680541704597865</v>
+        <v>2.997959454146064</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2.560563600455672</v>
+        <v>2.03974013257167</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2.576529822244316</v>
+        <v>2.896980809096204</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2.497031730799425</v>
+        <v>2.641704530100387</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2.132308192522848</v>
+        <v>2.746378220388372</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2.875835498297221</v>
+        <v>2.230084870845602</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2.850252681936512</v>
+        <v>2.291691302687274</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2.049089390850187</v>
+        <v>2.732902074373043</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2.196764312312149</v>
+        <v>2.697730960073678</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2.627149563068234</v>
+        <v>2.697145309789585</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>2.132962184234412</v>
+        <v>2.815017212938454</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2.568310456469016</v>
+        <v>2.734544181526124</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2.579234176548911</v>
+        <v>2.024799351693813</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2.179637669399415</v>
+        <v>2.390041466286046</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2.95606192003097</v>
+        <v>2.358368002313025</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>2.538914375541856</v>
+        <v>2.714886114180045</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2.477112093138424</v>
+        <v>2.988005445162877</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2.595959173101318</v>
+        <v>2.620158146833552</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2.662278239948419</v>
+        <v>2.955832998851864</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>2.443978802746288</v>
+        <v>2.143613722156736</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2.305936653295863</v>
+        <v>2.742350482735898</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2.898619949797439</v>
+        <v>2.045138490914882</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2.475990578623468</v>
+        <v>2.063006852037534</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2.58762791626997</v>
+        <v>2.835722306233424</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>2.982184121063231</v>
+        <v>2.314989012263716</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.94308887241179</v>
+        <v>2.494799966054595</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2.447626744199015</v>
+        <v>2.547797143283272</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2.767322490267941</v>
+        <v>2.975314946851486</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2.520174758034389</v>
+        <v>2.636158614517383</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2.056962939250405</v>
+        <v>2.780940124305907</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2.968985221239774</v>
+        <v>2.714997598354923</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2.390423270762327</v>
+        <v>2.774809330659306</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2.113522617814112</v>
+        <v>2.281805076662625</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>2.692625281585804</v>
+        <v>2.583253079023241</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2.562021510469967</v>
+        <v>2.777789787174935</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2.725614611347942</v>
+        <v>2.920422709078923</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2.453848116730756</v>
+        <v>2.749352916799282</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2.079780585258828</v>
+        <v>2.734712652355519</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2.74996854289001</v>
+        <v>2.006847108339208</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2.461909083873714</v>
+        <v>2.952583200634713</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2.596376385115249</v>
+        <v>2.793591441810529</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2.689177975575471</v>
+        <v>2.040111821171714</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2.867652282744344</v>
+        <v>2.242234103073737</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2.422406978534877</v>
+        <v>2.118003722203993</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2.810073835598103</v>
+        <v>2.314168047470581</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2.846875883578935</v>
+        <v>2.025462280200121</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2.248441301595097</v>
+        <v>2.683948955655257</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2.353576756353362</v>
+        <v>2.489524513015127</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2.764662208253539</v>
+        <v>2.846844686792441</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2.279219354613485</v>
+        <v>2.198978665681145</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2.939005608877055</v>
+        <v>2.723352687240371</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.539948018453598</v>
+        <v>2.547218621854546</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.19444684226698</v>
+        <v>2.087705210833725</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>2.924925151534438</v>
+        <v>2.79626991565346</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2.289213038646192</v>
+        <v>2.984000726112986</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2.133598018134109</v>
+        <v>2.333629138749722</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>2.659191619217604</v>
+        <v>2.229005649574246</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2.782914216504072</v>
+        <v>2.442445656363595</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2.7823151144078</v>
+        <v>2.423758697389647</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>2.236050330341528</v>
+        <v>2.20745472290334</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2.169232085395016</v>
+        <v>2.167158943992137</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2.630059178942056</v>
+        <v>2.546610515208009</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2.264447610906417</v>
+        <v>2.124196450808606</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2.88851667121232</v>
+        <v>2.258671295825519</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2.061417725226845</v>
+        <v>2.848481598080064</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2.641145804283726</v>
+        <v>2.343811603332223</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>2.315862331218679</v>
+        <v>2.389641447987439</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2.263518079906706</v>
+        <v>2.2739022378458</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2.818253474461645</v>
+        <v>2.161446971515515</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.359972893360843</v>
+        <v>2.334129765971762</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2.474174362593847</v>
+        <v>2.715776032853863</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2.112100899367239</v>
+        <v>2.094866444135687</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2.749554400684665</v>
+        <v>2.482288718143674</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2.292059576997307</v>
+        <v>2.049021792203277</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.516351332919981</v>
+        <v>2.833361247000699</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2.447324529998756</v>
+        <v>2.361036089951425</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2.072656952711164</v>
+        <v>2.726928562076023</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2.927258646675977</v>
+        <v>2.354768969612292</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2.511743299647035</v>
+        <v>2.740519253298276</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2.12361768512343</v>
+        <v>2.691432741155866</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2.845160846343169</v>
+        <v>2.151101241706646</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2.761171618703712</v>
+        <v>2.213057781735401</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2.712187935666102</v>
+        <v>2.876659943510035</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2.972317858984892</v>
+        <v>2.518437450778807</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2.664909363348631</v>
+        <v>2.7147356928807</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2.84267632165527</v>
+        <v>2.588507303487447</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2.500130249836946</v>
+        <v>2.697172238382675</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2.723934682183886</v>
+        <v>2.173205872050827</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2.530186788598037</v>
+        <v>2.174061615574668</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2.617634071654511</v>
+        <v>2.733333776554874</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>2.838745923983559</v>
+        <v>2.961563719382577</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2.672167727389852</v>
+        <v>2.15950842222663</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2.340535667600069</v>
+        <v>2.831129723043733</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2.312026746712912</v>
+        <v>2.27021306248025</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2.188227569428745</v>
+        <v>2.654125416867476</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2.368613475613084</v>
+        <v>2.929865977730465</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2.017760882636435</v>
+        <v>2.008308142100578</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2.956436640712502</v>
+        <v>2.205742713843344</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.657345770756462</v>
+        <v>2.260083113736118</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2.775858195063651</v>
+        <v>2.83960565166343</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2.851327406682046</v>
+        <v>2.503913093854987</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2.865778304785997</v>
+        <v>2.970679668193904</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2.886357459245412</v>
+        <v>2.959042537030422</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2.483225673618282</v>
+        <v>2.070751023132674</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>2.999472966305319</v>
+        <v>2.218653083097001</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2.165765033882229</v>
+        <v>2.890702228024836</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2.146035773575606</v>
+        <v>2.724066081093016</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2.97742929326981</v>
+        <v>2.352145096396779</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2.019958062277107</v>
+        <v>2.097849250840683</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2.267389965954451</v>
+        <v>2.411680052933347</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2.781375108552713</v>
+        <v>2.424139444492728</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2.251843962960103</v>
+        <v>2.268664954128672</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2.447764950404091</v>
+        <v>2.635501455114878</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2.779748089309063</v>
+        <v>2.629227173298664</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2.198065829875443</v>
+        <v>2.148978114933909</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>2.344614284389783</v>
+        <v>2.057367906884566</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>2.769870655725636</v>
+        <v>2.315458220603777</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2.157081073567269</v>
+        <v>2.064915026208078</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>2.181243632546757</v>
+        <v>2.436472014532137</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2.41467870254329</v>
+        <v>2.241397528718427</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2.273186166226033</v>
+        <v>2.884330488397375</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2.487681520698491</v>
+        <v>2.252970498602683</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2.961672116324701</v>
+        <v>2.324742279822285</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2.411371779980739</v>
+        <v>2.152970833280386</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2.783740931818555</v>
+        <v>2.488932223519592</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2.39538425210766</v>
+        <v>2.210132811879192</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2.095344101823453</v>
+        <v>2.179386016305205</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2.152981001504874</v>
+        <v>2.606199098462039</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2.341638837361502</v>
+        <v>2.780903423529129</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>2.619200626165145</v>
+        <v>2.412041073038777</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>2.820444488335793</v>
+        <v>2.63326388400495</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2.294579048185335</v>
+        <v>2.156746165399006</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>2.637540250298413</v>
+        <v>2.482500174735819</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2.187920573162519</v>
+        <v>2.912465625989452</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>2.93158247823525</v>
+        <v>2.090923412450603</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>2.649914620032569</v>
+        <v>2.041241577208537</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2.182887086069357</v>
+        <v>2.748534387901632</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>2.621682864200759</v>
+        <v>2.364315217011079</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2.08299648948655</v>
+        <v>2.845120407328721</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2.128250142254554</v>
+        <v>2.334241735184054</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2.787545438345388</v>
+        <v>2.093003543210652</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2.165946792056574</v>
+        <v>2.497568339390393</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2.941889050593022</v>
+        <v>2.956433652751541</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2.383997238900454</v>
+        <v>2.221176953109318</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2.700901907048372</v>
+        <v>2.822234470865943</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2.371504954347087</v>
+        <v>2.792806854755142</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2.06474581301805</v>
+        <v>2.979691244403763</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2.418196581796119</v>
+        <v>2.6697412176477</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2.388204173109392</v>
+        <v>2.758163730384839</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2.977725272855641</v>
+        <v>2.127445385659311</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2.981694324650105</v>
+        <v>2.755263529287535</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2.575907306355182</v>
+        <v>2.605125363786088</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2.68632279425319</v>
+        <v>2.013881984209497</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2.172670216905866</v>
+        <v>2.299309526580672</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2.625371950083317</v>
+        <v>2.002869332185741</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2.151171245933718</v>
+        <v>2.542506574797659</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2.046873552837195</v>
+        <v>2.168566896343484</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2.629478179856048</v>
+        <v>2.263769111289696</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2.868233382365809</v>
+        <v>2.153112803299516</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2.114706069338079</v>
+        <v>2.780409035460362</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2.259743480469555</v>
+        <v>2.3447325661409</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2.452494249628124</v>
+        <v>2.401333197038328</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>2.886898536493717</v>
+        <v>2.879226189191765</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>2.014410474678706</v>
+        <v>2.4688531068202</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>2.110469048070088</v>
+        <v>2.324958453639599</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>2.110983904796424</v>
+        <v>2.031425801552065</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>2.827304945720717</v>
+        <v>2.001535482341654</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2.307594735378062</v>
+        <v>2.014790992346345</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>2.223602815597636</v>
+        <v>2.391339959690487</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2.790766906090592</v>
+        <v>2.83222942065812</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>2.950174147275717</v>
+        <v>2.866603713369555</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>2.512585091935225</v>
+        <v>2.273897980148396</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2.644031255815352</v>
+        <v>2.919283646313731</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>2.77889530165973</v>
+        <v>2.66577204471499</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>2.326570949988895</v>
+        <v>2.390286892680583</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>2.001604548344347</v>
+        <v>2.680354889230657</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>2.225193300980506</v>
+        <v>2.774942976776613</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>2.226022644335797</v>
+        <v>2.059403895091741</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>2.943963972400703</v>
+        <v>2.647395933540752</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>2.066465124767979</v>
+        <v>2.683666582556442</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>2.363228829534217</v>
+        <v>2.53913728339159</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>2.621395373643218</v>
+        <v>2.828640931143592</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>2.208838284887737</v>
+        <v>2.942799510690515</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>2.975310443950219</v>
+        <v>2.025973088484713</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>2.23335704017198</v>
+        <v>2.999613950984945</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>2.506399648337466</v>
+        <v>2.142714489410916</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>2.812035499029757</v>
+        <v>2.166773249049049</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>2.260880241943005</v>
+        <v>2.63286535755087</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>2.180458958694263</v>
+        <v>2.741012111790285</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>2.871234002463677</v>
+        <v>2.27558497148987</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>2.908013186838681</v>
+        <v>2.887759638946036</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>2.534935161320424</v>
+        <v>2.340674192667115</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>2.152732756414016</v>
+        <v>2.838422167865014</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2.418111923517676</v>
+        <v>2.433067094660278</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>2.623158374346362</v>
+        <v>2.992730910356936</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>2.706030012009143</v>
+        <v>2.494306523396729</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>2.642284032301777</v>
+        <v>2.498680696276004</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>2.665709144149959</v>
+        <v>2.03625854911837</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>2.93733439704885</v>
+        <v>2.484354253643878</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>2.814099487887832</v>
+        <v>2.055789324128556</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>2.540111080433532</v>
+        <v>2.872626654093574</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>2.605576297521017</v>
+        <v>2.211397036060808</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>2.073990328131806</v>
+        <v>2.124833185182794</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>2.523191919359845</v>
+        <v>2.765847060021803</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>2.971159991460376</v>
+        <v>2.01205387188609</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>2.587519135297221</v>
+        <v>2.622317326961044</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>2.84700501040418</v>
+        <v>2.86140390650501</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>2.349899582466354</v>
+        <v>2.774011343455059</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>2.588552113664605</v>
+        <v>2.415941766780767</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>2.363962257304807</v>
+        <v>2.774358560861356</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>2.151635666528139</v>
+        <v>2.596607519191782</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>2.05175290946273</v>
+        <v>2.355743402279531</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>2.103169377162181</v>
+        <v>2.016100908558946</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>2.351864288897728</v>
+        <v>2.690020393069137</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>2.944197149548379</v>
+        <v>2.263267618319222</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>2.754004837247386</v>
+        <v>2.67752264903883</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2.536342595819725</v>
+        <v>2.43075843497908</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>2.327313683926057</v>
+        <v>2.980027676425362</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>2.101981965816415</v>
+        <v>2.00995504736097</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2.745119178673307</v>
+        <v>2.43313994155666</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>2.350412433949074</v>
+        <v>2.69850850536645</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>2.511881271586321</v>
+        <v>2.30706222610859</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>2.335090990249546</v>
+        <v>2.692416983983924</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>2.513289517847919</v>
+        <v>2.458763464651733</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>2.718505146175838</v>
+        <v>2.487614783272437</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>2.924759835473519</v>
+        <v>2.865942052267763</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>2.138148794287897</v>
+        <v>2.191173188828824</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>2.999221113795196</v>
+        <v>2.968857210036982</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>2.176645456044848</v>
+        <v>2.786574575561993</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>2.338866935270516</v>
+        <v>2.494089735306722</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>2.86817760610917</v>
+        <v>2.477433415320136</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>2.080390987311915</v>
+        <v>2.363134477119198</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>2.09238853351205</v>
+        <v>2.020254470731369</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>2.228340438269315</v>
+        <v>2.270561081656061</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>2.179476695090127</v>
+        <v>2.324943843295962</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>2.573229665235294</v>
+        <v>2.331408264271595</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>2.355903916671257</v>
+        <v>2.010432556821988</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>2.081520863022755</v>
+        <v>2.133275016262757</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>2.712600624967294</v>
+        <v>2.657750153028922</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>2.504056662654897</v>
+        <v>2.076381219162212</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>2.995946500308069</v>
+        <v>2.034708202914462</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>2.34150063329679</v>
+        <v>2.537332872829539</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>2.683329668205812</v>
+        <v>2.374089813932191</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>2.956913386240602</v>
+        <v>2.961416317258003</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>2.304938705862222</v>
+        <v>2.022170541967309</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>2.823649663315777</v>
+        <v>2.1594019553716</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>2.126916395638794</v>
+        <v>2.483118934040953</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>2.658877188313514</v>
+        <v>2.364315590945834</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>2.747453365110556</v>
+        <v>2.986822473606204</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>2.324113836615938</v>
+        <v>2.379468429041228</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>2.545104387173479</v>
+        <v>2.956894226264866</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>2.802657282413661</v>
+        <v>2.899158572588252</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>2.461494421225549</v>
+        <v>2.992851560754588</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>2.142172463343961</v>
+        <v>2.983808725789992</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>2.653110733945438</v>
+        <v>2.65532487321873</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>2.503486564330808</v>
+        <v>2.806305603658664</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>2.998835368154098</v>
+        <v>2.73821315036693</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>2.326768367188842</v>
+        <v>2.368159594061731</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>2.861947403566241</v>
+        <v>2.113196630175795</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>2.295777476854356</v>
+        <v>2.109046319742457</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>2.742161956499946</v>
+        <v>2.424929538943697</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>2.192110298763393</v>
+        <v>2.40792049017382</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>2.545234915567357</v>
+        <v>2.284152983863367</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>2.524928734361264</v>
+        <v>2.10780656561042</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>2.9031900225452</v>
+        <v>2.722512808824598</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>2.237023635694511</v>
+        <v>2.948667295607545</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>2.104471533042033</v>
+        <v>2.420717789836009</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>2.036601613577898</v>
+        <v>2.643780763683438</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>2.384311467311381</v>
+        <v>2.809126569330027</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>2.757485571598955</v>
+        <v>2.034683822646113</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>2.441075373839591</v>
+        <v>2.353558027994992</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>2.789356717169164</v>
+        <v>2.453198398309208</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>2.525890689507468</v>
+        <v>2.546709074889614</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>2.234440207458016</v>
+        <v>2.692263000908387</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>2.689990956500511</v>
+        <v>2.195332764992929</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>2.975673418749381</v>
+        <v>2.27484087371285</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>2.978042357584108</v>
+        <v>2.104977343156341</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>2.583161508765916</v>
+        <v>2.293229164676855</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>2.949502823827707</v>
+        <v>2.434149171932539</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>2.20537774869522</v>
+        <v>2.138934211379239</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>2.167262084243235</v>
+        <v>2.830905350912869</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>2.192868302195722</v>
+        <v>2.384010611880348</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>2.724549041506076</v>
+        <v>2.814039423825021</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>2.27420985696526</v>
+        <v>2.03097729242667</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>2.734007592577277</v>
+        <v>2.87818905697754</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>2.241323664582672</v>
+        <v>2.10120349871241</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>2.534301136954729</v>
+        <v>2.350027332012782</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>2.140706701368676</v>
+        <v>2.879805005194847</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>2.714971862442606</v>
+        <v>2.114662731765728</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>2.973521685381547</v>
+        <v>2.213927962497297</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>2.099278421244783</v>
+        <v>2.232975197566691</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>2.137700014982229</v>
+        <v>2.553674240198703</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>2.892867461944704</v>
+        <v>2.457255140703598</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>2.555983028745203</v>
+        <v>2.536999146610772</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>2.157168423438699</v>
+        <v>2.964817357981516</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>2.889421604757586</v>
+        <v>2.090908224374341</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>2.794850975708088</v>
+        <v>2.27652647426611</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>2.827234287149293</v>
+        <v>2.225504733822174</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>2.74477516472597</v>
+        <v>2.902547341721233</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>2.572332469145716</v>
+        <v>2.668947740260405</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>2.37376222062416</v>
+        <v>2.206595733667374</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>2.38567340095761</v>
+        <v>2.516602521791873</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>2.736178498124962</v>
+        <v>2.466612621332284</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>2.272920831914625</v>
+        <v>2.328495552105264</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>2.222267914477438</v>
+        <v>2.897237259922398</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>2.132975315786663</v>
+        <v>2.152668227438875</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>2.603319109498352</v>
+        <v>2.703153623534659</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>2.128153474775239</v>
+        <v>2.102593599113996</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>2.287506815872226</v>
+        <v>2.824163926762147</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>2.570369324805824</v>
+        <v>2.833316882203357</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>2.577234335624912</v>
+        <v>2.516628186122219</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>2.767353765774833</v>
+        <v>2.725963718445916</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>2.148123370074932</v>
+        <v>2.897322050065216</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>2.589875512886745</v>
+        <v>2.629818951076521</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>2.469996218184619</v>
+        <v>2.175172428772544</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>2.372313258192089</v>
+        <v>2.052150478077584</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>2.224965563002693</v>
+        <v>2.909846635404685</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>2.965259066055163</v>
+        <v>2.431412490851881</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>2.467007956583413</v>
+        <v>2.730566095375404</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>2.084590734138791</v>
+        <v>2.879652318514839</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>2.089561571222018</v>
+        <v>2.771285286308061</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>2.552105196386974</v>
+        <v>2.586924387803128</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>2.42043962712095</v>
+        <v>2.336018338644261</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>2.686264487119015</v>
+        <v>2.805822315167152</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>2.072302260729336</v>
+        <v>2.379091862925566</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>2.516493104887404</v>
+        <v>2.380421844389122</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>2.316056910773232</v>
+        <v>2.386319768252882</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>2.569931411772361</v>
+        <v>2.805752003379664</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>2.37600509684406</v>
+        <v>2.103962334828387</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>2.257035659460878</v>
+        <v>2.471501934936872</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>2.295634705085781</v>
+        <v>2.648678880065895</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>2.980625812681224</v>
+        <v>2.77260640716925</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>2.826480012130052</v>
+        <v>2.286756571231003</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>2.951525916457723</v>
+        <v>2.732434291200028</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>2.422640053429235</v>
+        <v>2.952076938079783</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>2.263913884260438</v>
+        <v>2.462090488069788</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>2.489496616200132</v>
+        <v>2.74622936765015</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>2.954444536933688</v>
+        <v>2.178406075221697</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>2.847483993399433</v>
+        <v>2.388124932523644</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>2.037750292630786</v>
+        <v>2.860220156959233</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>2.237561121585669</v>
+        <v>2.880466283617035</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>2.907238150448736</v>
+        <v>2.997818501663928</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>2.009413725164555</v>
+        <v>2.622488492892286</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>2.985527681367575</v>
+        <v>2.52652463748724</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>2.252862175924292</v>
+        <v>2.492439210398314</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>2.154688943520027</v>
+        <v>2.904809432551264</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>2.020136873715938</v>
+        <v>2.234083841582587</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>2.366712496238919</v>
+        <v>2.340615081445127</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>2.37608758232806</v>
+        <v>2.45457743322557</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>2.889504613353455</v>
+        <v>2.489050544605628</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>2.206858123420843</v>
+        <v>2.929899212027121</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>2.097679511808481</v>
+        <v>2.164937700602584</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>2.726097659059031</v>
+        <v>2.516312607826541</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>2.324469058225688</v>
+        <v>2.902475788240057</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>2.618911986807778</v>
+        <v>2.565553167226081</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>2.551821991834217</v>
+        <v>2.733181164984384</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>2.601626017262367</v>
+        <v>2.015397695529215</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>2.199259429566525</v>
+        <v>2.213979306631081</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>2.813205092208699</v>
+        <v>2.845337767049315</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>2.10674436410994</v>
+        <v>2.898208486655785</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>2.032576842867829</v>
+        <v>2.394562304552092</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>2.119799141341768</v>
+        <v>2.098725701668553</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>2.480526025551267</v>
+        <v>2.156333486827351</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>2.922574410668227</v>
+        <v>2.509850713484508</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>2.854923114053587</v>
+        <v>2.163335797164609</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>2.189391556320855</v>
+        <v>2.220780771519576</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>2.348028375967936</v>
+        <v>2.890748011728447</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>2.635877542123808</v>
+        <v>2.825146127177712</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>2.694539376705961</v>
+        <v>2.165218098848854</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>2.845784637285672</v>
+        <v>2.508278198535644</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>2.05718873438935</v>
+        <v>2.294671451038662</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>2.420307369691804</v>
+        <v>2.151513191884361</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>2.427094111815895</v>
+        <v>2.486095549493468</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>2.601909411934779</v>
+        <v>2.732787905664834</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>2.385609385848634</v>
+        <v>2.897169410770138</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>2.658231420330739</v>
+        <v>2.662941647552966</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>2.313024534014803</v>
+        <v>2.2421073353947</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>2.532425426679695</v>
+        <v>2.903289524664582</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>2.248623464457969</v>
+        <v>2.655902842944303</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>2.633763244754537</v>
+        <v>2.8778131432878</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>2.235795227177451</v>
+        <v>2.72365335591703</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>2.193883045960756</v>
+        <v>2.02333637701991</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>2.598121922364167</v>
+        <v>2.094114310963195</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>2.22285411208786</v>
+        <v>2.641195628657653</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>2.460696537918535</v>
+        <v>2.564391210476934</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>2.157345311044986</v>
+        <v>2.838416252909867</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>2.007089909415365</v>
+        <v>2.09506440377161</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>2.243396442847221</v>
+        <v>2.780976598085068</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>2.427220644346866</v>
+        <v>2.614636990632047</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>2.241982928829395</v>
+        <v>2.410757051954377</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>2.831832864041306</v>
+        <v>2.143220269514044</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>2.168767846384347</v>
+        <v>2.361342532841308</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>2.138365535149283</v>
+        <v>2.883967681834063</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>2.781107439864263</v>
+        <v>2.781794005580186</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>2.576791874394064</v>
+        <v>2.366395272199905</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>2.542411851214889</v>
+        <v>2.390823221841212</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>2.320246517434253</v>
+        <v>2.749090691375987</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>2.736637192365936</v>
+        <v>2.683110413671863</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>2.172259066011374</v>
+        <v>2.336416713699198</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>2.502888507265495</v>
+        <v>2.116149515503</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>2.496535701749463</v>
+        <v>2.824119747599681</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>2.993856451125259</v>
+        <v>2.39645464428571</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>2.433945093835044</v>
+        <v>2.685351421302422</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>2.24118170640183</v>
+        <v>2.967712200708353</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>2.644352955355235</v>
+        <v>2.430209941658888</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>2.808946692384901</v>
+        <v>2.757698215511819</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>2.872879993896344</v>
+        <v>2.974194567786918</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>2.487044397169062</v>
+        <v>2.665428319400548</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>2.877193375658047</v>
+        <v>2.572792024674064</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>2.572903857881775</v>
+        <v>2.989690039581312</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>2.30085050006661</v>
+        <v>2.18220648568042</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>2.162579238553286</v>
+        <v>2.919604257577554</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>2.113837701162346</v>
+        <v>2.977352212180127</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>2.479973059847691</v>
+        <v>2.507195498684881</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>2.231826506410624</v>
+        <v>2.727031093436362</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>2.809981787746284</v>
+        <v>2.022217599305309</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>2.607149415352223</v>
+        <v>2.35514886694605</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>2.951515299035364</v>
+        <v>2.570404008678921</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>2.667933692333477</v>
+        <v>2.212405339878683</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>2.556752534530994</v>
+        <v>2.909229828034726</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>2.727154427013426</v>
+        <v>2.642032548992352</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>2.027638734863335</v>
+        <v>2.431456653189957</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>2.094931059368041</v>
+        <v>2.906455736995003</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>2.967339701225144</v>
+        <v>2.427942435111071</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>2.260637211321851</v>
+        <v>2.12151021446543</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>2.617789265308842</v>
+        <v>2.593798755437332</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>2.352330200176113</v>
+        <v>2.486925006643321</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>2.856635801465236</v>
+        <v>2.566136197576276</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>2.479958345788823</v>
+        <v>2.968336759222897</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>2.656137780359193</v>
+        <v>2.269281260826572</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>2.330915780408746</v>
+        <v>2.061065223353502</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>2.224667824828224</v>
+        <v>2.684960421646948</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>2.143264799077952</v>
+        <v>2.307441964311384</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>2.516763605319623</v>
+        <v>2.21475982249176</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>2.649273614910235</v>
+        <v>2.185416386095162</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>2.525084904017998</v>
+        <v>2.966786665976067</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>2.030169038527539</v>
+        <v>2.442324421909132</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>2.658881323521802</v>
+        <v>2.594453738937661</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>2.909161446125139</v>
+        <v>2.248914733979154</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>2.609669353490096</v>
+        <v>2.182700152455075</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>2.510812833207706</v>
+        <v>2.931028020744865</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>2.974839240923824</v>
+        <v>2.738469871224617</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>2.465246294689667</v>
+        <v>2.866747126895662</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>2.266286986478735</v>
+        <v>2.15902663412473</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>2.623724373885406</v>
+        <v>2.802953783574804</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>2.746677966323051</v>
+        <v>2.003008490133818</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>2.614941292326047</v>
+        <v>2.972560112266643</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>2.642645622234989</v>
+        <v>2.048249573394549</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>2.554643871579599</v>
+        <v>2.62866428562146</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>2.6691861614166</v>
+        <v>2.329033258013349</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>2.043195046353377</v>
+        <v>2.874742194854836</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>2.889279356443084</v>
+        <v>2.625239633530306</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>2.646617955650518</v>
+        <v>2.204299280154381</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>2.374724388578242</v>
+        <v>2.684503610844735</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>2.213670670987671</v>
+        <v>2.224037294577687</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>2.731529980012079</v>
+        <v>2.556060483261496</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>2.810011497340528</v>
+        <v>2.079477021840457</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>2.187526253602186</v>
+        <v>2.246841875672967</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>2.345500777374566</v>
+        <v>2.56648283561448</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>2.176433762701805</v>
+        <v>2.224682473952332</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>2.657167672285704</v>
+        <v>2.374886987376086</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>2.57954131263248</v>
+        <v>2.518239941007683</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>2.580769364155749</v>
+        <v>2.221995152580259</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>2.955806646615435</v>
+        <v>2.187639392711114</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>2.367498761893755</v>
+        <v>2.934405969489725</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>2.223106891365689</v>
+        <v>2.59074245697188</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>2.45415825517576</v>
+        <v>2.995050518541584</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>2.044570116309335</v>
+        <v>2.153080363208916</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>2.511532279234993</v>
+        <v>2.424729650776675</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>2.56659756032786</v>
+        <v>2.828001403275644</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>2.490743184833429</v>
+        <v>2.441032296301458</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>2.53494019061573</v>
+        <v>2.748966631236609</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>2.246571523189055</v>
+        <v>2.00045317049855</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>2.556945020785624</v>
+        <v>2.561289710982329</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>2.916411501032213</v>
+        <v>2.028973910668115</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>2.119396296070128</v>
+        <v>2.336867319441287</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>2.478405477958543</v>
+        <v>2.772915714068843</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>2.696986625778356</v>
+        <v>2.599007909479693</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>2.657913262422622</v>
+        <v>2.277049832522809</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>2.226838593484979</v>
+        <v>2.607848014454899</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>2.026866967699872</v>
+        <v>2.746891305607046</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>2.581394940811054</v>
+        <v>2.419132493747088</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>2.955154718900305</v>
+        <v>2.436705516150094</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>2.509057326398349</v>
+        <v>2.692424779539181</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>2.657436909605981</v>
+        <v>2.606309152594261</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>2.423580847453932</v>
+        <v>2.637314883110696</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>2.198034802432454</v>
+        <v>2.580883460131</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>2.899466322343789</v>
+        <v>2.62573313104035</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>2.246724050265424</v>
+        <v>2.302666670880184</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>2.551563387527862</v>
+        <v>2.919347311763362</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>2.372374034480843</v>
+        <v>2.943047655268596</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>2.661373959586728</v>
+        <v>2.16301257934817</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>2.630689365721198</v>
+        <v>2.97696158820787</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>2.122707727581544</v>
+        <v>2.383251723954981</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>2.2907952710516</v>
+        <v>2.92105763779852</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>2.355002469281147</v>
+        <v>2.142276064941112</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>2.281160029344911</v>
+        <v>2.694603213784054</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>2.532263052923965</v>
+        <v>2.450626985921957</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>2.179620804681389</v>
+        <v>2.70769538992838</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>2.896145697738056</v>
+        <v>2.676198180421476</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>2.334748944635813</v>
+        <v>2.805281050243687</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>2.548819058832569</v>
+        <v>2.4669446739462</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>2.023894816393216</v>
+        <v>2.387158618934111</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>2.265414422975139</v>
+        <v>2.525883278976918</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>2.504338148205216</v>
+        <v>2.199298292886646</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>2.276932028009813</v>
+        <v>2.282430875892158</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>2.141244148200709</v>
+        <v>2.264163747472719</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>2.594094896944158</v>
+        <v>2.89123112805655</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>2.405196304976192</v>
+        <v>2.290839841416124</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>2.205188868372037</v>
+        <v>2.551895959233258</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>2.282124910645623</v>
+        <v>2.98461039325326</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>2.201747634293786</v>
+        <v>2.360135061678159</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>2.463087268749615</v>
+        <v>2.066118642563561</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>2.752938741969173</v>
+        <v>2.822385712663375</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>2.377140689156425</v>
+        <v>2.895244996132704</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>2.08256035023272</v>
+        <v>2.86007886489607</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>2.689278481610262</v>
+        <v>2.563872368450607</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>2.456768864652088</v>
+        <v>2.535187120442999</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>2.407478034808762</v>
+        <v>2.581879725416623</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>2.780540296702422</v>
+        <v>2.806221763451996</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>2.303054881416118</v>
+        <v>2.664694385712898</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>2.589341134552706</v>
+        <v>2.786007202169961</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>2.863846598212621</v>
+        <v>2.250282174484845</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>2.171579747973842</v>
+        <v>2.764544155868292</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>2.880727841396109</v>
+        <v>2.859834489870429</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>2.868953596509361</v>
+        <v>2.337823850181894</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>2.207155253819742</v>
+        <v>2.770867296533362</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>2.952106098949969</v>
+        <v>2.533188002584398</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>2.280973954525654</v>
+        <v>2.938026900968983</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>2.621808148622446</v>
+        <v>2.380919305045545</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>2.592079903046136</v>
+        <v>2.045642611477721</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>2.857774135497073</v>
+        <v>2.65362022629264</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>2.336225258387712</v>
+        <v>2.039012740280628</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>2.123851156380933</v>
+        <v>2.112115269146515</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>2.279319414669801</v>
+        <v>2.937304253683257</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>2.985231884017382</v>
+        <v>2.600531424405428</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>2.391301143168656</v>
+        <v>2.375789239155882</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>2.774991183906098</v>
+        <v>2.76549820115821</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>2.461920206073305</v>
+        <v>2.965186005449997</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>2.252622980390753</v>
+        <v>2.264975749735175</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>2.151463401306766</v>
+        <v>2.311351695825993</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>2.409470413075264</v>
+        <v>2.321439492913119</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>2.385137396486079</v>
+        <v>2.499391004900465</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>2.717115724392199</v>
+        <v>2.53103694095643</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>2.149221958552348</v>
+        <v>2.205792889815609</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>2.839760159419381</v>
+        <v>2.937284215205434</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>2.10801168087418</v>
+        <v>2.902530335788053</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>2.033108422157779</v>
+        <v>2.31949323127297</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>2.407077920634186</v>
+        <v>2.049556891845318</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>2.852455833960989</v>
+        <v>2.27284534168869</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>2.272399056351473</v>
+        <v>2.842181596773712</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>2.399599189885409</v>
+        <v>2.345455737659696</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>2.927080028460746</v>
+        <v>2.599659814885142</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>2.564619562514272</v>
+        <v>2.455904322085053</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>2.452427139536168</v>
+        <v>2.954200483935658</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>2.462737604452649</v>
+        <v>2.178413734316727</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>2.598908684445089</v>
+        <v>2.619135016843515</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>2.668321353189532</v>
+        <v>2.151632873006032</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>2.267792397682623</v>
+        <v>2.828075683366138</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>2.152189118397492</v>
+        <v>2.510579208276631</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>2.530139140485021</v>
+        <v>2.94627664319058</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>2.223540881565675</v>
+        <v>2.401797002088444</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>2.112697591719992</v>
+        <v>2.706157339726716</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>2.620935871025966</v>
+        <v>2.96018817281346</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>2.258937875699782</v>
+        <v>2.559542310015264</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>2.055906881115922</v>
+        <v>2.989909364213541</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>2.86667077779237</v>
+        <v>2.4020438160115</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>2.178429312146783</v>
+        <v>2.891292369402511</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>2.073122247164335</v>
+        <v>2.983009351417513</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>2.418264003121478</v>
+        <v>2.852763116203493</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>2.940300862263114</v>
+        <v>2.320326364905616</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>2.335709172929624</v>
+        <v>2.659919023160295</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>2.572927763416423</v>
+        <v>2.435236925483683</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>2.481149990055308</v>
+        <v>2.871093362835142</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>2.817873128327005</v>
+        <v>2.691689601903227</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>2.199104093475936</v>
+        <v>2.764673999143126</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>2.87801748994911</v>
+        <v>2.776974296740923</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>2.581307639251537</v>
+        <v>2.5496739293315</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>2.711749854980487</v>
+        <v>2.958276678227349</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>2.771668151181929</v>
+        <v>2.426978180845009</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>2.010460603025969</v>
+        <v>2.978551559533869</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>2.862319725499586</v>
+        <v>2.569595834929026</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>2.028259623836437</v>
+        <v>2.399379684016751</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>2.357725995665666</v>
+        <v>2.091984581287196</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>2.772379716017804</v>
+        <v>2.125132896620815</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>2.300313211665564</v>
+        <v>2.736679569907598</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>2.308661970227767</v>
+        <v>2.789438659227564</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>2.619827082410105</v>
+        <v>2.703479168318076</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>2.698879750177371</v>
+        <v>2.621358632730662</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>2.988958336932595</v>
+        <v>2.875215775564287</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>2.516113023237169</v>
+        <v>2.012736078116901</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>2.424164242723096</v>
+        <v>2.892599848327023</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>2.803927620567775</v>
+        <v>2.266591762807331</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>2.898295518436543</v>
+        <v>2.447335365873921</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>2.961111299612203</v>
+        <v>2.511501020727568</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>2.020923303865252</v>
+        <v>2.487279569309954</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>2.039209491795972</v>
+        <v>2.109387167534595</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>2.029383216973913</v>
+        <v>2.779966925064094</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>2.795885914234507</v>
+        <v>2.681119357460687</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>2.118759523380674</v>
+        <v>2.854450945101183</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>2.440461066712178</v>
+        <v>2.66057028225508</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>2.075563719936555</v>
+        <v>2.648704780251932</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>2.495890882668766</v>
+        <v>2.434177923896326</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>2.274869419066718</v>
+        <v>2.51249061797743</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>2.878182495440154</v>
+        <v>2.683582490173121</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>2.156623747828474</v>
+        <v>2.665371636760733</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>2.807503640739537</v>
+        <v>2.745254412637945</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>2.252127154375781</v>
+        <v>2.772731510755788</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>2.556626375504901</v>
+        <v>2.825479444536668</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>2.05133951903108</v>
+        <v>2.53711492893749</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>2.845385844469983</v>
+        <v>2.658850636206973</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>2.436687912278461</v>
+        <v>2.62358063165536</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>2.541709723929675</v>
+        <v>2.12608435073048</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>2.70822196859469</v>
+        <v>2.349768020778621</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>2.042358464325351</v>
+        <v>2.904290988711161</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>2.19027908455535</v>
+        <v>2.395077755951477</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>2.837831935017785</v>
+        <v>2.191881403113613</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>2.28602432541814</v>
+        <v>2.38908862418251</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>2.164338503981149</v>
+        <v>2.970467816226962</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>2.223387802479927</v>
+        <v>2.2851027808979</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>2.973376858471636</v>
+        <v>2.54746390884402</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>2.593687442875251</v>
+        <v>2.53409908574624</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>2.915119154147101</v>
+        <v>2.139441507420012</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>2.523101281408454</v>
+        <v>2.153000546978789</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>2.001613066972151</v>
+        <v>2.837780131322931</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>2.224455702440868</v>
+        <v>2.285137338402232</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>2.837472391368973</v>
+        <v>2.507602286572811</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>2.79940023200872</v>
+        <v>2.603816086749997</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>2.517263020125475</v>
+        <v>2.283136809973248</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>2.768156579083707</v>
+        <v>2.390270407135905</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>2.577319540199909</v>
+        <v>2.094098893767897</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>2.023187987647411</v>
+        <v>2.07347842579538</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>2.877866379126144</v>
+        <v>2.497043166187281</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>2.142994914541104</v>
+        <v>2.93782388530389</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>2.034700052765003</v>
+        <v>2.668950607757996</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>2.878530133266836</v>
+        <v>2.628913568087277</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>2.122642772812188</v>
+        <v>2.873675196703657</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>2.663348861017388</v>
+        <v>2.910162821358632</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>2.387711475089437</v>
+        <v>2.487673045095871</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>2.724953993686788</v>
+        <v>2.541708432924347</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>2.115114957564365</v>
+        <v>2.531096515386085</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>2.171579644927065</v>
+        <v>2.702971689360689</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>2.701019851618032</v>
+        <v>2.680570541841314</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>2.143515887957514</v>
+        <v>2.488162652111626</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>2.458061529375299</v>
+        <v>2.961666054699648</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>2.299815685462602</v>
+        <v>2.189658386589488</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>2.182251323340972</v>
+        <v>2.482002331166045</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>2.074728909822519</v>
+        <v>2.586780395052336</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>2.585062230990192</v>
+        <v>2.516590256693379</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>2.612280360346978</v>
+        <v>2.460823931298028</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>2.81094149175235</v>
+        <v>2.118587348863784</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>2.452427975920771</v>
+        <v>2.624687081406577</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>2.309669753215615</v>
+        <v>2.800405451619035</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>2.645838208342199</v>
+        <v>2.274609625568374</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>2.510945093197441</v>
+        <v>2.160001306981836</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>2.576890428788141</v>
+        <v>2.197838865484253</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>2.33075309106495</v>
+        <v>2.53749412802301</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>2.261964341091951</v>
+        <v>2.957784636989694</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>2.191523183489691</v>
+        <v>2.183145339675757</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>2.430822023960333</v>
+        <v>2.319182910828165</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>2.047287346358429</v>
+        <v>2.969589304635302</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>2.768771327009957</v>
+        <v>2.179550760109107</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>2.459780120671611</v>
+        <v>2.844132233265192</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>2.893913573599935</v>
+        <v>2.080522300669926</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>2.132003611804355</v>
+        <v>2.133241248897833</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>2.384428597538558</v>
+        <v>2.82837833104324</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>2.78342780995735</v>
+        <v>2.710248652525593</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>2.175117175306339</v>
+        <v>2.402835057635544</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>2.644911391209072</v>
+        <v>2.257775588992354</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>2.537935507331927</v>
+        <v>2.887385894392919</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>2.784009039342827</v>
+        <v>2.178457262064539</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>2.75135106516683</v>
+        <v>2.552297460591836</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>2.52635843915256</v>
+        <v>2.625854753671129</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>2.617929480288912</v>
+        <v>2.345290488150043</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>2.47834949979763</v>
+        <v>2.736645886425932</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>2.445217674546158</v>
+        <v>2.695584603839977</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>2.384774711593983</v>
+        <v>2.808836759853816</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>2.990262673268068</v>
+        <v>2.239234192837757</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>2.199637600359132</v>
+        <v>2.491667779468217</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>2.360066446517053</v>
+        <v>2.964826143920416</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>2.465208517921111</v>
+        <v>2.106606752404399</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>2.270389507038077</v>
+        <v>2.409344954501248</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>2.677164263232689</v>
+        <v>2.798886898047693</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>2.01247666574067</v>
+        <v>2.600865839436539</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>2.200039347398119</v>
+        <v>2.041918254537852</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>2.707690798594939</v>
+        <v>2.484301097727018</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>2.971599741721036</v>
+        <v>2.36197349745644</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>2.255868782432236</v>
+        <v>2.243932546853992</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>2.817558445919308</v>
+        <v>2.581715649271782</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>2.660412236121286</v>
+        <v>2.97414730650925</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>2.710054311219378</v>
+        <v>2.936989570358675</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>2.207209591275651</v>
+        <v>2.663617678026164</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>2.785140395491521</v>
+        <v>2.887666602871481</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>2.641903848384091</v>
+        <v>2.100827494125112</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>2.580836386260126</v>
+        <v>2.742914471670617</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>2.014252332018919</v>
+        <v>2.961199336188217</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>2.602890949706767</v>
+        <v>2.41808626770352</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>2.10502827761364</v>
+        <v>2.117144575763325</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>2.029221689934782</v>
+        <v>2.984259291648842</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>2.773099499077003</v>
+        <v>2.54730059083338</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>2.813432456943652</v>
+        <v>2.285467143161792</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>2.916859122321351</v>
+        <v>2.417227681801978</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>2.898478219667792</v>
+        <v>2.687376942547337</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>2.364614394003996</v>
+        <v>2.065565071120699</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>2.475071131482109</v>
+        <v>2.199085951828635</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>2.810954515645887</v>
+        <v>2.162839218992897</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>2.730984496298848</v>
+        <v>2.075695281471795</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>2.038591802679153</v>
+        <v>2.930353980030621</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>2.325603572291348</v>
+        <v>2.154568117361583</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>2.192930044668756</v>
+        <v>2.753447328777644</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>2.147961836340941</v>
+        <v>2.627384757934598</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>2.098646925670655</v>
+        <v>2.755685240574933</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>2.810076597195017</v>
+        <v>2.326611885468907</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>2.706337216596122</v>
+        <v>2.437345564610243</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>2.789306467928911</v>
+        <v>2.817961455322337</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>2.322595565818698</v>
+        <v>2.448764646588451</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>2.559356348849706</v>
+        <v>2.325355670635294</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>2.791555966580673</v>
+        <v>2.311092676525501</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>2.454406466732514</v>
+        <v>2.980131565778041</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>2.08379861779219</v>
+        <v>2.638812348257326</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>2.426228878987669</v>
+        <v>2.779901106537008</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>2.271251184740258</v>
+        <v>2.133093156076376</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>2.116867336659049</v>
+        <v>2.095183863516735</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>2.388086498985884</v>
+        <v>2.888557942780519</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>2.672371282054151</v>
+        <v>2.240709224911051</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>2.423533453185828</v>
+        <v>2.522837403113291</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>2.467686757515757</v>
+        <v>2.012707696268231</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>2.6873760292725</v>
+        <v>2.167899754660497</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>2.562744745388731</v>
+        <v>2.77861146815647</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>2.369904559241529</v>
+        <v>2.826773416571118</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>2.026417049190325</v>
+        <v>2.100856447366312</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>2.04105493716593</v>
+        <v>2.395722096776474</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>2.550145773561839</v>
+        <v>2.770555922182159</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>2.379521644605493</v>
+        <v>2.704514253116455</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>2.48240729804047</v>
+        <v>2.851977538053442</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>2.773539249001217</v>
+        <v>2.087370219439669</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>2.605304817923256</v>
+        <v>2.637364278221725</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>2.564337416144537</v>
+        <v>2.585982868786593</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>2.531985195055944</v>
+        <v>2.119505788100509</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>2.958705971438145</v>
+        <v>2.12046207202868</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>2.361082953475699</v>
+        <v>2.290891901055342</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>2.673508857461585</v>
+        <v>2.440743296178417</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>2.097690427163456</v>
+        <v>2.732226626536626</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>2.824079969367052</v>
+        <v>2.441986258710383</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>2.437121644101075</v>
+        <v>2.360409047897441</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>2.260585180813524</v>
+        <v>2.639412194281256</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>2.166006341185045</v>
+        <v>2.34008350899931</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>2.902483563609389</v>
+        <v>2.92913901343417</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>2.390309882668973</v>
+        <v>2.794980594791633</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>2.747750036816647</v>
+        <v>2.979322314785911</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>2.523055185136739</v>
+        <v>2.965596078012376</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>2.393957236874729</v>
+        <v>2.48678068862379</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>2.922321547337013</v>
+        <v>2.948414838285989</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>2.149587124192192</v>
+        <v>2.017151297526822</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>2.440723238591035</v>
+        <v>2.451443064800769</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>2.70748780122725</v>
+        <v>2.208758820318041</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>2.602408915285013</v>
+        <v>2.507733597400544</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>2.875127718024786</v>
+        <v>2.197599193159795</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>2.062172121312883</v>
+        <v>2.751412840963746</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>2.456633328737126</v>
+        <v>2.571668713032105</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>2.593279833211302</v>
+        <v>2.287531030175582</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>2.830666958914458</v>
+        <v>2.253924519806829</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>2.828929214376417</v>
+        <v>2.012220573852606</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>2.589486031100884</v>
+        <v>2.445643337145295</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>2.629676884582639</v>
+        <v>2.505589310575275</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>2.350208870839748</v>
+        <v>2.284620474627882</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>2.019017777984833</v>
+        <v>2.866616824070145</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>2.475262631453329</v>
+        <v>2.012780219076339</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>2.148466644460332</v>
+        <v>2.92167114452048</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>2.460808390598321</v>
+        <v>2.172570065733048</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>2.194438511546917</v>
+        <v>2.620057409804391</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>2.206633186946426</v>
+        <v>2.225377507032617</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>2.587616169450599</v>
+        <v>2.875973016021098</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>2.007483870774353</v>
+        <v>2.636406702368435</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>2.945316536624516</v>
+        <v>2.561381795044582</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>2.894470590794228</v>
+        <v>2.421556751710008</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>2.145311695526773</v>
+        <v>2.787199860037575</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>2.083064753744686</v>
+        <v>2.940822579128841</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>2.967561336353158</v>
+        <v>2.886074230778503</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>2.916854091733726</v>
+        <v>2.457599098047954</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>2.174488679753682</v>
+        <v>2.337874070969193</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>2.69770909908025</v>
+        <v>2.084862496334495</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>2.759705445712524</v>
+        <v>2.354665778605046</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>2.016313225290828</v>
+        <v>2.786463933223708</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>2.672514781454875</v>
+        <v>2.387937276820758</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>2.371314972692038</v>
+        <v>2.356279001816059</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>2.858474119768087</v>
+        <v>2.831602693684276</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>2.111883217971507</v>
+        <v>2.59157908689392</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>2.305663679130412</v>
+        <v>2.394471384148698</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>2.770707533005746</v>
+        <v>2.388731484108573</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>2.474062895006883</v>
+        <v>2.637331990996788</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>2.365864292609605</v>
+        <v>2.596715197840778</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>2.89047988182471</v>
+        <v>2.13028647331216</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>2.963138766544093</v>
+        <v>2.17861484929086</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>2.754789228438403</v>
+        <v>2.462464582410858</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>2.257533298160968</v>
+        <v>2.864068531484484</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>2.327776653479118</v>
+        <v>2.221959302615276</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>2.18523738134512</v>
+        <v>2.299496211747885</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>2.37683193518146</v>
+        <v>2.8837398616899</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>2.14391112248197</v>
+        <v>2.360493281932915</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>2.785579306670714</v>
+        <v>2.228966147950552</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>2.640474011918094</v>
+        <v>2.121404484008429</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>2.768882486816047</v>
+        <v>2.398882527025687</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>2.351953091783018</v>
+        <v>2.789409050346971</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>2.509561609257248</v>
+        <v>2.256381632783881</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>2.708685273560305</v>
+        <v>2.801194690760801</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>2.616281697985058</v>
+        <v>2.391504338047223</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>2.976122516680462</v>
+        <v>2.499844427821738</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>2.961737174570558</v>
+        <v>2.05852522400019</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>2.049006008515438</v>
+        <v>2.546210569195434</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>2.517628303163427</v>
+        <v>2.2693801589447</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>2.448786578497335</v>
+        <v>2.984473554561729</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>2.297901420809271</v>
+        <v>2.719565976854581</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>2.104946321311947</v>
+        <v>2.779609531447626</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>2.146326859058348</v>
+        <v>2.162831826753486</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>2.248054183685743</v>
+        <v>2.939662314636545</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>2.564961756887369</v>
+        <v>2.225174637614376</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>2.89044142535144</v>
+        <v>2.136079734462817</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>2.362458149004734</v>
+        <v>2.281459380919706</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>2.683961426332238</v>
+        <v>2.622990237797127</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>2.2283772200828</v>
+        <v>2.606695725179048</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>2.17796748458925</v>
+        <v>2.09840613008482</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>2.004387050608169</v>
+        <v>2.213394566730034</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>2.112905081970171</v>
+        <v>2.638624883200475</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>2.448732865180553</v>
+        <v>2.215211760692414</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>2.743639357638685</v>
+        <v>2.372035483095013</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>2.87786289317928</v>
+        <v>2.82717470434849</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>2.370830287849206</v>
+        <v>2.532211352576747</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>2.348737269295603</v>
+        <v>2.412288646796878</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>2.53644360536774</v>
+        <v>2.258265004362978</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>2.691206108500973</v>
+        <v>2.833339552700316</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>2.332782442830147</v>
+        <v>2.272810109011194</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>2.335456850060197</v>
+        <v>2.66043524622376</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>2.304689230579169</v>
+        <v>2.64198569745083</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>2.652956047242021</v>
+        <v>2.290568198323306</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>2.001514054937609</v>
+        <v>2.517826454878278</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>2.929764998433608</v>
+        <v>2.621438286256683</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>2.000087351508095</v>
+        <v>2.557191360278039</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>2.105511352543152</v>
+        <v>2.196438096972449</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>2.711339588901863</v>
+        <v>2.367241016059764</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>2.352890821467358</v>
+        <v>2.451250524202377</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>2.408513198397142</v>
+        <v>2.029125112489485</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>2.669365179599589</v>
+        <v>2.980016791054427</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>2.674958750209517</v>
+        <v>2.918262613355818</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>2.864031223761787</v>
+        <v>2.502423221702713</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>2.359301552539447</v>
+        <v>2.461860555229083</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>2.4746144490191</v>
+        <v>2.510180024031541</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>2.856205556632295</v>
+        <v>2.670827366613434</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>2.837064967176055</v>
+        <v>2.323907312546654</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>2.807019665797997</v>
+        <v>2.741468635920819</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>2.941231601888902</v>
+        <v>2.080506021463421</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>2.244343063515833</v>
+        <v>2.096379130125</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>2.954317673311395</v>
+        <v>2.045573447736507</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>2.432382254078527</v>
+        <v>2.160912543363275</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>2.28188571006202</v>
+        <v>2.356857655476539</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>2.651954131060104</v>
+        <v>2.391188542610771</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>2.068290541842575</v>
+        <v>2.076260082596929</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>2.612055306395168</v>
+        <v>2.352969937991748</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>2.278468561380367</v>
+        <v>2.923096672571263</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>2.233597100032446</v>
+        <v>2.099107325368543</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>2.689721590952457</v>
+        <v>2.308053872377586</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>2.340411476330298</v>
+        <v>2.79784800517542</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>2.286588162890056</v>
+        <v>2.322943121939572</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>2.493150558408586</v>
+        <v>2.353758562878868</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>2.381400342579266</v>
+        <v>2.327914808036065</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>2.836884602450383</v>
+        <v>2.700844074571414</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>2.776146735706999</v>
+        <v>2.360802173532492</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>2.02748322774039</v>
+        <v>2.457418832029274</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>2.110516255928156</v>
+        <v>2.730453556154497</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>2.736598463619982</v>
+        <v>2.688376691800316</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>2.408461799506143</v>
+        <v>2.824924405259566</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>2.10162393985907</v>
+        <v>2.305707090404483</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>2.963689196590477</v>
+        <v>2.858111188500061</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>2.894906633709549</v>
+        <v>2.387695713858119</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>2.901460832764934</v>
+        <v>2.457226681358077</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>2.288583172833968</v>
+        <v>2.652946291296381</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>2.05440685032198</v>
+        <v>2.348108947750337</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>2.608117922454533</v>
+        <v>2.853181030681816</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>2.651617579258701</v>
+        <v>2.215607430488901</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>2.883450196008763</v>
+        <v>2.659476538671573</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>2.525298610655891</v>
+        <v>2.289430635371688</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>2.973464686405102</v>
+        <v>2.377640997054742</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>2.672226844109879</v>
+        <v>2.399583173824809</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>2.742875526594835</v>
+        <v>2.572092309862366</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>2.821448101040815</v>
+        <v>2.469008601735992</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>2.251614038884693</v>
+        <v>2.08862457253792</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>2.011646038378136</v>
+        <v>2.198161790734553</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>2.435662091414001</v>
+        <v>2.547366252975011</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>2.407405010847174</v>
+        <v>2.218570134805896</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>2.537207212954792</v>
+        <v>2.787300496390757</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>2.552977222741855</v>
+        <v>2.84049786443593</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>2.735451773887734</v>
+        <v>2.799977697672247</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>2.690034902338335</v>
+        <v>2.535787223780681</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>2.732719055143492</v>
+        <v>2.396333157853987</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>2.814522013733031</v>
+        <v>2.203489246372618</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>2.127699959247169</v>
+        <v>2.914248549978344</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>2.582427932261718</v>
+        <v>2.080402633447708</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>2.749584578098559</v>
+        <v>2.430583078768302</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>2.568972190186097</v>
+        <v>2.532377858850213</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>2.164977729031628</v>
+        <v>2.509203609178418</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>2.830225487298253</v>
+        <v>2.060614570063143</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>2.730179373457535</v>
+        <v>2.997078265026971</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>2.237676972787528</v>
+        <v>2.185446461039092</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>2.438837410500229</v>
+        <v>2.165689055010344</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>2.859248985160185</v>
+        <v>2.613910538722191</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>2.831143207912404</v>
+        <v>2.122852834098229</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>2.871628907657905</v>
+        <v>2.121790559499783</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>2.368160945318335</v>
+        <v>2.36061040841126</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>2.449259900425997</v>
+        <v>2.119381873659079</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>2.368059644989644</v>
+        <v>2.466768678081285</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>2.838101554463576</v>
+        <v>2.984129014674445</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>2.467346569385421</v>
+        <v>2.96357685482182</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>2.005130175927854</v>
+        <v>2.496636792583884</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>2.443384466144189</v>
+        <v>2.108238831012371</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>2.85657111371947</v>
+        <v>2.319872175901015</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>2.64642547273506</v>
+        <v>2.462696755839537</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>2.738180826389083</v>
+        <v>2.922600373249355</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>2.437208842536409</v>
+        <v>2.728089532619946</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>2.799450354522915</v>
+        <v>2.117905704511393</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>2.811407285478313</v>
+        <v>2.407950502398281</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>2.041142779056496</v>
+        <v>2.325423930080404</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>2.85236445574244</v>
+        <v>2.529833353218669</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>2.8059341678437</v>
+        <v>2.707103463155561</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>2.570400157069643</v>
+        <v>2.3563686792209</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>2.005966102630632</v>
+        <v>2.621552724710108</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>2.831557552682868</v>
+        <v>2.410742787909788</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>2.149012913144988</v>
+        <v>2.277935122380322</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>2.996832653842071</v>
+        <v>2.098808649792356</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>2.865858793624138</v>
+        <v>2.999451968574758</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>2.342526605206501</v>
+        <v>2.262012359758558</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>2.166246751426486</v>
+        <v>2.181101563628755</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>2.642096114708012</v>
+        <v>2.555688881000543</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>2.403403900001136</v>
+        <v>2.839614280868365</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>2.664721682552819</v>
+        <v>2.962120255270464</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>2.129844497018276</v>
+        <v>2.540322286353716</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>2.817427607193235</v>
+        <v>2.543831705060128</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>2.648150421906761</v>
+        <v>2.67872426910658</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>2.519356522192726</v>
+        <v>2.974022120590496</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>2.83878899468344</v>
+        <v>2.690379866387215</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>2.040826019978927</v>
+        <v>2.882996982146336</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>2.915333439899985</v>
+        <v>2.180346757304022</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>2.646507299017487</v>
+        <v>2.737971010506459</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>2.822247246374742</v>
+        <v>2.070279154891213</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>2.136900586017497</v>
+        <v>2.33171342337332</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>2.150736424092547</v>
+        <v>2.351573686944421</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>2.636370308372682</v>
+        <v>2.464821845713292</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>2.296345999037055</v>
+        <v>2.707220580847661</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>2.486802266621034</v>
+        <v>2.876877514376273</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>2.972789742644777</v>
+        <v>2.899984282173991</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>2.516080987039351</v>
+        <v>2.521944877530672</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>2.108477865762865</v>
+        <v>2.145483016110004</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>2.352295370476043</v>
+        <v>2.797125866114767</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>2.342535504890648</v>
+        <v>2.415016694818059</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>2.472171323950931</v>
+        <v>2.106097518019471</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>2.088291428212063</v>
+        <v>2.540888240140934</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>2.490867587107052</v>
+        <v>2.117886642560341</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
-        <v>2.477700124390569</v>
+        <v>2.081499180530338</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>2.894512038836529</v>
+        <v>2.880135246272854</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>2.678310870753393</v>
+        <v>2.249221241810808</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="n">
-        <v>2.24853522999525</v>
+        <v>2.702496270172337</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>2.361398658710011</v>
+        <v>2.935357967582675</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>2.02354372087365</v>
+        <v>2.136136015910487</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>2.280813016519404</v>
+        <v>2.888936382095735</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>2.585901636267807</v>
+        <v>2.11379130376683</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>2.657154970206013</v>
+        <v>2.407917371485474</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>2.235248484950223</v>
+        <v>2.447817227358583</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
-        <v>2.932749896375824</v>
+        <v>2.866569177937419</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>2.355610713098718</v>
+        <v>2.276296906582526</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>2.219506259333977</v>
+        <v>2.265772455219162</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>2.830974251489137</v>
+        <v>2.356559377047447</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>2.80720548038913</v>
+        <v>2.487605312511947</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>2.820534697705583</v>
+        <v>2.235268033854696</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>2.857894417090019</v>
+        <v>2.364733803722099</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>2.908762265894336</v>
+        <v>2.115242369236865</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>2.041263358570742</v>
+        <v>2.654745006072303</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>2.916160873868419</v>
+        <v>2.618366306197699</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>2.682195474333331</v>
+        <v>2.369816999102361</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>2.168435877537433</v>
+        <v>2.574665177182568</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>2.788804725008907</v>
+        <v>2.544040221194424</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>2.144756135425938</v>
+        <v>2.12141008464679</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>2.53441244952626</v>
+        <v>2.528170092021286</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>2.570072584045004</v>
+        <v>2.178230619980219</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>2.833859245484132</v>
+        <v>2.565616296007637</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>2.437514471432514</v>
+        <v>2.885845504851674</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>2.069995704371199</v>
+        <v>2.488331352937514</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>2.892590370569899</v>
+        <v>2.639690945704083</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>2.189724805096697</v>
+        <v>2.400778374257555</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="n">
-        <v>2.069469464477331</v>
+        <v>2.98005795941585</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="n">
-        <v>2.425877143554328</v>
+        <v>2.17696356200342</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="n">
-        <v>2.682281199602956</v>
+        <v>2.70065459354098</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="n">
-        <v>2.53475146127376</v>
+        <v>2.083309698485645</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="n">
-        <v>2.253939110814567</v>
+        <v>2.346814668858573</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>2.887533660757663</v>
+        <v>2.152974341446693</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
-        <v>2.609486765773597</v>
+        <v>2.797751112396283</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="n">
-        <v>2.38202850248009</v>
+        <v>2.775323862847616</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>2.349218791956284</v>
+        <v>2.270758174638538</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
-        <v>2.448701861502017</v>
+        <v>2.618068697504419</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>2.67158196796268</v>
+        <v>2.105676400807285</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="n">
-        <v>2.677856227898677</v>
+        <v>2.869675685699665</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>2.135493413109108</v>
+        <v>2.373391324312613</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="n">
-        <v>2.419727230663993</v>
+        <v>2.857130996194469</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="n">
-        <v>2.100697086471792</v>
+        <v>2.269879289467208</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="n">
-        <v>2.170237943769061</v>
+        <v>2.200785100674613</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>2.480380640637296</v>
+        <v>2.976004727405217</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>2.436271548507716</v>
+        <v>2.181802612689537</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="n">
-        <v>2.171554924278411</v>
+        <v>2.175329003119462</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="n">
-        <v>2.926473045044019</v>
+        <v>2.936047427726426</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="n">
-        <v>2.691942914357204</v>
+        <v>2.723177366895299</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="n">
-        <v>2.857260574439759</v>
+        <v>2.749068837019596</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>2.378262449666516</v>
+        <v>2.577098923616146</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="n">
-        <v>2.341241595769678</v>
+        <v>2.461049626786226</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="n">
-        <v>2.900491860088371</v>
+        <v>2.300197259018378</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>2.197796105607508</v>
+        <v>2.346913495616779</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>2.287645441947115</v>
+        <v>2.945735205392741</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>2.693371086900009</v>
+        <v>2.156389967643173</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="n">
-        <v>2.551851701165591</v>
+        <v>2.748292031614262</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="n">
-        <v>2.598002485568961</v>
+        <v>2.824225286188915</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="n">
-        <v>2.699763349303876</v>
+        <v>2.210606940435048</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="n">
-        <v>2.312980194514552</v>
+        <v>2.03100207879565</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="n">
-        <v>2.43524773247999</v>
+        <v>2.04029741853515</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>2.189493577233335</v>
+        <v>2.03965212460002</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
-        <v>2.890863217512803</v>
+        <v>2.397480744023785</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="n">
-        <v>2.722432695752478</v>
+        <v>2.937990934197542</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>2.682196990720601</v>
+        <v>2.255938413420806</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="n">
-        <v>2.626081184880715</v>
+        <v>2.103448584145545</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>2.787996515823203</v>
+        <v>2.788961344185219</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="n">
-        <v>2.562429654357281</v>
+        <v>2.445345442843723</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="n">
-        <v>2.65603867359691</v>
+        <v>2.412301704298177</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="n">
-        <v>2.642350329669294</v>
+        <v>2.7985844117488</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>2.753199601428543</v>
+        <v>2.964553439252962</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="n">
-        <v>2.477195556991454</v>
+        <v>2.376722569153741</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>2.9660571960641</v>
+        <v>2.729412402096266</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>2.504143963861694</v>
+        <v>2.580941070640465</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="n">
-        <v>2.94579884351078</v>
+        <v>2.857304199339314</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="n">
-        <v>2.119975420051805</v>
+        <v>2.187797588301043</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>2.758258274144338</v>
+        <v>2.873128126095635</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>2.786516522110488</v>
+        <v>2.368568104582454</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="n">
-        <v>2.591308583137463</v>
+        <v>2.697434855524107</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="n">
-        <v>2.038953296870494</v>
+        <v>2.686258539090757</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>2.846205496025101</v>
+        <v>2.707637057504386</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="n">
-        <v>2.187982968713659</v>
+        <v>2.540048247071718</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>2.809398478124289</v>
+        <v>2.442424971117694</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="n">
-        <v>2.923951313235672</v>
+        <v>2.508651065971326</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="n">
-        <v>2.692244669727011</v>
+        <v>2.52505453362803</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="n">
-        <v>2.203073003172712</v>
+        <v>2.434535438765717</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>2.870287882324349</v>
+        <v>2.689004607202464</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="n">
-        <v>2.243744828890787</v>
+        <v>2.112878776094098</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="n">
-        <v>2.990064419596412</v>
+        <v>2.912413193960255</v>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="n">
-        <v>2.562987698482832</v>
+        <v>2.776955950923482</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="n">
-        <v>2.250973185110303</v>
+        <v>2.325516389894844</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="n">
-        <v>2.425804227735481</v>
+        <v>2.545927240250138</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>2.364922100556853</v>
+        <v>2.929009152701205</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="n">
-        <v>2.582326366919776</v>
+        <v>2.068390459741055</v>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="n">
-        <v>2.355587755876041</v>
+        <v>2.15856744489983</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>2.399575221674664</v>
+        <v>2.422112333821279</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="n">
-        <v>2.045739762635006</v>
+        <v>2.358052759123945</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>2.327736859150121</v>
+        <v>2.814996586323524</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="n">
-        <v>2.541779947913165</v>
+        <v>2.879531155974047</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="n">
-        <v>2.149751623019792</v>
+        <v>2.239546777262523</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="n">
-        <v>2.874331235711834</v>
+        <v>2.549469181927498</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="n">
-        <v>2.45382723979441</v>
+        <v>2.328541444111999</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="n">
-        <v>2.470355805612151</v>
+        <v>2.231907965721093</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="n">
-        <v>2.584682864560345</v>
+        <v>2.922630951145554</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="n">
-        <v>2.354688253752377</v>
+        <v>2.390488198661145</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="n">
-        <v>2.111372009556664</v>
+        <v>2.345613746982242</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="n">
-        <v>2.619409608237019</v>
+        <v>2.182007857710814</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>2.447031973568313</v>
+        <v>2.465918840505462</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>2.013807293592885</v>
+        <v>2.208696464496354</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="n">
-        <v>2.904612150322623</v>
+        <v>2.121309941312802</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="n">
-        <v>2.911887043836473</v>
+        <v>2.141181529372496</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="n">
-        <v>2.357310805129445</v>
+        <v>2.835541172518856</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>2.665996066851032</v>
+        <v>2.867561494187147</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="n">
-        <v>2.553858040962406</v>
+        <v>2.381669908549233</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="n">
-        <v>2.93935855005731</v>
+        <v>2.387196948438067</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>2.299892895584324</v>
+        <v>2.195775387174507</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="n">
-        <v>2.88169868435368</v>
+        <v>2.235538355866396</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="n">
-        <v>2.781729978378325</v>
+        <v>2.566163184795572</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="n">
-        <v>2.905419613002404</v>
+        <v>2.1032852381834</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="n">
-        <v>2.729451700017628</v>
+        <v>2.818325597540909</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="n">
-        <v>2.976360652339599</v>
+        <v>2.684145596766986</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="n">
-        <v>2.911645413498119</v>
+        <v>2.214172479538036</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="n">
-        <v>2.057145986132001</v>
+        <v>2.9639890355384</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="n">
-        <v>2.885707985057109</v>
+        <v>2.957789683520922</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="n">
-        <v>2.746842943042091</v>
+        <v>2.683022520553283</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>2.542485397522753</v>
+        <v>2.460676442590557</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>2.929569794886262</v>
+        <v>2.126850837220844</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="n">
-        <v>2.249792505559872</v>
+        <v>2.652808228332788</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>2.114966344342829</v>
+        <v>2.776163506546172</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="n">
-        <v>2.359466660921123</v>
+        <v>2.016663122797373</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>2.576959428791116</v>
+        <v>2.723265623119068</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="n">
-        <v>2.533531494526572</v>
+        <v>2.158466246581352</v>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="n">
-        <v>2.751608726383553</v>
+        <v>2.017284067985557</v>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="n">
-        <v>2.744807730158864</v>
+        <v>2.870569477191677</v>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="n">
-        <v>2.027055930960356</v>
+        <v>2.3998416365427</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="n">
-        <v>2.358746916967843</v>
+        <v>2.601032603647352</v>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="n">
-        <v>2.330593778242273</v>
+        <v>2.882360489411031</v>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="n">
-        <v>2.586105758732855</v>
+        <v>2.234109977923025</v>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="n">
-        <v>2.252789152229974</v>
+        <v>2.543786931457011</v>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="n">
-        <v>2.822664183037852</v>
+        <v>2.174018260213911</v>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="n">
-        <v>2.147121667473115</v>
+        <v>2.552976465333391</v>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="n">
-        <v>2.176201590200799</v>
+        <v>2.814663419818982</v>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="n">
-        <v>2.32749243612819</v>
+        <v>2.347990845072844</v>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="n">
-        <v>2.927592908598652</v>
+        <v>2.128127673978087</v>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="n">
-        <v>2.953877770958674</v>
+        <v>2.127703640367384</v>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="n">
-        <v>2.471914701532892</v>
+        <v>2.999450866598986</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="n">
-        <v>2.18806922013435</v>
+        <v>2.806028010555901</v>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="n">
-        <v>2.986719153134235</v>
+        <v>2.721226843375</v>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="n">
-        <v>2.754032770157012</v>
+        <v>2.006090743475625</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="n">
-        <v>2.269027074012159</v>
+        <v>2.544032068813983</v>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="n">
-        <v>2.281932571469723</v>
+        <v>2.501683604308643</v>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="n">
-        <v>2.232282762631975</v>
+        <v>2.644221897420963</v>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="n">
-        <v>2.822074110039755</v>
+        <v>2.62053659562887</v>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="n">
-        <v>2.790861822098317</v>
+        <v>2.580130406203755</v>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="n">
-        <v>2.686598449236073</v>
+        <v>2.304493007221845</v>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="n">
-        <v>2.755394432471691</v>
+        <v>2.130025294036757</v>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="n">
-        <v>2.740218051134161</v>
+        <v>2.231711570701196</v>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="n">
-        <v>2.688451468579296</v>
+        <v>2.150398894817219</v>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="n">
-        <v>2.219946054631375</v>
+        <v>2.705449218513294</v>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>2.189924604987641</v>
+        <v>2.469973446189145</v>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="n">
-        <v>2.807867473210742</v>
+        <v>2.057431282600688</v>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="n">
-        <v>2.808877950041675</v>
+        <v>2.016152165554579</v>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="n">
-        <v>2.439804277530255</v>
+        <v>2.508034599624354</v>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="n">
-        <v>2.783049347103153</v>
+        <v>2.377168354053786</v>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="n">
-        <v>2.966749555284813</v>
+        <v>2.080440494978383</v>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="n">
-        <v>2.000410911442055</v>
+        <v>2.449508805193818</v>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="n">
-        <v>2.772568505233398</v>
+        <v>2.554619764688384</v>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="n">
-        <v>2.219183824032191</v>
+        <v>2.376244000894428</v>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="n">
-        <v>2.837939467681753</v>
+        <v>2.639336293817881</v>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="n">
-        <v>2.165591451330353</v>
+        <v>2.651673803492405</v>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="n">
-        <v>2.679222036809846</v>
+        <v>2.850956533827959</v>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="n">
-        <v>2.520965006345131</v>
+        <v>2.887284433063004</v>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="n">
-        <v>2.480158044550038</v>
+        <v>2.751261363066915</v>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>2.647915027148708</v>
+        <v>2.849379139891469</v>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="n">
-        <v>2.889900999555098</v>
+        <v>2.229331725811936</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="n">
-        <v>2.883687118730824</v>
+        <v>2.814142322963499</v>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="n">
-        <v>2.864806236989847</v>
+        <v>2.938345963791143</v>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="n">
-        <v>2.517745730217676</v>
+        <v>2.885023291519579</v>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="n">
-        <v>2.212389387552835</v>
+        <v>2.790467471560503</v>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="n">
-        <v>2.246501750840978</v>
+        <v>2.10093731335108</v>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="n">
-        <v>2.56983846502929</v>
+        <v>2.422991118947103</v>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="n">
-        <v>2.089643315623348</v>
+        <v>2.395111352792013</v>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="n">
-        <v>2.495595291270738</v>
+        <v>2.099951621707785</v>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="n">
-        <v>2.724248917241484</v>
+        <v>2.449091557854004</v>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="n">
-        <v>2.388806697480904</v>
+        <v>2.500585028821748</v>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>2.059153547690774</v>
+        <v>2.283887802009668</v>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="n">
-        <v>2.905587829680285</v>
+        <v>2.952989994832068</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="n">
-        <v>2.642517651243014</v>
+        <v>2.49124514821338</v>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="n">
-        <v>2.66336690014722</v>
+        <v>2.021151699280447</v>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="n">
-        <v>2.541835486750813</v>
+        <v>2.411509730644682</v>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="n">
-        <v>2.160680144551137</v>
+        <v>2.021510525749632</v>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="n">
-        <v>2.593054832106193</v>
+        <v>2.588897827478384</v>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="n">
-        <v>2.07099249535849</v>
+        <v>2.689257096244369</v>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="n">
-        <v>2.237621169417909</v>
+        <v>2.143123901663023</v>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="n">
-        <v>2.760809487479792</v>
+        <v>2.854770588157843</v>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="n">
-        <v>2.194454406995744</v>
+        <v>2.794907690925314</v>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="n">
-        <v>2.107104064149312</v>
+        <v>2.240518484402366</v>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="n">
-        <v>2.340892582354765</v>
+        <v>2.69609296250615</v>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="n">
-        <v>2.409911667534276</v>
+        <v>2.060586949476057</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="n">
-        <v>2.950019163941253</v>
+        <v>2.166664327238482</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="n">
-        <v>2.968246991940329</v>
+        <v>2.840511879523964</v>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="n">
-        <v>2.977281377372216</v>
+        <v>2.53213334870853</v>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="n">
-        <v>2.113142778680769</v>
+        <v>2.343684688453794</v>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="n">
-        <v>2.729879360212871</v>
+        <v>2.887853280794077</v>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="n">
-        <v>2.712199640076915</v>
+        <v>2.327420950472877</v>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="n">
-        <v>2.77943133808715</v>
+        <v>2.855921598041318</v>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="n">
-        <v>2.355373814090753</v>
+        <v>2.643720727675236</v>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="n">
-        <v>2.077971172214209</v>
+        <v>2.191092232005398</v>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="n">
-        <v>2.590087950554387</v>
+        <v>2.813677548139482</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="n">
-        <v>2.851862584301341</v>
+        <v>2.322021416214684</v>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="n">
-        <v>2.449585266872031</v>
+        <v>2.443085887731976</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="n">
-        <v>2.917257877153592</v>
+        <v>2.692593046829519</v>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="n">
-        <v>2.144579412043616</v>
+        <v>2.256329880779836</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="n">
-        <v>2.075201694679428</v>
+        <v>2.026307280190212</v>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="n">
-        <v>2.181613514811876</v>
+        <v>2.475407467044831</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="n">
-        <v>2.906482451605402</v>
+        <v>2.92893894118502</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="n">
-        <v>2.646671054450726</v>
+        <v>2.957124446009536</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="n">
-        <v>2.743874300069682</v>
+        <v>2.165947507623551</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="n">
-        <v>2.285586830782432</v>
+        <v>2.985129833237601</v>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="n">
-        <v>2.090770299821128</v>
+        <v>2.456385840100327</v>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="n">
-        <v>2.609105561056822</v>
+        <v>2.801148744527683</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="n">
-        <v>2.249880943136399</v>
+        <v>2.250495619787502</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="n">
-        <v>2.935240035494042</v>
+        <v>2.060454674488249</v>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="n">
-        <v>2.602450568780635</v>
+        <v>2.390607657228571</v>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="n">
-        <v>2.989478347536597</v>
+        <v>2.729786817178282</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="n">
-        <v>2.876176454103649</v>
+        <v>2.307917937228763</v>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="n">
-        <v>2.032456895227901</v>
+        <v>2.835623169214061</v>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="n">
-        <v>2.644444621669471</v>
+        <v>2.674200922180534</v>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="n">
-        <v>2.440909904314621</v>
+        <v>2.924149066200105</v>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="n">
-        <v>2.349446914649019</v>
+        <v>2.270591063913477</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="n">
-        <v>2.964492179081181</v>
+        <v>2.472956601619406</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="n">
-        <v>2.477447315975332</v>
+        <v>2.298275090586753</v>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="n">
-        <v>2.691536899600252</v>
+        <v>2.12343535283641</v>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="n">
-        <v>2.193725041647426</v>
+        <v>2.114574459921124</v>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="n">
-        <v>2.905934525189048</v>
+        <v>2.510765433270226</v>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="n">
-        <v>2.954841176302665</v>
+        <v>2.921367777785516</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="n">
-        <v>2.300187771016109</v>
+        <v>2.22094466916212</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="n">
-        <v>2.278818802745911</v>
+        <v>2.969366931497641</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="n">
-        <v>2.340616490872294</v>
+        <v>2.021390314649131</v>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="n">
-        <v>2.410671124349812</v>
+        <v>2.606367057234207</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="n">
-        <v>2.641965440855283</v>
+        <v>2.871923557927603</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="n">
-        <v>2.567806384108498</v>
+        <v>2.474652749249697</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="n">
-        <v>2.547012460036206</v>
+        <v>2.653884424219793</v>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="n">
-        <v>2.935223228246599</v>
+        <v>2.463023596527719</v>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="n">
-        <v>2.756804190582619</v>
+        <v>2.710204329310392</v>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="n">
-        <v>2.481406466547548</v>
+        <v>2.538747113706088</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="n">
-        <v>2.044047427222979</v>
+        <v>2.465427018234287</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="n">
-        <v>2.653327409452793</v>
+        <v>2.76416564862091</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="n">
-        <v>2.994845969331867</v>
+        <v>2.53046857887995</v>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="n">
-        <v>2.324672499984676</v>
+        <v>2.228340460108148</v>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="n">
-        <v>2.717679332935099</v>
+        <v>2.682083434977061</v>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="n">
-        <v>2.398582622374414</v>
+        <v>2.74436353765828</v>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="n">
-        <v>2.169094504160785</v>
+        <v>2.095383638654609</v>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="n">
-        <v>2.912288808537345</v>
+        <v>2.617389826276216</v>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>2.181281805759605</v>
+        <v>2.190204817098618</v>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="n">
-        <v>2.989317355331813</v>
+        <v>2.262793432388297</v>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="n">
-        <v>2.901709720832173</v>
+        <v>2.45306765511221</v>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="n">
-        <v>2.670712819821532</v>
+        <v>2.474542446233966</v>
       </c>
     </row>
     <row r="1421">
       <c r="A1421" t="n">
-        <v>2.564695978071049</v>
+        <v>2.863857822993571</v>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="n">
-        <v>2.798733194855499</v>
+        <v>2.283680903869949</v>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="n">
-        <v>2.763001605083124</v>
+        <v>2.248022613906358</v>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="n">
-        <v>2.715187025661673</v>
+        <v>2.850017560666322</v>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="n">
-        <v>2.789919254555979</v>
+        <v>2.847036872449404</v>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="n">
-        <v>2.183759700390869</v>
+        <v>2.781274229394959</v>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="n">
-        <v>2.713021068398576</v>
+        <v>2.461398614302655</v>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="n">
-        <v>2.129314002003799</v>
+        <v>2.276442740501754</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="n">
-        <v>2.898092171296418</v>
+        <v>2.546322108960669</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="n">
-        <v>2.424126826244809</v>
+        <v>2.096606102411906</v>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="n">
-        <v>2.28581027204395</v>
+        <v>2.47298549273017</v>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="n">
-        <v>2.187722963398225</v>
+        <v>2.626011671703639</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="n">
-        <v>2.449307681872248</v>
+        <v>2.587329309097417</v>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="n">
-        <v>2.599114158231909</v>
+        <v>2.969571849188545</v>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="n">
-        <v>2.590306704090525</v>
+        <v>2.257182117953079</v>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="n">
-        <v>2.162111393465361</v>
+        <v>2.328899865117026</v>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="n">
-        <v>2.377818774505346</v>
+        <v>2.891259984815765</v>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="n">
-        <v>2.294992446961267</v>
+        <v>2.308761048126042</v>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="n">
-        <v>2.830165613092895</v>
+        <v>2.622431712834133</v>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="n">
-        <v>2.263885672591386</v>
+        <v>2.42296938393003</v>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="n">
-        <v>2.177823184624594</v>
+        <v>2.261515345153673</v>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" t="n">
-        <v>2.697725787964294</v>
+        <v>2.905245748345746</v>
       </c>
     </row>
   </sheetData>

--- a/smart_grid_simulation/src/methods/rate_schedule.xlsx
+++ b/smart_grid_simulation/src/methods/rate_schedule.xlsx
@@ -442,7207 +442,7207 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.210069850741458</v>
+        <v>2.440799548851469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.041827278428588</v>
+        <v>2.364157129903401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.074364251123279</v>
+        <v>2.548642792010414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.685692567933903</v>
+        <v>2.393067824390834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.474419587914328</v>
+        <v>2.719334096344756</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.81257408018292</v>
+        <v>2.109241176620095</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.167004121498623</v>
+        <v>2.288213680288897</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.737187437151142</v>
+        <v>2.865640627413033</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.076131918754771</v>
+        <v>2.304649845006786</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.997346268853324</v>
+        <v>2.177471383617621</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.153811640111007</v>
+        <v>2.894685057164165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.045139141895546</v>
+        <v>2.321952933093616</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.869851366954141</v>
+        <v>2.906543628024904</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.013160061511706</v>
+        <v>2.993401996712334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.971942754817041</v>
+        <v>2.283355818311159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.306738064292418</v>
+        <v>2.330283817265042</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.877993845136357</v>
+        <v>2.651764621564978</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.792391326267456</v>
+        <v>2.892815596540206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.3327967465155</v>
+        <v>2.857547971763096</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.044232436995741</v>
+        <v>2.686042062480476</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.881498566624187</v>
+        <v>2.254456189208067</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.391310846844556</v>
+        <v>2.647712813283597</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.900715649730741</v>
+        <v>2.947436951498728</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.340709840838237</v>
+        <v>2.944001167924693</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.262528989740725</v>
+        <v>2.681986611948384</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.634785292663026</v>
+        <v>2.583845851278626</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.405855166877785</v>
+        <v>2.548122528350996</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.93924920680023</v>
+        <v>2.171679995714597</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.194293629276956</v>
+        <v>2.79172125173442</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.869459125319325</v>
+        <v>2.253026196832783</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.871009400518978</v>
+        <v>2.442081386225546</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.99364480258718</v>
+        <v>2.93965946956942</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.163619863248701</v>
+        <v>2.442970040558044</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.945915461185676</v>
+        <v>2.088300230225659</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.04951514508398</v>
+        <v>2.213979217488403</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.482221949760993</v>
+        <v>2.024982085732662</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.539462608655737</v>
+        <v>2.638532123637753</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.848526332930594</v>
+        <v>2.541346191936389</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.41138636672872</v>
+        <v>2.445364629556614</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.5755453568433</v>
+        <v>2.984938254933115</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2.756309633774181</v>
+        <v>2.344281047742878</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2.906301657462707</v>
+        <v>2.573040396554823</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.108109273833318</v>
+        <v>2.893486080361872</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.990256710659795</v>
+        <v>2.209456253561249</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2.75492101367656</v>
+        <v>2.217374657117386</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2.043528608556899</v>
+        <v>2.619164849383912</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.809537464810514</v>
+        <v>2.089663211872708</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.451405533589359</v>
+        <v>2.72608819822294</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.564443688725491</v>
+        <v>2.367294210145728</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.924651826037367</v>
+        <v>2.29092840161073</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.51555412414671</v>
+        <v>2.117590748222224</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.506025591743411</v>
+        <v>2.276128737028425</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.645927721266124</v>
+        <v>2.10263829800398</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.221851382789613</v>
+        <v>2.275221742600663</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.595086489775724</v>
+        <v>2.552187205919533</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.684563166405163</v>
+        <v>2.03779111827657</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.378693535532618</v>
+        <v>2.622301451654453</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.017200464739352</v>
+        <v>2.948512050977406</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.228357654295338</v>
+        <v>2.192345637135972</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.834958418133051</v>
+        <v>2.187094531513991</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.692775255267422</v>
+        <v>2.267949491573876</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.358296310603984</v>
+        <v>2.860768454106799</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.054399106765563</v>
+        <v>2.22373548094303</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.348560407695715</v>
+        <v>2.276674935978229</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.372609824774075</v>
+        <v>2.508841034623313</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.334991500107119</v>
+        <v>2.81730342612226</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.368333294803643</v>
+        <v>2.069101226428435</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.234327841623637</v>
+        <v>2.452135139738457</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.348848804030545</v>
+        <v>2.835869187314406</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.078604922417424</v>
+        <v>2.711529552091743</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.614353608335079</v>
+        <v>2.895021055662208</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.481043414125866</v>
+        <v>2.051107615038129</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.636138895918992</v>
+        <v>2.435873267086705</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.150627862903598</v>
+        <v>2.857216193471228</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.405986639377475</v>
+        <v>2.040041519708035</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.850474412601654</v>
+        <v>2.565672265587182</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.335345909421024</v>
+        <v>2.22848575510026</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.014997480278059</v>
+        <v>2.194557352470726</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.371011961018206</v>
+        <v>2.813311428011916</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.352344269288411</v>
+        <v>2.202737750611038</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.837826761231487</v>
+        <v>2.582182579646749</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.542129012272017</v>
+        <v>2.938826570897702</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.33898792343934</v>
+        <v>2.874223107415425</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.032148639437792</v>
+        <v>2.748627600201953</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.344535745335597</v>
+        <v>2.300052153848506</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.931625662711846</v>
+        <v>2.638487914819804</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.42180561188614</v>
+        <v>2.382870907569322</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.12330408535124</v>
+        <v>2.851039867157091</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.746989009595517</v>
+        <v>2.613840269592615</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.408104554529965</v>
+        <v>2.746682105048573</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.939790166391726</v>
+        <v>2.665526986192136</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.182023568070749</v>
+        <v>2.910462250757668</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.501075727497327</v>
+        <v>2.979572316358258</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.498056506377101</v>
+        <v>2.285164747014056</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.400499192898401</v>
+        <v>2.327379593360072</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.43215931911399</v>
+        <v>2.133216993942809</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.261930960501713</v>
+        <v>2.139171133395812</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.673142703542955</v>
+        <v>2.169656431311461</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.24866031831662</v>
+        <v>2.457655265930579</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.498881431752211</v>
+        <v>2.471101459613852</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.158238913939478</v>
+        <v>2.536938386534931</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2.467940104708387</v>
+        <v>2.208191760694778</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.987343047945472</v>
+        <v>2.480085623103359</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2.314840907788004</v>
+        <v>2.001830752453829</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2.967599807758661</v>
+        <v>2.531564336529539</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.318687659868507</v>
+        <v>2.489944987400997</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.327043803499177</v>
+        <v>2.855728159833937</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.86621507784321</v>
+        <v>2.009704721475186</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.671071808600681</v>
+        <v>2.704887531132298</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.595289137333172</v>
+        <v>2.727776785178279</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.261774505558202</v>
+        <v>2.215930717888623</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.138746917364842</v>
+        <v>2.921568810570396</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.780595323052522</v>
+        <v>2.178540528211513</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.720733969772304</v>
+        <v>2.295021000509441</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.938009072538801</v>
+        <v>2.422324139102188</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.019109125149487</v>
+        <v>2.514206937045663</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.198997231206678</v>
+        <v>2.116690582373227</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.906871806622034</v>
+        <v>2.798206275779066</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.073104677504151</v>
+        <v>2.622112595487936</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.424915406621169</v>
+        <v>2.158834774688033</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.551839357101935</v>
+        <v>2.452056433657507</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.847055752925185</v>
+        <v>2.282301742622006</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.601283199972027</v>
+        <v>2.883278802262437</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.772176452914263</v>
+        <v>2.424623537236808</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2.943723154113437</v>
+        <v>2.437025176628473</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.746328306051311</v>
+        <v>2.027553185662425</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.741489606975405</v>
+        <v>2.999927451804381</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2.95796331457008</v>
+        <v>2.383037823230704</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.683526817186127</v>
+        <v>2.245053606116135</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.871513869410329</v>
+        <v>2.160608588812139</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.248579812279275</v>
+        <v>2.851938413837925</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.637279666356728</v>
+        <v>2.970269420897121</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.486053256216136</v>
+        <v>2.418238831064478</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.488980193459082</v>
+        <v>2.254792253873661</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.420567221248265</v>
+        <v>2.410204807201517</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.362993093371515</v>
+        <v>2.820881600123076</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.659611547504267</v>
+        <v>2.844340735338558</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.949223507696147</v>
+        <v>2.304897372953011</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.00732736312107</v>
+        <v>2.411615548296796</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2.005582634948805</v>
+        <v>2.990287729802846</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2.075334015771618</v>
+        <v>2.27322360847635</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.009268884593372</v>
+        <v>2.449314359103809</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.229285147164348</v>
+        <v>2.400587975896553</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.481785794241699</v>
+        <v>2.853934638776378</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.083902785260048</v>
+        <v>2.232415564360837</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2.325080636080338</v>
+        <v>2.68659674391749</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2.30510072168407</v>
+        <v>2.378769035502428</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2.979356308901015</v>
+        <v>2.290354909842246</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.626227849608442</v>
+        <v>2.461376839911174</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2.535111815078957</v>
+        <v>2.663928053082209</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2.566130878647868</v>
+        <v>2.292591835667788</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.467308029080157</v>
+        <v>2.269582929727626</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2.189051333609482</v>
+        <v>2.065651875375912</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2.08779885998795</v>
+        <v>2.57664182532719</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2.128172797090715</v>
+        <v>2.308536964296935</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.835622289491126</v>
+        <v>2.095255894358027</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2.934187967997689</v>
+        <v>2.214924279385186</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.998791007097448</v>
+        <v>2.454174873788813</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.485979281008946</v>
+        <v>2.312701342426849</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.692486454251565</v>
+        <v>2.418036220687431</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2.248752825509508</v>
+        <v>2.769700388777077</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2.884818882698011</v>
+        <v>2.880307157124525</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.954060197943406</v>
+        <v>2.836838976696117</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2.559873513671202</v>
+        <v>2.49608841115681</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2.220935825597014</v>
+        <v>2.309313404780579</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2.211600788864295</v>
+        <v>2.94270319019738</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2.437164968315428</v>
+        <v>2.672151052806482</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.408670206303254</v>
+        <v>2.249807534534579</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2.397897556402019</v>
+        <v>2.341571043830578</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2.769534244255171</v>
+        <v>2.472192745654181</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2.038849435524221</v>
+        <v>2.637919495681427</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2.823457479408778</v>
+        <v>2.650946791511489</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.290323409654718</v>
+        <v>2.518953440808995</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2.010140920983629</v>
+        <v>2.171807709154481</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2.949323218954007</v>
+        <v>2.140306940735409</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2.098631690864566</v>
+        <v>2.926138353829359</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2.948518605635181</v>
+        <v>2.816663342931969</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2.317715980742147</v>
+        <v>2.007925119766905</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.526851118448752</v>
+        <v>2.037002581014884</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.573427051474418</v>
+        <v>2.083698004658285</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.475065478093637</v>
+        <v>2.272213318752164</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.892817342125223</v>
+        <v>2.421630341862389</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.978395327987835</v>
+        <v>2.546064188576084</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.884918200742708</v>
+        <v>2.469163135574926</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2.259093479418828</v>
+        <v>2.227287761737184</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2.573699337545748</v>
+        <v>2.583685116510313</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2.575221116301679</v>
+        <v>2.890331281718687</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.082883446649445</v>
+        <v>2.346743299127707</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2.407810545569704</v>
+        <v>2.898521557579913</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2.219624178609212</v>
+        <v>2.45668790421529</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2.502505917643016</v>
+        <v>2.507478481591588</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.873737487848068</v>
+        <v>2.714910498493389</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2.225834211291843</v>
+        <v>2.79869182064365</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2.927708642835029</v>
+        <v>2.642434916980693</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2.048897221717841</v>
+        <v>2.356929485920422</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2.331204602541946</v>
+        <v>2.064343093857202</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2.687474447215071</v>
+        <v>2.469779026032688</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.904358102009932</v>
+        <v>2.24858679798344</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2.845482331023284</v>
+        <v>2.326491594238253</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.065089834962415</v>
+        <v>2.439067456999859</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2.202490768020169</v>
+        <v>2.096150027795281</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2.154075239237703</v>
+        <v>2.855285837545203</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.997959454146064</v>
+        <v>2.929800365057627</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2.03974013257167</v>
+        <v>2.352824769697254</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2.896980809096204</v>
+        <v>2.874417852059976</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2.641704530100387</v>
+        <v>2.758085651652979</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2.746378220388372</v>
+        <v>2.403623962940834</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2.230084870845602</v>
+        <v>2.059902648794574</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2.291691302687274</v>
+        <v>2.386877548122327</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2.732902074373043</v>
+        <v>2.375281025069311</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2.697730960073678</v>
+        <v>2.895445009753652</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2.697145309789585</v>
+        <v>2.445626590597337</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>2.815017212938454</v>
+        <v>2.53802851249777</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2.734544181526124</v>
+        <v>2.750529686987188</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2.024799351693813</v>
+        <v>2.468001965502823</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2.390041466286046</v>
+        <v>2.390974390717087</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2.358368002313025</v>
+        <v>2.549476878382617</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>2.714886114180045</v>
+        <v>2.835326646383908</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2.988005445162877</v>
+        <v>2.948955863408228</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2.620158146833552</v>
+        <v>2.832695906650908</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2.955832998851864</v>
+        <v>2.141240952259483</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>2.143613722156736</v>
+        <v>2.718104493917092</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2.742350482735898</v>
+        <v>2.43085784011205</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2.045138490914882</v>
+        <v>2.966523496258765</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2.063006852037534</v>
+        <v>2.158521783079807</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2.835722306233424</v>
+        <v>2.023793864218424</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>2.314989012263716</v>
+        <v>2.856564961700583</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.494799966054595</v>
+        <v>2.673569619364459</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2.547797143283272</v>
+        <v>2.815898369440877</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2.975314946851486</v>
+        <v>2.263022253570393</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2.636158614517383</v>
+        <v>2.925127754201247</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2.780940124305907</v>
+        <v>2.210385255781757</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2.714997598354923</v>
+        <v>2.127599369209988</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2.774809330659306</v>
+        <v>2.16204511251191</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2.281805076662625</v>
+        <v>2.404504302223341</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>2.583253079023241</v>
+        <v>2.601285792913166</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2.777789787174935</v>
+        <v>2.813547091070401</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2.920422709078923</v>
+        <v>2.848629321095754</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2.749352916799282</v>
+        <v>2.863840918435827</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2.734712652355519</v>
+        <v>2.508892884752107</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2.006847108339208</v>
+        <v>2.123729465849986</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2.952583200634713</v>
+        <v>2.250643098237693</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2.793591441810529</v>
+        <v>2.370216362530756</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2.040111821171714</v>
+        <v>2.844742181533385</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2.242234103073737</v>
+        <v>2.79404516178559</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2.118003722203993</v>
+        <v>2.015671241511819</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2.314168047470581</v>
+        <v>2.834797391817165</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2.025462280200121</v>
+        <v>2.785728493787255</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2.683948955655257</v>
+        <v>2.796815981108882</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2.489524513015127</v>
+        <v>2.456539033256981</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2.846844686792441</v>
+        <v>2.940688523169294</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2.198978665681145</v>
+        <v>2.863538913460675</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2.723352687240371</v>
+        <v>2.704674763480514</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.547218621854546</v>
+        <v>2.625162105985646</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.087705210833725</v>
+        <v>2.892439769594276</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>2.79626991565346</v>
+        <v>2.290691987312974</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2.984000726112986</v>
+        <v>2.903593372069517</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2.333629138749722</v>
+        <v>2.974988891238834</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>2.229005649574246</v>
+        <v>2.961901711475347</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2.442445656363595</v>
+        <v>2.930014467434872</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2.423758697389647</v>
+        <v>2.048589859759719</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>2.20745472290334</v>
+        <v>2.156223462938057</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2.167158943992137</v>
+        <v>2.022823745238628</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2.546610515208009</v>
+        <v>2.909902954605195</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2.124196450808606</v>
+        <v>2.826654534141922</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2.258671295825519</v>
+        <v>2.28111910753614</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2.848481598080064</v>
+        <v>2.357807170259688</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2.343811603332223</v>
+        <v>2.422240004857307</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>2.389641447987439</v>
+        <v>2.990926171199665</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2.2739022378458</v>
+        <v>2.441051727967036</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2.161446971515515</v>
+        <v>2.760533158446132</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.334129765971762</v>
+        <v>2.534636070784319</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2.715776032853863</v>
+        <v>2.946241439640037</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2.094866444135687</v>
+        <v>2.940607959999896</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2.482288718143674</v>
+        <v>2.210812393502394</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2.049021792203277</v>
+        <v>2.45001912387514</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.833361247000699</v>
+        <v>2.415789075608803</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2.361036089951425</v>
+        <v>2.291654188719011</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2.726928562076023</v>
+        <v>2.20348809456575</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2.354768969612292</v>
+        <v>2.992615235551024</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2.740519253298276</v>
+        <v>2.096017728159994</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2.691432741155866</v>
+        <v>2.19954488836701</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2.151101241706646</v>
+        <v>2.852623011869565</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2.213057781735401</v>
+        <v>2.506599462220636</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2.876659943510035</v>
+        <v>2.728931527184322</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2.518437450778807</v>
+        <v>2.204087557094687</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2.7147356928807</v>
+        <v>2.729326229883024</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2.588507303487447</v>
+        <v>2.72221499274447</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2.697172238382675</v>
+        <v>2.642861252542561</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2.173205872050827</v>
+        <v>2.675996033195927</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2.174061615574668</v>
+        <v>2.724543608376586</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2.733333776554874</v>
+        <v>2.650509988168764</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>2.961563719382577</v>
+        <v>2.180163048540556</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2.15950842222663</v>
+        <v>2.485803711028914</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2.831129723043733</v>
+        <v>2.772746674463656</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2.27021306248025</v>
+        <v>2.425155076603676</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2.654125416867476</v>
+        <v>2.448365914781192</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2.929865977730465</v>
+        <v>2.551735444836047</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2.008308142100578</v>
+        <v>2.178327824745553</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2.205742713843344</v>
+        <v>2.423938777126556</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.260083113736118</v>
+        <v>2.967265586028662</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2.83960565166343</v>
+        <v>2.824576754649292</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2.503913093854987</v>
+        <v>2.715794477352497</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2.970679668193904</v>
+        <v>2.46093715092327</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2.959042537030422</v>
+        <v>2.369810746599675</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2.070751023132674</v>
+        <v>2.036407300279659</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>2.218653083097001</v>
+        <v>2.155221186072839</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2.890702228024836</v>
+        <v>2.442664283848295</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2.724066081093016</v>
+        <v>2.593971327503638</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2.352145096396779</v>
+        <v>2.369290015137771</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2.097849250840683</v>
+        <v>2.528100086873142</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2.411680052933347</v>
+        <v>2.68449853427371</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2.424139444492728</v>
+        <v>2.532583993336807</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2.268664954128672</v>
+        <v>2.057761590098367</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2.635501455114878</v>
+        <v>2.9037323720071</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2.629227173298664</v>
+        <v>2.341338646474375</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2.148978114933909</v>
+        <v>2.615945135822801</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>2.057367906884566</v>
+        <v>2.024376169375909</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>2.315458220603777</v>
+        <v>2.82057708357768</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2.064915026208078</v>
+        <v>2.660394572070976</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>2.436472014532137</v>
+        <v>2.669193783708951</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2.241397528718427</v>
+        <v>2.945460062331345</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2.884330488397375</v>
+        <v>2.523425303017573</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2.252970498602683</v>
+        <v>2.582506085716813</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2.324742279822285</v>
+        <v>2.829060082356428</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2.152970833280386</v>
+        <v>2.534121942395863</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2.488932223519592</v>
+        <v>2.259841163119222</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2.210132811879192</v>
+        <v>2.411978638177066</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2.179386016305205</v>
+        <v>2.185142608204195</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2.606199098462039</v>
+        <v>2.429422007349016</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2.780903423529129</v>
+        <v>2.303485681609131</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>2.412041073038777</v>
+        <v>2.823493680601465</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>2.63326388400495</v>
+        <v>2.806325697923297</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2.156746165399006</v>
+        <v>2.952283855418748</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>2.482500174735819</v>
+        <v>2.709148709553924</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2.912465625989452</v>
+        <v>2.02789327243607</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>2.090923412450603</v>
+        <v>2.806495534832337</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>2.041241577208537</v>
+        <v>2.915977258011773</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2.748534387901632</v>
+        <v>2.943593396634226</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>2.364315217011079</v>
+        <v>2.41651174166054</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2.845120407328721</v>
+        <v>2.945743909580373</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2.334241735184054</v>
+        <v>2.454150088470604</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2.093003543210652</v>
+        <v>2.631199587515421</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2.497568339390393</v>
+        <v>2.812382529792669</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2.956433652751541</v>
+        <v>2.753588572910505</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2.221176953109318</v>
+        <v>2.043857244799733</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2.822234470865943</v>
+        <v>2.303521198955807</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2.792806854755142</v>
+        <v>2.042396726338402</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2.979691244403763</v>
+        <v>2.223982360653576</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2.6697412176477</v>
+        <v>2.031369023347893</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2.758163730384839</v>
+        <v>2.263857156677601</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2.127445385659311</v>
+        <v>2.462051278642166</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2.755263529287535</v>
+        <v>2.765252665947675</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2.605125363786088</v>
+        <v>2.462366343610586</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2.013881984209497</v>
+        <v>2.044198508852797</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2.299309526580672</v>
+        <v>2.773032945409879</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2.002869332185741</v>
+        <v>2.334634701757935</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2.542506574797659</v>
+        <v>2.695986407316889</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2.168566896343484</v>
+        <v>2.901546649721509</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2.263769111289696</v>
+        <v>2.352675878492337</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2.153112803299516</v>
+        <v>2.219504168876976</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2.780409035460362</v>
+        <v>2.290383994589561</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2.3447325661409</v>
+        <v>2.146684113167722</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2.401333197038328</v>
+        <v>2.719786860799703</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>2.879226189191765</v>
+        <v>2.040644885407694</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>2.4688531068202</v>
+        <v>2.015872932601727</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>2.324958453639599</v>
+        <v>2.723596108241661</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>2.031425801552065</v>
+        <v>2.692395752239164</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>2.001535482341654</v>
+        <v>2.960279643658338</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2.014790992346345</v>
+        <v>2.15359660440161</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>2.391339959690487</v>
+        <v>2.063344400631724</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2.83222942065812</v>
+        <v>2.238701854567883</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>2.866603713369555</v>
+        <v>2.146531269971276</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>2.273897980148396</v>
+        <v>2.534098112604388</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2.919283646313731</v>
+        <v>2.115025952094197</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>2.66577204471499</v>
+        <v>2.789515323310087</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>2.390286892680583</v>
+        <v>2.228717039013647</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>2.680354889230657</v>
+        <v>2.101260106333713</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>2.774942976776613</v>
+        <v>2.570063313119466</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>2.059403895091741</v>
+        <v>2.851349283140564</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>2.647395933540752</v>
+        <v>2.520616241023261</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>2.683666582556442</v>
+        <v>2.882011865428888</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>2.53913728339159</v>
+        <v>2.405930572428862</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>2.828640931143592</v>
+        <v>2.735630455098999</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>2.942799510690515</v>
+        <v>2.580970637302715</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>2.025973088484713</v>
+        <v>2.911434006825815</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>2.999613950984945</v>
+        <v>2.518598479995014</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>2.142714489410916</v>
+        <v>2.883293966175537</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>2.166773249049049</v>
+        <v>2.543814676664609</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>2.63286535755087</v>
+        <v>2.791797397340019</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>2.741012111790285</v>
+        <v>2.978621544527426</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>2.27558497148987</v>
+        <v>2.882794483406713</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>2.887759638946036</v>
+        <v>2.394377382604522</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>2.340674192667115</v>
+        <v>2.626694356328018</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>2.838422167865014</v>
+        <v>2.346893655034931</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2.433067094660278</v>
+        <v>2.608200877820383</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>2.992730910356936</v>
+        <v>2.577267436375884</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>2.494306523396729</v>
+        <v>2.24183907884354</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>2.498680696276004</v>
+        <v>2.027744285313782</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>2.03625854911837</v>
+        <v>2.862054651593202</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>2.484354253643878</v>
+        <v>2.126160810135979</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>2.055789324128556</v>
+        <v>2.651597297930644</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>2.872626654093574</v>
+        <v>2.05740571135225</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>2.211397036060808</v>
+        <v>2.43772679635529</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>2.124833185182794</v>
+        <v>2.89542593711948</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>2.765847060021803</v>
+        <v>2.587536526939598</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>2.01205387188609</v>
+        <v>2.074090963580267</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>2.622317326961044</v>
+        <v>2.65929969417752</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>2.86140390650501</v>
+        <v>2.526143918660119</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>2.774011343455059</v>
+        <v>2.67153487659342</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>2.415941766780767</v>
+        <v>2.293543233254409</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>2.774358560861356</v>
+        <v>2.826782485532468</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>2.596607519191782</v>
+        <v>2.62997180569662</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>2.355743402279531</v>
+        <v>2.077092310922099</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>2.016100908558946</v>
+        <v>2.951837318003112</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>2.690020393069137</v>
+        <v>2.861132009257561</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>2.263267618319222</v>
+        <v>2.610879850310975</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>2.67752264903883</v>
+        <v>2.960010708179826</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2.43075843497908</v>
+        <v>2.899743184028592</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>2.980027676425362</v>
+        <v>2.751655688782896</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>2.00995504736097</v>
+        <v>2.837914602364853</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2.43313994155666</v>
+        <v>2.63934782284472</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>2.69850850536645</v>
+        <v>2.227225717778626</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>2.30706222610859</v>
+        <v>2.150132022421324</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>2.692416983983924</v>
+        <v>2.131512802752467</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>2.458763464651733</v>
+        <v>2.630233439291149</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>2.487614783272437</v>
+        <v>2.465412415363878</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>2.865942052267763</v>
+        <v>2.573613960817653</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>2.191173188828824</v>
+        <v>2.289327101069421</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>2.968857210036982</v>
+        <v>2.529261929536141</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>2.786574575561993</v>
+        <v>2.024231075131585</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>2.494089735306722</v>
+        <v>2.484249423201896</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>2.477433415320136</v>
+        <v>2.323974767063142</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>2.363134477119198</v>
+        <v>2.074193770679077</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>2.020254470731369</v>
+        <v>2.183746504071003</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>2.270561081656061</v>
+        <v>2.341352725378489</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>2.324943843295962</v>
+        <v>2.113787685902937</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>2.331408264271595</v>
+        <v>2.300345036181342</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>2.010432556821988</v>
+        <v>2.246405813471634</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>2.133275016262757</v>
+        <v>2.840255872086709</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>2.657750153028922</v>
+        <v>2.3863895172438</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>2.076381219162212</v>
+        <v>2.193122993879483</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>2.034708202914462</v>
+        <v>2.394787349028766</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>2.537332872829539</v>
+        <v>2.357723211451839</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>2.374089813932191</v>
+        <v>2.255145150693044</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>2.961416317258003</v>
+        <v>2.446558301011037</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>2.022170541967309</v>
+        <v>2.203020679426091</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>2.1594019553716</v>
+        <v>2.551609803087623</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>2.483118934040953</v>
+        <v>2.729978444832913</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>2.364315590945834</v>
+        <v>2.796508278357979</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>2.986822473606204</v>
+        <v>2.310018811669786</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>2.379468429041228</v>
+        <v>2.125649456881009</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>2.956894226264866</v>
+        <v>2.337472070721632</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>2.899158572588252</v>
+        <v>2.941038677183241</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>2.992851560754588</v>
+        <v>2.279691652281167</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>2.983808725789992</v>
+        <v>2.556253425475866</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>2.65532487321873</v>
+        <v>2.96758839163363</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>2.806305603658664</v>
+        <v>2.469594477536243</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>2.73821315036693</v>
+        <v>2.731893643824269</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>2.368159594061731</v>
+        <v>2.635652279824231</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>2.113196630175795</v>
+        <v>2.567430646658635</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>2.109046319742457</v>
+        <v>2.796799922495018</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>2.424929538943697</v>
+        <v>2.196009216803111</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>2.40792049017382</v>
+        <v>2.005977631275386</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>2.284152983863367</v>
+        <v>2.719259306498379</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>2.10780656561042</v>
+        <v>2.317013379155543</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>2.722512808824598</v>
+        <v>2.500023744592221</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>2.948667295607545</v>
+        <v>2.174607130522542</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>2.420717789836009</v>
+        <v>2.15131866638851</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>2.643780763683438</v>
+        <v>2.750228012432824</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>2.809126569330027</v>
+        <v>2.843409927683817</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>2.034683822646113</v>
+        <v>2.403333888117622</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>2.353558027994992</v>
+        <v>2.452697817273517</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>2.453198398309208</v>
+        <v>2.843447380583522</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>2.546709074889614</v>
+        <v>2.26808678425448</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>2.692263000908387</v>
+        <v>2.782815750347059</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>2.195332764992929</v>
+        <v>2.645329121020588</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>2.27484087371285</v>
+        <v>2.932140803741463</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>2.104977343156341</v>
+        <v>2.803589034395238</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>2.293229164676855</v>
+        <v>2.527672405113669</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>2.434149171932539</v>
+        <v>2.750503423205793</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>2.138934211379239</v>
+        <v>2.729336196192232</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>2.830905350912869</v>
+        <v>2.458528283562106</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>2.384010611880348</v>
+        <v>2.057179580651513</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>2.814039423825021</v>
+        <v>2.441611064449585</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>2.03097729242667</v>
+        <v>2.523434513866871</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>2.87818905697754</v>
+        <v>2.72291236856054</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>2.10120349871241</v>
+        <v>2.424927506139701</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>2.350027332012782</v>
+        <v>2.929621207990227</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>2.879805005194847</v>
+        <v>2.827614643171206</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>2.114662731765728</v>
+        <v>2.048793532543374</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>2.213927962497297</v>
+        <v>2.344089874907411</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>2.232975197566691</v>
+        <v>2.759328568932189</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>2.553674240198703</v>
+        <v>2.478874090791876</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>2.457255140703598</v>
+        <v>2.790840275988983</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>2.536999146610772</v>
+        <v>2.136625576110002</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>2.964817357981516</v>
+        <v>2.406424250210017</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>2.090908224374341</v>
+        <v>2.32538925263614</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>2.27652647426611</v>
+        <v>2.938895568475477</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>2.225504733822174</v>
+        <v>2.652440838656994</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>2.902547341721233</v>
+        <v>2.517196878879777</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>2.668947740260405</v>
+        <v>2.238760727589094</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>2.206595733667374</v>
+        <v>2.593652616797483</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>2.516602521791873</v>
+        <v>2.261173220531123</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>2.466612621332284</v>
+        <v>2.103631465695258</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>2.328495552105264</v>
+        <v>2.242372172422572</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>2.897237259922398</v>
+        <v>2.183385978854399</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>2.152668227438875</v>
+        <v>2.174358076808013</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>2.703153623534659</v>
+        <v>2.30160931246085</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>2.102593599113996</v>
+        <v>2.945612417322323</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>2.824163926762147</v>
+        <v>2.578893364102542</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>2.833316882203357</v>
+        <v>2.29615910816167</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>2.516628186122219</v>
+        <v>2.295458168653661</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>2.725963718445916</v>
+        <v>2.772127190619872</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>2.897322050065216</v>
+        <v>2.997524705363495</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>2.629818951076521</v>
+        <v>2.59211662823544</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>2.175172428772544</v>
+        <v>2.185842508580004</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>2.052150478077584</v>
+        <v>2.392645815926219</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>2.909846635404685</v>
+        <v>2.513696639839164</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>2.431412490851881</v>
+        <v>2.942222201092188</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>2.730566095375404</v>
+        <v>2.880745994843754</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>2.879652318514839</v>
+        <v>2.47316020175673</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>2.771285286308061</v>
+        <v>2.992551796584312</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>2.586924387803128</v>
+        <v>2.910375431842625</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>2.336018338644261</v>
+        <v>2.922260763901999</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>2.805822315167152</v>
+        <v>2.300117236981789</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>2.379091862925566</v>
+        <v>2.247961803134201</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>2.380421844389122</v>
+        <v>2.411120644453902</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>2.386319768252882</v>
+        <v>2.425006623681479</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>2.805752003379664</v>
+        <v>2.436400671163903</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>2.103962334828387</v>
+        <v>2.823337224324326</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>2.471501934936872</v>
+        <v>2.99330029459024</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>2.648678880065895</v>
+        <v>2.440998228027769</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>2.77260640716925</v>
+        <v>2.045686368515151</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>2.286756571231003</v>
+        <v>2.126479945472023</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>2.732434291200028</v>
+        <v>2.572011371696363</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>2.952076938079783</v>
+        <v>2.258283912142806</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>2.462090488069788</v>
+        <v>2.20503189080848</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>2.74622936765015</v>
+        <v>2.542051746184943</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>2.178406075221697</v>
+        <v>2.605855482200424</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>2.388124932523644</v>
+        <v>2.922266619374745</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>2.860220156959233</v>
+        <v>2.143639491511786</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>2.880466283617035</v>
+        <v>2.255557636318253</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>2.997818501663928</v>
+        <v>2.733347549990401</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>2.622488492892286</v>
+        <v>2.112455028037778</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>2.52652463748724</v>
+        <v>2.584172236680798</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>2.492439210398314</v>
+        <v>2.048362257441577</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>2.904809432551264</v>
+        <v>2.288056621015814</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>2.234083841582587</v>
+        <v>2.176020189996455</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>2.340615081445127</v>
+        <v>2.177658182973166</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>2.45457743322557</v>
+        <v>2.683567829945976</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>2.489050544605628</v>
+        <v>2.858793331352417</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>2.929899212027121</v>
+        <v>2.818124600418225</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>2.164937700602584</v>
+        <v>2.909238585760439</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>2.516312607826541</v>
+        <v>2.386813785721966</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>2.902475788240057</v>
+        <v>2.301314878319523</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>2.565553167226081</v>
+        <v>2.947061253841985</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>2.733181164984384</v>
+        <v>2.596167179742791</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>2.015397695529215</v>
+        <v>2.002715081057826</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>2.213979306631081</v>
+        <v>2.48514718297877</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>2.845337767049315</v>
+        <v>2.878394507251356</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>2.898208486655785</v>
+        <v>2.797072540303641</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>2.394562304552092</v>
+        <v>2.19921653885707</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>2.098725701668553</v>
+        <v>2.821732401773018</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>2.156333486827351</v>
+        <v>2.91714820852698</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>2.509850713484508</v>
+        <v>2.171051422849308</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>2.163335797164609</v>
+        <v>2.568747900689421</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>2.220780771519576</v>
+        <v>2.28698002495162</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>2.890748011728447</v>
+        <v>2.342283213593821</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>2.825146127177712</v>
+        <v>2.072930986817592</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>2.165218098848854</v>
+        <v>2.229097096959416</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>2.508278198535644</v>
+        <v>2.629215946508472</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>2.294671451038662</v>
+        <v>2.277616774091885</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>2.151513191884361</v>
+        <v>2.508166010706374</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>2.486095549493468</v>
+        <v>2.861793916304069</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>2.732787905664834</v>
+        <v>2.359683914568562</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>2.897169410770138</v>
+        <v>2.58575423862664</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>2.662941647552966</v>
+        <v>2.257931933944069</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>2.2421073353947</v>
+        <v>2.461690339098349</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>2.903289524664582</v>
+        <v>2.761488400322345</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>2.655902842944303</v>
+        <v>2.648473613537749</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>2.8778131432878</v>
+        <v>2.798004260803431</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>2.72365335591703</v>
+        <v>2.101901707260469</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>2.02333637701991</v>
+        <v>2.709105281471892</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>2.094114310963195</v>
+        <v>2.120147295782773</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>2.641195628657653</v>
+        <v>2.001442552376397</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>2.564391210476934</v>
+        <v>2.541133147331925</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>2.838416252909867</v>
+        <v>2.26400779473505</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>2.09506440377161</v>
+        <v>2.880669638418566</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>2.780976598085068</v>
+        <v>2.583413073724674</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>2.614636990632047</v>
+        <v>2.841915112571825</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>2.410757051954377</v>
+        <v>2.181191424098109</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>2.143220269514044</v>
+        <v>2.416370295811437</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>2.361342532841308</v>
+        <v>2.352647413145518</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>2.883967681834063</v>
+        <v>2.562623886993538</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>2.781794005580186</v>
+        <v>2.802233598527791</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>2.366395272199905</v>
+        <v>2.296648881715578</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>2.390823221841212</v>
+        <v>2.221400298180319</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>2.749090691375987</v>
+        <v>2.249257336141506</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>2.683110413671863</v>
+        <v>2.718155124965279</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>2.336416713699198</v>
+        <v>2.902745321839897</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>2.116149515503</v>
+        <v>2.777957065017337</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>2.824119747599681</v>
+        <v>2.606737796193808</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>2.39645464428571</v>
+        <v>2.603587234868947</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>2.685351421302422</v>
+        <v>2.208393164873248</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>2.967712200708353</v>
+        <v>2.539282548278178</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>2.430209941658888</v>
+        <v>2.280203149126539</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>2.757698215511819</v>
+        <v>2.044300593764294</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>2.974194567786918</v>
+        <v>2.279114901363533</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>2.665428319400548</v>
+        <v>2.092169089394624</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>2.572792024674064</v>
+        <v>2.990956557129224</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>2.989690039581312</v>
+        <v>2.328715730637907</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>2.18220648568042</v>
+        <v>2.691108233926924</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>2.919604257577554</v>
+        <v>2.122697380724322</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>2.977352212180127</v>
+        <v>2.584067986311092</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>2.507195498684881</v>
+        <v>2.716779984775057</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>2.727031093436362</v>
+        <v>2.16617081401017</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>2.022217599305309</v>
+        <v>2.183839929240528</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>2.35514886694605</v>
+        <v>2.546380445032005</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>2.570404008678921</v>
+        <v>2.055659018633541</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>2.212405339878683</v>
+        <v>2.88674143207513</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>2.909229828034726</v>
+        <v>2.511429897688273</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>2.642032548992352</v>
+        <v>2.501599982238768</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>2.431456653189957</v>
+        <v>2.892011342735701</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>2.906455736995003</v>
+        <v>2.188917971265811</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>2.427942435111071</v>
+        <v>2.508165407770853</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>2.12151021446543</v>
+        <v>2.526502516885172</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>2.593798755437332</v>
+        <v>2.798441294755759</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>2.486925006643321</v>
+        <v>2.126487233924229</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>2.566136197576276</v>
+        <v>2.710496636588108</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>2.968336759222897</v>
+        <v>2.548123592718329</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>2.269281260826572</v>
+        <v>2.843643587610653</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>2.061065223353502</v>
+        <v>2.590304667766548</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>2.684960421646948</v>
+        <v>2.36842699752934</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>2.307441964311384</v>
+        <v>2.955508119454652</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>2.21475982249176</v>
+        <v>2.755944766584638</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>2.185416386095162</v>
+        <v>2.341479243261667</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>2.966786665976067</v>
+        <v>2.579064798185818</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>2.442324421909132</v>
+        <v>2.833237246233362</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>2.594453738937661</v>
+        <v>2.712165871311723</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>2.248914733979154</v>
+        <v>2.119575229272912</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>2.182700152455075</v>
+        <v>2.226836974198277</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>2.931028020744865</v>
+        <v>2.031228821846327</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>2.738469871224617</v>
+        <v>2.325107339646712</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>2.866747126895662</v>
+        <v>2.227626927757479</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>2.15902663412473</v>
+        <v>2.030909752402093</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>2.802953783574804</v>
+        <v>2.389055932952485</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>2.003008490133818</v>
+        <v>2.441190039455606</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>2.972560112266643</v>
+        <v>2.704149378637695</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>2.048249573394549</v>
+        <v>2.906489705124312</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>2.62866428562146</v>
+        <v>2.867896968665398</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>2.329033258013349</v>
+        <v>2.830161783764354</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>2.874742194854836</v>
+        <v>2.099237305233526</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>2.625239633530306</v>
+        <v>2.968877813528236</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>2.204299280154381</v>
+        <v>2.910968455086247</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>2.684503610844735</v>
+        <v>2.397358538795899</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>2.224037294577687</v>
+        <v>2.78115872754613</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>2.556060483261496</v>
+        <v>2.463044201819977</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>2.079477021840457</v>
+        <v>2.532705519813997</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>2.246841875672967</v>
+        <v>2.094088545830697</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>2.56648283561448</v>
+        <v>2.475145958238965</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>2.224682473952332</v>
+        <v>2.804049158069957</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>2.374886987376086</v>
+        <v>2.182769961140723</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>2.518239941007683</v>
+        <v>2.777682357359032</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>2.221995152580259</v>
+        <v>2.312226003434771</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>2.187639392711114</v>
+        <v>2.898924241793062</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>2.934405969489725</v>
+        <v>2.872416393577978</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>2.59074245697188</v>
+        <v>2.955977126637342</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>2.995050518541584</v>
+        <v>2.167036567300539</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>2.153080363208916</v>
+        <v>2.447132580685205</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>2.424729650776675</v>
+        <v>2.944113031006686</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>2.828001403275644</v>
+        <v>2.12419171709522</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>2.441032296301458</v>
+        <v>2.043597640313185</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>2.748966631236609</v>
+        <v>2.626751176839179</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>2.00045317049855</v>
+        <v>2.151114243008636</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>2.561289710982329</v>
+        <v>2.629491960851158</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>2.028973910668115</v>
+        <v>2.289793332627695</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>2.336867319441287</v>
+        <v>2.217981428315193</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>2.772915714068843</v>
+        <v>2.996404169805625</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>2.599007909479693</v>
+        <v>2.399517665770556</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>2.277049832522809</v>
+        <v>2.092105331638168</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>2.607848014454899</v>
+        <v>2.345014889753056</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>2.746891305607046</v>
+        <v>2.668304662830023</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>2.419132493747088</v>
+        <v>2.979610469937807</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>2.436705516150094</v>
+        <v>2.207723483752539</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>2.692424779539181</v>
+        <v>2.087774768346002</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>2.606309152594261</v>
+        <v>2.145388434954874</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>2.637314883110696</v>
+        <v>2.053185720067246</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>2.580883460131</v>
+        <v>2.702764513604534</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>2.62573313104035</v>
+        <v>2.455677461559449</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>2.302666670880184</v>
+        <v>2.582488912121913</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>2.919347311763362</v>
+        <v>2.943696164594912</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>2.943047655268596</v>
+        <v>2.223806895915724</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>2.16301257934817</v>
+        <v>2.056231156929327</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>2.97696158820787</v>
+        <v>2.036458843430407</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>2.383251723954981</v>
+        <v>2.930921924261504</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>2.92105763779852</v>
+        <v>2.666390104186386</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>2.142276064941112</v>
+        <v>2.390687151818382</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>2.694603213784054</v>
+        <v>2.946406199442342</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>2.450626985921957</v>
+        <v>2.036282724086056</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>2.70769538992838</v>
+        <v>2.9956145879353</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>2.676198180421476</v>
+        <v>2.190995860815146</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>2.805281050243687</v>
+        <v>2.555921857586819</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>2.4669446739462</v>
+        <v>2.659675332869364</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>2.387158618934111</v>
+        <v>2.211446279387955</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>2.525883278976918</v>
+        <v>2.134326076819727</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>2.199298292886646</v>
+        <v>2.53400203903958</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>2.282430875892158</v>
+        <v>2.143570726613584</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>2.264163747472719</v>
+        <v>2.613378680033314</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>2.89123112805655</v>
+        <v>2.553307581719098</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>2.290839841416124</v>
+        <v>2.707275976319167</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>2.551895959233258</v>
+        <v>2.623350859521804</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>2.98461039325326</v>
+        <v>2.705314437785196</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>2.360135061678159</v>
+        <v>2.743727342019064</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>2.066118642563561</v>
+        <v>2.711557545192949</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>2.822385712663375</v>
+        <v>2.885566266616047</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>2.895244996132704</v>
+        <v>2.362354951355425</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>2.86007886489607</v>
+        <v>2.172820931656638</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>2.563872368450607</v>
+        <v>2.293552076227334</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>2.535187120442999</v>
+        <v>2.400838750844934</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>2.581879725416623</v>
+        <v>2.073017879281689</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>2.806221763451996</v>
+        <v>2.9746434945158</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>2.664694385712898</v>
+        <v>2.776108092473203</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>2.786007202169961</v>
+        <v>2.621818226280869</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>2.250282174484845</v>
+        <v>2.133082431611189</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>2.764544155868292</v>
+        <v>2.039866736768286</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>2.859834489870429</v>
+        <v>2.710079075496391</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>2.337823850181894</v>
+        <v>2.800269965018842</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>2.770867296533362</v>
+        <v>2.468736754280891</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>2.533188002584398</v>
+        <v>2.942306972902793</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>2.938026900968983</v>
+        <v>2.743710375156953</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>2.380919305045545</v>
+        <v>2.488584777823583</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>2.045642611477721</v>
+        <v>2.874822316269087</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>2.65362022629264</v>
+        <v>2.088659484611534</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>2.039012740280628</v>
+        <v>2.12913148193576</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>2.112115269146515</v>
+        <v>2.356116839712441</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>2.937304253683257</v>
+        <v>2.968650000743238</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>2.600531424405428</v>
+        <v>2.922809826501617</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>2.375789239155882</v>
+        <v>2.604346737426975</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>2.76549820115821</v>
+        <v>2.587376608986093</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>2.965186005449997</v>
+        <v>2.262925461514601</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>2.264975749735175</v>
+        <v>2.788900955251123</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>2.311351695825993</v>
+        <v>2.094216725237436</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>2.321439492913119</v>
+        <v>2.401191361560695</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>2.499391004900465</v>
+        <v>2.618151652964103</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>2.53103694095643</v>
+        <v>2.565844341392369</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>2.205792889815609</v>
+        <v>2.354954832783593</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>2.937284215205434</v>
+        <v>2.656588097790859</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>2.902530335788053</v>
+        <v>2.211856338924238</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>2.31949323127297</v>
+        <v>2.708863736011517</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>2.049556891845318</v>
+        <v>2.696337459574774</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>2.27284534168869</v>
+        <v>2.427000040576881</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>2.842181596773712</v>
+        <v>2.485986543514158</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>2.345455737659696</v>
+        <v>2.397595560353861</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>2.599659814885142</v>
+        <v>2.841196942788688</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>2.455904322085053</v>
+        <v>2.887313718880077</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>2.954200483935658</v>
+        <v>2.707737199972338</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>2.178413734316727</v>
+        <v>2.858497305617676</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>2.619135016843515</v>
+        <v>2.98119222794994</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>2.151632873006032</v>
+        <v>2.603379800136265</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>2.828075683366138</v>
+        <v>2.38045787509334</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>2.510579208276631</v>
+        <v>2.422943130431829</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>2.94627664319058</v>
+        <v>2.885720085290925</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>2.401797002088444</v>
+        <v>2.900382575255995</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>2.706157339726716</v>
+        <v>2.104254812441442</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>2.96018817281346</v>
+        <v>2.898441538249202</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>2.559542310015264</v>
+        <v>2.688633725632359</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>2.989909364213541</v>
+        <v>2.332952565344929</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>2.4020438160115</v>
+        <v>2.639432414931061</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>2.891292369402511</v>
+        <v>2.020827930609816</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>2.983009351417513</v>
+        <v>2.694558471684942</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>2.852763116203493</v>
+        <v>2.523930266048892</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>2.320326364905616</v>
+        <v>2.253820887267619</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>2.659919023160295</v>
+        <v>2.421405101904281</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>2.435236925483683</v>
+        <v>2.263799457568534</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>2.871093362835142</v>
+        <v>2.359982369139364</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>2.691689601903227</v>
+        <v>2.471156635918362</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>2.764673999143126</v>
+        <v>2.545296687293909</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>2.776974296740923</v>
+        <v>2.2825762900664</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>2.5496739293315</v>
+        <v>2.43862002095342</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>2.958276678227349</v>
+        <v>2.232258819589688</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>2.426978180845009</v>
+        <v>2.307994561496542</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>2.978551559533869</v>
+        <v>2.150034221293048</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>2.569595834929026</v>
+        <v>2.429759453236792</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>2.399379684016751</v>
+        <v>2.184772167543362</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>2.091984581287196</v>
+        <v>2.059623594331513</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>2.125132896620815</v>
+        <v>2.579487579132854</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>2.736679569907598</v>
+        <v>2.548071647271294</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>2.789438659227564</v>
+        <v>2.496939425839033</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>2.703479168318076</v>
+        <v>2.51914108034904</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>2.621358632730662</v>
+        <v>2.17457576274141</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>2.875215775564287</v>
+        <v>2.63464667618722</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>2.012736078116901</v>
+        <v>2.373477359009573</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>2.892599848327023</v>
+        <v>2.599049315343595</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>2.266591762807331</v>
+        <v>2.896841274514722</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>2.447335365873921</v>
+        <v>2.996158361210551</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>2.511501020727568</v>
+        <v>2.440428354607547</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>2.487279569309954</v>
+        <v>2.017117652218553</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>2.109387167534595</v>
+        <v>2.969490686225522</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>2.779966925064094</v>
+        <v>2.584250660112175</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>2.681119357460687</v>
+        <v>2.756118064109531</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>2.854450945101183</v>
+        <v>2.954129511697769</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>2.66057028225508</v>
+        <v>2.846554938288999</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>2.648704780251932</v>
+        <v>2.090625735228872</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>2.434177923896326</v>
+        <v>2.051455991224249</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>2.51249061797743</v>
+        <v>2.274187655615481</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>2.683582490173121</v>
+        <v>2.046288351555309</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>2.665371636760733</v>
+        <v>2.322068102367944</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>2.745254412637945</v>
+        <v>2.978706991089866</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>2.772731510755788</v>
+        <v>2.025314509178137</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>2.825479444536668</v>
+        <v>2.293892162163778</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>2.53711492893749</v>
+        <v>2.436993273208693</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>2.658850636206973</v>
+        <v>2.820536638335597</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>2.62358063165536</v>
+        <v>2.409397699523446</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>2.12608435073048</v>
+        <v>2.417786465333538</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>2.349768020778621</v>
+        <v>2.148788308626017</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>2.904290988711161</v>
+        <v>2.028005439410424</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>2.395077755951477</v>
+        <v>2.097475628212833</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>2.191881403113613</v>
+        <v>2.462786162115592</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>2.38908862418251</v>
+        <v>2.262660553813384</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>2.970467816226962</v>
+        <v>2.027980843870905</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>2.2851027808979</v>
+        <v>2.910891975919491</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>2.54746390884402</v>
+        <v>2.685685339958435</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>2.53409908574624</v>
+        <v>2.60137204126739</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>2.139441507420012</v>
+        <v>2.913593918112221</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>2.153000546978789</v>
+        <v>2.25341971538561</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>2.837780131322931</v>
+        <v>2.653754569273272</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>2.285137338402232</v>
+        <v>2.051332400746237</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>2.507602286572811</v>
+        <v>2.607891515706625</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>2.603816086749997</v>
+        <v>2.394332108046252</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>2.283136809973248</v>
+        <v>2.399866380568358</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>2.390270407135905</v>
+        <v>2.878565998140261</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>2.094098893767897</v>
+        <v>2.134007040657112</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>2.07347842579538</v>
+        <v>2.114040823486298</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>2.497043166187281</v>
+        <v>2.585252085463764</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>2.93782388530389</v>
+        <v>2.251438305123747</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>2.668950607757996</v>
+        <v>2.619693557673208</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>2.628913568087277</v>
+        <v>2.45677653612611</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>2.873675196703657</v>
+        <v>2.173909744287067</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>2.910162821358632</v>
+        <v>2.014293497410097</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>2.487673045095871</v>
+        <v>2.826023911562521</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>2.541708432924347</v>
+        <v>2.866345855668643</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>2.531096515386085</v>
+        <v>2.827038402181572</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>2.702971689360689</v>
+        <v>2.445043920289486</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>2.680570541841314</v>
+        <v>2.584852776423195</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>2.488162652111626</v>
+        <v>2.231168691605002</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>2.961666054699648</v>
+        <v>2.197715140548343</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>2.189658386589488</v>
+        <v>2.79657825947633</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>2.482002331166045</v>
+        <v>2.189108464123077</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>2.586780395052336</v>
+        <v>2.19934972188947</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>2.516590256693379</v>
+        <v>2.601883769510104</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>2.460823931298028</v>
+        <v>2.47808112186931</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>2.118587348863784</v>
+        <v>2.7265685120476</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>2.624687081406577</v>
+        <v>2.037257541075906</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>2.800405451619035</v>
+        <v>2.073783609772465</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>2.274609625568374</v>
+        <v>2.024340100696443</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>2.160001306981836</v>
+        <v>2.240925400514213</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>2.197838865484253</v>
+        <v>2.072044575159564</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>2.53749412802301</v>
+        <v>2.766455074808945</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>2.957784636989694</v>
+        <v>2.41455670984054</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>2.183145339675757</v>
+        <v>2.185497288033535</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>2.319182910828165</v>
+        <v>2.000448394571094</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>2.969589304635302</v>
+        <v>2.465076670904562</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>2.179550760109107</v>
+        <v>2.681586443129595</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>2.844132233265192</v>
+        <v>2.834362567809979</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>2.080522300669926</v>
+        <v>2.250186592806882</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>2.133241248897833</v>
+        <v>2.714252482425622</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>2.82837833104324</v>
+        <v>2.049588242494719</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>2.710248652525593</v>
+        <v>2.801564510657999</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>2.402835057635544</v>
+        <v>2.309780522204822</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>2.257775588992354</v>
+        <v>2.100738718187951</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>2.887385894392919</v>
+        <v>2.275674458537371</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>2.178457262064539</v>
+        <v>2.133207219108046</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>2.552297460591836</v>
+        <v>2.655336704431275</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>2.625854753671129</v>
+        <v>2.967701764491247</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>2.345290488150043</v>
+        <v>2.030528352720331</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>2.736645886425932</v>
+        <v>2.199912595296918</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>2.695584603839977</v>
+        <v>2.118552051306674</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>2.808836759853816</v>
+        <v>2.338030579490373</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>2.239234192837757</v>
+        <v>2.450213621284854</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>2.491667779468217</v>
+        <v>2.545277812819728</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>2.964826143920416</v>
+        <v>2.848853789337071</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>2.106606752404399</v>
+        <v>2.735758421910262</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>2.409344954501248</v>
+        <v>2.218202757444255</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>2.798886898047693</v>
+        <v>2.317361025488695</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>2.600865839436539</v>
+        <v>2.504406238453214</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>2.041918254537852</v>
+        <v>2.268035568300508</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>2.484301097727018</v>
+        <v>2.856182007571485</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>2.36197349745644</v>
+        <v>2.403850888945427</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>2.243932546853992</v>
+        <v>2.65603149522322</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>2.581715649271782</v>
+        <v>2.113551493126953</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>2.97414730650925</v>
+        <v>2.039852892696789</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>2.936989570358675</v>
+        <v>2.211561451959792</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>2.663617678026164</v>
+        <v>2.102333958949815</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>2.887666602871481</v>
+        <v>2.953605699212508</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>2.100827494125112</v>
+        <v>2.026931866744625</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>2.742914471670617</v>
+        <v>2.546754727046494</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>2.961199336188217</v>
+        <v>2.30012457482094</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>2.41808626770352</v>
+        <v>2.300606934057203</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>2.117144575763325</v>
+        <v>2.5235444186886</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>2.984259291648842</v>
+        <v>2.180271768405873</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>2.54730059083338</v>
+        <v>2.810775029357338</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>2.285467143161792</v>
+        <v>2.629737230138654</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>2.417227681801978</v>
+        <v>2.079402966688948</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>2.687376942547337</v>
+        <v>2.198016798446819</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>2.065565071120699</v>
+        <v>2.486618127179658</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>2.199085951828635</v>
+        <v>2.283656196915638</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>2.162839218992897</v>
+        <v>2.233810375961881</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>2.075695281471795</v>
+        <v>2.281412653815328</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>2.930353980030621</v>
+        <v>2.384685435577576</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>2.154568117361583</v>
+        <v>2.131019244421994</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>2.753447328777644</v>
+        <v>2.931672707050145</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>2.627384757934598</v>
+        <v>2.134821275360046</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>2.755685240574933</v>
+        <v>2.736735329769759</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>2.326611885468907</v>
+        <v>2.569317743117293</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>2.437345564610243</v>
+        <v>2.722795810245736</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>2.817961455322337</v>
+        <v>2.614788652658534</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>2.448764646588451</v>
+        <v>2.225336082953253</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>2.325355670635294</v>
+        <v>2.351483875472067</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>2.311092676525501</v>
+        <v>2.303160934483438</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>2.980131565778041</v>
+        <v>2.976111517685519</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>2.638812348257326</v>
+        <v>2.175868586152718</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>2.779901106537008</v>
+        <v>2.939898354034409</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>2.133093156076376</v>
+        <v>2.305275405409191</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>2.095183863516735</v>
+        <v>2.771501889243132</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>2.888557942780519</v>
+        <v>2.304265621922508</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>2.240709224911051</v>
+        <v>2.817548002241609</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>2.522837403113291</v>
+        <v>2.758235869426084</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>2.012707696268231</v>
+        <v>2.599053725429978</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>2.167899754660497</v>
+        <v>2.092597099696563</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>2.77861146815647</v>
+        <v>2.129040535814612</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>2.826773416571118</v>
+        <v>2.834984173108562</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>2.100856447366312</v>
+        <v>2.783129133716641</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>2.395722096776474</v>
+        <v>2.177590576391466</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>2.770555922182159</v>
+        <v>2.411861801042171</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>2.704514253116455</v>
+        <v>2.900271987830718</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>2.851977538053442</v>
+        <v>2.344908509911884</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>2.087370219439669</v>
+        <v>2.180585862017136</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>2.637364278221725</v>
+        <v>2.583072885403102</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>2.585982868786593</v>
+        <v>2.296332342305217</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>2.119505788100509</v>
+        <v>2.166682743872486</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>2.12046207202868</v>
+        <v>2.993434749863258</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>2.290891901055342</v>
+        <v>2.760331155597561</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>2.440743296178417</v>
+        <v>2.40527406172166</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>2.732226626536626</v>
+        <v>2.059732292157058</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>2.441986258710383</v>
+        <v>2.79397307160295</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>2.360409047897441</v>
+        <v>2.418645821036546</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>2.639412194281256</v>
+        <v>2.045037750359191</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>2.34008350899931</v>
+        <v>2.155174445482048</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>2.92913901343417</v>
+        <v>2.665420485071726</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>2.794980594791633</v>
+        <v>2.614107762219695</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>2.979322314785911</v>
+        <v>2.444050244161235</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>2.965596078012376</v>
+        <v>2.414147980798288</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>2.48678068862379</v>
+        <v>2.173172672575479</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>2.948414838285989</v>
+        <v>2.768224914642806</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>2.017151297526822</v>
+        <v>2.170152877443364</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>2.451443064800769</v>
+        <v>2.704196273469578</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>2.208758820318041</v>
+        <v>2.071416775836836</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>2.507733597400544</v>
+        <v>2.180480752694406</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>2.197599193159795</v>
+        <v>2.346117272207434</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>2.751412840963746</v>
+        <v>2.705670772366052</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>2.571668713032105</v>
+        <v>2.324502031513944</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>2.287531030175582</v>
+        <v>2.596984171473186</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>2.253924519806829</v>
+        <v>2.134488515444164</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>2.012220573852606</v>
+        <v>2.425925650579814</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>2.445643337145295</v>
+        <v>2.384559895188114</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>2.505589310575275</v>
+        <v>2.660779305013564</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>2.284620474627882</v>
+        <v>2.334520099764874</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>2.866616824070145</v>
+        <v>2.016732170127452</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>2.012780219076339</v>
+        <v>2.707248931485124</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>2.92167114452048</v>
+        <v>2.450599963523363</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>2.172570065733048</v>
+        <v>2.183307367847061</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>2.620057409804391</v>
+        <v>2.040163124025504</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>2.225377507032617</v>
+        <v>2.101823158444743</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>2.875973016021098</v>
+        <v>2.305263429868532</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>2.636406702368435</v>
+        <v>2.923365105761992</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>2.561381795044582</v>
+        <v>2.955603744658875</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>2.421556751710008</v>
+        <v>2.855283065734877</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>2.787199860037575</v>
+        <v>2.399373664666974</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>2.940822579128841</v>
+        <v>2.4311931771757</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>2.886074230778503</v>
+        <v>2.230675755835942</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>2.457599098047954</v>
+        <v>2.946418852113998</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>2.337874070969193</v>
+        <v>2.808387841814076</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>2.084862496334495</v>
+        <v>2.416133633544753</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>2.354665778605046</v>
+        <v>2.328951672665042</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>2.786463933223708</v>
+        <v>2.600347618993717</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>2.387937276820758</v>
+        <v>2.555796083251924</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>2.356279001816059</v>
+        <v>2.547664136014437</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>2.831602693684276</v>
+        <v>2.510542786107782</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>2.59157908689392</v>
+        <v>2.519152919403097</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>2.394471384148698</v>
+        <v>2.277579297346358</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>2.388731484108573</v>
+        <v>2.712371492523374</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>2.637331990996788</v>
+        <v>2.546991281306854</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>2.596715197840778</v>
+        <v>2.998360717545789</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>2.13028647331216</v>
+        <v>2.664904442135189</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>2.17861484929086</v>
+        <v>2.734733817282634</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>2.462464582410858</v>
+        <v>2.79407478128568</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>2.864068531484484</v>
+        <v>2.28092501662984</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>2.221959302615276</v>
+        <v>2.2299324375054</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>2.299496211747885</v>
+        <v>2.88831111959248</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>2.8837398616899</v>
+        <v>2.260130077330158</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>2.360493281932915</v>
+        <v>2.517704128216724</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>2.228966147950552</v>
+        <v>2.987959930125647</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>2.121404484008429</v>
+        <v>2.665894854169758</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>2.398882527025687</v>
+        <v>2.8884718832753</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>2.789409050346971</v>
+        <v>2.52435385827814</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>2.256381632783881</v>
+        <v>2.930302907481011</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>2.801194690760801</v>
+        <v>2.627073385482742</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>2.391504338047223</v>
+        <v>2.753371085886502</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>2.499844427821738</v>
+        <v>2.423818562850525</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>2.05852522400019</v>
+        <v>2.065540657374022</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>2.546210569195434</v>
+        <v>2.402171993736908</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>2.2693801589447</v>
+        <v>2.516965138260447</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>2.984473554561729</v>
+        <v>2.947443367957577</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>2.719565976854581</v>
+        <v>2.860146506939002</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>2.779609531447626</v>
+        <v>2.189374619073786</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>2.162831826753486</v>
+        <v>2.96823002230347</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>2.939662314636545</v>
+        <v>2.856756008166066</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>2.225174637614376</v>
+        <v>2.944785837052982</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>2.136079734462817</v>
+        <v>2.641120742326486</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>2.281459380919706</v>
+        <v>2.747307835322923</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>2.622990237797127</v>
+        <v>2.093876319410781</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>2.606695725179048</v>
+        <v>2.551918974115654</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>2.09840613008482</v>
+        <v>2.75019087197125</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>2.213394566730034</v>
+        <v>2.853698505487955</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>2.638624883200475</v>
+        <v>2.291011377336226</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>2.215211760692414</v>
+        <v>2.087512281929257</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>2.372035483095013</v>
+        <v>2.104387530592286</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>2.82717470434849</v>
+        <v>2.02161139926926</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>2.532211352576747</v>
+        <v>2.006920033960657</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>2.412288646796878</v>
+        <v>2.647608748684025</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>2.258265004362978</v>
+        <v>2.361357185827687</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>2.833339552700316</v>
+        <v>2.793844432085856</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>2.272810109011194</v>
+        <v>2.245013873838525</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>2.66043524622376</v>
+        <v>2.756617155685976</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>2.64198569745083</v>
+        <v>2.015714595601481</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>2.290568198323306</v>
+        <v>2.735499914374738</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>2.517826454878278</v>
+        <v>2.272258502535299</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>2.621438286256683</v>
+        <v>2.75748371669349</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>2.557191360278039</v>
+        <v>2.157981589013423</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>2.196438096972449</v>
+        <v>2.176549887044501</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>2.367241016059764</v>
+        <v>2.966748067738265</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>2.451250524202377</v>
+        <v>2.946769546087581</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>2.029125112489485</v>
+        <v>2.941537753458562</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>2.980016791054427</v>
+        <v>2.10907738750875</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>2.918262613355818</v>
+        <v>2.88925669614244</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>2.502423221702713</v>
+        <v>2.542271346968489</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>2.461860555229083</v>
+        <v>2.403144345848117</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>2.510180024031541</v>
+        <v>2.660299203606687</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>2.670827366613434</v>
+        <v>2.387297483750721</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>2.323907312546654</v>
+        <v>2.106703019765455</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>2.741468635920819</v>
+        <v>2.245187795468461</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>2.080506021463421</v>
+        <v>2.370372586594442</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>2.096379130125</v>
+        <v>2.480069126324218</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>2.045573447736507</v>
+        <v>2.252576869955516</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>2.160912543363275</v>
+        <v>2.937009062658568</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>2.356857655476539</v>
+        <v>2.378679840433658</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>2.391188542610771</v>
+        <v>2.117099296014447</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>2.076260082596929</v>
+        <v>2.064077855358397</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>2.352969937991748</v>
+        <v>2.651934349825917</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>2.923096672571263</v>
+        <v>2.484302739609583</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>2.099107325368543</v>
+        <v>2.257933270368577</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>2.308053872377586</v>
+        <v>2.795569666114501</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>2.79784800517542</v>
+        <v>2.587478307555875</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>2.322943121939572</v>
+        <v>2.902233693795631</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>2.353758562878868</v>
+        <v>2.266302133387901</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>2.327914808036065</v>
+        <v>2.882956326697907</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>2.700844074571414</v>
+        <v>2.988861943925786</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>2.360802173532492</v>
+        <v>2.238610603285804</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>2.457418832029274</v>
+        <v>2.933938736293738</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>2.730453556154497</v>
+        <v>2.338576931836016</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>2.688376691800316</v>
+        <v>2.739194829456618</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>2.824924405259566</v>
+        <v>2.113975476944949</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>2.305707090404483</v>
+        <v>2.732937991603292</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>2.858111188500061</v>
+        <v>2.576679092269443</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>2.387695713858119</v>
+        <v>2.84907783248098</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>2.457226681358077</v>
+        <v>2.215631557559508</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>2.652946291296381</v>
+        <v>2.105355386507056</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>2.348108947750337</v>
+        <v>2.52187055443202</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>2.853181030681816</v>
+        <v>2.287488981800463</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>2.215607430488901</v>
+        <v>2.300132093022287</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>2.659476538671573</v>
+        <v>2.472686598184557</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>2.289430635371688</v>
+        <v>2.283034890721105</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>2.377640997054742</v>
+        <v>2.738780031774835</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>2.399583173824809</v>
+        <v>2.573600004150614</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>2.572092309862366</v>
+        <v>2.633432048712419</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>2.469008601735992</v>
+        <v>2.792518278680064</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>2.08862457253792</v>
+        <v>2.303875571696806</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>2.198161790734553</v>
+        <v>2.849292286035876</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>2.547366252975011</v>
+        <v>2.09500481159811</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>2.218570134805896</v>
+        <v>2.50470238765087</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>2.787300496390757</v>
+        <v>2.124379598259005</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>2.84049786443593</v>
+        <v>2.958129664636787</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>2.799977697672247</v>
+        <v>2.141922711818581</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>2.535787223780681</v>
+        <v>2.211772373647016</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>2.396333157853987</v>
+        <v>2.455898270609246</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>2.203489246372618</v>
+        <v>2.343250593882523</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>2.914248549978344</v>
+        <v>2.313291110048101</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>2.080402633447708</v>
+        <v>2.377391575304955</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>2.430583078768302</v>
+        <v>2.527061043785507</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>2.532377858850213</v>
+        <v>2.5149630227414</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>2.509203609178418</v>
+        <v>2.921497628116716</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>2.060614570063143</v>
+        <v>2.44508364696881</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>2.997078265026971</v>
+        <v>2.446327266579825</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>2.185446461039092</v>
+        <v>2.554408792610731</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>2.165689055010344</v>
+        <v>2.554253511325077</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>2.613910538722191</v>
+        <v>2.096618505044416</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>2.122852834098229</v>
+        <v>2.200522976061093</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>2.121790559499783</v>
+        <v>2.604141731140205</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>2.36061040841126</v>
+        <v>2.964230991269818</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>2.119381873659079</v>
+        <v>2.926663121415702</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>2.466768678081285</v>
+        <v>2.80313161756685</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>2.984129014674445</v>
+        <v>2.331116725328696</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>2.96357685482182</v>
+        <v>2.333405018506743</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>2.496636792583884</v>
+        <v>2.066792815466329</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>2.108238831012371</v>
+        <v>2.240148338807256</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>2.319872175901015</v>
+        <v>2.614688228632578</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>2.462696755839537</v>
+        <v>2.738131194440317</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>2.922600373249355</v>
+        <v>2.675930292605547</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>2.728089532619946</v>
+        <v>2.386072265886831</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>2.117905704511393</v>
+        <v>2.734719890058742</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>2.407950502398281</v>
+        <v>2.978905685559469</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>2.325423930080404</v>
+        <v>2.226658932500575</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>2.529833353218669</v>
+        <v>2.932401063700123</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>2.707103463155561</v>
+        <v>2.807357852193629</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>2.3563686792209</v>
+        <v>2.396520774548027</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>2.621552724710108</v>
+        <v>2.013850998109887</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>2.410742787909788</v>
+        <v>2.790256644482855</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>2.277935122380322</v>
+        <v>2.860708936398657</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>2.098808649792356</v>
+        <v>2.70083976014658</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>2.999451968574758</v>
+        <v>2.003517081662005</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>2.262012359758558</v>
+        <v>2.480712666750402</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>2.181101563628755</v>
+        <v>2.402312863265496</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>2.555688881000543</v>
+        <v>2.914823330879259</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>2.839614280868365</v>
+        <v>2.210200420126236</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>2.962120255270464</v>
+        <v>2.519952356193024</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>2.540322286353716</v>
+        <v>2.771252120865938</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>2.543831705060128</v>
+        <v>2.034322185455467</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>2.67872426910658</v>
+        <v>2.280094668089531</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>2.974022120590496</v>
+        <v>2.246299254117153</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>2.690379866387215</v>
+        <v>2.490810516126553</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>2.882996982146336</v>
+        <v>2.928411876317921</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>2.180346757304022</v>
+        <v>2.840438274127432</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>2.737971010506459</v>
+        <v>2.399040538825248</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>2.070279154891213</v>
+        <v>2.330244724740947</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>2.33171342337332</v>
+        <v>2.562943614129554</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>2.351573686944421</v>
+        <v>2.654141791069481</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>2.464821845713292</v>
+        <v>2.817041647189641</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>2.707220580847661</v>
+        <v>2.674989461523733</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>2.876877514376273</v>
+        <v>2.756902801239079</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>2.899984282173991</v>
+        <v>2.932394274008231</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>2.521944877530672</v>
+        <v>2.707824669400212</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>2.145483016110004</v>
+        <v>2.178548999701575</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>2.797125866114767</v>
+        <v>2.432959589955352</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>2.415016694818059</v>
+        <v>2.373370735403376</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>2.106097518019471</v>
+        <v>2.959264282694547</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>2.540888240140934</v>
+        <v>2.083858167701891</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>2.117886642560341</v>
+        <v>2.370294630407964</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
-        <v>2.081499180530338</v>
+        <v>2.690484702243602</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>2.880135246272854</v>
+        <v>2.834973529601064</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>2.249221241810808</v>
+        <v>2.693826584492221</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="n">
-        <v>2.702496270172337</v>
+        <v>2.249629704259509</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>2.935357967582675</v>
+        <v>2.706840462169792</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>2.136136015910487</v>
+        <v>2.853319632931869</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>2.888936382095735</v>
+        <v>2.339265637093259</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>2.11379130376683</v>
+        <v>2.687489634517715</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>2.407917371485474</v>
+        <v>2.68662925884061</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>2.447817227358583</v>
+        <v>2.167671243002502</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
-        <v>2.866569177937419</v>
+        <v>2.112740634409349</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>2.276296906582526</v>
+        <v>2.384509185190637</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>2.265772455219162</v>
+        <v>2.112600012028484</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>2.356559377047447</v>
+        <v>2.784576757062224</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>2.487605312511947</v>
+        <v>2.974930823950066</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>2.235268033854696</v>
+        <v>2.91392766177157</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>2.364733803722099</v>
+        <v>2.959424911143436</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>2.115242369236865</v>
+        <v>2.349303127739407</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>2.654745006072303</v>
+        <v>2.723237610781418</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>2.618366306197699</v>
+        <v>2.783812850659704</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>2.369816999102361</v>
+        <v>2.333215850228753</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>2.574665177182568</v>
+        <v>2.192508688798447</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>2.544040221194424</v>
+        <v>2.39423097885893</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>2.12141008464679</v>
+        <v>2.501195721084871</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>2.528170092021286</v>
+        <v>2.399514256158213</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>2.178230619980219</v>
+        <v>2.288171204068477</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>2.565616296007637</v>
+        <v>2.254542957438264</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>2.885845504851674</v>
+        <v>2.827499019379756</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>2.488331352937514</v>
+        <v>2.57337343317319</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>2.639690945704083</v>
+        <v>2.973176189303405</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>2.400778374257555</v>
+        <v>2.728968040836807</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="n">
-        <v>2.98005795941585</v>
+        <v>2.067970995828711</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="n">
-        <v>2.17696356200342</v>
+        <v>2.301119295872639</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="n">
-        <v>2.70065459354098</v>
+        <v>2.40729999760531</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="n">
-        <v>2.083309698485645</v>
+        <v>2.72385189503719</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="n">
-        <v>2.346814668858573</v>
+        <v>2.831719956445776</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>2.152974341446693</v>
+        <v>2.484487417245797</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
-        <v>2.797751112396283</v>
+        <v>2.413828167221224</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="n">
-        <v>2.775323862847616</v>
+        <v>2.964581743756989</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>2.270758174638538</v>
+        <v>2.858593079264686</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
-        <v>2.618068697504419</v>
+        <v>2.527301847227033</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>2.105676400807285</v>
+        <v>2.497270492483961</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="n">
-        <v>2.869675685699665</v>
+        <v>2.043325579227444</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>2.373391324312613</v>
+        <v>2.877179920423381</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="n">
-        <v>2.857130996194469</v>
+        <v>2.556782916534414</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="n">
-        <v>2.269879289467208</v>
+        <v>2.905538986907008</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="n">
-        <v>2.200785100674613</v>
+        <v>2.202170363764695</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>2.976004727405217</v>
+        <v>2.596374446732803</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>2.181802612689537</v>
+        <v>2.40721245451854</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="n">
-        <v>2.175329003119462</v>
+        <v>2.844960609098135</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="n">
-        <v>2.936047427726426</v>
+        <v>2.214008771583892</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="n">
-        <v>2.723177366895299</v>
+        <v>2.774588779913435</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="n">
-        <v>2.749068837019596</v>
+        <v>2.476163926927101</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>2.577098923616146</v>
+        <v>2.494396981680324</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="n">
-        <v>2.461049626786226</v>
+        <v>2.115496024164946</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="n">
-        <v>2.300197259018378</v>
+        <v>2.749023923531343</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>2.346913495616779</v>
+        <v>2.231998110809842</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>2.945735205392741</v>
+        <v>2.636385829381369</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>2.156389967643173</v>
+        <v>2.063627235571735</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="n">
-        <v>2.748292031614262</v>
+        <v>2.362085882829343</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="n">
-        <v>2.824225286188915</v>
+        <v>2.478619399451564</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="n">
-        <v>2.210606940435048</v>
+        <v>2.406912814189754</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="n">
-        <v>2.03100207879565</v>
+        <v>2.225110442591808</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="n">
-        <v>2.04029741853515</v>
+        <v>2.627897432997679</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>2.03965212460002</v>
+        <v>2.581425912452518</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
-        <v>2.397480744023785</v>
+        <v>2.115181521840523</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="n">
-        <v>2.937990934197542</v>
+        <v>2.033526238412636</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>2.255938413420806</v>
+        <v>2.454704723279231</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="n">
-        <v>2.103448584145545</v>
+        <v>2.399514293765515</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>2.788961344185219</v>
+        <v>2.266630770749611</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="n">
-        <v>2.445345442843723</v>
+        <v>2.571820630512828</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="n">
-        <v>2.412301704298177</v>
+        <v>2.937930644590152</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="n">
-        <v>2.7985844117488</v>
+        <v>2.847474479167743</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>2.964553439252962</v>
+        <v>2.326436891148235</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="n">
-        <v>2.376722569153741</v>
+        <v>2.768444480395547</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>2.729412402096266</v>
+        <v>2.795735108140846</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>2.580941070640465</v>
+        <v>2.655464485245512</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="n">
-        <v>2.857304199339314</v>
+        <v>2.940112373113031</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="n">
-        <v>2.187797588301043</v>
+        <v>2.370526268150306</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>2.873128126095635</v>
+        <v>2.026054495658381</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>2.368568104582454</v>
+        <v>2.871058269926753</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="n">
-        <v>2.697434855524107</v>
+        <v>2.692994612560032</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="n">
-        <v>2.686258539090757</v>
+        <v>2.723788442753319</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>2.707637057504386</v>
+        <v>2.915900845511494</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="n">
-        <v>2.540048247071718</v>
+        <v>2.946580356528877</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>2.442424971117694</v>
+        <v>2.813628872140152</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="n">
-        <v>2.508651065971326</v>
+        <v>2.406714599466764</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="n">
-        <v>2.52505453362803</v>
+        <v>2.973323936820966</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="n">
-        <v>2.434535438765717</v>
+        <v>2.247263135122834</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>2.689004607202464</v>
+        <v>2.085594365466628</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="n">
-        <v>2.112878776094098</v>
+        <v>2.855189796742079</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="n">
-        <v>2.912413193960255</v>
+        <v>2.236436632373154</v>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="n">
-        <v>2.776955950923482</v>
+        <v>2.25023321780315</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="n">
-        <v>2.325516389894844</v>
+        <v>2.236291335739614</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="n">
-        <v>2.545927240250138</v>
+        <v>2.198554156623882</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>2.929009152701205</v>
+        <v>2.844229552912496</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="n">
-        <v>2.068390459741055</v>
+        <v>2.644741484668455</v>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="n">
-        <v>2.15856744489983</v>
+        <v>2.700824316981282</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>2.422112333821279</v>
+        <v>2.308457338225811</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="n">
-        <v>2.358052759123945</v>
+        <v>2.143501689662306</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>2.814996586323524</v>
+        <v>2.771963713954044</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="n">
-        <v>2.879531155974047</v>
+        <v>2.002659943542864</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="n">
-        <v>2.239546777262523</v>
+        <v>2.967898377895451</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="n">
-        <v>2.549469181927498</v>
+        <v>2.097691732500001</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="n">
-        <v>2.328541444111999</v>
+        <v>2.222212618244846</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="n">
-        <v>2.231907965721093</v>
+        <v>2.371681831529301</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="n">
-        <v>2.922630951145554</v>
+        <v>2.14957484958819</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="n">
-        <v>2.390488198661145</v>
+        <v>2.381529562675651</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="n">
-        <v>2.345613746982242</v>
+        <v>2.322020447987633</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="n">
-        <v>2.182007857710814</v>
+        <v>2.423903149134126</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>2.465918840505462</v>
+        <v>2.141372687987939</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>2.208696464496354</v>
+        <v>2.39077834238809</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="n">
-        <v>2.121309941312802</v>
+        <v>2.43877949402087</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="n">
-        <v>2.141181529372496</v>
+        <v>2.31951333237107</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="n">
-        <v>2.835541172518856</v>
+        <v>2.937105601890662</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>2.867561494187147</v>
+        <v>2.574890841047902</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="n">
-        <v>2.381669908549233</v>
+        <v>2.17098888845541</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="n">
-        <v>2.387196948438067</v>
+        <v>2.940749744735453</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>2.195775387174507</v>
+        <v>2.851277685856699</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="n">
-        <v>2.235538355866396</v>
+        <v>2.292208506228552</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="n">
-        <v>2.566163184795572</v>
+        <v>2.252512561705068</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="n">
-        <v>2.1032852381834</v>
+        <v>2.393604045574378</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="n">
-        <v>2.818325597540909</v>
+        <v>2.735300773890782</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="n">
-        <v>2.684145596766986</v>
+        <v>2.167261589052465</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="n">
-        <v>2.214172479538036</v>
+        <v>2.202208987936239</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="n">
-        <v>2.9639890355384</v>
+        <v>2.29194920867328</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="n">
-        <v>2.957789683520922</v>
+        <v>2.121367472740406</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="n">
-        <v>2.683022520553283</v>
+        <v>2.454405091022378</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>2.460676442590557</v>
+        <v>2.854369800044326</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>2.126850837220844</v>
+        <v>2.973009528876938</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="n">
-        <v>2.652808228332788</v>
+        <v>2.430671786932397</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>2.776163506546172</v>
+        <v>2.643421483576951</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="n">
-        <v>2.016663122797373</v>
+        <v>2.932821221213942</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>2.723265623119068</v>
+        <v>2.768117993792045</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="n">
-        <v>2.158466246581352</v>
+        <v>2.153307762397844</v>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="n">
-        <v>2.017284067985557</v>
+        <v>2.410835396622589</v>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="n">
-        <v>2.870569477191677</v>
+        <v>2.330389597071751</v>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="n">
-        <v>2.3998416365427</v>
+        <v>2.649023350728783</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="n">
-        <v>2.601032603647352</v>
+        <v>2.018319656524666</v>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="n">
-        <v>2.882360489411031</v>
+        <v>2.823037674539674</v>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="n">
-        <v>2.234109977923025</v>
+        <v>2.530644405633568</v>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="n">
-        <v>2.543786931457011</v>
+        <v>2.764963898653729</v>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="n">
-        <v>2.174018260213911</v>
+        <v>2.018104759144888</v>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="n">
-        <v>2.552976465333391</v>
+        <v>2.438370414270602</v>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="n">
-        <v>2.814663419818982</v>
+        <v>2.477595958459007</v>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="n">
-        <v>2.347990845072844</v>
+        <v>2.303289936725333</v>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="n">
-        <v>2.128127673978087</v>
+        <v>2.601410011167523</v>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="n">
-        <v>2.127703640367384</v>
+        <v>2.775081863086875</v>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="n">
-        <v>2.999450866598986</v>
+        <v>2.450115700425227</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="n">
-        <v>2.806028010555901</v>
+        <v>2.950070995862049</v>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="n">
-        <v>2.721226843375</v>
+        <v>2.313281620945781</v>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="n">
-        <v>2.006090743475625</v>
+        <v>2.346889186586591</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="n">
-        <v>2.544032068813983</v>
+        <v>2.177336347842292</v>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="n">
-        <v>2.501683604308643</v>
+        <v>2.185990675283882</v>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="n">
-        <v>2.644221897420963</v>
+        <v>2.317140840072604</v>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="n">
-        <v>2.62053659562887</v>
+        <v>2.216696173305416</v>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="n">
-        <v>2.580130406203755</v>
+        <v>2.273645017374811</v>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="n">
-        <v>2.304493007221845</v>
+        <v>2.927690565827668</v>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="n">
-        <v>2.130025294036757</v>
+        <v>2.296725946401078</v>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="n">
-        <v>2.231711570701196</v>
+        <v>2.812072625626671</v>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="n">
-        <v>2.150398894817219</v>
+        <v>2.096213621447926</v>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="n">
-        <v>2.705449218513294</v>
+        <v>2.653599520144994</v>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>2.469973446189145</v>
+        <v>2.641619849981248</v>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="n">
-        <v>2.057431282600688</v>
+        <v>2.683524405679992</v>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="n">
-        <v>2.016152165554579</v>
+        <v>2.630133648124371</v>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="n">
-        <v>2.508034599624354</v>
+        <v>2.954147597113446</v>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="n">
-        <v>2.377168354053786</v>
+        <v>2.303678114608611</v>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="n">
-        <v>2.080440494978383</v>
+        <v>2.559242020749398</v>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="n">
-        <v>2.449508805193818</v>
+        <v>2.952906101962812</v>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="n">
-        <v>2.554619764688384</v>
+        <v>2.185058327348958</v>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="n">
-        <v>2.376244000894428</v>
+        <v>2.27055243736968</v>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="n">
-        <v>2.639336293817881</v>
+        <v>2.235028170838824</v>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="n">
-        <v>2.651673803492405</v>
+        <v>2.008089055160068</v>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="n">
-        <v>2.850956533827959</v>
+        <v>2.678908533621501</v>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="n">
-        <v>2.887284433063004</v>
+        <v>2.952583296957774</v>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="n">
-        <v>2.751261363066915</v>
+        <v>2.518490187438456</v>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>2.849379139891469</v>
+        <v>2.205452433077848</v>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="n">
-        <v>2.229331725811936</v>
+        <v>2.356223387872598</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="n">
-        <v>2.814142322963499</v>
+        <v>2.763248431551039</v>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="n">
-        <v>2.938345963791143</v>
+        <v>2.007660410398324</v>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="n">
-        <v>2.885023291519579</v>
+        <v>2.653589003926074</v>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="n">
-        <v>2.790467471560503</v>
+        <v>2.745532944866714</v>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="n">
-        <v>2.10093731335108</v>
+        <v>2.137438258243285</v>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="n">
-        <v>2.422991118947103</v>
+        <v>2.655535874906395</v>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="n">
-        <v>2.395111352792013</v>
+        <v>2.310754057632133</v>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="n">
-        <v>2.099951621707785</v>
+        <v>2.313111951399495</v>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="n">
-        <v>2.449091557854004</v>
+        <v>2.075032935588025</v>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="n">
-        <v>2.500585028821748</v>
+        <v>2.642506782055816</v>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>2.283887802009668</v>
+        <v>2.057658846704194</v>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="n">
-        <v>2.952989994832068</v>
+        <v>2.63506567902246</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="n">
-        <v>2.49124514821338</v>
+        <v>2.543895369196402</v>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="n">
-        <v>2.021151699280447</v>
+        <v>2.20870796931609</v>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="n">
-        <v>2.411509730644682</v>
+        <v>2.215822935100099</v>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="n">
-        <v>2.021510525749632</v>
+        <v>2.929504858529719</v>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="n">
-        <v>2.588897827478384</v>
+        <v>2.491785512236499</v>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="n">
-        <v>2.689257096244369</v>
+        <v>2.431645532793707</v>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="n">
-        <v>2.143123901663023</v>
+        <v>2.217290594311051</v>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="n">
-        <v>2.854770588157843</v>
+        <v>2.994933596127431</v>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="n">
-        <v>2.794907690925314</v>
+        <v>2.822974229823742</v>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="n">
-        <v>2.240518484402366</v>
+        <v>2.943171681695266</v>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="n">
-        <v>2.69609296250615</v>
+        <v>2.705045166693257</v>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="n">
-        <v>2.060586949476057</v>
+        <v>2.972973697181703</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="n">
-        <v>2.166664327238482</v>
+        <v>2.770309739376348</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="n">
-        <v>2.840511879523964</v>
+        <v>2.443960925219661</v>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="n">
-        <v>2.53213334870853</v>
+        <v>2.962299440916259</v>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="n">
-        <v>2.343684688453794</v>
+        <v>2.496768823599431</v>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="n">
-        <v>2.887853280794077</v>
+        <v>2.139581499426091</v>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="n">
-        <v>2.327420950472877</v>
+        <v>2.176313598634935</v>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="n">
-        <v>2.855921598041318</v>
+        <v>2.448458205652027</v>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="n">
-        <v>2.643720727675236</v>
+        <v>2.139934596421407</v>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="n">
-        <v>2.191092232005398</v>
+        <v>2.993179002329003</v>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="n">
-        <v>2.813677548139482</v>
+        <v>2.078191386153359</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="n">
-        <v>2.322021416214684</v>
+        <v>2.319698734330925</v>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="n">
-        <v>2.443085887731976</v>
+        <v>2.255137716062282</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="n">
-        <v>2.692593046829519</v>
+        <v>2.759865852739654</v>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="n">
-        <v>2.256329880779836</v>
+        <v>2.672645714888415</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="n">
-        <v>2.026307280190212</v>
+        <v>2.977670656026295</v>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="n">
-        <v>2.475407467044831</v>
+        <v>2.540881274165761</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="n">
-        <v>2.92893894118502</v>
+        <v>2.841619025673261</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="n">
-        <v>2.957124446009536</v>
+        <v>2.039923924697913</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="n">
-        <v>2.165947507623551</v>
+        <v>2.554639457127721</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="n">
-        <v>2.985129833237601</v>
+        <v>2.821758980417952</v>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="n">
-        <v>2.456385840100327</v>
+        <v>2.520204275188505</v>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="n">
-        <v>2.801148744527683</v>
+        <v>2.834836422113626</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="n">
-        <v>2.250495619787502</v>
+        <v>2.757621885091808</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="n">
-        <v>2.060454674488249</v>
+        <v>2.428097815531065</v>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="n">
-        <v>2.390607657228571</v>
+        <v>2.616170339824001</v>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="n">
-        <v>2.729786817178282</v>
+        <v>2.051850236717105</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="n">
-        <v>2.307917937228763</v>
+        <v>2.339246927775264</v>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="n">
-        <v>2.835623169214061</v>
+        <v>2.432182009128373</v>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="n">
-        <v>2.674200922180534</v>
+        <v>2.726032905069203</v>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="n">
-        <v>2.924149066200105</v>
+        <v>2.902534321341582</v>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="n">
-        <v>2.270591063913477</v>
+        <v>2.467916323528876</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="n">
-        <v>2.472956601619406</v>
+        <v>2.547261020682787</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="n">
-        <v>2.298275090586753</v>
+        <v>2.718005929665693</v>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="n">
-        <v>2.12343535283641</v>
+        <v>2.051744766452495</v>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="n">
-        <v>2.114574459921124</v>
+        <v>2.219296031499493</v>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="n">
-        <v>2.510765433270226</v>
+        <v>2.184465061481188</v>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="n">
-        <v>2.921367777785516</v>
+        <v>2.15890744657902</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="n">
-        <v>2.22094466916212</v>
+        <v>2.559520431993266</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="n">
-        <v>2.969366931497641</v>
+        <v>2.759901659483803</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="n">
-        <v>2.021390314649131</v>
+        <v>2.281758198989302</v>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="n">
-        <v>2.606367057234207</v>
+        <v>2.129534642530424</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="n">
-        <v>2.871923557927603</v>
+        <v>2.946128250905275</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="n">
-        <v>2.474652749249697</v>
+        <v>2.644067121740833</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="n">
-        <v>2.653884424219793</v>
+        <v>2.444860813746777</v>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="n">
-        <v>2.463023596527719</v>
+        <v>2.776295806492047</v>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="n">
-        <v>2.710204329310392</v>
+        <v>2.064727886648797</v>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="n">
-        <v>2.538747113706088</v>
+        <v>2.450455153461266</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="n">
-        <v>2.465427018234287</v>
+        <v>2.592048295404885</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="n">
-        <v>2.76416564862091</v>
+        <v>2.669228634331116</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="n">
-        <v>2.53046857887995</v>
+        <v>2.846163159016358</v>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="n">
-        <v>2.228340460108148</v>
+        <v>2.574495864962898</v>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="n">
-        <v>2.682083434977061</v>
+        <v>2.506593035733612</v>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="n">
-        <v>2.74436353765828</v>
+        <v>2.107576016525738</v>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="n">
-        <v>2.095383638654609</v>
+        <v>2.646415491256319</v>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="n">
-        <v>2.617389826276216</v>
+        <v>2.324924452745388</v>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>2.190204817098618</v>
+        <v>2.488236492721513</v>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="n">
-        <v>2.262793432388297</v>
+        <v>2.751516406222464</v>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="n">
-        <v>2.45306765511221</v>
+        <v>2.313235942257242</v>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="n">
-        <v>2.474542446233966</v>
+        <v>2.052681257181689</v>
       </c>
     </row>
     <row r="1421">
       <c r="A1421" t="n">
-        <v>2.863857822993571</v>
+        <v>2.772536605024615</v>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="n">
-        <v>2.283680903869949</v>
+        <v>2.189187500462817</v>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="n">
-        <v>2.248022613906358</v>
+        <v>2.846963597646673</v>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="n">
-        <v>2.850017560666322</v>
+        <v>2.160910991498905</v>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="n">
-        <v>2.847036872449404</v>
+        <v>2.498844658263772</v>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="n">
-        <v>2.781274229394959</v>
+        <v>2.886473437864597</v>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="n">
-        <v>2.461398614302655</v>
+        <v>2.865394187440188</v>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="n">
-        <v>2.276442740501754</v>
+        <v>2.026733587216897</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="n">
-        <v>2.546322108960669</v>
+        <v>2.398460074603061</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="n">
-        <v>2.096606102411906</v>
+        <v>2.158511060853644</v>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="n">
-        <v>2.47298549273017</v>
+        <v>2.553771905439199</v>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="n">
-        <v>2.626011671703639</v>
+        <v>2.208772005859299</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="n">
-        <v>2.587329309097417</v>
+        <v>2.549464107702813</v>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="n">
-        <v>2.969571849188545</v>
+        <v>2.901254808677168</v>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="n">
-        <v>2.257182117953079</v>
+        <v>2.269682368119402</v>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="n">
-        <v>2.328899865117026</v>
+        <v>2.259839189759749</v>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="n">
-        <v>2.891259984815765</v>
+        <v>2.234367369832058</v>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="n">
-        <v>2.308761048126042</v>
+        <v>2.110088880236209</v>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="n">
-        <v>2.622431712834133</v>
+        <v>2.299121111540712</v>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="n">
-        <v>2.42296938393003</v>
+        <v>2.606591988322211</v>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="n">
-        <v>2.261515345153673</v>
+        <v>2.17085506178907</v>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" t="n">
-        <v>2.905245748345746</v>
+        <v>2.755856562517818</v>
       </c>
     </row>
   </sheetData>

--- a/smart_grid_simulation/src/methods/rate_schedule.xlsx
+++ b/smart_grid_simulation/src/methods/rate_schedule.xlsx
@@ -442,7207 +442,7207 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.440799548851469</v>
+        <v>2.197851628670219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.364157129903401</v>
+        <v>2.826726487855808</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.548642792010414</v>
+        <v>2.614489506571354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.393067824390834</v>
+        <v>2.893032536631613</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.719334096344756</v>
+        <v>2.647654078418838</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.109241176620095</v>
+        <v>2.670343471553406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.288213680288897</v>
+        <v>2.152757262326977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.865640627413033</v>
+        <v>2.136631518652637</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.304649845006786</v>
+        <v>2.00153516587915</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.177471383617621</v>
+        <v>2.064107853999618</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.894685057164165</v>
+        <v>2.272585251165862</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.321952933093616</v>
+        <v>2.386775311453723</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.906543628024904</v>
+        <v>2.136506222463121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.993401996712334</v>
+        <v>2.238911491647298</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.283355818311159</v>
+        <v>2.262786245456393</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.330283817265042</v>
+        <v>2.781425383922405</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.651764621564978</v>
+        <v>2.369762867360971</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.892815596540206</v>
+        <v>2.88119844050075</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.857547971763096</v>
+        <v>2.326662702963586</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.686042062480476</v>
+        <v>2.148730399432276</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.254456189208067</v>
+        <v>2.765156167883377</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.647712813283597</v>
+        <v>2.3684584208025</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.947436951498728</v>
+        <v>2.884848368838309</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.944001167924693</v>
+        <v>2.457494623236141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.681986611948384</v>
+        <v>2.584494785233463</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.583845851278626</v>
+        <v>2.097285734169295</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.548122528350996</v>
+        <v>2.169861934546841</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.171679995714597</v>
+        <v>2.687095939852498</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.79172125173442</v>
+        <v>2.2887379175504</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.253026196832783</v>
+        <v>2.643164267079702</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.442081386225546</v>
+        <v>2.501579824194495</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.93965946956942</v>
+        <v>2.98957526215157</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.442970040558044</v>
+        <v>2.49398199312572</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.088300230225659</v>
+        <v>2.484481259632839</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.213979217488403</v>
+        <v>2.44501566091877</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.024982085732662</v>
+        <v>2.181557615555452</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.638532123637753</v>
+        <v>2.460817922685465</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.541346191936389</v>
+        <v>2.797900260721787</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.445364629556614</v>
+        <v>2.548756132636608</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.984938254933115</v>
+        <v>2.326405430034308</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2.344281047742878</v>
+        <v>2.707109193587311</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2.573040396554823</v>
+        <v>2.875337407954274</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.893486080361872</v>
+        <v>2.859583573421375</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.209456253561249</v>
+        <v>2.468387387536166</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2.217374657117386</v>
+        <v>2.143307651630858</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2.619164849383912</v>
+        <v>2.70052860619777</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.089663211872708</v>
+        <v>2.902698959563724</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.72608819822294</v>
+        <v>2.393062128829282</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.367294210145728</v>
+        <v>2.077584724586574</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.29092840161073</v>
+        <v>2.83880461404649</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.117590748222224</v>
+        <v>2.735919012301939</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.276128737028425</v>
+        <v>2.565545103763954</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.10263829800398</v>
+        <v>2.527470550144249</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.275221742600663</v>
+        <v>2.633891100064925</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.552187205919533</v>
+        <v>2.4410132701552</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.03779111827657</v>
+        <v>2.908435647711852</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.622301451654453</v>
+        <v>2.267757972901676</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.948512050977406</v>
+        <v>2.554641405957204</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.192345637135972</v>
+        <v>2.849051411340902</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.187094531513991</v>
+        <v>2.911188218707109</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.267949491573876</v>
+        <v>2.042689311877799</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.860768454106799</v>
+        <v>2.606683451914087</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.22373548094303</v>
+        <v>2.784187852972011</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.276674935978229</v>
+        <v>2.090252105090201</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.508841034623313</v>
+        <v>2.256091558989767</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.81730342612226</v>
+        <v>2.62935783717889</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.069101226428435</v>
+        <v>2.398671798741865</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.452135139738457</v>
+        <v>2.107683065850486</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.835869187314406</v>
+        <v>2.142338870095005</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.711529552091743</v>
+        <v>2.901504129163981</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.895021055662208</v>
+        <v>2.420072546199676</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.051107615038129</v>
+        <v>2.456069804173398</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.435873267086705</v>
+        <v>2.260377637336517</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.857216193471228</v>
+        <v>2.650681117379489</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.040041519708035</v>
+        <v>2.021473985791783</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.565672265587182</v>
+        <v>2.503415443811543</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.22848575510026</v>
+        <v>2.545140096657599</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.194557352470726</v>
+        <v>2.122341548102693</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.813311428011916</v>
+        <v>2.303296869625572</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.202737750611038</v>
+        <v>2.336949690984319</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.582182579646749</v>
+        <v>2.03147065870544</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.938826570897702</v>
+        <v>2.300414015139845</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.874223107415425</v>
+        <v>2.610985617007742</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.748627600201953</v>
+        <v>2.873607821903652</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.300052153848506</v>
+        <v>2.310576939636024</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.638487914819804</v>
+        <v>2.641859997068552</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.382870907569322</v>
+        <v>2.309752871512667</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.851039867157091</v>
+        <v>2.756116422564189</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.613840269592615</v>
+        <v>2.111242558303173</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.746682105048573</v>
+        <v>2.176081595688028</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.665526986192136</v>
+        <v>2.981121750469225</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.910462250757668</v>
+        <v>2.51313221332524</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.979572316358258</v>
+        <v>2.037949238735827</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.285164747014056</v>
+        <v>2.384040155474625</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.327379593360072</v>
+        <v>2.898480370241089</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.133216993942809</v>
+        <v>2.66453381428094</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.139171133395812</v>
+        <v>2.557697265057714</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.169656431311461</v>
+        <v>2.534637406567757</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.457655265930579</v>
+        <v>2.689408494167003</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.471101459613852</v>
+        <v>2.554086084621894</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.536938386534931</v>
+        <v>2.517843363159738</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2.208191760694778</v>
+        <v>2.16235524674528</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.480085623103359</v>
+        <v>2.261640420085249</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2.001830752453829</v>
+        <v>2.092869914717763</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2.531564336529539</v>
+        <v>2.408776709546552</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.489944987400997</v>
+        <v>2.761536182827006</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.855728159833937</v>
+        <v>2.053423412858126</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.009704721475186</v>
+        <v>2.231606499722254</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.704887531132298</v>
+        <v>2.172694485628259</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.727776785178279</v>
+        <v>2.836275305299707</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.215930717888623</v>
+        <v>2.588325551575336</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.921568810570396</v>
+        <v>2.178246308096905</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.178540528211513</v>
+        <v>2.077158966590295</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.295021000509441</v>
+        <v>2.451467091252388</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.422324139102188</v>
+        <v>2.336129190282031</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.514206937045663</v>
+        <v>2.256439093075012</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.116690582373227</v>
+        <v>2.901582286429396</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.798206275779066</v>
+        <v>2.222503064595594</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.622112595487936</v>
+        <v>2.390270372210497</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.158834774688033</v>
+        <v>2.442001605608583</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.452056433657507</v>
+        <v>2.2960445815371</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.282301742622006</v>
+        <v>2.41851391168866</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.883278802262437</v>
+        <v>2.564949452933246</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.424623537236808</v>
+        <v>2.00614731741122</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2.437025176628473</v>
+        <v>2.576863030313099</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.027553185662425</v>
+        <v>2.288288968055094</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.999927451804381</v>
+        <v>2.495317154592322</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2.383037823230704</v>
+        <v>2.351114154023759</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.245053606116135</v>
+        <v>2.238176038270792</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.160608588812139</v>
+        <v>2.487810750695518</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.851938413837925</v>
+        <v>2.337279328018738</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.970269420897121</v>
+        <v>2.083055355687416</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.418238831064478</v>
+        <v>2.062335706409248</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.254792253873661</v>
+        <v>2.62803820081397</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.410204807201517</v>
+        <v>2.695699281730041</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.820881600123076</v>
+        <v>2.65374221768897</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.844340735338558</v>
+        <v>2.865213600540267</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.304897372953011</v>
+        <v>2.912887624112694</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.411615548296796</v>
+        <v>2.781595760859529</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2.990287729802846</v>
+        <v>2.225421132867528</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2.27322360847635</v>
+        <v>2.49816234546849</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.449314359103809</v>
+        <v>2.60040288073931</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.400587975896553</v>
+        <v>2.623194923865415</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.853934638776378</v>
+        <v>2.017551358694584</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.232415564360837</v>
+        <v>2.544356002206044</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2.68659674391749</v>
+        <v>2.829619053227773</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2.378769035502428</v>
+        <v>2.810778893252471</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2.290354909842246</v>
+        <v>2.965875802248583</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.461376839911174</v>
+        <v>2.852651047160179</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2.663928053082209</v>
+        <v>2.770450608832045</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2.292591835667788</v>
+        <v>2.670018271426419</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.269582929727626</v>
+        <v>2.995967142158745</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2.065651875375912</v>
+        <v>2.640692464333946</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2.57664182532719</v>
+        <v>2.545861978976212</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2.308536964296935</v>
+        <v>2.629134463236425</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.095255894358027</v>
+        <v>2.645457231743499</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2.214924279385186</v>
+        <v>2.70248077289848</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.454174873788813</v>
+        <v>2.302873727078429</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.312701342426849</v>
+        <v>2.744530913935519</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.418036220687431</v>
+        <v>2.464305602737145</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2.769700388777077</v>
+        <v>2.583931919217262</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2.880307157124525</v>
+        <v>2.915755610137534</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.836838976696117</v>
+        <v>2.143979783942143</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2.49608841115681</v>
+        <v>2.226454061178318</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2.309313404780579</v>
+        <v>2.852298885977703</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2.94270319019738</v>
+        <v>2.152958668093377</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2.672151052806482</v>
+        <v>2.675229753040619</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.249807534534579</v>
+        <v>2.202075001607184</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2.341571043830578</v>
+        <v>2.997440627494379</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2.472192745654181</v>
+        <v>2.172830608563029</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2.637919495681427</v>
+        <v>2.947212531599549</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2.650946791511489</v>
+        <v>2.037226437242544</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.518953440808995</v>
+        <v>2.962429074903236</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2.171807709154481</v>
+        <v>2.774889150559214</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2.140306940735409</v>
+        <v>2.29215419327969</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2.926138353829359</v>
+        <v>2.977642463821883</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2.816663342931969</v>
+        <v>2.021791315794403</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2.007925119766905</v>
+        <v>2.313521414117166</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.037002581014884</v>
+        <v>2.468466153986206</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.083698004658285</v>
+        <v>2.81029051164411</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.272213318752164</v>
+        <v>2.331384378185461</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.421630341862389</v>
+        <v>2.455099421525595</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.546064188576084</v>
+        <v>2.368154536148024</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.469163135574926</v>
+        <v>2.209792624391166</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2.227287761737184</v>
+        <v>2.350777424010664</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2.583685116510313</v>
+        <v>2.44671918856705</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2.890331281718687</v>
+        <v>2.03165236872379</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.346743299127707</v>
+        <v>2.101637135719658</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2.898521557579913</v>
+        <v>2.166044972044767</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2.45668790421529</v>
+        <v>2.292627231672998</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2.507478481591588</v>
+        <v>2.807243812085617</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.714910498493389</v>
+        <v>2.732197308513587</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2.79869182064365</v>
+        <v>2.63649680613031</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2.642434916980693</v>
+        <v>2.851447651539396</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2.356929485920422</v>
+        <v>2.119641014931275</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2.064343093857202</v>
+        <v>2.192083970087669</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2.469779026032688</v>
+        <v>2.000313081388283</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.24858679798344</v>
+        <v>2.986061495364901</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2.326491594238253</v>
+        <v>2.629896352029883</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.439067456999859</v>
+        <v>2.248585207686546</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2.096150027795281</v>
+        <v>2.092316226180115</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2.855285837545203</v>
+        <v>2.907893475092235</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.929800365057627</v>
+        <v>2.401722485181787</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2.352824769697254</v>
+        <v>2.046376022282043</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2.874417852059976</v>
+        <v>2.065124861954967</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2.758085651652979</v>
+        <v>2.130286171507056</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2.403623962940834</v>
+        <v>2.229594093649947</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2.059902648794574</v>
+        <v>2.307860203145882</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2.386877548122327</v>
+        <v>2.685542037823827</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2.375281025069311</v>
+        <v>2.470081352213693</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2.895445009753652</v>
+        <v>2.429667404030306</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2.445626590597337</v>
+        <v>2.970956718753612</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>2.53802851249777</v>
+        <v>2.422712561987298</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2.750529686987188</v>
+        <v>2.582469946506064</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2.468001965502823</v>
+        <v>2.938254285088831</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2.390974390717087</v>
+        <v>2.789105658846837</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2.549476878382617</v>
+        <v>2.014444940599634</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>2.835326646383908</v>
+        <v>2.324017323623288</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2.948955863408228</v>
+        <v>2.816363811690233</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2.832695906650908</v>
+        <v>2.350225273005162</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2.141240952259483</v>
+        <v>2.03841055352428</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>2.718104493917092</v>
+        <v>2.457115817369797</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2.43085784011205</v>
+        <v>2.909488988975273</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2.966523496258765</v>
+        <v>2.506403927150879</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2.158521783079807</v>
+        <v>2.169969155269073</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2.023793864218424</v>
+        <v>2.82900409496859</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>2.856564961700583</v>
+        <v>2.498331505236016</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.673569619364459</v>
+        <v>2.638196772478487</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2.815898369440877</v>
+        <v>2.877972241193669</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2.263022253570393</v>
+        <v>2.677841159965754</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2.925127754201247</v>
+        <v>2.345478872595896</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2.210385255781757</v>
+        <v>2.074457014291917</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2.127599369209988</v>
+        <v>2.867180741532606</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2.16204511251191</v>
+        <v>2.278815519392657</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2.404504302223341</v>
+        <v>2.881675722350315</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>2.601285792913166</v>
+        <v>2.124768293993013</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2.813547091070401</v>
+        <v>2.974145466668533</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2.848629321095754</v>
+        <v>2.032047112756794</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2.863840918435827</v>
+        <v>2.489185976621175</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2.508892884752107</v>
+        <v>2.043449606620361</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2.123729465849986</v>
+        <v>2.794313082822746</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2.250643098237693</v>
+        <v>2.508810296762299</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2.370216362530756</v>
+        <v>2.465977980369601</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2.844742181533385</v>
+        <v>2.51481443881875</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2.79404516178559</v>
+        <v>2.36499400762659</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2.015671241511819</v>
+        <v>2.620685307403939</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2.834797391817165</v>
+        <v>2.780256072396028</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2.785728493787255</v>
+        <v>2.226579845402997</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2.796815981108882</v>
+        <v>2.583852867286349</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2.456539033256981</v>
+        <v>2.057606054854571</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2.940688523169294</v>
+        <v>2.394877826600239</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2.863538913460675</v>
+        <v>2.25735288807704</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2.704674763480514</v>
+        <v>2.102859857535131</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.625162105985646</v>
+        <v>2.202764017311526</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.892439769594276</v>
+        <v>2.149408903846191</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>2.290691987312974</v>
+        <v>2.835548132946658</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2.903593372069517</v>
+        <v>2.157529132006322</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2.974988891238834</v>
+        <v>2.830014946859713</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>2.961901711475347</v>
+        <v>2.527253762864908</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2.930014467434872</v>
+        <v>2.642500796707279</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2.048589859759719</v>
+        <v>2.437776743886895</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>2.156223462938057</v>
+        <v>2.425204322376618</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2.022823745238628</v>
+        <v>2.432590277053789</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2.909902954605195</v>
+        <v>2.74284849829017</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2.826654534141922</v>
+        <v>2.416079497465958</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2.28111910753614</v>
+        <v>2.866213663457683</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2.357807170259688</v>
+        <v>2.854449769896892</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2.422240004857307</v>
+        <v>2.853493714654448</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>2.990926171199665</v>
+        <v>2.257588544966565</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2.441051727967036</v>
+        <v>2.698020698125558</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2.760533158446132</v>
+        <v>2.639815101693466</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.534636070784319</v>
+        <v>2.67627669047981</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2.946241439640037</v>
+        <v>2.18623424518316</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2.940607959999896</v>
+        <v>2.013003187318467</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2.210812393502394</v>
+        <v>2.423156047963549</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2.45001912387514</v>
+        <v>2.970567423979165</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.415789075608803</v>
+        <v>2.371333813026096</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2.291654188719011</v>
+        <v>2.328707289706381</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2.20348809456575</v>
+        <v>2.08400511465428</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2.992615235551024</v>
+        <v>2.051657941318019</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2.096017728159994</v>
+        <v>2.642194865068898</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2.19954488836701</v>
+        <v>2.35837430835593</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2.852623011869565</v>
+        <v>2.537190236283593</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2.506599462220636</v>
+        <v>2.20675468276883</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2.728931527184322</v>
+        <v>2.693004459066463</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2.204087557094687</v>
+        <v>2.73206980900516</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2.729326229883024</v>
+        <v>2.972973288848919</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2.72221499274447</v>
+        <v>2.932771377327749</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2.642861252542561</v>
+        <v>2.421034255202371</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2.675996033195927</v>
+        <v>2.53356595765604</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2.724543608376586</v>
+        <v>2.431712232954427</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2.650509988168764</v>
+        <v>2.300953753045689</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>2.180163048540556</v>
+        <v>2.094781370703964</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2.485803711028914</v>
+        <v>2.735727311877325</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2.772746674463656</v>
+        <v>2.206749873682743</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2.425155076603676</v>
+        <v>2.296086181004948</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2.448365914781192</v>
+        <v>2.970012341406086</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2.551735444836047</v>
+        <v>2.812279243827473</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2.178327824745553</v>
+        <v>2.289692199642739</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2.423938777126556</v>
+        <v>2.037105931025756</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.967265586028662</v>
+        <v>2.72420696327112</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2.824576754649292</v>
+        <v>2.189874116469766</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2.715794477352497</v>
+        <v>2.876151028700492</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2.46093715092327</v>
+        <v>2.228563976886427</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2.369810746599675</v>
+        <v>2.190573032701923</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2.036407300279659</v>
+        <v>2.953219162279599</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>2.155221186072839</v>
+        <v>2.365001288419307</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2.442664283848295</v>
+        <v>2.671795493091013</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2.593971327503638</v>
+        <v>2.176946042636032</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2.369290015137771</v>
+        <v>2.829471557658709</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2.528100086873142</v>
+        <v>2.111110281042174</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2.68449853427371</v>
+        <v>2.142102787215027</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2.532583993336807</v>
+        <v>2.316374535162056</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2.057761590098367</v>
+        <v>2.830040976630992</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2.9037323720071</v>
+        <v>2.26744777638311</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2.341338646474375</v>
+        <v>2.903815692255039</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2.615945135822801</v>
+        <v>2.492636016737579</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>2.024376169375909</v>
+        <v>2.907133568476269</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>2.82057708357768</v>
+        <v>2.818430479947065</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2.660394572070976</v>
+        <v>2.844245986386369</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>2.669193783708951</v>
+        <v>2.187456713521105</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2.945460062331345</v>
+        <v>2.181672928400127</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2.523425303017573</v>
+        <v>2.560291037084612</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2.582506085716813</v>
+        <v>2.871648049350646</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2.829060082356428</v>
+        <v>2.128532671069924</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2.534121942395863</v>
+        <v>2.94086402784847</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2.259841163119222</v>
+        <v>2.537720874572251</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2.411978638177066</v>
+        <v>2.882843633435523</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2.185142608204195</v>
+        <v>2.203983646887175</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2.429422007349016</v>
+        <v>2.554152769457421</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2.303485681609131</v>
+        <v>2.229636238772989</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>2.823493680601465</v>
+        <v>2.235426127282338</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>2.806325697923297</v>
+        <v>2.628200405709817</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2.952283855418748</v>
+        <v>2.136753437892225</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>2.709148709553924</v>
+        <v>2.872332887260645</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2.02789327243607</v>
+        <v>2.452636971751632</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>2.806495534832337</v>
+        <v>2.348207551324796</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>2.915977258011773</v>
+        <v>2.422822313611164</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2.943593396634226</v>
+        <v>2.217908931995679</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>2.41651174166054</v>
+        <v>2.571848739157052</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2.945743909580373</v>
+        <v>2.81504385372104</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2.454150088470604</v>
+        <v>2.429145599878387</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2.631199587515421</v>
+        <v>2.280542181423638</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2.812382529792669</v>
+        <v>2.748829056820811</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2.753588572910505</v>
+        <v>2.4193230065286</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2.043857244799733</v>
+        <v>2.745848227360594</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2.303521198955807</v>
+        <v>2.522313100075873</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2.042396726338402</v>
+        <v>2.889166709566401</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2.223982360653576</v>
+        <v>2.630086135608011</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2.031369023347893</v>
+        <v>2.646389258357149</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2.263857156677601</v>
+        <v>2.732933021030299</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2.462051278642166</v>
+        <v>2.047407493296549</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2.765252665947675</v>
+        <v>2.4500364077681</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2.462366343610586</v>
+        <v>2.545118286693867</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2.044198508852797</v>
+        <v>2.408325259902413</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2.773032945409879</v>
+        <v>2.101329356305145</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2.334634701757935</v>
+        <v>2.606895262429646</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2.695986407316889</v>
+        <v>2.823873805940438</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2.901546649721509</v>
+        <v>2.640510048586337</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2.352675878492337</v>
+        <v>2.057396269939308</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2.219504168876976</v>
+        <v>2.144736086529254</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2.290383994589561</v>
+        <v>2.906467083973478</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2.146684113167722</v>
+        <v>2.234583631634524</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2.719786860799703</v>
+        <v>2.962213889265775</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>2.040644885407694</v>
+        <v>2.882857638860949</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>2.015872932601727</v>
+        <v>2.122214439371787</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>2.723596108241661</v>
+        <v>2.544194542923335</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>2.692395752239164</v>
+        <v>2.837540426134348</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>2.960279643658338</v>
+        <v>2.868454069584177</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2.15359660440161</v>
+        <v>2.01014924841837</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>2.063344400631724</v>
+        <v>2.550303822146322</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2.238701854567883</v>
+        <v>2.786491933915804</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>2.146531269971276</v>
+        <v>2.13677399431963</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>2.534098112604388</v>
+        <v>2.805631840047516</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2.115025952094197</v>
+        <v>2.552436336192771</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>2.789515323310087</v>
+        <v>2.646350341957931</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>2.228717039013647</v>
+        <v>2.844742420014686</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>2.101260106333713</v>
+        <v>2.911511649256241</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>2.570063313119466</v>
+        <v>2.322230881465158</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>2.851349283140564</v>
+        <v>2.343714901004458</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>2.520616241023261</v>
+        <v>2.257506642827269</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>2.882011865428888</v>
+        <v>2.190489258400592</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>2.405930572428862</v>
+        <v>2.377607965349278</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>2.735630455098999</v>
+        <v>2.049864003901615</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>2.580970637302715</v>
+        <v>2.014278058294061</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>2.911434006825815</v>
+        <v>2.705840917013077</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>2.518598479995014</v>
+        <v>2.61116719075522</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>2.883293966175537</v>
+        <v>2.660478571196715</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>2.543814676664609</v>
+        <v>2.497610003680131</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>2.791797397340019</v>
+        <v>2.219360015492817</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>2.978621544527426</v>
+        <v>2.926536114668946</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>2.882794483406713</v>
+        <v>2.358037049244836</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>2.394377382604522</v>
+        <v>2.358877948357292</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>2.626694356328018</v>
+        <v>2.358569393680223</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>2.346893655034931</v>
+        <v>2.67174579985236</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2.608200877820383</v>
+        <v>2.726748882037872</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>2.577267436375884</v>
+        <v>2.669297186863247</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>2.24183907884354</v>
+        <v>2.822238115365982</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>2.027744285313782</v>
+        <v>2.701891331726384</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>2.862054651593202</v>
+        <v>2.359680029917328</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>2.126160810135979</v>
+        <v>2.863260429294352</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>2.651597297930644</v>
+        <v>2.730094609080651</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>2.05740571135225</v>
+        <v>2.944190746006472</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>2.43772679635529</v>
+        <v>2.309317856762525</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>2.89542593711948</v>
+        <v>2.053740555878392</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>2.587536526939598</v>
+        <v>2.322642932531949</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>2.074090963580267</v>
+        <v>2.107021946512958</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>2.65929969417752</v>
+        <v>2.326955948183103</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>2.526143918660119</v>
+        <v>2.097574352064178</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>2.67153487659342</v>
+        <v>2.799542768994073</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>2.293543233254409</v>
+        <v>2.467415835520931</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>2.826782485532468</v>
+        <v>2.54726193848386</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>2.62997180569662</v>
+        <v>2.334999995036312</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>2.077092310922099</v>
+        <v>2.115819384974612</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>2.951837318003112</v>
+        <v>2.893432989032366</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>2.861132009257561</v>
+        <v>2.855532326237725</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>2.610879850310975</v>
+        <v>2.485117796389933</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>2.960010708179826</v>
+        <v>2.006191874419255</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2.899743184028592</v>
+        <v>2.69871555033529</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>2.751655688782896</v>
+        <v>2.031580538997908</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>2.837914602364853</v>
+        <v>2.672673256306898</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2.63934782284472</v>
+        <v>2.897718261961864</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>2.227225717778626</v>
+        <v>2.025466164328197</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>2.150132022421324</v>
+        <v>2.413022551821648</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>2.131512802752467</v>
+        <v>2.678274756535899</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>2.630233439291149</v>
+        <v>2.785920810274417</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>2.465412415363878</v>
+        <v>2.965858717340179</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>2.573613960817653</v>
+        <v>2.846341017526231</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>2.289327101069421</v>
+        <v>2.375846761904888</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>2.529261929536141</v>
+        <v>2.120706590836672</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>2.024231075131585</v>
+        <v>2.461973999910201</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>2.484249423201896</v>
+        <v>2.923120651389903</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>2.323974767063142</v>
+        <v>2.592291878288556</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>2.074193770679077</v>
+        <v>2.753978129870586</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>2.183746504071003</v>
+        <v>2.830631415099072</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>2.341352725378489</v>
+        <v>2.177644232702303</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>2.113787685902937</v>
+        <v>2.03216104216224</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>2.300345036181342</v>
+        <v>2.058201898874397</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>2.246405813471634</v>
+        <v>2.21233606354543</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>2.840255872086709</v>
+        <v>2.853392420522485</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>2.3863895172438</v>
+        <v>2.039768974534444</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>2.193122993879483</v>
+        <v>2.926186544088523</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>2.394787349028766</v>
+        <v>2.320319382039156</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>2.357723211451839</v>
+        <v>2.326246563838502</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>2.255145150693044</v>
+        <v>2.798988184785753</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>2.446558301011037</v>
+        <v>2.325795489608767</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>2.203020679426091</v>
+        <v>2.374477030240341</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>2.551609803087623</v>
+        <v>2.848311628094681</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>2.729978444832913</v>
+        <v>2.171541563025087</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>2.796508278357979</v>
+        <v>2.743605791793186</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>2.310018811669786</v>
+        <v>2.023608633730087</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>2.125649456881009</v>
+        <v>2.196018287013316</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>2.337472070721632</v>
+        <v>2.502598729001841</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>2.941038677183241</v>
+        <v>2.995779189296816</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>2.279691652281167</v>
+        <v>2.850949793669191</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>2.556253425475866</v>
+        <v>2.543294486404628</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>2.96758839163363</v>
+        <v>2.318780556028853</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>2.469594477536243</v>
+        <v>2.840101604191867</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>2.731893643824269</v>
+        <v>2.452559037495975</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>2.635652279824231</v>
+        <v>2.698292576324334</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>2.567430646658635</v>
+        <v>2.604502465559019</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>2.796799922495018</v>
+        <v>2.399547454708685</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>2.196009216803111</v>
+        <v>2.289771299828439</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>2.005977631275386</v>
+        <v>2.176278521359936</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>2.719259306498379</v>
+        <v>2.092766904633314</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>2.317013379155543</v>
+        <v>2.708202726300668</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>2.500023744592221</v>
+        <v>2.448553847976954</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>2.174607130522542</v>
+        <v>2.792227713975142</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>2.15131866638851</v>
+        <v>2.481679427396415</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>2.750228012432824</v>
+        <v>2.936201388108047</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>2.843409927683817</v>
+        <v>2.037517430882057</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>2.403333888117622</v>
+        <v>2.716148999476311</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>2.452697817273517</v>
+        <v>2.309250467572305</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>2.843447380583522</v>
+        <v>2.804675999465602</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>2.26808678425448</v>
+        <v>2.266098064389131</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>2.782815750347059</v>
+        <v>2.370527367705499</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>2.645329121020588</v>
+        <v>2.278840315428601</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>2.932140803741463</v>
+        <v>2.272494876307864</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>2.803589034395238</v>
+        <v>2.971121233505466</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>2.527672405113669</v>
+        <v>2.895696702380758</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>2.750503423205793</v>
+        <v>2.9178430502079</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>2.729336196192232</v>
+        <v>2.386544225320562</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>2.458528283562106</v>
+        <v>2.372871836859567</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>2.057179580651513</v>
+        <v>2.144121536877468</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>2.441611064449585</v>
+        <v>2.396033502064302</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>2.523434513866871</v>
+        <v>2.396819889571118</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>2.72291236856054</v>
+        <v>2.359548499507192</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>2.424927506139701</v>
+        <v>2.082809030350708</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>2.929621207990227</v>
+        <v>2.894192712758383</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>2.827614643171206</v>
+        <v>2.014603709129533</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>2.048793532543374</v>
+        <v>2.157228578026869</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>2.344089874907411</v>
+        <v>2.671442177872862</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>2.759328568932189</v>
+        <v>2.200726006054904</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>2.478874090791876</v>
+        <v>2.736336719397992</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>2.790840275988983</v>
+        <v>2.377048921885843</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>2.136625576110002</v>
+        <v>2.629145350308535</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>2.406424250210017</v>
+        <v>2.423014409534843</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>2.32538925263614</v>
+        <v>2.276992049127966</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>2.938895568475477</v>
+        <v>2.296230541131948</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>2.652440838656994</v>
+        <v>2.111897390638389</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>2.517196878879777</v>
+        <v>2.887056274460957</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>2.238760727589094</v>
+        <v>2.157434725140038</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>2.593652616797483</v>
+        <v>2.525171557599781</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>2.261173220531123</v>
+        <v>2.844396841558725</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>2.103631465695258</v>
+        <v>2.845725975225944</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>2.242372172422572</v>
+        <v>2.19321928428794</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>2.183385978854399</v>
+        <v>2.01240685121763</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>2.174358076808013</v>
+        <v>2.274304337806722</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>2.30160931246085</v>
+        <v>2.802650769619064</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>2.945612417322323</v>
+        <v>2.557294059029455</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>2.578893364102542</v>
+        <v>2.091589422282872</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>2.29615910816167</v>
+        <v>2.084668536918007</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>2.295458168653661</v>
+        <v>2.006479003303273</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>2.772127190619872</v>
+        <v>2.005938288000995</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>2.997524705363495</v>
+        <v>2.629816299575984</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>2.59211662823544</v>
+        <v>2.041925165636257</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>2.185842508580004</v>
+        <v>2.190015431385088</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>2.392645815926219</v>
+        <v>2.424268094330719</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>2.513696639839164</v>
+        <v>2.374087775735314</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>2.942222201092188</v>
+        <v>2.519989356476074</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>2.880745994843754</v>
+        <v>2.055570713419454</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>2.47316020175673</v>
+        <v>2.740370452421937</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>2.992551796584312</v>
+        <v>2.744349875775208</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>2.910375431842625</v>
+        <v>2.971229560606278</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>2.922260763901999</v>
+        <v>2.806721645899333</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>2.300117236981789</v>
+        <v>2.829701240368448</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>2.247961803134201</v>
+        <v>2.993798445624887</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>2.411120644453902</v>
+        <v>2.317001370460937</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>2.425006623681479</v>
+        <v>2.287637211055801</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>2.436400671163903</v>
+        <v>2.891559869233019</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>2.823337224324326</v>
+        <v>2.466499930720901</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>2.99330029459024</v>
+        <v>2.518623573930936</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>2.440998228027769</v>
+        <v>2.094453854459287</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>2.045686368515151</v>
+        <v>2.476238781929954</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>2.126479945472023</v>
+        <v>2.308842827934327</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>2.572011371696363</v>
+        <v>2.654907087544847</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>2.258283912142806</v>
+        <v>2.488460105209321</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>2.20503189080848</v>
+        <v>2.040951168418816</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>2.542051746184943</v>
+        <v>2.562240542198102</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>2.605855482200424</v>
+        <v>2.072163617679106</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>2.922266619374745</v>
+        <v>2.806062320078292</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>2.143639491511786</v>
+        <v>2.624021362497114</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>2.255557636318253</v>
+        <v>2.361298383139223</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>2.733347549990401</v>
+        <v>2.282829597737134</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>2.112455028037778</v>
+        <v>2.418691430446304</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>2.584172236680798</v>
+        <v>2.161960908052978</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>2.048362257441577</v>
+        <v>2.224271490263239</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>2.288056621015814</v>
+        <v>2.817804775347405</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>2.176020189996455</v>
+        <v>2.008051077295863</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>2.177658182973166</v>
+        <v>2.348731101209335</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>2.683567829945976</v>
+        <v>2.881337398653367</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>2.858793331352417</v>
+        <v>2.982088943284392</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>2.818124600418225</v>
+        <v>2.568627925472892</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>2.909238585760439</v>
+        <v>2.088893083257558</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>2.386813785721966</v>
+        <v>2.610422806201351</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>2.301314878319523</v>
+        <v>2.684376775096291</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>2.947061253841985</v>
+        <v>2.494332322190822</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>2.596167179742791</v>
+        <v>2.315921385952672</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>2.002715081057826</v>
+        <v>2.753117194081895</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>2.48514718297877</v>
+        <v>2.031071497433802</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>2.878394507251356</v>
+        <v>2.9905260549713</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>2.797072540303641</v>
+        <v>2.263181522996318</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>2.19921653885707</v>
+        <v>2.493175663254192</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>2.821732401773018</v>
+        <v>2.88862580661517</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>2.91714820852698</v>
+        <v>2.939124585922833</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>2.171051422849308</v>
+        <v>2.209084508851844</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>2.568747900689421</v>
+        <v>2.267312827043888</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>2.28698002495162</v>
+        <v>2.583250002806373</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>2.342283213593821</v>
+        <v>2.000251958579027</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>2.072930986817592</v>
+        <v>2.001437309700673</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>2.229097096959416</v>
+        <v>2.763877738658158</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>2.629215946508472</v>
+        <v>2.879141810406423</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>2.277616774091885</v>
+        <v>2.419067696653983</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>2.508166010706374</v>
+        <v>2.640648301483139</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>2.861793916304069</v>
+        <v>2.243002398954451</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>2.359683914568562</v>
+        <v>2.904961867881072</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>2.58575423862664</v>
+        <v>2.942554464961597</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>2.257931933944069</v>
+        <v>2.611868485017804</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>2.461690339098349</v>
+        <v>2.581312005369754</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>2.761488400322345</v>
+        <v>2.295573763098577</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>2.648473613537749</v>
+        <v>2.548673613685285</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>2.798004260803431</v>
+        <v>2.373098753643934</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>2.101901707260469</v>
+        <v>2.036495015153336</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>2.709105281471892</v>
+        <v>2.334682906989254</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>2.120147295782773</v>
+        <v>2.733226596445914</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>2.001442552376397</v>
+        <v>2.429584630887607</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>2.541133147331925</v>
+        <v>2.423868509186147</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>2.26400779473505</v>
+        <v>2.387221992703988</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>2.880669638418566</v>
+        <v>2.31576999443721</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>2.583413073724674</v>
+        <v>2.109972397121693</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>2.841915112571825</v>
+        <v>2.404497515571625</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>2.181191424098109</v>
+        <v>2.409798480198232</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>2.416370295811437</v>
+        <v>2.172021166005366</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>2.352647413145518</v>
+        <v>2.864162526533422</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>2.562623886993538</v>
+        <v>2.683863083658784</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>2.802233598527791</v>
+        <v>2.234608096622378</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>2.296648881715578</v>
+        <v>2.952875849248476</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>2.221400298180319</v>
+        <v>2.97369114364944</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>2.249257336141506</v>
+        <v>2.442394676651999</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>2.718155124965279</v>
+        <v>2.615763207333208</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>2.902745321839897</v>
+        <v>2.136608091235357</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>2.777957065017337</v>
+        <v>2.740234872354077</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>2.606737796193808</v>
+        <v>2.097837244348407</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>2.603587234868947</v>
+        <v>2.221502281920097</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>2.208393164873248</v>
+        <v>2.845059259028032</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>2.539282548278178</v>
+        <v>2.681567335077062</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>2.280203149126539</v>
+        <v>2.851855797925748</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>2.044300593764294</v>
+        <v>2.052961771492036</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>2.279114901363533</v>
+        <v>2.795038688279536</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>2.092169089394624</v>
+        <v>2.274536669954398</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>2.990956557129224</v>
+        <v>2.258311171490518</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>2.328715730637907</v>
+        <v>2.338154240567721</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>2.691108233926924</v>
+        <v>2.768532261975124</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>2.122697380724322</v>
+        <v>2.040092433226624</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>2.584067986311092</v>
+        <v>2.192490834406222</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>2.716779984775057</v>
+        <v>2.524732197094432</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>2.16617081401017</v>
+        <v>2.816846449074955</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>2.183839929240528</v>
+        <v>2.78674157843842</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>2.546380445032005</v>
+        <v>2.656189635703116</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>2.055659018633541</v>
+        <v>2.422994464866889</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>2.88674143207513</v>
+        <v>2.118862996308978</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>2.511429897688273</v>
+        <v>2.436192860117867</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>2.501599982238768</v>
+        <v>2.548558809757163</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>2.892011342735701</v>
+        <v>2.404060265495786</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>2.188917971265811</v>
+        <v>2.717196597718694</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>2.508165407770853</v>
+        <v>2.850848970297435</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>2.526502516885172</v>
+        <v>2.540579581140161</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>2.798441294755759</v>
+        <v>2.212264471991977</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>2.126487233924229</v>
+        <v>2.689694390964062</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>2.710496636588108</v>
+        <v>2.882013995497414</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>2.548123592718329</v>
+        <v>2.487143720672276</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>2.843643587610653</v>
+        <v>2.089158977838163</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>2.590304667766548</v>
+        <v>2.041164095479322</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>2.36842699752934</v>
+        <v>2.993673798461862</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>2.955508119454652</v>
+        <v>2.868444964472917</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>2.755944766584638</v>
+        <v>2.22625933429237</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>2.341479243261667</v>
+        <v>2.166754211271972</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>2.579064798185818</v>
+        <v>2.444858423641229</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>2.833237246233362</v>
+        <v>2.017698661992596</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>2.712165871311723</v>
+        <v>2.808838260231988</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>2.119575229272912</v>
+        <v>2.618441887811854</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>2.226836974198277</v>
+        <v>2.881233920578323</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>2.031228821846327</v>
+        <v>2.450292174159181</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>2.325107339646712</v>
+        <v>2.615105206563525</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>2.227626927757479</v>
+        <v>2.051338539510184</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>2.030909752402093</v>
+        <v>2.906529560959989</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>2.389055932952485</v>
+        <v>2.351096658427763</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>2.441190039455606</v>
+        <v>2.258368060277814</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>2.704149378637695</v>
+        <v>2.824954866348754</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>2.906489705124312</v>
+        <v>2.455866176285082</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>2.867896968665398</v>
+        <v>2.126791756545891</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>2.830161783764354</v>
+        <v>2.586239693467708</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>2.099237305233526</v>
+        <v>2.991742901244582</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>2.968877813528236</v>
+        <v>2.772124181285758</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>2.910968455086247</v>
+        <v>2.332108084044222</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>2.397358538795899</v>
+        <v>2.061832984004953</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>2.78115872754613</v>
+        <v>2.321796852912154</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>2.463044201819977</v>
+        <v>2.893977735791576</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>2.532705519813997</v>
+        <v>2.580522513612083</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>2.094088545830697</v>
+        <v>2.363426945852437</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>2.475145958238965</v>
+        <v>2.76867250802376</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>2.804049158069957</v>
+        <v>2.408682624883829</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>2.182769961140723</v>
+        <v>2.728804313359777</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>2.777682357359032</v>
+        <v>2.678330004000181</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>2.312226003434771</v>
+        <v>2.148926238686948</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>2.898924241793062</v>
+        <v>2.414669895771884</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>2.872416393577978</v>
+        <v>2.096734745583927</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>2.955977126637342</v>
+        <v>2.989133163797747</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>2.167036567300539</v>
+        <v>2.433300630765311</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>2.447132580685205</v>
+        <v>2.269320215317752</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>2.944113031006686</v>
+        <v>2.526759478527543</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>2.12419171709522</v>
+        <v>2.156329445139776</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>2.043597640313185</v>
+        <v>2.596970760888581</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>2.626751176839179</v>
+        <v>2.96558912863664</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>2.151114243008636</v>
+        <v>2.165648744061892</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>2.629491960851158</v>
+        <v>2.109435918633172</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>2.289793332627695</v>
+        <v>2.980037820567624</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>2.217981428315193</v>
+        <v>2.084898718105602</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>2.996404169805625</v>
+        <v>2.452423558489912</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>2.399517665770556</v>
+        <v>2.192082658077998</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>2.092105331638168</v>
+        <v>2.184676674680041</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>2.345014889753056</v>
+        <v>2.657223764461119</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>2.668304662830023</v>
+        <v>2.310066384542708</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>2.979610469937807</v>
+        <v>2.556167876869688</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>2.207723483752539</v>
+        <v>2.567777264508472</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>2.087774768346002</v>
+        <v>2.102723285995808</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>2.145388434954874</v>
+        <v>2.966056457690557</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>2.053185720067246</v>
+        <v>2.068219188952734</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>2.702764513604534</v>
+        <v>2.510996124383309</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>2.455677461559449</v>
+        <v>2.150411820468132</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>2.582488912121913</v>
+        <v>2.918685208744217</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>2.943696164594912</v>
+        <v>2.867011365406131</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>2.223806895915724</v>
+        <v>2.422048129540482</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>2.056231156929327</v>
+        <v>2.736777714057022</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>2.036458843430407</v>
+        <v>2.966823682866519</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>2.930921924261504</v>
+        <v>2.183232997656151</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>2.666390104186386</v>
+        <v>2.454137077864744</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>2.390687151818382</v>
+        <v>2.569966939588447</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>2.946406199442342</v>
+        <v>2.604632550402175</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>2.036282724086056</v>
+        <v>2.880315862559009</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>2.9956145879353</v>
+        <v>2.141166033893331</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>2.190995860815146</v>
+        <v>2.532800099244426</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>2.555921857586819</v>
+        <v>2.363687821638673</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>2.659675332869364</v>
+        <v>2.369908816945014</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>2.211446279387955</v>
+        <v>2.970489267237991</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>2.134326076819727</v>
+        <v>2.190646268854448</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>2.53400203903958</v>
+        <v>2.373369781720264</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>2.143570726613584</v>
+        <v>2.247510482237354</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>2.613378680033314</v>
+        <v>2.74164678445409</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>2.553307581719098</v>
+        <v>2.377543557392432</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>2.707275976319167</v>
+        <v>2.390653221738041</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>2.623350859521804</v>
+        <v>2.389330163754609</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>2.705314437785196</v>
+        <v>2.517314251064817</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>2.743727342019064</v>
+        <v>2.883526627090722</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>2.711557545192949</v>
+        <v>2.000286731597925</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>2.885566266616047</v>
+        <v>2.741958986114625</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>2.362354951355425</v>
+        <v>2.318409371783311</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>2.172820931656638</v>
+        <v>2.785133343021125</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>2.293552076227334</v>
+        <v>2.314590070927309</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>2.400838750844934</v>
+        <v>2.2500155328945</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>2.073017879281689</v>
+        <v>2.877421003773718</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>2.9746434945158</v>
+        <v>2.304322015581599</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>2.776108092473203</v>
+        <v>2.243490965969206</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>2.621818226280869</v>
+        <v>2.077512916094167</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>2.133082431611189</v>
+        <v>2.560291755762043</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>2.039866736768286</v>
+        <v>2.85869228013951</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>2.710079075496391</v>
+        <v>2.179749989237197</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>2.800269965018842</v>
+        <v>2.783587331919886</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>2.468736754280891</v>
+        <v>2.269907368869104</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>2.942306972902793</v>
+        <v>2.771770460260209</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>2.743710375156953</v>
+        <v>2.866997988530149</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>2.488584777823583</v>
+        <v>2.258977968967015</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>2.874822316269087</v>
+        <v>2.455528781648812</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>2.088659484611534</v>
+        <v>2.794755245449635</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>2.12913148193576</v>
+        <v>2.055098219364882</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>2.356116839712441</v>
+        <v>2.876089108050146</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>2.968650000743238</v>
+        <v>2.618115646014206</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>2.922809826501617</v>
+        <v>2.441837794015074</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>2.604346737426975</v>
+        <v>2.640828809297671</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>2.587376608986093</v>
+        <v>2.169152672683361</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>2.262925461514601</v>
+        <v>2.848857630214513</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>2.788900955251123</v>
+        <v>2.739155612784652</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>2.094216725237436</v>
+        <v>2.173463374789084</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>2.401191361560695</v>
+        <v>2.269121650706914</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>2.618151652964103</v>
+        <v>2.820267045713867</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>2.565844341392369</v>
+        <v>2.441852649336068</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>2.354954832783593</v>
+        <v>2.69179456795965</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>2.656588097790859</v>
+        <v>2.068965099439238</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>2.211856338924238</v>
+        <v>2.589796846385307</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>2.708863736011517</v>
+        <v>2.21650325788621</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>2.696337459574774</v>
+        <v>2.263962675501141</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>2.427000040576881</v>
+        <v>2.220008438958173</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>2.485986543514158</v>
+        <v>2.991224211250441</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>2.397595560353861</v>
+        <v>2.821284653122067</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>2.841196942788688</v>
+        <v>2.69306025702831</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>2.887313718880077</v>
+        <v>2.932700917408663</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>2.707737199972338</v>
+        <v>2.525571675903799</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>2.858497305617676</v>
+        <v>2.855708168769862</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>2.98119222794994</v>
+        <v>2.791666580625758</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>2.603379800136265</v>
+        <v>2.295942181396553</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>2.38045787509334</v>
+        <v>2.113118951862064</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>2.422943130431829</v>
+        <v>2.610722957494165</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>2.885720085290925</v>
+        <v>2.664614405177998</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>2.900382575255995</v>
+        <v>2.317876729566342</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>2.104254812441442</v>
+        <v>2.589071819848879</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>2.898441538249202</v>
+        <v>2.323545561301321</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>2.688633725632359</v>
+        <v>2.751849177428498</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>2.332952565344929</v>
+        <v>2.873495925616822</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>2.639432414931061</v>
+        <v>2.61695839122016</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>2.020827930609816</v>
+        <v>2.058559635018022</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>2.694558471684942</v>
+        <v>2.488582078669242</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>2.523930266048892</v>
+        <v>2.58087352407764</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>2.253820887267619</v>
+        <v>2.192616056842568</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>2.421405101904281</v>
+        <v>2.898069782947092</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>2.263799457568534</v>
+        <v>2.393641069286283</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>2.359982369139364</v>
+        <v>2.363406279823686</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>2.471156635918362</v>
+        <v>2.456025006757281</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>2.545296687293909</v>
+        <v>2.684950008007289</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>2.2825762900664</v>
+        <v>2.641286374679923</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>2.43862002095342</v>
+        <v>2.099538160414526</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>2.232258819589688</v>
+        <v>2.402926327828709</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>2.307994561496542</v>
+        <v>2.330127019932705</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>2.150034221293048</v>
+        <v>2.544517447882488</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>2.429759453236792</v>
+        <v>2.69704098147815</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>2.184772167543362</v>
+        <v>2.027180185075335</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>2.059623594331513</v>
+        <v>2.315747213032617</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>2.579487579132854</v>
+        <v>2.289309010600134</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>2.548071647271294</v>
+        <v>2.29778237541635</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>2.496939425839033</v>
+        <v>2.74705410103728</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>2.51914108034904</v>
+        <v>2.396544285213672</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>2.17457576274141</v>
+        <v>2.907072773691662</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>2.63464667618722</v>
+        <v>2.703372286863817</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>2.373477359009573</v>
+        <v>2.718992155180071</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>2.599049315343595</v>
+        <v>2.377730840988256</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>2.896841274514722</v>
+        <v>2.5850940681855</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>2.996158361210551</v>
+        <v>2.470618764459723</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>2.440428354607547</v>
+        <v>2.312812187246577</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>2.017117652218553</v>
+        <v>2.440112174130509</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>2.969490686225522</v>
+        <v>2.489413998944455</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>2.584250660112175</v>
+        <v>2.043950433937989</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>2.756118064109531</v>
+        <v>2.324265740772743</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>2.954129511697769</v>
+        <v>2.231002447765027</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>2.846554938288999</v>
+        <v>2.451232872633633</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>2.090625735228872</v>
+        <v>2.671666157203827</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>2.051455991224249</v>
+        <v>2.18259891071685</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>2.274187655615481</v>
+        <v>2.904610235740377</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>2.046288351555309</v>
+        <v>2.921281935370207</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>2.322068102367944</v>
+        <v>2.98171084387641</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>2.978706991089866</v>
+        <v>2.979802337660519</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>2.025314509178137</v>
+        <v>2.626079776870685</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>2.293892162163778</v>
+        <v>2.932519091470053</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>2.436993273208693</v>
+        <v>2.153266315035784</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>2.820536638335597</v>
+        <v>2.396224458581773</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>2.409397699523446</v>
+        <v>2.246148849376796</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>2.417786465333538</v>
+        <v>2.581944516203216</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>2.148788308626017</v>
+        <v>2.915915313841027</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>2.028005439410424</v>
+        <v>2.374174777545327</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>2.097475628212833</v>
+        <v>2.910983363788037</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>2.462786162115592</v>
+        <v>2.602976095625007</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>2.262660553813384</v>
+        <v>2.281923399469667</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>2.027980843870905</v>
+        <v>2.402672023045165</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>2.910891975919491</v>
+        <v>2.453593084265857</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>2.685685339958435</v>
+        <v>2.863081170952881</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>2.60137204126739</v>
+        <v>2.691409002022275</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>2.913593918112221</v>
+        <v>2.033504710637452</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>2.25341971538561</v>
+        <v>2.488811918476176</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>2.653754569273272</v>
+        <v>2.643885573562942</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>2.051332400746237</v>
+        <v>2.189727196872705</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>2.607891515706625</v>
+        <v>2.705627779894208</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>2.394332108046252</v>
+        <v>2.541394388015</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>2.399866380568358</v>
+        <v>2.584160324735137</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>2.878565998140261</v>
+        <v>2.762533577389274</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>2.134007040657112</v>
+        <v>2.729711644270042</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>2.114040823486298</v>
+        <v>2.592247466436921</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>2.585252085463764</v>
+        <v>2.361314322633853</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>2.251438305123747</v>
+        <v>2.941064515375171</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>2.619693557673208</v>
+        <v>2.397189721140059</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>2.45677653612611</v>
+        <v>2.455562017903764</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>2.173909744287067</v>
+        <v>2.472709104659658</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>2.014293497410097</v>
+        <v>2.302833639393156</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>2.826023911562521</v>
+        <v>2.063260011918575</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>2.866345855668643</v>
+        <v>2.726832841857384</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>2.827038402181572</v>
+        <v>2.057842075422082</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>2.445043920289486</v>
+        <v>2.80328509811904</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>2.584852776423195</v>
+        <v>2.011726238350069</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>2.231168691605002</v>
+        <v>2.702301521814871</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>2.197715140548343</v>
+        <v>2.070674078746242</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>2.79657825947633</v>
+        <v>2.099427338531488</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>2.189108464123077</v>
+        <v>2.708352319186319</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>2.19934972188947</v>
+        <v>2.72004661349236</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>2.601883769510104</v>
+        <v>2.565466433877892</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>2.47808112186931</v>
+        <v>2.602464671127048</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>2.7265685120476</v>
+        <v>2.140990859948193</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>2.037257541075906</v>
+        <v>2.685248493303643</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>2.073783609772465</v>
+        <v>2.743796012137421</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>2.024340100696443</v>
+        <v>2.954325346317499</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>2.240925400514213</v>
+        <v>2.006024418436427</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>2.072044575159564</v>
+        <v>2.484532472892231</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>2.766455074808945</v>
+        <v>2.664204104564102</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>2.41455670984054</v>
+        <v>2.983394226050526</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>2.185497288033535</v>
+        <v>2.543181856164571</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>2.000448394571094</v>
+        <v>2.632102439524379</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>2.465076670904562</v>
+        <v>2.794481819914022</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>2.681586443129595</v>
+        <v>2.481920410138106</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>2.834362567809979</v>
+        <v>2.309328963453598</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>2.250186592806882</v>
+        <v>2.487513144065747</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>2.714252482425622</v>
+        <v>2.103440866017952</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>2.049588242494719</v>
+        <v>2.905925365367641</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>2.801564510657999</v>
+        <v>2.928455429565694</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>2.309780522204822</v>
+        <v>2.959630493761748</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>2.100738718187951</v>
+        <v>2.541626241160381</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>2.275674458537371</v>
+        <v>2.930781140217978</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>2.133207219108046</v>
+        <v>2.080188684885619</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>2.655336704431275</v>
+        <v>2.915968401282118</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>2.967701764491247</v>
+        <v>2.053574577546714</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>2.030528352720331</v>
+        <v>2.53525913437213</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>2.199912595296918</v>
+        <v>2.18772098159091</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>2.118552051306674</v>
+        <v>2.034057683467406</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>2.338030579490373</v>
+        <v>2.843518199996551</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>2.450213621284854</v>
+        <v>2.966463410204481</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>2.545277812819728</v>
+        <v>2.980439882905019</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>2.848853789337071</v>
+        <v>2.19846905620172</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>2.735758421910262</v>
+        <v>2.000333997448399</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>2.218202757444255</v>
+        <v>2.873064339630114</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>2.317361025488695</v>
+        <v>2.860186081616743</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>2.504406238453214</v>
+        <v>2.716344068230254</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>2.268035568300508</v>
+        <v>2.448945523925027</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>2.856182007571485</v>
+        <v>2.732443407165241</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>2.403850888945427</v>
+        <v>2.444064627734553</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>2.65603149522322</v>
+        <v>2.075195351881406</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>2.113551493126953</v>
+        <v>2.908709708703052</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>2.039852892696789</v>
+        <v>2.896663496294126</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>2.211561451959792</v>
+        <v>2.649913559443432</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>2.102333958949815</v>
+        <v>2.330270842969628</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>2.953605699212508</v>
+        <v>2.738365541565354</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>2.026931866744625</v>
+        <v>2.162519178704869</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>2.546754727046494</v>
+        <v>2.213796883293944</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>2.30012457482094</v>
+        <v>2.909036299735585</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>2.300606934057203</v>
+        <v>2.535554407204108</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>2.5235444186886</v>
+        <v>2.125146502233143</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>2.180271768405873</v>
+        <v>2.027243325357371</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>2.810775029357338</v>
+        <v>2.80050358368383</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>2.629737230138654</v>
+        <v>2.201040599731755</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>2.079402966688948</v>
+        <v>2.238240717561708</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>2.198016798446819</v>
+        <v>2.660385470785292</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>2.486618127179658</v>
+        <v>2.593142578152616</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>2.283656196915638</v>
+        <v>2.888990088390749</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>2.233810375961881</v>
+        <v>2.579786571514336</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>2.281412653815328</v>
+        <v>2.973699746057983</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>2.384685435577576</v>
+        <v>2.701902100591798</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>2.131019244421994</v>
+        <v>2.889301530173704</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>2.931672707050145</v>
+        <v>2.490108998736798</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>2.134821275360046</v>
+        <v>2.318297330319961</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>2.736735329769759</v>
+        <v>2.395278270102357</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>2.569317743117293</v>
+        <v>2.467170955491201</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>2.722795810245736</v>
+        <v>2.618367329945345</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>2.614788652658534</v>
+        <v>2.759612705024921</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>2.225336082953253</v>
+        <v>2.688004851498182</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>2.351483875472067</v>
+        <v>2.988657385377355</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>2.303160934483438</v>
+        <v>2.379598680351423</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>2.976111517685519</v>
+        <v>2.776940454898584</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>2.175868586152718</v>
+        <v>2.39710913810621</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>2.939898354034409</v>
+        <v>2.050975143926387</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>2.305275405409191</v>
+        <v>2.55665720737036</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>2.771501889243132</v>
+        <v>2.704890935977042</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>2.304265621922508</v>
+        <v>2.396191981352526</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>2.817548002241609</v>
+        <v>2.655336406663668</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>2.758235869426084</v>
+        <v>2.985913813321347</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>2.599053725429978</v>
+        <v>2.865587142736671</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>2.092597099696563</v>
+        <v>2.56950369491901</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>2.129040535814612</v>
+        <v>2.426489072196389</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>2.834984173108562</v>
+        <v>2.80427096303797</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>2.783129133716641</v>
+        <v>2.43913158909552</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>2.177590576391466</v>
+        <v>2.88581373716643</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>2.411861801042171</v>
+        <v>2.808686435063448</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>2.900271987830718</v>
+        <v>2.484323382501699</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>2.344908509911884</v>
+        <v>2.089914179342792</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>2.180585862017136</v>
+        <v>2.356335611506838</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>2.583072885403102</v>
+        <v>2.618870297554614</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>2.296332342305217</v>
+        <v>2.091634485107622</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>2.166682743872486</v>
+        <v>2.073518669612282</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>2.993434749863258</v>
+        <v>2.886581442164879</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>2.760331155597561</v>
+        <v>2.064687190245161</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>2.40527406172166</v>
+        <v>2.24667515477455</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>2.059732292157058</v>
+        <v>2.836223575930033</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>2.79397307160295</v>
+        <v>2.746029321131902</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>2.418645821036546</v>
+        <v>2.303192776185164</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>2.045037750359191</v>
+        <v>2.732358148838847</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>2.155174445482048</v>
+        <v>2.390763883344679</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>2.665420485071726</v>
+        <v>2.777519753795417</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>2.614107762219695</v>
+        <v>2.887906213166871</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>2.444050244161235</v>
+        <v>2.340925955726363</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>2.414147980798288</v>
+        <v>2.333608215682911</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>2.173172672575479</v>
+        <v>2.404027648946748</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>2.768224914642806</v>
+        <v>2.226154250257293</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>2.170152877443364</v>
+        <v>2.246049799907496</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>2.704196273469578</v>
+        <v>2.612155533036557</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>2.071416775836836</v>
+        <v>2.538881057055251</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>2.180480752694406</v>
+        <v>2.19224052483614</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>2.346117272207434</v>
+        <v>2.408765214433152</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>2.705670772366052</v>
+        <v>2.075163115670094</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>2.324502031513944</v>
+        <v>2.970401494058921</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>2.596984171473186</v>
+        <v>2.672768616168249</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>2.134488515444164</v>
+        <v>2.48663513798811</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>2.425925650579814</v>
+        <v>2.603479783874637</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>2.384559895188114</v>
+        <v>2.188156744379463</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>2.660779305013564</v>
+        <v>2.030887884843806</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>2.334520099764874</v>
+        <v>2.111633194100784</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>2.016732170127452</v>
+        <v>2.834242869218355</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>2.707248931485124</v>
+        <v>2.928340901262716</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>2.450599963523363</v>
+        <v>2.653614649285934</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>2.183307367847061</v>
+        <v>2.379923780053016</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>2.040163124025504</v>
+        <v>2.547825382805943</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>2.101823158444743</v>
+        <v>2.506397176689825</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>2.305263429868532</v>
+        <v>2.960504803519187</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>2.923365105761992</v>
+        <v>2.181437258664108</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>2.955603744658875</v>
+        <v>2.446313934454549</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>2.855283065734877</v>
+        <v>2.223901242994967</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>2.399373664666974</v>
+        <v>2.307538892065153</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>2.4311931771757</v>
+        <v>2.335441287047943</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>2.230675755835942</v>
+        <v>2.10765907298167</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>2.946418852113998</v>
+        <v>2.129312215386715</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>2.808387841814076</v>
+        <v>2.693325473434133</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>2.416133633544753</v>
+        <v>2.945790941146036</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>2.328951672665042</v>
+        <v>2.381010022874285</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>2.600347618993717</v>
+        <v>2.394094972144432</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>2.555796083251924</v>
+        <v>2.814641769192539</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>2.547664136014437</v>
+        <v>2.679250293791698</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>2.510542786107782</v>
+        <v>2.817071217788567</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>2.519152919403097</v>
+        <v>2.391041777865216</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>2.277579297346358</v>
+        <v>2.719157358904468</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>2.712371492523374</v>
+        <v>2.170696904791358</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>2.546991281306854</v>
+        <v>2.304244385315256</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>2.998360717545789</v>
+        <v>2.627870206851099</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>2.664904442135189</v>
+        <v>2.900964176737385</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>2.734733817282634</v>
+        <v>2.521783749089619</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>2.79407478128568</v>
+        <v>2.261382965660586</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>2.28092501662984</v>
+        <v>2.743103691495277</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>2.2299324375054</v>
+        <v>2.159088583290688</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>2.88831111959248</v>
+        <v>2.833662716710676</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>2.260130077330158</v>
+        <v>2.264564091574043</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>2.517704128216724</v>
+        <v>2.033101370098126</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>2.987959930125647</v>
+        <v>2.418103610729033</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>2.665894854169758</v>
+        <v>2.127300016665465</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>2.8884718832753</v>
+        <v>2.618405309182829</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>2.52435385827814</v>
+        <v>2.365905771113755</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>2.930302907481011</v>
+        <v>2.414041906369047</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>2.627073385482742</v>
+        <v>2.313534016687246</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>2.753371085886502</v>
+        <v>2.200601139344758</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>2.423818562850525</v>
+        <v>2.668073767003519</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>2.065540657374022</v>
+        <v>2.095007734170823</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>2.402171993736908</v>
+        <v>2.606317793994277</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>2.516965138260447</v>
+        <v>2.045371959351157</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>2.947443367957577</v>
+        <v>2.455462455221105</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>2.860146506939002</v>
+        <v>2.816155197246943</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>2.189374619073786</v>
+        <v>2.550112599126502</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>2.96823002230347</v>
+        <v>2.029787412159886</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>2.856756008166066</v>
+        <v>2.248061719349892</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>2.944785837052982</v>
+        <v>2.376115006098733</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>2.641120742326486</v>
+        <v>2.752941727604051</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>2.747307835322923</v>
+        <v>2.427772256957613</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>2.093876319410781</v>
+        <v>2.494187752257595</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>2.551918974115654</v>
+        <v>2.79421964929514</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>2.75019087197125</v>
+        <v>2.792609749027243</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>2.853698505487955</v>
+        <v>2.028665664561125</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>2.291011377336226</v>
+        <v>2.800542321666467</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>2.087512281929257</v>
+        <v>2.501235001212327</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>2.104387530592286</v>
+        <v>2.772980577308892</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>2.02161139926926</v>
+        <v>2.391523316896504</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>2.006920033960657</v>
+        <v>2.515764854862006</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>2.647608748684025</v>
+        <v>2.574719898330668</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>2.361357185827687</v>
+        <v>2.372427106110239</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>2.793844432085856</v>
+        <v>2.758612450360255</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>2.245013873838525</v>
+        <v>2.18978708762897</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>2.756617155685976</v>
+        <v>2.423317939920342</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>2.015714595601481</v>
+        <v>2.404805341726941</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>2.735499914374738</v>
+        <v>2.4434885274288</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>2.272258502535299</v>
+        <v>2.805688585134909</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>2.75748371669349</v>
+        <v>2.691319871668289</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>2.157981589013423</v>
+        <v>2.901842991644902</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>2.176549887044501</v>
+        <v>2.237315008270847</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>2.966748067738265</v>
+        <v>2.033621359010843</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>2.946769546087581</v>
+        <v>2.975468890967992</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>2.941537753458562</v>
+        <v>2.185434984528349</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>2.10907738750875</v>
+        <v>2.756150300495149</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>2.88925669614244</v>
+        <v>2.301620019222149</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>2.542271346968489</v>
+        <v>2.223427717230157</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>2.403144345848117</v>
+        <v>2.036404821138574</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>2.660299203606687</v>
+        <v>2.170607085569068</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>2.387297483750721</v>
+        <v>2.382754976456241</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>2.106703019765455</v>
+        <v>2.904878466207851</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>2.245187795468461</v>
+        <v>2.051380895545028</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>2.370372586594442</v>
+        <v>2.029208378204097</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>2.480069126324218</v>
+        <v>2.769578144968647</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>2.252576869955516</v>
+        <v>2.907977856631968</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>2.937009062658568</v>
+        <v>2.207533871628407</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>2.378679840433658</v>
+        <v>2.716818290192037</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>2.117099296014447</v>
+        <v>2.178568837704894</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>2.064077855358397</v>
+        <v>2.556491062169676</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>2.651934349825917</v>
+        <v>2.51410828648631</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>2.484302739609583</v>
+        <v>2.949956680566681</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>2.257933270368577</v>
+        <v>2.657417448268883</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>2.795569666114501</v>
+        <v>2.399583682808164</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>2.587478307555875</v>
+        <v>2.888409358163157</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>2.902233693795631</v>
+        <v>2.668802268326093</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>2.266302133387901</v>
+        <v>2.305731557038375</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>2.882956326697907</v>
+        <v>2.374636955778261</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>2.988861943925786</v>
+        <v>2.676802058858221</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>2.238610603285804</v>
+        <v>2.1440743101956</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>2.933938736293738</v>
+        <v>2.795040022166503</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>2.338576931836016</v>
+        <v>2.106167534828618</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>2.739194829456618</v>
+        <v>2.645940717479996</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>2.113975476944949</v>
+        <v>2.96383567464163</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>2.732937991603292</v>
+        <v>2.64547773079601</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>2.576679092269443</v>
+        <v>2.828109605519558</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>2.84907783248098</v>
+        <v>2.289641883657259</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>2.215631557559508</v>
+        <v>2.305359861133099</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>2.105355386507056</v>
+        <v>2.571008630702957</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>2.52187055443202</v>
+        <v>2.019129483368</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>2.287488981800463</v>
+        <v>2.429214791610598</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>2.300132093022287</v>
+        <v>2.830415476885844</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>2.472686598184557</v>
+        <v>2.172244243823777</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>2.283034890721105</v>
+        <v>2.889566519737308</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>2.738780031774835</v>
+        <v>2.489530608705279</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>2.573600004150614</v>
+        <v>2.224547463233411</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>2.633432048712419</v>
+        <v>2.429304839174804</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>2.792518278680064</v>
+        <v>2.765565851537657</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>2.303875571696806</v>
+        <v>2.80680551630192</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>2.849292286035876</v>
+        <v>2.253478389002277</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>2.09500481159811</v>
+        <v>2.590911351895245</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>2.50470238765087</v>
+        <v>2.823788269566025</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>2.124379598259005</v>
+        <v>2.673055563515576</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>2.958129664636787</v>
+        <v>2.323960297722311</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>2.141922711818581</v>
+        <v>2.354328039324378</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>2.211772373647016</v>
+        <v>2.953071721045649</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>2.455898270609246</v>
+        <v>2.252798091418121</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>2.343250593882523</v>
+        <v>2.399626938707292</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>2.313291110048101</v>
+        <v>2.891358884780793</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>2.377391575304955</v>
+        <v>2.28380861224</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>2.527061043785507</v>
+        <v>2.03944728974814</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>2.5149630227414</v>
+        <v>2.22307283849281</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>2.921497628116716</v>
+        <v>2.59157118917026</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>2.44508364696881</v>
+        <v>2.389341125364482</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>2.446327266579825</v>
+        <v>2.987349497709094</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>2.554408792610731</v>
+        <v>2.944733869398315</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>2.554253511325077</v>
+        <v>2.663679361096282</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>2.096618505044416</v>
+        <v>2.947120085173526</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>2.200522976061093</v>
+        <v>2.597726183800683</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>2.604141731140205</v>
+        <v>2.321169949561699</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>2.964230991269818</v>
+        <v>2.807632528227068</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>2.926663121415702</v>
+        <v>2.665703912225155</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>2.80313161756685</v>
+        <v>2.721916666744928</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>2.331116725328696</v>
+        <v>2.082157073789879</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>2.333405018506743</v>
+        <v>2.300039133716255</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>2.066792815466329</v>
+        <v>2.692570304861795</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>2.240148338807256</v>
+        <v>2.054855542549411</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>2.614688228632578</v>
+        <v>2.95163346595862</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>2.738131194440317</v>
+        <v>2.18393871664879</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>2.675930292605547</v>
+        <v>2.049506925769182</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>2.386072265886831</v>
+        <v>2.671556365789453</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>2.734719890058742</v>
+        <v>2.857810419153819</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>2.978905685559469</v>
+        <v>2.80538903354604</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>2.226658932500575</v>
+        <v>2.96901236922561</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>2.932401063700123</v>
+        <v>2.423097764050543</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>2.807357852193629</v>
+        <v>2.62257712380801</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>2.396520774548027</v>
+        <v>2.132833319185789</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>2.013850998109887</v>
+        <v>2.412934396059641</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>2.790256644482855</v>
+        <v>2.064382803897554</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>2.860708936398657</v>
+        <v>2.240982596536456</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>2.70083976014658</v>
+        <v>2.002710389428032</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>2.003517081662005</v>
+        <v>2.963467707209425</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>2.480712666750402</v>
+        <v>2.603579620844598</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>2.402312863265496</v>
+        <v>2.742253499568654</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>2.914823330879259</v>
+        <v>2.176863893650181</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>2.210200420126236</v>
+        <v>2.757419832684024</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>2.519952356193024</v>
+        <v>2.976590308215983</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>2.771252120865938</v>
+        <v>2.982278539364513</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>2.034322185455467</v>
+        <v>2.155525549890465</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>2.280094668089531</v>
+        <v>2.086027350650354</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>2.246299254117153</v>
+        <v>2.752126989900354</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>2.490810516126553</v>
+        <v>2.27995308969839</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>2.928411876317921</v>
+        <v>2.831980103283753</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>2.840438274127432</v>
+        <v>2.94088387303844</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>2.399040538825248</v>
+        <v>2.406417800910082</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>2.330244724740947</v>
+        <v>2.243764839520678</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>2.562943614129554</v>
+        <v>2.34428768856794</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>2.654141791069481</v>
+        <v>2.102578308519837</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>2.817041647189641</v>
+        <v>2.050211349150055</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>2.674989461523733</v>
+        <v>2.253120366705645</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>2.756902801239079</v>
+        <v>2.596980510502339</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>2.932394274008231</v>
+        <v>2.397837066393881</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>2.707824669400212</v>
+        <v>2.005275304914647</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>2.178548999701575</v>
+        <v>2.259590200276586</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>2.432959589955352</v>
+        <v>2.354688763975067</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>2.373370735403376</v>
+        <v>2.888660192436573</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>2.959264282694547</v>
+        <v>2.782638894756388</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>2.083858167701891</v>
+        <v>2.454585839089681</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>2.370294630407964</v>
+        <v>2.20067905377291</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
-        <v>2.690484702243602</v>
+        <v>2.251516685624608</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>2.834973529601064</v>
+        <v>2.86057858294496</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>2.693826584492221</v>
+        <v>2.64424547814954</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="n">
-        <v>2.249629704259509</v>
+        <v>2.343575809520652</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>2.706840462169792</v>
+        <v>2.933492713061214</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>2.853319632931869</v>
+        <v>2.430122869476866</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>2.339265637093259</v>
+        <v>2.44874163238438</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>2.687489634517715</v>
+        <v>2.989753884173433</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>2.68662925884061</v>
+        <v>2.195777455209727</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>2.167671243002502</v>
+        <v>2.554484115401508</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
-        <v>2.112740634409349</v>
+        <v>2.285899635420126</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>2.384509185190637</v>
+        <v>2.422030086811501</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>2.112600012028484</v>
+        <v>2.517971669547138</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>2.784576757062224</v>
+        <v>2.864849242727544</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>2.974930823950066</v>
+        <v>2.703850062489242</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>2.91392766177157</v>
+        <v>2.393498204602056</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>2.959424911143436</v>
+        <v>2.121710460905898</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>2.349303127739407</v>
+        <v>2.604752663989378</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>2.723237610781418</v>
+        <v>2.67510904597248</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>2.783812850659704</v>
+        <v>2.241124882320081</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>2.333215850228753</v>
+        <v>2.815263685553283</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>2.192508688798447</v>
+        <v>2.465250534587268</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>2.39423097885893</v>
+        <v>2.993517755598035</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>2.501195721084871</v>
+        <v>2.324095513397663</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>2.399514256158213</v>
+        <v>2.783602907124656</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>2.288171204068477</v>
+        <v>2.349323360958224</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>2.254542957438264</v>
+        <v>2.871982399835646</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>2.827499019379756</v>
+        <v>2.780841703167654</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>2.57337343317319</v>
+        <v>2.588967813812993</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>2.973176189303405</v>
+        <v>2.864712530729392</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>2.728968040836807</v>
+        <v>2.97057343512907</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="n">
-        <v>2.067970995828711</v>
+        <v>2.769091269241999</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="n">
-        <v>2.301119295872639</v>
+        <v>2.398016336613139</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="n">
-        <v>2.40729999760531</v>
+        <v>2.028071327120418</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="n">
-        <v>2.72385189503719</v>
+        <v>2.143155491941733</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="n">
-        <v>2.831719956445776</v>
+        <v>2.551130365617418</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>2.484487417245797</v>
+        <v>2.019377353723856</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
-        <v>2.413828167221224</v>
+        <v>2.397614932518102</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="n">
-        <v>2.964581743756989</v>
+        <v>2.337035557708999</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>2.858593079264686</v>
+        <v>2.432094314935418</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
-        <v>2.527301847227033</v>
+        <v>2.288685564806557</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>2.497270492483961</v>
+        <v>2.877896435432273</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="n">
-        <v>2.043325579227444</v>
+        <v>2.495587074175065</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>2.877179920423381</v>
+        <v>2.273166239811081</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="n">
-        <v>2.556782916534414</v>
+        <v>2.649546741890418</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="n">
-        <v>2.905538986907008</v>
+        <v>2.776590927425001</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="n">
-        <v>2.202170363764695</v>
+        <v>2.027027381377696</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>2.596374446732803</v>
+        <v>2.628991923705889</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>2.40721245451854</v>
+        <v>2.123085657142373</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="n">
-        <v>2.844960609098135</v>
+        <v>2.803155305185375</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="n">
-        <v>2.214008771583892</v>
+        <v>2.564085065947895</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="n">
-        <v>2.774588779913435</v>
+        <v>2.4706167737875</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="n">
-        <v>2.476163926927101</v>
+        <v>2.486279778516029</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>2.494396981680324</v>
+        <v>2.72730857564297</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="n">
-        <v>2.115496024164946</v>
+        <v>2.996067326921898</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="n">
-        <v>2.749023923531343</v>
+        <v>2.851747404913513</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>2.231998110809842</v>
+        <v>2.385854071623453</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>2.636385829381369</v>
+        <v>2.874533834011144</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>2.063627235571735</v>
+        <v>2.132234837695246</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="n">
-        <v>2.362085882829343</v>
+        <v>2.68621214431727</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="n">
-        <v>2.478619399451564</v>
+        <v>2.989280211436593</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="n">
-        <v>2.406912814189754</v>
+        <v>2.696345896399457</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="n">
-        <v>2.225110442591808</v>
+        <v>2.331750006321492</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="n">
-        <v>2.627897432997679</v>
+        <v>2.218636502610044</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>2.581425912452518</v>
+        <v>2.92938475708781</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
-        <v>2.115181521840523</v>
+        <v>2.220421620466698</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="n">
-        <v>2.033526238412636</v>
+        <v>2.315691209487402</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>2.454704723279231</v>
+        <v>2.712071868884991</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="n">
-        <v>2.399514293765515</v>
+        <v>2.81383739269248</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>2.266630770749611</v>
+        <v>2.588137189258821</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="n">
-        <v>2.571820630512828</v>
+        <v>2.432720461038941</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="n">
-        <v>2.937930644590152</v>
+        <v>2.230995186016084</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="n">
-        <v>2.847474479167743</v>
+        <v>2.390129801439973</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>2.326436891148235</v>
+        <v>2.101135838716747</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="n">
-        <v>2.768444480395547</v>
+        <v>2.049996062435597</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>2.795735108140846</v>
+        <v>2.124004426338514</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>2.655464485245512</v>
+        <v>2.405296508645707</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="n">
-        <v>2.940112373113031</v>
+        <v>2.427829286042746</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="n">
-        <v>2.370526268150306</v>
+        <v>2.866813348389896</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>2.026054495658381</v>
+        <v>2.485426637094827</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>2.871058269926753</v>
+        <v>2.787564629123265</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="n">
-        <v>2.692994612560032</v>
+        <v>2.599584698005373</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="n">
-        <v>2.723788442753319</v>
+        <v>2.916148995858611</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>2.915900845511494</v>
+        <v>2.919159553309193</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="n">
-        <v>2.946580356528877</v>
+        <v>2.286710291528713</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>2.813628872140152</v>
+        <v>2.873503629542387</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="n">
-        <v>2.406714599466764</v>
+        <v>2.813992577580239</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="n">
-        <v>2.973323936820966</v>
+        <v>2.225842416622623</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="n">
-        <v>2.247263135122834</v>
+        <v>2.4432778462696</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>2.085594365466628</v>
+        <v>2.832628119586944</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="n">
-        <v>2.855189796742079</v>
+        <v>2.018812119494986</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="n">
-        <v>2.236436632373154</v>
+        <v>2.786620220973294</v>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="n">
-        <v>2.25023321780315</v>
+        <v>2.574253327372964</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="n">
-        <v>2.236291335739614</v>
+        <v>2.926173078300389</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="n">
-        <v>2.198554156623882</v>
+        <v>2.054208285767678</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>2.844229552912496</v>
+        <v>2.785528575996802</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="n">
-        <v>2.644741484668455</v>
+        <v>2.201277718013578</v>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="n">
-        <v>2.700824316981282</v>
+        <v>2.406089044100857</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>2.308457338225811</v>
+        <v>2.571098029086005</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="n">
-        <v>2.143501689662306</v>
+        <v>2.881398391978792</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>2.771963713954044</v>
+        <v>2.92154362466328</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="n">
-        <v>2.002659943542864</v>
+        <v>2.885771178154566</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="n">
-        <v>2.967898377895451</v>
+        <v>2.071780128182895</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="n">
-        <v>2.097691732500001</v>
+        <v>2.030977663822876</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="n">
-        <v>2.222212618244846</v>
+        <v>2.432567921974224</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="n">
-        <v>2.371681831529301</v>
+        <v>2.210138345282429</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="n">
-        <v>2.14957484958819</v>
+        <v>2.538393340306768</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="n">
-        <v>2.381529562675651</v>
+        <v>2.38690025257518</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="n">
-        <v>2.322020447987633</v>
+        <v>2.736024692898575</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="n">
-        <v>2.423903149134126</v>
+        <v>2.63412714566549</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>2.141372687987939</v>
+        <v>2.559137200085759</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>2.39077834238809</v>
+        <v>2.803578767467789</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="n">
-        <v>2.43877949402087</v>
+        <v>2.895584755595802</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="n">
-        <v>2.31951333237107</v>
+        <v>2.23886453384457</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="n">
-        <v>2.937105601890662</v>
+        <v>2.41324720977372</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>2.574890841047902</v>
+        <v>2.466756610702246</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="n">
-        <v>2.17098888845541</v>
+        <v>2.728328968066625</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="n">
-        <v>2.940749744735453</v>
+        <v>2.892271870425671</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>2.851277685856699</v>
+        <v>2.877768790307091</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="n">
-        <v>2.292208506228552</v>
+        <v>2.214480866724802</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="n">
-        <v>2.252512561705068</v>
+        <v>2.638994396075663</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="n">
-        <v>2.393604045574378</v>
+        <v>2.258605359027849</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="n">
-        <v>2.735300773890782</v>
+        <v>2.873050173101706</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="n">
-        <v>2.167261589052465</v>
+        <v>2.461575965017749</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="n">
-        <v>2.202208987936239</v>
+        <v>2.861133127351514</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="n">
-        <v>2.29194920867328</v>
+        <v>2.912381951637084</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="n">
-        <v>2.121367472740406</v>
+        <v>2.031320679577531</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="n">
-        <v>2.454405091022378</v>
+        <v>2.005309033203827</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>2.854369800044326</v>
+        <v>2.7288142918431</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>2.973009528876938</v>
+        <v>2.246405960861477</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="n">
-        <v>2.430671786932397</v>
+        <v>2.312432077479284</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>2.643421483576951</v>
+        <v>2.330596399429748</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="n">
-        <v>2.932821221213942</v>
+        <v>2.548876178856353</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>2.768117993792045</v>
+        <v>2.645783257154933</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="n">
-        <v>2.153307762397844</v>
+        <v>2.22667219079664</v>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="n">
-        <v>2.410835396622589</v>
+        <v>2.831530213497755</v>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="n">
-        <v>2.330389597071751</v>
+        <v>2.420246155712146</v>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="n">
-        <v>2.649023350728783</v>
+        <v>2.823832554500484</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="n">
-        <v>2.018319656524666</v>
+        <v>2.911614274324424</v>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="n">
-        <v>2.823037674539674</v>
+        <v>2.700203626922098</v>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="n">
-        <v>2.530644405633568</v>
+        <v>2.405224495195185</v>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="n">
-        <v>2.764963898653729</v>
+        <v>2.967453435454629</v>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="n">
-        <v>2.018104759144888</v>
+        <v>2.925983037256715</v>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="n">
-        <v>2.438370414270602</v>
+        <v>2.89126518859131</v>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="n">
-        <v>2.477595958459007</v>
+        <v>2.23907314435239</v>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="n">
-        <v>2.303289936725333</v>
+        <v>2.498461996331455</v>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="n">
-        <v>2.601410011167523</v>
+        <v>2.126274159948998</v>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="n">
-        <v>2.775081863086875</v>
+        <v>2.63006127821467</v>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="n">
-        <v>2.450115700425227</v>
+        <v>2.575194420402401</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="n">
-        <v>2.950070995862049</v>
+        <v>2.090649523229102</v>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="n">
-        <v>2.313281620945781</v>
+        <v>2.638841041225406</v>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="n">
-        <v>2.346889186586591</v>
+        <v>2.320333297942917</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="n">
-        <v>2.177336347842292</v>
+        <v>2.759913984762068</v>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="n">
-        <v>2.185990675283882</v>
+        <v>2.356328018256901</v>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="n">
-        <v>2.317140840072604</v>
+        <v>2.208247857296961</v>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="n">
-        <v>2.216696173305416</v>
+        <v>2.772670108183139</v>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="n">
-        <v>2.273645017374811</v>
+        <v>2.869827351319588</v>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="n">
-        <v>2.927690565827668</v>
+        <v>2.277744075501198</v>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="n">
-        <v>2.296725946401078</v>
+        <v>2.699076259570215</v>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="n">
-        <v>2.812072625626671</v>
+        <v>2.306279399744888</v>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="n">
-        <v>2.096213621447926</v>
+        <v>2.020705008440606</v>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="n">
-        <v>2.653599520144994</v>
+        <v>2.333767459715431</v>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>2.641619849981248</v>
+        <v>2.985338055127768</v>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="n">
-        <v>2.683524405679992</v>
+        <v>2.159728221590013</v>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="n">
-        <v>2.630133648124371</v>
+        <v>2.273600982546153</v>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="n">
-        <v>2.954147597113446</v>
+        <v>2.457839772916035</v>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="n">
-        <v>2.303678114608611</v>
+        <v>2.732085806036638</v>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="n">
-        <v>2.559242020749398</v>
+        <v>2.531775579217955</v>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="n">
-        <v>2.952906101962812</v>
+        <v>2.304140204005167</v>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="n">
-        <v>2.185058327348958</v>
+        <v>2.888927920302261</v>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="n">
-        <v>2.27055243736968</v>
+        <v>2.357319463014256</v>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="n">
-        <v>2.235028170838824</v>
+        <v>2.311311460509777</v>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="n">
-        <v>2.008089055160068</v>
+        <v>2.652359085152578</v>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="n">
-        <v>2.678908533621501</v>
+        <v>2.603319974353167</v>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="n">
-        <v>2.952583296957774</v>
+        <v>2.301226163926863</v>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="n">
-        <v>2.518490187438456</v>
+        <v>2.373503467205147</v>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>2.205452433077848</v>
+        <v>2.614724778478341</v>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="n">
-        <v>2.356223387872598</v>
+        <v>2.198987366379334</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="n">
-        <v>2.763248431551039</v>
+        <v>2.756926617559396</v>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="n">
-        <v>2.007660410398324</v>
+        <v>2.70389410607858</v>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="n">
-        <v>2.653589003926074</v>
+        <v>2.637407193854286</v>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="n">
-        <v>2.745532944866714</v>
+        <v>2.529531212370775</v>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="n">
-        <v>2.137438258243285</v>
+        <v>2.719912663088825</v>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="n">
-        <v>2.655535874906395</v>
+        <v>2.362583792997631</v>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="n">
-        <v>2.310754057632133</v>
+        <v>2.841246358087518</v>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="n">
-        <v>2.313111951399495</v>
+        <v>2.931555601914784</v>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="n">
-        <v>2.075032935588025</v>
+        <v>2.29684900503728</v>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="n">
-        <v>2.642506782055816</v>
+        <v>2.224390624910681</v>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>2.057658846704194</v>
+        <v>2.994323513867908</v>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="n">
-        <v>2.63506567902246</v>
+        <v>2.044232618563302</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="n">
-        <v>2.543895369196402</v>
+        <v>2.157383499983649</v>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="n">
-        <v>2.20870796931609</v>
+        <v>2.584758409732169</v>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="n">
-        <v>2.215822935100099</v>
+        <v>2.059527151495892</v>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="n">
-        <v>2.929504858529719</v>
+        <v>2.037599822048299</v>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="n">
-        <v>2.491785512236499</v>
+        <v>2.1398307130895</v>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="n">
-        <v>2.431645532793707</v>
+        <v>2.201723128166615</v>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="n">
-        <v>2.217290594311051</v>
+        <v>2.944584023316922</v>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="n">
-        <v>2.994933596127431</v>
+        <v>2.353148309113799</v>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="n">
-        <v>2.822974229823742</v>
+        <v>2.565293648838424</v>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="n">
-        <v>2.943171681695266</v>
+        <v>2.449780647493657</v>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="n">
-        <v>2.705045166693257</v>
+        <v>2.957609837967699</v>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="n">
-        <v>2.972973697181703</v>
+        <v>2.191391137604737</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="n">
-        <v>2.770309739376348</v>
+        <v>2.591481321116921</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="n">
-        <v>2.443960925219661</v>
+        <v>2.466226717992986</v>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="n">
-        <v>2.962299440916259</v>
+        <v>2.03207826814627</v>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="n">
-        <v>2.496768823599431</v>
+        <v>2.801101081859355</v>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="n">
-        <v>2.139581499426091</v>
+        <v>2.559050432879018</v>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="n">
-        <v>2.176313598634935</v>
+        <v>2.906793240579067</v>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="n">
-        <v>2.448458205652027</v>
+        <v>2.904998256279395</v>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="n">
-        <v>2.139934596421407</v>
+        <v>2.760286560802647</v>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="n">
-        <v>2.993179002329003</v>
+        <v>2.374363635379485</v>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="n">
-        <v>2.078191386153359</v>
+        <v>2.907678543337498</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="n">
-        <v>2.319698734330925</v>
+        <v>2.093597638932092</v>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="n">
-        <v>2.255137716062282</v>
+        <v>2.260608547193247</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="n">
-        <v>2.759865852739654</v>
+        <v>2.949408156787471</v>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="n">
-        <v>2.672645714888415</v>
+        <v>2.593795076218885</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="n">
-        <v>2.977670656026295</v>
+        <v>2.235503179319378</v>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="n">
-        <v>2.540881274165761</v>
+        <v>2.079007913466342</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="n">
-        <v>2.841619025673261</v>
+        <v>2.413959353394032</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="n">
-        <v>2.039923924697913</v>
+        <v>2.636422376238014</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="n">
-        <v>2.554639457127721</v>
+        <v>2.336973431973798</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="n">
-        <v>2.821758980417952</v>
+        <v>2.2646407791525</v>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="n">
-        <v>2.520204275188505</v>
+        <v>2.741889554126954</v>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="n">
-        <v>2.834836422113626</v>
+        <v>2.216150554082191</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="n">
-        <v>2.757621885091808</v>
+        <v>2.223985499707858</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="n">
-        <v>2.428097815531065</v>
+        <v>2.658752899050474</v>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="n">
-        <v>2.616170339824001</v>
+        <v>2.098650616525543</v>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="n">
-        <v>2.051850236717105</v>
+        <v>2.907833279387397</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="n">
-        <v>2.339246927775264</v>
+        <v>2.088139876255271</v>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="n">
-        <v>2.432182009128373</v>
+        <v>2.188620119415249</v>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="n">
-        <v>2.726032905069203</v>
+        <v>2.11383268746121</v>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="n">
-        <v>2.902534321341582</v>
+        <v>2.1825159344051</v>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="n">
-        <v>2.467916323528876</v>
+        <v>2.917430748569631</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="n">
-        <v>2.547261020682787</v>
+        <v>2.809492344805812</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="n">
-        <v>2.718005929665693</v>
+        <v>2.460904280691649</v>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="n">
-        <v>2.051744766452495</v>
+        <v>2.14279327547072</v>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="n">
-        <v>2.219296031499493</v>
+        <v>2.598939963044872</v>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="n">
-        <v>2.184465061481188</v>
+        <v>2.281226181788694</v>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="n">
-        <v>2.15890744657902</v>
+        <v>2.976870786574206</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="n">
-        <v>2.559520431993266</v>
+        <v>2.292335712415719</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="n">
-        <v>2.759901659483803</v>
+        <v>2.901237783751893</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="n">
-        <v>2.281758198989302</v>
+        <v>2.294008628462716</v>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="n">
-        <v>2.129534642530424</v>
+        <v>2.412916516099195</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="n">
-        <v>2.946128250905275</v>
+        <v>2.010336909748279</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="n">
-        <v>2.644067121740833</v>
+        <v>2.015166962516356</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="n">
-        <v>2.444860813746777</v>
+        <v>2.90989956336078</v>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="n">
-        <v>2.776295806492047</v>
+        <v>2.412449088420513</v>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="n">
-        <v>2.064727886648797</v>
+        <v>2.747574437364348</v>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="n">
-        <v>2.450455153461266</v>
+        <v>2.825203789910506</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="n">
-        <v>2.592048295404885</v>
+        <v>2.021618051793383</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="n">
-        <v>2.669228634331116</v>
+        <v>2.989363406961279</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="n">
-        <v>2.846163159016358</v>
+        <v>2.96688456504381</v>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="n">
-        <v>2.574495864962898</v>
+        <v>2.408334079366752</v>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="n">
-        <v>2.506593035733612</v>
+        <v>2.753791846318097</v>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="n">
-        <v>2.107576016525738</v>
+        <v>2.608914726451935</v>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="n">
-        <v>2.646415491256319</v>
+        <v>2.765497379507558</v>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="n">
-        <v>2.324924452745388</v>
+        <v>2.445117410098925</v>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>2.488236492721513</v>
+        <v>2.953963442358244</v>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="n">
-        <v>2.751516406222464</v>
+        <v>2.469752431918319</v>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="n">
-        <v>2.313235942257242</v>
+        <v>2.147110629451196</v>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="n">
-        <v>2.052681257181689</v>
+        <v>2.106676690052073</v>
       </c>
     </row>
     <row r="1421">
       <c r="A1421" t="n">
-        <v>2.772536605024615</v>
+        <v>2.460610693972707</v>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="n">
-        <v>2.189187500462817</v>
+        <v>2.805720634304218</v>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="n">
-        <v>2.846963597646673</v>
+        <v>2.140372448047289</v>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="n">
-        <v>2.160910991498905</v>
+        <v>2.39502847820927</v>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="n">
-        <v>2.498844658263772</v>
+        <v>2.205585160939215</v>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="n">
-        <v>2.886473437864597</v>
+        <v>2.102586200723434</v>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="n">
-        <v>2.865394187440188</v>
+        <v>2.54734847972587</v>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="n">
-        <v>2.026733587216897</v>
+        <v>2.905442836466252</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="n">
-        <v>2.398460074603061</v>
+        <v>2.493188923990146</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="n">
-        <v>2.158511060853644</v>
+        <v>2.176506086229922</v>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="n">
-        <v>2.553771905439199</v>
+        <v>2.809756200991607</v>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="n">
-        <v>2.208772005859299</v>
+        <v>2.57176895696841</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="n">
-        <v>2.549464107702813</v>
+        <v>2.895316228506961</v>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="n">
-        <v>2.901254808677168</v>
+        <v>2.077404483454893</v>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="n">
-        <v>2.269682368119402</v>
+        <v>2.24785107015555</v>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="n">
-        <v>2.259839189759749</v>
+        <v>2.751909183692451</v>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="n">
-        <v>2.234367369832058</v>
+        <v>2.418203843762118</v>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="n">
-        <v>2.110088880236209</v>
+        <v>2.000421704427354</v>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="n">
-        <v>2.299121111540712</v>
+        <v>2.375042024534276</v>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="n">
-        <v>2.606591988322211</v>
+        <v>2.426407960769219</v>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="n">
-        <v>2.17085506178907</v>
+        <v>2.303651236944383</v>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" t="n">
-        <v>2.755856562517818</v>
+        <v>2.567050980842375</v>
       </c>
     </row>
   </sheetData>
